--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2236C5E5-7068-2440-A29E-4E12D375B1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D735C33F-FBAF-B945-8131-B3A550D31693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37660" yWindow="460" windowWidth="36640" windowHeight="19560"/>
+    <workbookView xWindow="-38240" yWindow="6300" windowWidth="37660" windowHeight="14160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="178">
   <si>
     <t>datasetID</t>
   </si>
@@ -548,12 +548,21 @@
   </si>
   <si>
     <t>figure or table data taken from</t>
+  </si>
+  <si>
+    <t>seed.storage</t>
+  </si>
+  <si>
+    <t>storage.temp</t>
+  </si>
+  <si>
+    <t>storage.humidity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1434,10 +1443,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C65" sqref="A65:C86"/>
     </sheetView>
   </sheetViews>
@@ -1952,7 +1961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1966,17 +1975,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AO65"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
+      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2023,73 +2032,82 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>177</v>
+      </c>
+      <c r="R1" t="s">
+        <v>176</v>
+      </c>
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>170</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -2126,59 +2144,59 @@
       <c r="N2">
         <v>2009</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>45</v>
       </c>
-      <c r="S2">
+      <c r="V2">
         <v>20</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
         <v>46</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>49</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <v>3</v>
       </c>
-      <c r="AD2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE2">
+      <c r="AG2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH2">
         <v>24</v>
       </c>
-      <c r="AG2">
+      <c r="AJ2">
         <v>2</v>
       </c>
-      <c r="AH2">
+      <c r="AK2">
         <v>3</v>
       </c>
-      <c r="AI2">
+      <c r="AL2">
         <v>25</v>
       </c>
-      <c r="AJ2">
+      <c r="AM2">
         <v>25</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AN2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -2215,59 +2233,59 @@
       <c r="N3">
         <v>2009</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>45</v>
       </c>
-      <c r="S3">
+      <c r="V3">
         <v>20</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
         <v>53</v>
       </c>
-      <c r="W3">
+      <c r="Z3">
         <v>100</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>47</v>
       </c>
-      <c r="Y3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" t="s">
         <v>48</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AE3" t="s">
         <v>49</v>
       </c>
-      <c r="AC3">
+      <c r="AF3">
         <v>3</v>
       </c>
-      <c r="AD3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE3">
+      <c r="AG3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH3">
         <v>64</v>
       </c>
-      <c r="AG3">
+      <c r="AJ3">
         <v>4</v>
       </c>
-      <c r="AH3">
+      <c r="AK3">
         <v>3</v>
       </c>
-      <c r="AI3">
+      <c r="AL3">
         <v>25</v>
       </c>
-      <c r="AJ3">
+      <c r="AM3">
         <v>25</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AN3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -2304,59 +2322,59 @@
       <c r="N4">
         <v>2009</v>
       </c>
-      <c r="P4" t="s">
+      <c r="S4" t="s">
         <v>45</v>
       </c>
-      <c r="S4">
+      <c r="V4">
         <v>20</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
         <v>53</v>
       </c>
-      <c r="W4">
+      <c r="Z4">
         <v>150</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>47</v>
       </c>
-      <c r="Y4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD4" t="s">
         <v>48</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AE4" t="s">
         <v>49</v>
       </c>
-      <c r="AC4">
+      <c r="AF4">
         <v>3</v>
       </c>
-      <c r="AD4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE4">
+      <c r="AG4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH4">
         <v>63</v>
       </c>
-      <c r="AG4">
+      <c r="AJ4">
         <v>3</v>
       </c>
-      <c r="AH4">
+      <c r="AK4">
         <v>3</v>
       </c>
-      <c r="AI4">
+      <c r="AL4">
         <v>25</v>
       </c>
-      <c r="AJ4">
+      <c r="AM4">
         <v>25</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AN4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -2393,59 +2411,59 @@
       <c r="N5">
         <v>2009</v>
       </c>
-      <c r="P5" t="s">
+      <c r="S5" t="s">
         <v>45</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>20</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
         <v>53</v>
       </c>
-      <c r="W5">
+      <c r="Z5">
         <v>250</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>47</v>
       </c>
-      <c r="Y5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD5" t="s">
         <v>48</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AE5" t="s">
         <v>49</v>
       </c>
-      <c r="AC5">
+      <c r="AF5">
         <v>3</v>
       </c>
-      <c r="AD5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE5">
+      <c r="AG5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH5">
         <v>75</v>
       </c>
-      <c r="AG5">
+      <c r="AJ5">
         <v>6</v>
       </c>
-      <c r="AH5">
+      <c r="AK5">
         <v>3</v>
       </c>
-      <c r="AI5">
+      <c r="AL5">
         <v>25</v>
       </c>
-      <c r="AJ5">
+      <c r="AM5">
         <v>25</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AN5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -2482,59 +2500,59 @@
       <c r="N6">
         <v>2009</v>
       </c>
-      <c r="P6" t="s">
+      <c r="S6" t="s">
         <v>45</v>
       </c>
-      <c r="S6">
+      <c r="V6">
         <v>20</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
         <v>46</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="s">
         <v>47</v>
       </c>
-      <c r="Y6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD6" t="s">
         <v>48</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AE6" t="s">
         <v>49</v>
       </c>
-      <c r="AC6">
+      <c r="AF6">
         <v>3</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AG6" t="s">
         <v>56</v>
       </c>
-      <c r="AE6">
+      <c r="AH6">
         <v>14.7</v>
       </c>
-      <c r="AG6">
+      <c r="AJ6">
         <v>0.8</v>
       </c>
-      <c r="AH6">
+      <c r="AK6">
         <v>3</v>
       </c>
-      <c r="AI6">
+      <c r="AL6">
         <v>25</v>
       </c>
-      <c r="AJ6">
+      <c r="AM6">
         <v>25</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AN6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2571,59 +2589,59 @@
       <c r="N7">
         <v>2009</v>
       </c>
-      <c r="P7" t="s">
+      <c r="S7" t="s">
         <v>45</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>20</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="s">
         <v>53</v>
       </c>
-      <c r="W7">
+      <c r="Z7">
         <v>100</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>47</v>
       </c>
-      <c r="Y7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD7" t="s">
         <v>48</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AE7" t="s">
         <v>49</v>
       </c>
-      <c r="AC7">
+      <c r="AF7">
         <v>3</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AG7" t="s">
         <v>56</v>
       </c>
-      <c r="AE7">
+      <c r="AH7">
         <v>10.9</v>
       </c>
-      <c r="AG7">
+      <c r="AJ7">
         <v>0.8</v>
       </c>
-      <c r="AH7">
+      <c r="AK7">
         <v>3</v>
       </c>
-      <c r="AI7">
+      <c r="AL7">
         <v>25</v>
       </c>
-      <c r="AJ7">
+      <c r="AM7">
         <v>25</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AN7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -2660,59 +2678,59 @@
       <c r="N8">
         <v>2009</v>
       </c>
-      <c r="P8" t="s">
+      <c r="S8" t="s">
         <v>45</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>20</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
         <v>53</v>
       </c>
-      <c r="W8">
+      <c r="Z8">
         <v>150</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>47</v>
       </c>
-      <c r="Y8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD8" t="s">
         <v>48</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AE8" t="s">
         <v>49</v>
       </c>
-      <c r="AC8">
+      <c r="AF8">
         <v>3</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AG8" t="s">
         <v>56</v>
       </c>
-      <c r="AE8">
+      <c r="AH8">
         <v>9.5</v>
       </c>
-      <c r="AG8">
+      <c r="AJ8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AH8">
+      <c r="AK8">
         <v>3</v>
       </c>
-      <c r="AI8">
+      <c r="AL8">
         <v>25</v>
       </c>
-      <c r="AJ8">
+      <c r="AM8">
         <v>25</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AN8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -2749,59 +2767,59 @@
       <c r="N9">
         <v>2009</v>
       </c>
-      <c r="P9" t="s">
+      <c r="S9" t="s">
         <v>45</v>
       </c>
-      <c r="S9">
+      <c r="V9">
         <v>20</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
         <v>53</v>
       </c>
-      <c r="W9">
+      <c r="Z9">
         <v>250</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD9" t="s">
         <v>48</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AE9" t="s">
         <v>49</v>
       </c>
-      <c r="AC9">
+      <c r="AF9">
         <v>3</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AG9" t="s">
         <v>56</v>
       </c>
-      <c r="AE9">
+      <c r="AH9">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AG9">
+      <c r="AJ9">
         <v>0.4</v>
       </c>
-      <c r="AH9">
+      <c r="AK9">
         <v>3</v>
       </c>
-      <c r="AI9">
+      <c r="AL9">
         <v>25</v>
       </c>
-      <c r="AJ9">
+      <c r="AM9">
         <v>25</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AN9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -2838,62 +2856,62 @@
       <c r="N10">
         <v>2009</v>
       </c>
-      <c r="P10" t="s">
+      <c r="S10" t="s">
         <v>57</v>
       </c>
-      <c r="Q10">
+      <c r="T10">
         <v>4</v>
       </c>
-      <c r="R10">
+      <c r="U10">
         <v>15</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>20</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="s">
         <v>46</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="s">
         <v>47</v>
       </c>
-      <c r="Y10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD10" t="s">
         <v>48</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AE10" t="s">
         <v>49</v>
       </c>
-      <c r="AD10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE10">
+      <c r="AG10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH10">
         <v>56</v>
       </c>
-      <c r="AG10">
+      <c r="AJ10">
         <v>4</v>
       </c>
-      <c r="AH10">
+      <c r="AK10">
         <v>3</v>
       </c>
-      <c r="AI10">
+      <c r="AL10">
         <v>25</v>
       </c>
-      <c r="AJ10">
+      <c r="AM10">
         <v>25</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AN10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2930,62 +2948,62 @@
       <c r="N11">
         <v>2009</v>
       </c>
-      <c r="P11" t="s">
+      <c r="S11" t="s">
         <v>57</v>
       </c>
-      <c r="Q11">
+      <c r="T11">
         <v>4</v>
       </c>
-      <c r="R11">
+      <c r="U11">
         <v>15</v>
       </c>
-      <c r="S11">
+      <c r="V11">
         <v>20</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="s">
         <v>53</v>
       </c>
-      <c r="W11">
+      <c r="Z11">
         <v>100</v>
       </c>
-      <c r="X11" t="s">
+      <c r="AA11" t="s">
         <v>47</v>
       </c>
-      <c r="Y11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD11" t="s">
         <v>48</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AE11" t="s">
         <v>49</v>
       </c>
-      <c r="AD11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE11">
+      <c r="AG11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH11">
         <v>91</v>
       </c>
-      <c r="AG11">
+      <c r="AJ11">
         <v>5</v>
       </c>
-      <c r="AH11">
+      <c r="AK11">
         <v>3</v>
       </c>
-      <c r="AI11">
+      <c r="AL11">
         <v>25</v>
       </c>
-      <c r="AJ11">
+      <c r="AM11">
         <v>25</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AN11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -3022,62 +3040,62 @@
       <c r="N12">
         <v>2009</v>
       </c>
-      <c r="P12" t="s">
+      <c r="S12" t="s">
         <v>57</v>
       </c>
-      <c r="Q12">
+      <c r="T12">
         <v>4</v>
       </c>
-      <c r="R12">
+      <c r="U12">
         <v>15</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <v>20</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="s">
         <v>53</v>
       </c>
-      <c r="W12">
+      <c r="Z12">
         <v>150</v>
       </c>
-      <c r="X12" t="s">
+      <c r="AA12" t="s">
         <v>47</v>
       </c>
-      <c r="Y12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD12" t="s">
         <v>48</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AE12" t="s">
         <v>49</v>
       </c>
-      <c r="AD12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE12">
+      <c r="AG12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH12">
         <v>97</v>
       </c>
-      <c r="AG12">
+      <c r="AJ12">
         <v>1</v>
       </c>
-      <c r="AH12">
+      <c r="AK12">
         <v>3</v>
       </c>
-      <c r="AI12">
+      <c r="AL12">
         <v>25</v>
       </c>
-      <c r="AJ12">
+      <c r="AM12">
         <v>25</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AN12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -3114,62 +3132,62 @@
       <c r="N13">
         <v>2009</v>
       </c>
-      <c r="P13" t="s">
+      <c r="S13" t="s">
         <v>57</v>
       </c>
-      <c r="Q13">
+      <c r="T13">
         <v>4</v>
       </c>
-      <c r="R13">
+      <c r="U13">
         <v>15</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>20</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="s">
         <v>53</v>
       </c>
-      <c r="W13">
+      <c r="Z13">
         <v>250</v>
       </c>
-      <c r="X13" t="s">
+      <c r="AA13" t="s">
         <v>47</v>
       </c>
-      <c r="Y13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD13" t="s">
         <v>48</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AE13" t="s">
         <v>49</v>
       </c>
-      <c r="AD13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE13">
+      <c r="AG13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH13">
         <v>97</v>
       </c>
-      <c r="AG13">
+      <c r="AJ13">
         <v>1</v>
       </c>
-      <c r="AH13">
+      <c r="AK13">
         <v>3</v>
       </c>
-      <c r="AI13">
+      <c r="AL13">
         <v>25</v>
       </c>
-      <c r="AJ13">
+      <c r="AM13">
         <v>25</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AN13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -3206,62 +3224,62 @@
       <c r="N14">
         <v>2009</v>
       </c>
-      <c r="P14" t="s">
+      <c r="S14" t="s">
         <v>57</v>
       </c>
-      <c r="Q14">
+      <c r="T14">
         <v>4</v>
       </c>
-      <c r="R14">
+      <c r="U14">
         <v>15</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>20</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14" t="s">
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="s">
         <v>46</v>
       </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14" t="s">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="s">
         <v>47</v>
       </c>
-      <c r="Y14" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD14" t="s">
         <v>48</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AE14" t="s">
         <v>49</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AG14" t="s">
         <v>56</v>
       </c>
-      <c r="AE14">
+      <c r="AH14">
         <v>8.6</v>
       </c>
-      <c r="AG14">
+      <c r="AJ14">
         <v>0.9</v>
       </c>
-      <c r="AH14">
+      <c r="AK14">
         <v>3</v>
       </c>
-      <c r="AI14">
+      <c r="AL14">
         <v>25</v>
       </c>
-      <c r="AJ14">
+      <c r="AM14">
         <v>25</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AN14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -3298,62 +3316,62 @@
       <c r="N15">
         <v>2009</v>
       </c>
-      <c r="P15" t="s">
+      <c r="S15" t="s">
         <v>57</v>
       </c>
-      <c r="Q15">
+      <c r="T15">
         <v>4</v>
       </c>
-      <c r="R15">
+      <c r="U15">
         <v>15</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>20</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15" t="s">
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="s">
         <v>53</v>
       </c>
-      <c r="W15">
+      <c r="Z15">
         <v>100</v>
       </c>
-      <c r="X15" t="s">
+      <c r="AA15" t="s">
         <v>47</v>
       </c>
-      <c r="Y15" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD15" t="s">
         <v>48</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AE15" t="s">
         <v>49</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AG15" t="s">
         <v>56</v>
       </c>
-      <c r="AE15">
+      <c r="AH15">
         <v>5</v>
       </c>
-      <c r="AG15">
+      <c r="AJ15">
         <v>0.2</v>
       </c>
-      <c r="AH15">
+      <c r="AK15">
         <v>3</v>
       </c>
-      <c r="AI15">
+      <c r="AL15">
         <v>25</v>
       </c>
-      <c r="AJ15">
+      <c r="AM15">
         <v>25</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AN15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -3390,62 +3408,62 @@
       <c r="N16">
         <v>2009</v>
       </c>
-      <c r="P16" t="s">
+      <c r="S16" t="s">
         <v>57</v>
       </c>
-      <c r="Q16">
+      <c r="T16">
         <v>4</v>
       </c>
-      <c r="R16">
+      <c r="U16">
         <v>15</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>20</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="s">
         <v>53</v>
       </c>
-      <c r="W16">
+      <c r="Z16">
         <v>150</v>
       </c>
-      <c r="X16" t="s">
+      <c r="AA16" t="s">
         <v>47</v>
       </c>
-      <c r="Y16" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD16" t="s">
         <v>48</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AE16" t="s">
         <v>49</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AG16" t="s">
         <v>56</v>
       </c>
-      <c r="AE16">
+      <c r="AH16">
         <v>4.8</v>
       </c>
-      <c r="AG16">
+      <c r="AJ16">
         <v>0.1</v>
       </c>
-      <c r="AH16">
+      <c r="AK16">
         <v>3</v>
       </c>
-      <c r="AI16">
+      <c r="AL16">
         <v>25</v>
       </c>
-      <c r="AJ16">
+      <c r="AM16">
         <v>25</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AN16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3482,62 +3500,62 @@
       <c r="N17">
         <v>2009</v>
       </c>
-      <c r="P17" t="s">
+      <c r="S17" t="s">
         <v>57</v>
       </c>
-      <c r="Q17">
+      <c r="T17">
         <v>4</v>
       </c>
-      <c r="R17">
+      <c r="U17">
         <v>15</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>20</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17" t="s">
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="s">
         <v>53</v>
       </c>
-      <c r="W17">
+      <c r="Z17">
         <v>250</v>
       </c>
-      <c r="X17" t="s">
+      <c r="AA17" t="s">
         <v>47</v>
       </c>
-      <c r="Y17" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD17" t="s">
         <v>48</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AE17" t="s">
         <v>49</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AG17" t="s">
         <v>56</v>
       </c>
-      <c r="AE17">
+      <c r="AH17">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG17">
+      <c r="AJ17">
         <v>0.7</v>
       </c>
-      <c r="AH17">
+      <c r="AK17">
         <v>3</v>
       </c>
-      <c r="AI17">
+      <c r="AL17">
         <v>25</v>
       </c>
-      <c r="AJ17">
+      <c r="AM17">
         <v>25</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AN17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -3574,62 +3592,62 @@
       <c r="N18">
         <v>2009</v>
       </c>
-      <c r="P18" t="s">
+      <c r="S18" t="s">
         <v>58</v>
       </c>
-      <c r="Q18">
+      <c r="T18">
         <v>4</v>
       </c>
-      <c r="R18">
+      <c r="U18">
         <v>15</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>20</v>
       </c>
-      <c r="U18">
+      <c r="X18">
         <v>12</v>
       </c>
-      <c r="V18" t="s">
+      <c r="Y18" t="s">
         <v>46</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18" t="s">
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="s">
         <v>47</v>
       </c>
-      <c r="Y18" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD18" t="s">
         <v>48</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AE18" t="s">
         <v>49</v>
       </c>
-      <c r="AD18" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
+      <c r="AG18" t="s">
+        <v>50</v>
       </c>
       <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
         <v>3</v>
       </c>
-      <c r="AI18">
+      <c r="AL18">
         <v>25</v>
       </c>
-      <c r="AJ18">
+      <c r="AM18">
         <v>25</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AN18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -3666,62 +3684,62 @@
       <c r="N19">
         <v>2009</v>
       </c>
-      <c r="P19" t="s">
+      <c r="S19" t="s">
         <v>58</v>
       </c>
-      <c r="Q19">
+      <c r="T19">
         <v>4</v>
       </c>
-      <c r="R19">
+      <c r="U19">
         <v>15</v>
       </c>
-      <c r="S19">
+      <c r="V19">
         <v>20</v>
       </c>
-      <c r="U19">
+      <c r="X19">
         <v>12</v>
       </c>
-      <c r="V19" t="s">
+      <c r="Y19" t="s">
         <v>53</v>
       </c>
-      <c r="W19">
+      <c r="Z19">
         <v>100</v>
       </c>
-      <c r="X19" t="s">
+      <c r="AA19" t="s">
         <v>47</v>
       </c>
-      <c r="Y19" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD19" t="s">
         <v>48</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AE19" t="s">
         <v>49</v>
       </c>
-      <c r="AD19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE19">
+      <c r="AG19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH19">
         <v>20</v>
       </c>
-      <c r="AG19">
+      <c r="AJ19">
         <v>2</v>
       </c>
-      <c r="AH19">
+      <c r="AK19">
         <v>3</v>
       </c>
-      <c r="AI19">
+      <c r="AL19">
         <v>25</v>
       </c>
-      <c r="AJ19">
+      <c r="AM19">
         <v>25</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AN19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -3758,62 +3776,62 @@
       <c r="N20">
         <v>2009</v>
       </c>
-      <c r="P20" t="s">
+      <c r="S20" t="s">
         <v>58</v>
       </c>
-      <c r="Q20">
+      <c r="T20">
         <v>4</v>
       </c>
-      <c r="R20">
+      <c r="U20">
         <v>15</v>
       </c>
-      <c r="S20">
+      <c r="V20">
         <v>20</v>
       </c>
-      <c r="U20">
+      <c r="X20">
         <v>12</v>
       </c>
-      <c r="V20" t="s">
+      <c r="Y20" t="s">
         <v>53</v>
       </c>
-      <c r="W20">
+      <c r="Z20">
         <v>150</v>
       </c>
-      <c r="X20" t="s">
+      <c r="AA20" t="s">
         <v>47</v>
       </c>
-      <c r="Y20" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD20" t="s">
         <v>48</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AE20" t="s">
         <v>49</v>
       </c>
-      <c r="AD20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE20">
+      <c r="AG20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH20">
         <v>24</v>
       </c>
-      <c r="AG20">
+      <c r="AJ20">
         <v>2</v>
       </c>
-      <c r="AH20">
+      <c r="AK20">
         <v>3</v>
       </c>
-      <c r="AI20">
+      <c r="AL20">
         <v>25</v>
       </c>
-      <c r="AJ20">
+      <c r="AM20">
         <v>25</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AN20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -3850,62 +3868,62 @@
       <c r="N21">
         <v>2009</v>
       </c>
-      <c r="P21" t="s">
+      <c r="S21" t="s">
         <v>58</v>
       </c>
-      <c r="Q21">
+      <c r="T21">
         <v>4</v>
       </c>
-      <c r="R21">
+      <c r="U21">
         <v>15</v>
       </c>
-      <c r="S21">
+      <c r="V21">
         <v>20</v>
       </c>
-      <c r="U21">
+      <c r="X21">
         <v>12</v>
       </c>
-      <c r="V21" t="s">
+      <c r="Y21" t="s">
         <v>53</v>
       </c>
-      <c r="W21">
+      <c r="Z21">
         <v>250</v>
       </c>
-      <c r="X21" t="s">
+      <c r="AA21" t="s">
         <v>47</v>
       </c>
-      <c r="Y21" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD21" t="s">
         <v>48</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AE21" t="s">
         <v>49</v>
       </c>
-      <c r="AD21" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE21">
+      <c r="AG21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH21">
         <v>29</v>
       </c>
-      <c r="AG21">
+      <c r="AJ21">
         <v>1</v>
       </c>
-      <c r="AH21">
+      <c r="AK21">
         <v>3</v>
       </c>
-      <c r="AI21">
+      <c r="AL21">
         <v>25</v>
       </c>
-      <c r="AJ21">
+      <c r="AM21">
         <v>25</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AN21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -3942,62 +3960,62 @@
       <c r="N22">
         <v>2009</v>
       </c>
-      <c r="P22" t="s">
+      <c r="S22" t="s">
         <v>58</v>
       </c>
-      <c r="Q22">
+      <c r="T22">
         <v>4</v>
       </c>
-      <c r="R22">
+      <c r="U22">
         <v>15</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <v>20</v>
       </c>
-      <c r="U22">
+      <c r="X22">
         <v>12</v>
       </c>
-      <c r="V22" t="s">
+      <c r="Y22" t="s">
         <v>46</v>
       </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22" t="s">
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="s">
         <v>47</v>
       </c>
-      <c r="Y22" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD22" t="s">
         <v>48</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AE22" t="s">
         <v>49</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AG22" t="s">
         <v>56</v>
       </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
       <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
         <v>3</v>
       </c>
-      <c r="AI22">
+      <c r="AL22">
         <v>25</v>
       </c>
-      <c r="AJ22">
+      <c r="AM22">
         <v>25</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AN22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -4034,62 +4052,62 @@
       <c r="N23">
         <v>2009</v>
       </c>
-      <c r="P23" t="s">
+      <c r="S23" t="s">
         <v>58</v>
       </c>
-      <c r="Q23">
+      <c r="T23">
         <v>4</v>
       </c>
-      <c r="R23">
+      <c r="U23">
         <v>15</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>20</v>
       </c>
-      <c r="U23">
+      <c r="X23">
         <v>12</v>
       </c>
-      <c r="V23" t="s">
+      <c r="Y23" t="s">
         <v>53</v>
       </c>
-      <c r="W23">
+      <c r="Z23">
         <v>100</v>
       </c>
-      <c r="X23" t="s">
+      <c r="AA23" t="s">
         <v>47</v>
       </c>
-      <c r="Y23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD23" t="s">
         <v>48</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AE23" t="s">
         <v>49</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AG23" t="s">
         <v>56</v>
       </c>
-      <c r="AE23">
+      <c r="AH23">
         <v>16.899999999999999</v>
       </c>
-      <c r="AG23">
+      <c r="AJ23">
         <v>1.5</v>
       </c>
-      <c r="AH23">
+      <c r="AK23">
         <v>3</v>
       </c>
-      <c r="AI23">
+      <c r="AL23">
         <v>25</v>
       </c>
-      <c r="AJ23">
+      <c r="AM23">
         <v>25</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AN23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -4126,62 +4144,62 @@
       <c r="N24">
         <v>2009</v>
       </c>
-      <c r="P24" t="s">
+      <c r="S24" t="s">
         <v>58</v>
       </c>
-      <c r="Q24">
+      <c r="T24">
         <v>4</v>
       </c>
-      <c r="R24">
+      <c r="U24">
         <v>15</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>20</v>
       </c>
-      <c r="U24">
+      <c r="X24">
         <v>12</v>
       </c>
-      <c r="V24" t="s">
+      <c r="Y24" t="s">
         <v>53</v>
       </c>
-      <c r="W24">
+      <c r="Z24">
         <v>150</v>
       </c>
-      <c r="X24" t="s">
+      <c r="AA24" t="s">
         <v>47</v>
       </c>
-      <c r="Y24" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD24" t="s">
         <v>48</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AE24" t="s">
         <v>49</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AG24" t="s">
         <v>56</v>
       </c>
-      <c r="AE24">
+      <c r="AH24">
         <v>16.100000000000001</v>
       </c>
-      <c r="AG24">
+      <c r="AJ24">
         <v>0.6</v>
       </c>
-      <c r="AH24">
+      <c r="AK24">
         <v>3</v>
       </c>
-      <c r="AI24">
+      <c r="AL24">
         <v>25</v>
       </c>
-      <c r="AJ24">
+      <c r="AM24">
         <v>25</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AN24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -4218,62 +4236,62 @@
       <c r="N25">
         <v>2009</v>
       </c>
-      <c r="P25" t="s">
+      <c r="S25" t="s">
         <v>58</v>
       </c>
-      <c r="Q25">
+      <c r="T25">
         <v>4</v>
       </c>
-      <c r="R25">
+      <c r="U25">
         <v>15</v>
       </c>
-      <c r="S25">
+      <c r="V25">
         <v>20</v>
       </c>
-      <c r="U25">
+      <c r="X25">
         <v>12</v>
       </c>
-      <c r="V25" t="s">
+      <c r="Y25" t="s">
         <v>53</v>
       </c>
-      <c r="W25">
+      <c r="Z25">
         <v>250</v>
       </c>
-      <c r="X25" t="s">
+      <c r="AA25" t="s">
         <v>47</v>
       </c>
-      <c r="Y25" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD25" t="s">
         <v>48</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AE25" t="s">
         <v>49</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AG25" t="s">
         <v>56</v>
       </c>
-      <c r="AE25">
+      <c r="AH25">
         <v>16.5</v>
       </c>
-      <c r="AG25">
+      <c r="AJ25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AH25">
+      <c r="AK25">
         <v>3</v>
       </c>
-      <c r="AI25">
+      <c r="AL25">
         <v>25</v>
       </c>
-      <c r="AJ25">
+      <c r="AM25">
         <v>25</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AN25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -4310,62 +4328,62 @@
       <c r="N26">
         <v>2009</v>
       </c>
-      <c r="P26" t="s">
+      <c r="S26" t="s">
         <v>59</v>
       </c>
-      <c r="Q26">
+      <c r="T26">
         <v>4</v>
       </c>
-      <c r="R26">
+      <c r="U26">
         <v>15</v>
       </c>
-      <c r="S26">
+      <c r="V26">
         <v>20</v>
       </c>
-      <c r="U26">
+      <c r="X26">
         <v>12</v>
       </c>
-      <c r="V26" t="s">
+      <c r="Y26" t="s">
         <v>46</v>
       </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26" t="s">
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="s">
         <v>47</v>
       </c>
-      <c r="Y26" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD26" t="s">
         <v>48</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AE26" t="s">
         <v>49</v>
       </c>
-      <c r="AD26" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE26">
+      <c r="AG26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH26">
         <v>9</v>
       </c>
-      <c r="AG26">
+      <c r="AJ26">
         <v>1</v>
       </c>
-      <c r="AH26">
+      <c r="AK26">
         <v>3</v>
       </c>
-      <c r="AI26">
+      <c r="AL26">
         <v>25</v>
       </c>
-      <c r="AJ26">
+      <c r="AM26">
         <v>25</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AN26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -4402,62 +4420,62 @@
       <c r="N27">
         <v>2009</v>
       </c>
-      <c r="P27" t="s">
+      <c r="S27" t="s">
         <v>59</v>
       </c>
-      <c r="Q27">
+      <c r="T27">
         <v>4</v>
       </c>
-      <c r="R27">
+      <c r="U27">
         <v>15</v>
       </c>
-      <c r="S27">
+      <c r="V27">
         <v>20</v>
       </c>
-      <c r="U27">
+      <c r="X27">
         <v>12</v>
       </c>
-      <c r="V27" t="s">
+      <c r="Y27" t="s">
         <v>53</v>
       </c>
-      <c r="W27">
+      <c r="Z27">
         <v>100</v>
       </c>
-      <c r="X27" t="s">
+      <c r="AA27" t="s">
         <v>47</v>
       </c>
-      <c r="Y27" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD27" t="s">
         <v>48</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AE27" t="s">
         <v>49</v>
       </c>
-      <c r="AD27" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE27">
+      <c r="AG27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH27">
         <v>64</v>
       </c>
-      <c r="AG27">
+      <c r="AJ27">
         <v>6</v>
       </c>
-      <c r="AH27">
+      <c r="AK27">
         <v>3</v>
       </c>
-      <c r="AI27">
+      <c r="AL27">
         <v>25</v>
       </c>
-      <c r="AJ27">
+      <c r="AM27">
         <v>25</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AN27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -4494,62 +4512,62 @@
       <c r="N28">
         <v>2009</v>
       </c>
-      <c r="P28" t="s">
+      <c r="S28" t="s">
         <v>59</v>
       </c>
-      <c r="Q28">
+      <c r="T28">
         <v>4</v>
       </c>
-      <c r="R28">
+      <c r="U28">
         <v>15</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>20</v>
       </c>
-      <c r="U28">
+      <c r="X28">
         <v>12</v>
       </c>
-      <c r="V28" t="s">
+      <c r="Y28" t="s">
         <v>53</v>
       </c>
-      <c r="W28">
+      <c r="Z28">
         <v>150</v>
       </c>
-      <c r="X28" t="s">
+      <c r="AA28" t="s">
         <v>47</v>
       </c>
-      <c r="Y28" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD28" t="s">
         <v>48</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AE28" t="s">
         <v>49</v>
       </c>
-      <c r="AD28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE28">
+      <c r="AG28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH28">
         <v>65</v>
       </c>
-      <c r="AG28">
+      <c r="AJ28">
         <v>3</v>
       </c>
-      <c r="AH28">
+      <c r="AK28">
         <v>3</v>
       </c>
-      <c r="AI28">
+      <c r="AL28">
         <v>25</v>
       </c>
-      <c r="AJ28">
+      <c r="AM28">
         <v>25</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AN28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -4586,62 +4604,62 @@
       <c r="N29">
         <v>2009</v>
       </c>
-      <c r="P29" t="s">
+      <c r="S29" t="s">
         <v>59</v>
       </c>
-      <c r="Q29">
+      <c r="T29">
         <v>4</v>
       </c>
-      <c r="R29">
+      <c r="U29">
         <v>15</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>20</v>
       </c>
-      <c r="U29">
+      <c r="X29">
         <v>12</v>
       </c>
-      <c r="V29" t="s">
+      <c r="Y29" t="s">
         <v>53</v>
       </c>
-      <c r="W29">
+      <c r="Z29">
         <v>250</v>
       </c>
-      <c r="X29" t="s">
+      <c r="AA29" t="s">
         <v>47</v>
       </c>
-      <c r="Y29" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD29" t="s">
         <v>48</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AE29" t="s">
         <v>49</v>
       </c>
-      <c r="AD29" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE29">
+      <c r="AG29" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH29">
         <v>68</v>
       </c>
-      <c r="AG29">
+      <c r="AJ29">
         <v>6</v>
       </c>
-      <c r="AH29">
+      <c r="AK29">
         <v>3</v>
       </c>
-      <c r="AI29">
+      <c r="AL29">
         <v>25</v>
       </c>
-      <c r="AJ29">
+      <c r="AM29">
         <v>25</v>
       </c>
-      <c r="AK29" t="s">
+      <c r="AN29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -4678,62 +4696,62 @@
       <c r="N30">
         <v>2009</v>
       </c>
-      <c r="P30" t="s">
+      <c r="S30" t="s">
         <v>59</v>
       </c>
-      <c r="Q30">
+      <c r="T30">
         <v>4</v>
       </c>
-      <c r="R30">
+      <c r="U30">
         <v>15</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>20</v>
       </c>
-      <c r="U30">
+      <c r="X30">
         <v>12</v>
       </c>
-      <c r="V30" t="s">
+      <c r="Y30" t="s">
         <v>46</v>
       </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30" t="s">
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="s">
         <v>47</v>
       </c>
-      <c r="Y30" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA30" t="s">
+      <c r="AB30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD30" t="s">
         <v>48</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AE30" t="s">
         <v>49</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AG30" t="s">
         <v>56</v>
       </c>
-      <c r="AE30">
+      <c r="AH30">
         <v>12.2</v>
       </c>
-      <c r="AG30">
+      <c r="AJ30">
         <v>0.5</v>
       </c>
-      <c r="AH30">
+      <c r="AK30">
         <v>3</v>
       </c>
-      <c r="AI30">
+      <c r="AL30">
         <v>25</v>
       </c>
-      <c r="AJ30">
+      <c r="AM30">
         <v>25</v>
       </c>
-      <c r="AK30" t="s">
+      <c r="AN30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -4770,62 +4788,62 @@
       <c r="N31">
         <v>2009</v>
       </c>
-      <c r="P31" t="s">
+      <c r="S31" t="s">
         <v>59</v>
       </c>
-      <c r="Q31">
+      <c r="T31">
         <v>4</v>
       </c>
-      <c r="R31">
+      <c r="U31">
         <v>15</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>20</v>
       </c>
-      <c r="U31">
+      <c r="X31">
         <v>12</v>
       </c>
-      <c r="V31" t="s">
+      <c r="Y31" t="s">
         <v>53</v>
       </c>
-      <c r="W31">
+      <c r="Z31">
         <v>100</v>
       </c>
-      <c r="X31" t="s">
+      <c r="AA31" t="s">
         <v>47</v>
       </c>
-      <c r="Y31" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA31" t="s">
+      <c r="AB31" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD31" t="s">
         <v>48</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AE31" t="s">
         <v>49</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AG31" t="s">
         <v>56</v>
       </c>
-      <c r="AE31">
+      <c r="AH31">
         <v>7.3</v>
       </c>
-      <c r="AG31">
+      <c r="AJ31">
         <v>0.6</v>
       </c>
-      <c r="AH31">
+      <c r="AK31">
         <v>3</v>
       </c>
-      <c r="AI31">
+      <c r="AL31">
         <v>25</v>
       </c>
-      <c r="AJ31">
+      <c r="AM31">
         <v>25</v>
       </c>
-      <c r="AK31" t="s">
+      <c r="AN31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -4862,62 +4880,62 @@
       <c r="N32">
         <v>2009</v>
       </c>
-      <c r="P32" t="s">
+      <c r="S32" t="s">
         <v>59</v>
       </c>
-      <c r="Q32">
+      <c r="T32">
         <v>4</v>
       </c>
-      <c r="R32">
+      <c r="U32">
         <v>15</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>20</v>
       </c>
-      <c r="U32">
+      <c r="X32">
         <v>12</v>
       </c>
-      <c r="V32" t="s">
+      <c r="Y32" t="s">
         <v>53</v>
       </c>
-      <c r="W32">
+      <c r="Z32">
         <v>150</v>
       </c>
-      <c r="X32" t="s">
+      <c r="AA32" t="s">
         <v>47</v>
       </c>
-      <c r="Y32" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA32" t="s">
+      <c r="AB32" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD32" t="s">
         <v>48</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AE32" t="s">
         <v>49</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AG32" t="s">
         <v>56</v>
       </c>
-      <c r="AE32">
+      <c r="AH32">
         <v>10</v>
       </c>
-      <c r="AG32">
+      <c r="AJ32">
         <v>0.1</v>
       </c>
-      <c r="AH32">
+      <c r="AK32">
         <v>3</v>
       </c>
-      <c r="AI32">
+      <c r="AL32">
         <v>25</v>
       </c>
-      <c r="AJ32">
+      <c r="AM32">
         <v>25</v>
       </c>
-      <c r="AK32" t="s">
+      <c r="AN32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -4954,62 +4972,62 @@
       <c r="N33">
         <v>2009</v>
       </c>
-      <c r="P33" t="s">
+      <c r="S33" t="s">
         <v>59</v>
       </c>
-      <c r="Q33">
+      <c r="T33">
         <v>4</v>
       </c>
-      <c r="R33">
+      <c r="U33">
         <v>15</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <v>20</v>
       </c>
-      <c r="U33">
+      <c r="X33">
         <v>12</v>
       </c>
-      <c r="V33" t="s">
+      <c r="Y33" t="s">
         <v>53</v>
       </c>
-      <c r="W33">
+      <c r="Z33">
         <v>250</v>
       </c>
-      <c r="X33" t="s">
+      <c r="AA33" t="s">
         <v>47</v>
       </c>
-      <c r="Y33" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA33" t="s">
+      <c r="AB33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD33" t="s">
         <v>48</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AE33" t="s">
         <v>49</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AG33" t="s">
         <v>56</v>
       </c>
-      <c r="AE33">
+      <c r="AH33">
         <v>9.5</v>
       </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
         <v>3</v>
       </c>
-      <c r="AI33">
+      <c r="AL33">
         <v>25</v>
       </c>
-      <c r="AJ33">
+      <c r="AM33">
         <v>25</v>
       </c>
-      <c r="AK33" t="s">
+      <c r="AN33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -5046,65 +5064,65 @@
       <c r="N34">
         <v>2009</v>
       </c>
-      <c r="P34" t="s">
+      <c r="S34" t="s">
         <v>60</v>
       </c>
-      <c r="Q34">
+      <c r="T34">
         <v>4</v>
       </c>
-      <c r="R34">
+      <c r="U34">
         <v>15</v>
       </c>
-      <c r="S34">
+      <c r="V34">
         <v>20</v>
       </c>
-      <c r="U34">
+      <c r="X34">
         <v>12</v>
       </c>
-      <c r="V34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34" t="s">
+      <c r="Y34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="s">
         <v>47</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="AB34" t="s">
         <v>48</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AC34" t="s">
         <v>61</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AD34" t="s">
         <v>48</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AE34" t="s">
         <v>49</v>
       </c>
-      <c r="AD34" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE34">
+      <c r="AG34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH34">
         <v>37</v>
       </c>
-      <c r="AG34">
+      <c r="AJ34">
         <v>6</v>
       </c>
-      <c r="AH34">
+      <c r="AK34">
         <v>3</v>
       </c>
-      <c r="AI34">
+      <c r="AL34">
         <v>25</v>
       </c>
-      <c r="AJ34">
+      <c r="AM34">
         <v>25</v>
       </c>
-      <c r="AK34" t="s">
+      <c r="AN34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -5141,65 +5159,65 @@
       <c r="N35">
         <v>2009</v>
       </c>
-      <c r="P35" t="s">
+      <c r="S35" t="s">
         <v>60</v>
       </c>
-      <c r="Q35">
+      <c r="T35">
         <v>4</v>
       </c>
-      <c r="R35">
+      <c r="U35">
         <v>15</v>
       </c>
-      <c r="S35">
+      <c r="V35">
         <v>20</v>
       </c>
-      <c r="U35">
+      <c r="X35">
         <v>12</v>
       </c>
-      <c r="V35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35" t="s">
+      <c r="Y35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="s">
         <v>47</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="AB35" t="s">
         <v>48</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AC35" t="s">
         <v>61</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="AD35" t="s">
         <v>48</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AE35" t="s">
         <v>49</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AG35" t="s">
         <v>56</v>
       </c>
-      <c r="AE35">
+      <c r="AH35">
         <v>17.600000000000001</v>
       </c>
-      <c r="AG35">
+      <c r="AJ35">
         <v>0.8</v>
       </c>
-      <c r="AH35">
+      <c r="AK35">
         <v>3</v>
       </c>
-      <c r="AI35">
+      <c r="AL35">
         <v>25</v>
       </c>
-      <c r="AJ35">
+      <c r="AM35">
         <v>25</v>
       </c>
-      <c r="AK35" t="s">
+      <c r="AN35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -5227,59 +5245,59 @@
       <c r="N36">
         <v>2016</v>
       </c>
-      <c r="P36" t="s">
+      <c r="S36" t="s">
         <v>67</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="T36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="R36">
+      <c r="U36">
         <v>4</v>
       </c>
-      <c r="S36">
+      <c r="V36">
         <v>30</v>
       </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>42</v>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD36" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="s">
         <v>56</v>
       </c>
-      <c r="AE36">
+      <c r="AH36">
         <v>5.7549999999999999</v>
       </c>
-      <c r="AG36">
+      <c r="AJ36">
         <v>1.0680000000000005</v>
       </c>
-      <c r="AH36">
+      <c r="AK36">
         <v>4</v>
       </c>
-      <c r="AI36">
-        <v>50</v>
-      </c>
-      <c r="AJ36">
+      <c r="AL36">
+        <v>50</v>
+      </c>
+      <c r="AM36">
         <v>30</v>
       </c>
-      <c r="AK36" t="s">
+      <c r="AN36" t="s">
         <v>87</v>
       </c>
-      <c r="AL36" t="s">
+      <c r="AO36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -5307,59 +5325,59 @@
       <c r="N37">
         <v>2016</v>
       </c>
-      <c r="P37" t="s">
+      <c r="S37" t="s">
         <v>53</v>
       </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
         <v>30</v>
       </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37" t="s">
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="s">
         <v>53</v>
       </c>
-      <c r="W37" t="s">
+      <c r="Z37" t="s">
         <v>70</v>
       </c>
-      <c r="Y37" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>42</v>
-      </c>
       <c r="AB37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD37" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG37" t="s">
         <v>56</v>
       </c>
-      <c r="AE37">
+      <c r="AH37">
         <v>5.6619999999999999</v>
       </c>
-      <c r="AG37">
+      <c r="AJ37">
         <v>0.41800000000000015</v>
       </c>
-      <c r="AH37">
+      <c r="AK37">
         <v>4</v>
       </c>
-      <c r="AI37">
-        <v>50</v>
-      </c>
-      <c r="AJ37">
+      <c r="AL37">
+        <v>50</v>
+      </c>
+      <c r="AM37">
         <v>30</v>
       </c>
-      <c r="AK37" t="s">
+      <c r="AN37" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -5387,59 +5405,59 @@
       <c r="N38">
         <v>2016</v>
       </c>
-      <c r="P38" t="s">
+      <c r="S38" t="s">
         <v>66</v>
       </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
         <v>30</v>
       </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38" t="s">
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="s">
         <v>46</v>
       </c>
-      <c r="X38" t="s">
+      <c r="AA38" t="s">
         <v>71</v>
       </c>
-      <c r="Y38" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA38" t="s">
+      <c r="AB38" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD38" t="s">
         <v>48</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AE38" t="s">
         <v>46</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AG38" t="s">
         <v>56</v>
       </c>
-      <c r="AE38">
+      <c r="AH38">
         <v>7.7969999999999997</v>
       </c>
-      <c r="AG38">
+      <c r="AJ38">
         <v>2.785000000000001</v>
       </c>
-      <c r="AH38">
+      <c r="AK38">
         <v>4</v>
       </c>
-      <c r="AI38">
-        <v>50</v>
-      </c>
-      <c r="AJ38">
+      <c r="AL38">
+        <v>50</v>
+      </c>
+      <c r="AM38">
         <v>30</v>
       </c>
-      <c r="AK38" t="s">
+      <c r="AN38" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -5467,59 +5485,59 @@
       <c r="N39">
         <v>2016</v>
       </c>
-      <c r="P39" t="s">
+      <c r="S39" t="s">
         <v>24</v>
       </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
         <v>30</v>
       </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y39" t="s">
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB39" t="s">
         <v>48</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AC39" t="s">
         <v>72</v>
       </c>
-      <c r="AA39" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>41</v>
-      </c>
       <c r="AD39" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="s">
         <v>56</v>
       </c>
-      <c r="AE39">
+      <c r="AH39">
         <v>5.7089999999999996</v>
       </c>
-      <c r="AG39">
+      <c r="AJ39">
         <v>0.41800000000000015</v>
       </c>
-      <c r="AH39">
+      <c r="AK39">
         <v>4</v>
       </c>
-      <c r="AI39">
-        <v>50</v>
-      </c>
-      <c r="AJ39">
+      <c r="AL39">
+        <v>50</v>
+      </c>
+      <c r="AM39">
         <v>30</v>
       </c>
-      <c r="AK39" t="s">
+      <c r="AN39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -5547,56 +5565,56 @@
       <c r="N40">
         <v>2016</v>
       </c>
-      <c r="P40" t="s">
+      <c r="S40" t="s">
         <v>68</v>
       </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
         <v>30</v>
       </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>42</v>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD40" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="s">
         <v>56</v>
       </c>
-      <c r="AE40">
+      <c r="AH40">
         <v>6.9619999999999997</v>
       </c>
-      <c r="AG40">
+      <c r="AJ40">
         <v>1.0679999999999996</v>
       </c>
-      <c r="AH40">
+      <c r="AK40">
         <v>4</v>
       </c>
-      <c r="AI40">
-        <v>50</v>
-      </c>
-      <c r="AJ40">
+      <c r="AL40">
+        <v>50</v>
+      </c>
+      <c r="AM40">
         <v>30</v>
       </c>
-      <c r="AK40" t="s">
+      <c r="AN40" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -5624,56 +5642,56 @@
       <c r="N41">
         <v>2016</v>
       </c>
-      <c r="P41" t="s">
+      <c r="S41" t="s">
         <v>67</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="T41" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="R41">
+      <c r="U41">
         <v>4</v>
       </c>
-      <c r="S41">
+      <c r="V41">
         <v>30</v>
       </c>
-      <c r="U41">
+      <c r="X41">
         <v>24</v>
       </c>
-      <c r="V41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>42</v>
+      <c r="Y41" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s">
         <v>56</v>
       </c>
-      <c r="AE41">
+      <c r="AH41">
         <v>7.6580000000000004</v>
       </c>
-      <c r="AG41">
+      <c r="AJ41">
         <v>0.64999999999999947</v>
       </c>
-      <c r="AH41">
+      <c r="AK41">
         <v>4</v>
       </c>
-      <c r="AI41">
-        <v>50</v>
-      </c>
-      <c r="AJ41">
+      <c r="AL41">
+        <v>50</v>
+      </c>
+      <c r="AM41">
         <v>30</v>
       </c>
-      <c r="AK41" t="s">
+      <c r="AN41" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -5701,59 +5719,59 @@
       <c r="N42">
         <v>2016</v>
       </c>
-      <c r="P42" t="s">
+      <c r="S42" t="s">
         <v>53</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
         <v>30</v>
       </c>
-      <c r="U42">
+      <c r="X42">
         <v>24</v>
       </c>
-      <c r="V42" t="s">
+      <c r="Y42" t="s">
         <v>53</v>
       </c>
-      <c r="W42" t="s">
+      <c r="Z42" t="s">
         <v>70</v>
       </c>
-      <c r="Y42" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>42</v>
-      </c>
       <c r="AB42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD42" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG42" t="s">
         <v>56</v>
       </c>
-      <c r="AE42">
+      <c r="AH42">
         <v>6.4050000000000002</v>
       </c>
-      <c r="AG42">
+      <c r="AJ42">
         <v>0.64999999999999947</v>
       </c>
-      <c r="AH42">
+      <c r="AK42">
         <v>4</v>
       </c>
-      <c r="AI42">
-        <v>50</v>
-      </c>
-      <c r="AJ42">
+      <c r="AL42">
+        <v>50</v>
+      </c>
+      <c r="AM42">
         <v>30</v>
       </c>
-      <c r="AK42" t="s">
+      <c r="AN42" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -5781,59 +5799,59 @@
       <c r="N43">
         <v>2016</v>
       </c>
-      <c r="P43" t="s">
+      <c r="S43" t="s">
         <v>66</v>
       </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
         <v>30</v>
       </c>
-      <c r="U43">
+      <c r="X43">
         <v>24</v>
       </c>
-      <c r="V43" t="s">
+      <c r="Y43" t="s">
         <v>46</v>
       </c>
-      <c r="X43" t="s">
+      <c r="AA43" t="s">
         <v>71</v>
       </c>
-      <c r="Y43" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD43" t="s">
         <v>48</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AE43" t="s">
         <v>46</v>
       </c>
-      <c r="AD43" t="s">
+      <c r="AG43" t="s">
         <v>56</v>
       </c>
-      <c r="AE43">
+      <c r="AH43">
         <v>6.9619999999999997</v>
       </c>
-      <c r="AG43">
+      <c r="AJ43">
         <v>0.78900000000000059</v>
       </c>
-      <c r="AH43">
+      <c r="AK43">
         <v>4</v>
       </c>
-      <c r="AI43">
-        <v>50</v>
-      </c>
-      <c r="AJ43">
+      <c r="AL43">
+        <v>50</v>
+      </c>
+      <c r="AM43">
         <v>30</v>
       </c>
-      <c r="AK43" t="s">
+      <c r="AN43" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -5861,59 +5879,59 @@
       <c r="N44">
         <v>2016</v>
       </c>
-      <c r="P44" t="s">
+      <c r="S44" t="s">
         <v>24</v>
       </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
         <v>30</v>
       </c>
-      <c r="U44">
+      <c r="X44">
         <v>24</v>
       </c>
-      <c r="V44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y44" t="s">
+      <c r="Y44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB44" t="s">
         <v>48</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AC44" t="s">
         <v>72</v>
       </c>
-      <c r="AA44" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>41</v>
-      </c>
       <c r="AD44" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="s">
         <v>56</v>
       </c>
-      <c r="AE44">
+      <c r="AH44">
         <v>5.43</v>
       </c>
-      <c r="AG44">
+      <c r="AJ44">
         <v>0.55700000000000038</v>
       </c>
-      <c r="AH44">
+      <c r="AK44">
         <v>4</v>
       </c>
-      <c r="AI44">
-        <v>50</v>
-      </c>
-      <c r="AJ44">
+      <c r="AL44">
+        <v>50</v>
+      </c>
+      <c r="AM44">
         <v>30</v>
       </c>
-      <c r="AK44" t="s">
+      <c r="AN44" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -5941,56 +5959,56 @@
       <c r="N45">
         <v>2016</v>
       </c>
-      <c r="P45" t="s">
+      <c r="S45" t="s">
         <v>68</v>
       </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
         <v>30</v>
       </c>
-      <c r="U45">
+      <c r="X45">
         <v>24</v>
       </c>
-      <c r="V45" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>42</v>
+      <c r="Y45" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD45" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG45" t="s">
         <v>56</v>
       </c>
-      <c r="AE45">
+      <c r="AH45">
         <v>7.194</v>
       </c>
-      <c r="AG45">
+      <c r="AJ45">
         <v>1.2529999999999992</v>
       </c>
-      <c r="AH45">
+      <c r="AK45">
         <v>4</v>
       </c>
-      <c r="AI45">
-        <v>50</v>
-      </c>
-      <c r="AJ45">
+      <c r="AL45">
+        <v>50</v>
+      </c>
+      <c r="AM45">
         <v>30</v>
       </c>
-      <c r="AK45" t="s">
+      <c r="AN45" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -6018,56 +6036,56 @@
       <c r="N46">
         <v>2016</v>
       </c>
-      <c r="P46" t="s">
+      <c r="S46" t="s">
         <v>67</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="T46" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="R46">
+      <c r="U46">
         <v>4</v>
       </c>
-      <c r="S46">
+      <c r="V46">
         <v>35</v>
       </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>42</v>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD46" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG46" t="s">
         <v>56</v>
       </c>
-      <c r="AE46">
+      <c r="AH46">
         <v>6.4050000000000002</v>
       </c>
-      <c r="AG46">
+      <c r="AJ46">
         <v>1.6249999999999991</v>
       </c>
-      <c r="AH46">
+      <c r="AK46">
         <v>4</v>
       </c>
-      <c r="AI46">
-        <v>50</v>
-      </c>
-      <c r="AJ46">
+      <c r="AL46">
+        <v>50</v>
+      </c>
+      <c r="AM46">
         <v>30</v>
       </c>
-      <c r="AK46" t="s">
+      <c r="AN46" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -6095,59 +6113,59 @@
       <c r="N47">
         <v>2016</v>
       </c>
-      <c r="P47" t="s">
+      <c r="S47" t="s">
         <v>53</v>
       </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
         <v>35</v>
       </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47" t="s">
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="s">
         <v>53</v>
       </c>
-      <c r="W47" t="s">
+      <c r="Z47" t="s">
         <v>70</v>
       </c>
-      <c r="Y47" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>42</v>
-      </c>
       <c r="AB47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD47" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG47" t="s">
         <v>56</v>
       </c>
-      <c r="AE47">
+      <c r="AH47">
         <v>7.008</v>
       </c>
-      <c r="AG47">
+      <c r="AJ47">
         <v>0.23299999999999965</v>
       </c>
-      <c r="AH47">
+      <c r="AK47">
         <v>4</v>
       </c>
-      <c r="AI47">
-        <v>50</v>
-      </c>
-      <c r="AJ47">
+      <c r="AL47">
+        <v>50</v>
+      </c>
+      <c r="AM47">
         <v>30</v>
       </c>
-      <c r="AK47" t="s">
+      <c r="AN47" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -6175,59 +6193,59 @@
       <c r="N48">
         <v>2016</v>
       </c>
-      <c r="P48" t="s">
+      <c r="S48" t="s">
         <v>66</v>
       </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
         <v>35</v>
       </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48" t="s">
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="s">
         <v>46</v>
       </c>
-      <c r="X48" t="s">
+      <c r="AA48" t="s">
         <v>71</v>
       </c>
-      <c r="Y48" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD48" t="s">
         <v>48</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AE48" t="s">
         <v>46</v>
       </c>
-      <c r="AD48" t="s">
+      <c r="AG48" t="s">
         <v>56</v>
       </c>
-      <c r="AE48">
+      <c r="AH48">
         <v>6.359</v>
       </c>
-      <c r="AG48">
+      <c r="AJ48">
         <v>0.60299999999999976</v>
       </c>
-      <c r="AH48">
+      <c r="AK48">
         <v>4</v>
       </c>
-      <c r="AI48">
-        <v>50</v>
-      </c>
-      <c r="AJ48">
+      <c r="AL48">
+        <v>50</v>
+      </c>
+      <c r="AM48">
         <v>30</v>
       </c>
-      <c r="AK48" t="s">
+      <c r="AN48" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -6255,59 +6273,59 @@
       <c r="N49">
         <v>2016</v>
       </c>
-      <c r="P49" t="s">
+      <c r="S49" t="s">
         <v>24</v>
       </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
         <v>35</v>
       </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y49" t="s">
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB49" t="s">
         <v>48</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AC49" t="s">
         <v>72</v>
       </c>
-      <c r="AA49" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>41</v>
-      </c>
       <c r="AD49" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG49" t="s">
         <v>56</v>
       </c>
-      <c r="AE49">
+      <c r="AH49">
         <v>5.9409999999999998</v>
       </c>
-      <c r="AG49">
+      <c r="AJ49">
         <v>0.60299999999999976</v>
       </c>
-      <c r="AH49">
+      <c r="AK49">
         <v>4</v>
       </c>
-      <c r="AI49">
-        <v>50</v>
-      </c>
-      <c r="AJ49">
+      <c r="AL49">
+        <v>50</v>
+      </c>
+      <c r="AM49">
         <v>30</v>
       </c>
-      <c r="AK49" t="s">
+      <c r="AN49" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -6335,56 +6353,56 @@
       <c r="N50">
         <v>2016</v>
       </c>
-      <c r="P50" t="s">
+      <c r="S50" t="s">
         <v>68</v>
       </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
         <v>35</v>
       </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>42</v>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD50" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG50" t="s">
         <v>56</v>
       </c>
-      <c r="AE50">
+      <c r="AH50">
         <v>8.1690000000000005</v>
       </c>
-      <c r="AG50">
+      <c r="AJ50">
         <v>0.27799999999999869</v>
       </c>
-      <c r="AH50">
+      <c r="AK50">
         <v>4</v>
       </c>
-      <c r="AI50">
-        <v>50</v>
-      </c>
-      <c r="AJ50">
+      <c r="AL50">
+        <v>50</v>
+      </c>
+      <c r="AM50">
         <v>30</v>
       </c>
-      <c r="AK50" t="s">
+      <c r="AN50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -6412,56 +6430,56 @@
       <c r="N51">
         <v>2016</v>
       </c>
-      <c r="P51" t="s">
+      <c r="S51" t="s">
         <v>67</v>
       </c>
-      <c r="Q51" s="1" t="s">
+      <c r="T51" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="R51">
+      <c r="U51">
         <v>4</v>
       </c>
-      <c r="S51">
+      <c r="V51">
         <v>35</v>
       </c>
-      <c r="U51">
+      <c r="X51">
         <v>24</v>
       </c>
-      <c r="V51" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>42</v>
+      <c r="Y51" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD51" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s">
         <v>56</v>
       </c>
-      <c r="AE51">
+      <c r="AH51">
         <v>13.089</v>
       </c>
-      <c r="AG51">
+      <c r="AJ51">
         <v>2.3200000000000003</v>
       </c>
-      <c r="AH51">
+      <c r="AK51">
         <v>4</v>
       </c>
-      <c r="AI51">
-        <v>50</v>
-      </c>
-      <c r="AJ51">
+      <c r="AL51">
+        <v>50</v>
+      </c>
+      <c r="AM51">
         <v>30</v>
       </c>
-      <c r="AK51" t="s">
+      <c r="AN51" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -6489,59 +6507,59 @@
       <c r="N52">
         <v>2016</v>
       </c>
-      <c r="P52" t="s">
+      <c r="S52" t="s">
         <v>53</v>
       </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
         <v>35</v>
       </c>
-      <c r="U52">
+      <c r="X52">
         <v>24</v>
       </c>
-      <c r="V52" t="s">
+      <c r="Y52" t="s">
         <v>53</v>
       </c>
-      <c r="W52" t="s">
+      <c r="Z52" t="s">
         <v>70</v>
       </c>
-      <c r="Y52" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>42</v>
-      </c>
       <c r="AB52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD52" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG52" t="s">
         <v>56</v>
       </c>
-      <c r="AE52">
+      <c r="AH52">
         <v>9.2360000000000007</v>
       </c>
-      <c r="AG52">
+      <c r="AJ52">
         <v>0.6039999999999992</v>
       </c>
-      <c r="AH52">
+      <c r="AK52">
         <v>4</v>
       </c>
-      <c r="AI52">
-        <v>50</v>
-      </c>
-      <c r="AJ52">
+      <c r="AL52">
+        <v>50</v>
+      </c>
+      <c r="AM52">
         <v>30</v>
       </c>
-      <c r="AK52" t="s">
+      <c r="AN52" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -6569,59 +6587,59 @@
       <c r="N53">
         <v>2016</v>
       </c>
-      <c r="P53" t="s">
+      <c r="S53" t="s">
         <v>66</v>
       </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
         <v>35</v>
       </c>
-      <c r="U53">
+      <c r="X53">
         <v>24</v>
       </c>
-      <c r="V53" t="s">
+      <c r="Y53" t="s">
         <v>46</v>
       </c>
-      <c r="X53" t="s">
+      <c r="AA53" t="s">
         <v>71</v>
       </c>
-      <c r="Y53" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD53" t="s">
         <v>48</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AE53" t="s">
         <v>46</v>
       </c>
-      <c r="AD53" t="s">
+      <c r="AG53" t="s">
         <v>56</v>
       </c>
-      <c r="AE53">
+      <c r="AH53">
         <v>7.8440000000000003</v>
       </c>
-      <c r="AG53">
+      <c r="AJ53">
         <v>2.181</v>
       </c>
-      <c r="AH53">
+      <c r="AK53">
         <v>4</v>
       </c>
-      <c r="AI53">
-        <v>50</v>
-      </c>
-      <c r="AJ53">
+      <c r="AL53">
+        <v>50</v>
+      </c>
+      <c r="AM53">
         <v>30</v>
       </c>
-      <c r="AK53" t="s">
+      <c r="AN53" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -6649,59 +6667,59 @@
       <c r="N54">
         <v>2016</v>
       </c>
-      <c r="P54" t="s">
+      <c r="S54" t="s">
         <v>24</v>
       </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
         <v>35</v>
       </c>
-      <c r="U54">
+      <c r="X54">
         <v>24</v>
       </c>
-      <c r="V54" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y54" t="s">
+      <c r="Y54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB54" t="s">
         <v>48</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AC54" t="s">
         <v>72</v>
       </c>
-      <c r="AA54" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>41</v>
-      </c>
       <c r="AD54" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG54" t="s">
         <v>56</v>
       </c>
-      <c r="AE54">
+      <c r="AH54">
         <v>6.6840000000000002</v>
       </c>
-      <c r="AG54">
+      <c r="AJ54">
         <v>0.23200000000000021</v>
       </c>
-      <c r="AH54">
+      <c r="AK54">
         <v>4</v>
       </c>
-      <c r="AI54">
-        <v>50</v>
-      </c>
-      <c r="AJ54">
+      <c r="AL54">
+        <v>50</v>
+      </c>
+      <c r="AM54">
         <v>30</v>
       </c>
-      <c r="AK54" t="s">
+      <c r="AN54" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -6729,56 +6747,56 @@
       <c r="N55">
         <v>2016</v>
       </c>
-      <c r="P55" t="s">
+      <c r="S55" t="s">
         <v>68</v>
       </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
         <v>35</v>
       </c>
-      <c r="U55">
+      <c r="X55">
         <v>24</v>
       </c>
-      <c r="V55" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>42</v>
+      <c r="Y55" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD55" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG55" t="s">
         <v>56</v>
       </c>
-      <c r="AE55">
+      <c r="AH55">
         <v>9.3290000000000006</v>
       </c>
-      <c r="AG55">
+      <c r="AJ55">
         <v>0.46399999999999864</v>
       </c>
-      <c r="AH55">
+      <c r="AK55">
         <v>4</v>
       </c>
-      <c r="AI55">
-        <v>50</v>
-      </c>
-      <c r="AJ55">
+      <c r="AL55">
+        <v>50</v>
+      </c>
+      <c r="AM55">
         <v>30</v>
       </c>
-      <c r="AK55" t="s">
+      <c r="AN55" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -6806,61 +6824,61 @@
       <c r="N56">
         <v>2016</v>
       </c>
-      <c r="P56" s="2" t="s">
+      <c r="S56" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Q56" s="3" t="s">
+      <c r="T56" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R56" s="2">
+      <c r="U56" s="2">
         <v>4</v>
       </c>
-      <c r="S56" s="2" t="s">
+      <c r="V56" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T56" s="2"/>
-      <c r="U56" s="3" t="s">
+      <c r="W56" s="2"/>
+      <c r="X56" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="V56" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
       <c r="Y56" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z56" s="2"/>
-      <c r="AA56" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>41</v>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF56" s="2"/>
+      <c r="AG56" t="s">
         <v>56</v>
       </c>
-      <c r="AE56">
+      <c r="AH56">
         <v>7.8440000000000003</v>
       </c>
-      <c r="AG56">
+      <c r="AJ56">
         <v>0.74199999999999999</v>
       </c>
-      <c r="AH56">
+      <c r="AK56">
         <v>4</v>
       </c>
-      <c r="AI56">
-        <v>50</v>
-      </c>
-      <c r="AJ56">
+      <c r="AL56">
+        <v>50</v>
+      </c>
+      <c r="AM56">
         <v>30</v>
       </c>
-      <c r="AK56" t="s">
+      <c r="AN56" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -6888,63 +6906,63 @@
       <c r="N57">
         <v>2016</v>
       </c>
-      <c r="P57" s="2" t="s">
+      <c r="S57" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Q57" s="2">
-        <v>0</v>
-      </c>
-      <c r="R57" s="2">
-        <v>0</v>
-      </c>
-      <c r="S57" s="2" t="s">
+      <c r="T57" s="2">
+        <v>0</v>
+      </c>
+      <c r="U57" s="2">
+        <v>0</v>
+      </c>
+      <c r="V57" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="T57" s="2"/>
-      <c r="U57" s="3" t="s">
+      <c r="W57" s="2"/>
+      <c r="X57" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="V57" s="2" t="s">
+      <c r="Y57" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="W57" s="2" t="s">
+      <c r="Z57" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z57" s="2"/>
-      <c r="AA57" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB57" t="s">
-        <v>41</v>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF57" s="2"/>
+      <c r="AG57" t="s">
         <v>56</v>
       </c>
-      <c r="AE57">
+      <c r="AH57">
         <v>10.025</v>
       </c>
-      <c r="AG57">
+      <c r="AJ57">
         <v>0.13999999999999879</v>
       </c>
-      <c r="AH57">
+      <c r="AK57">
         <v>4</v>
       </c>
-      <c r="AI57">
-        <v>50</v>
-      </c>
-      <c r="AJ57">
+      <c r="AL57">
+        <v>50</v>
+      </c>
+      <c r="AM57">
         <v>30</v>
       </c>
-      <c r="AK57" t="s">
+      <c r="AN57" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -6972,63 +6990,63 @@
       <c r="N58">
         <v>2016</v>
       </c>
-      <c r="P58" s="2" t="s">
+      <c r="S58" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Q58" s="2">
-        <v>0</v>
-      </c>
-      <c r="R58" s="2">
-        <v>0</v>
-      </c>
-      <c r="S58" s="2" t="s">
+      <c r="T58" s="2">
+        <v>0</v>
+      </c>
+      <c r="U58" s="2">
+        <v>0</v>
+      </c>
+      <c r="V58" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="T58" s="2"/>
-      <c r="U58" s="3" t="s">
+      <c r="W58" s="2"/>
+      <c r="X58" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="V58" s="2" t="s">
+      <c r="Y58" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2" t="s">
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Y58" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z58" s="2"/>
-      <c r="AA58" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB58" t="s">
-        <v>46</v>
+      <c r="AB58" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF58" s="2"/>
+      <c r="AG58" t="s">
         <v>56</v>
       </c>
-      <c r="AE58">
+      <c r="AH58">
         <v>12.81</v>
       </c>
-      <c r="AG58">
+      <c r="AJ58">
         <v>1.4849999999999994</v>
       </c>
-      <c r="AH58">
+      <c r="AK58">
         <v>4</v>
       </c>
-      <c r="AI58">
-        <v>50</v>
-      </c>
-      <c r="AJ58">
+      <c r="AL58">
+        <v>50</v>
+      </c>
+      <c r="AM58">
         <v>30</v>
       </c>
-      <c r="AK58" t="s">
+      <c r="AN58" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -7056,63 +7074,63 @@
       <c r="N59">
         <v>2016</v>
       </c>
-      <c r="P59" s="2" t="s">
+      <c r="S59" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q59" s="2">
-        <v>0</v>
-      </c>
-      <c r="R59" s="2">
-        <v>0</v>
-      </c>
-      <c r="S59" s="2" t="s">
+      <c r="T59" s="2">
+        <v>0</v>
+      </c>
+      <c r="U59" s="2">
+        <v>0</v>
+      </c>
+      <c r="V59" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="T59" s="2"/>
-      <c r="U59" s="3" t="s">
+      <c r="W59" s="2"/>
+      <c r="X59" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="V59" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W59" s="2"/>
-      <c r="X59" s="2"/>
       <c r="Y59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Z59" s="2" t="s">
+      <c r="AC59" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA59" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB59" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC59" s="2"/>
       <c r="AD59" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF59" s="2"/>
+      <c r="AG59" t="s">
         <v>56</v>
       </c>
-      <c r="AE59">
+      <c r="AH59">
         <v>11.835000000000001</v>
       </c>
-      <c r="AG59">
+      <c r="AJ59">
         <v>1.625</v>
       </c>
-      <c r="AH59">
+      <c r="AK59">
         <v>4</v>
       </c>
-      <c r="AI59">
-        <v>50</v>
-      </c>
-      <c r="AJ59">
+      <c r="AL59">
+        <v>50</v>
+      </c>
+      <c r="AM59">
         <v>30</v>
       </c>
-      <c r="AK59" t="s">
+      <c r="AN59" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -7140,61 +7158,61 @@
       <c r="N60">
         <v>2016</v>
       </c>
-      <c r="P60" s="2" t="s">
+      <c r="S60" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Q60" s="2">
-        <v>0</v>
-      </c>
-      <c r="R60" s="2">
-        <v>0</v>
-      </c>
-      <c r="S60" s="2" t="s">
+      <c r="T60" s="2">
+        <v>0</v>
+      </c>
+      <c r="U60" s="2">
+        <v>0</v>
+      </c>
+      <c r="V60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T60" s="2"/>
-      <c r="U60" s="3" t="s">
+      <c r="W60" s="2"/>
+      <c r="X60" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="V60" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W60" s="2"/>
-      <c r="X60" s="2"/>
       <c r="Y60" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z60" s="2"/>
-      <c r="AA60" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>41</v>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF60" s="2"/>
+      <c r="AG60" t="s">
         <v>56</v>
       </c>
-      <c r="AE60">
+      <c r="AH60">
         <v>11</v>
       </c>
-      <c r="AG60">
+      <c r="AJ60">
         <v>1.8100000000000005</v>
       </c>
-      <c r="AH60">
+      <c r="AK60">
         <v>4</v>
       </c>
-      <c r="AI60">
-        <v>50</v>
-      </c>
-      <c r="AJ60">
+      <c r="AL60">
+        <v>50</v>
+      </c>
+      <c r="AM60">
         <v>30</v>
       </c>
-      <c r="AK60" t="s">
+      <c r="AN60" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -7222,61 +7240,61 @@
       <c r="N61">
         <v>2016</v>
       </c>
-      <c r="P61" s="2" t="s">
+      <c r="S61" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Q61" s="3" t="s">
+      <c r="T61" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R61" s="2">
+      <c r="U61" s="2">
         <v>4</v>
       </c>
-      <c r="S61" s="2" t="s">
+      <c r="V61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2" t="s">
+      <c r="W61" s="2"/>
+      <c r="X61" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="V61" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
       <c r="Y61" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z61" s="2"/>
-      <c r="AA61" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>41</v>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF61" s="2"/>
+      <c r="AG61" t="s">
         <v>56</v>
       </c>
-      <c r="AE61">
+      <c r="AH61">
         <v>9.468</v>
       </c>
-      <c r="AG61">
+      <c r="AJ61">
         <v>0.37199999999999989</v>
       </c>
-      <c r="AH61">
+      <c r="AK61">
         <v>4</v>
       </c>
-      <c r="AI61">
-        <v>50</v>
-      </c>
-      <c r="AJ61">
+      <c r="AL61">
+        <v>50</v>
+      </c>
+      <c r="AM61">
         <v>30</v>
       </c>
-      <c r="AK61" t="s">
+      <c r="AN61" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -7304,63 +7322,63 @@
       <c r="N62">
         <v>2016</v>
       </c>
-      <c r="P62" s="2" t="s">
+      <c r="S62" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Q62" s="2">
-        <v>0</v>
-      </c>
-      <c r="R62" s="2">
-        <v>0</v>
-      </c>
-      <c r="S62" s="2" t="s">
+      <c r="T62" s="2">
+        <v>0</v>
+      </c>
+      <c r="U62" s="2">
+        <v>0</v>
+      </c>
+      <c r="V62" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2" t="s">
+      <c r="W62" s="2"/>
+      <c r="X62" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="V62" s="2" t="s">
+      <c r="Y62" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="W62" s="2" t="s">
+      <c r="Z62" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="X62" s="2"/>
-      <c r="Y62" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z62" s="2"/>
-      <c r="AA62" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>41</v>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF62" s="2"/>
+      <c r="AG62" t="s">
         <v>56</v>
       </c>
-      <c r="AE62">
+      <c r="AH62">
         <v>9.7469999999999999</v>
       </c>
-      <c r="AG62">
+      <c r="AJ62">
         <v>0.97499999999999964</v>
       </c>
-      <c r="AH62">
+      <c r="AK62">
         <v>4</v>
       </c>
-      <c r="AI62">
-        <v>50</v>
-      </c>
-      <c r="AJ62">
+      <c r="AL62">
+        <v>50</v>
+      </c>
+      <c r="AM62">
         <v>30</v>
       </c>
-      <c r="AK62" t="s">
+      <c r="AN62" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -7388,63 +7406,63 @@
       <c r="N63">
         <v>2016</v>
       </c>
-      <c r="P63" s="2" t="s">
+      <c r="S63" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Q63" s="2">
-        <v>0</v>
-      </c>
-      <c r="R63" s="2">
-        <v>0</v>
-      </c>
-      <c r="S63" s="2" t="s">
+      <c r="T63" s="2">
+        <v>0</v>
+      </c>
+      <c r="U63" s="2">
+        <v>0</v>
+      </c>
+      <c r="V63" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="T63" s="2"/>
-      <c r="U63" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="V63" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Y63" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z63" s="2"/>
-      <c r="AA63" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>46</v>
+      <c r="AB63" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF63" s="2"/>
+      <c r="AG63" t="s">
         <v>56</v>
       </c>
-      <c r="AE63">
+      <c r="AH63">
         <v>9.6539999999999999</v>
       </c>
-      <c r="AG63">
+      <c r="AJ63">
         <v>0.69599999999999973</v>
       </c>
-      <c r="AH63">
+      <c r="AK63">
         <v>4</v>
       </c>
-      <c r="AI63">
-        <v>50</v>
-      </c>
-      <c r="AJ63">
+      <c r="AL63">
+        <v>50</v>
+      </c>
+      <c r="AM63">
         <v>30</v>
       </c>
-      <c r="AK63" t="s">
+      <c r="AN63" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -7472,63 +7490,63 @@
       <c r="N64">
         <v>2016</v>
       </c>
-      <c r="P64" s="2" t="s">
+      <c r="S64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q64" s="2">
-        <v>0</v>
-      </c>
-      <c r="R64" s="2">
-        <v>0</v>
-      </c>
-      <c r="S64" s="2" t="s">
+      <c r="T64" s="2">
+        <v>0</v>
+      </c>
+      <c r="U64" s="2">
+        <v>0</v>
+      </c>
+      <c r="V64" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="T64" s="2"/>
-      <c r="U64" s="2" t="s">
+      <c r="W64" s="2"/>
+      <c r="X64" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="V64" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W64" s="2"/>
-      <c r="X64" s="2"/>
       <c r="Y64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Z64" s="2" t="s">
+      <c r="AC64" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA64" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB64" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC64" s="2"/>
       <c r="AD64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF64" s="2"/>
+      <c r="AG64" t="s">
         <v>56</v>
       </c>
-      <c r="AE64">
+      <c r="AH64">
         <v>10.722</v>
       </c>
-      <c r="AG64">
+      <c r="AJ64">
         <v>3.1560000000000006</v>
       </c>
-      <c r="AH64">
+      <c r="AK64">
         <v>4</v>
       </c>
-      <c r="AI64">
-        <v>50</v>
-      </c>
-      <c r="AJ64">
+      <c r="AL64">
+        <v>50</v>
+      </c>
+      <c r="AM64">
         <v>30</v>
       </c>
-      <c r="AK64" t="s">
+      <c r="AN64" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -7556,57 +7574,57 @@
       <c r="N65">
         <v>2016</v>
       </c>
-      <c r="P65" s="2" t="s">
+      <c r="S65" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Q65" s="2">
-        <v>0</v>
-      </c>
-      <c r="R65" s="2">
-        <v>0</v>
-      </c>
-      <c r="S65" s="2" t="s">
+      <c r="T65" s="2">
+        <v>0</v>
+      </c>
+      <c r="U65" s="2">
+        <v>0</v>
+      </c>
+      <c r="V65" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2" t="s">
+      <c r="W65" s="2"/>
+      <c r="X65" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="V65" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
       <c r="Y65" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z65" s="2"/>
-      <c r="AA65" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB65" t="s">
-        <v>41</v>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF65" s="2"/>
+      <c r="AG65" t="s">
         <v>56</v>
       </c>
-      <c r="AE65">
+      <c r="AH65">
         <v>8.4009999999999998</v>
       </c>
-      <c r="AG65">
+      <c r="AJ65">
         <v>0.55700000000000038</v>
       </c>
-      <c r="AH65">
+      <c r="AK65">
         <v>4</v>
       </c>
-      <c r="AI65">
-        <v>50</v>
-      </c>
-      <c r="AJ65">
+      <c r="AL65">
+        <v>50</v>
+      </c>
+      <c r="AM65">
         <v>30</v>
       </c>
-      <c r="AK65" t="s">
+      <c r="AN65" t="s">
         <v>87</v>
       </c>
     </row>
@@ -7617,7 +7635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3C8517-761C-A94F-AF3C-A69AA346B7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72123387-893C-E743-8A46-3C4F54B04AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37780" yWindow="-420" windowWidth="33760" windowHeight="19380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2030,7 +2030,7 @@
   <dimension ref="A1:AP245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AL166" sqref="AL166:AN245"/>
     </sheetView>
   </sheetViews>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72123387-893C-E743-8A46-3C4F54B04AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD230B6E-822A-6F48-9FD4-4BB6CCF9926C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37780" yWindow="-420" windowWidth="33760" windowHeight="19380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37780" yWindow="-420" windowWidth="33760" windowHeight="19380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4817" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6063" uniqueCount="990">
   <si>
     <t>datasetID</t>
   </si>
@@ -575,6 +575,2424 @@
   </si>
   <si>
     <t>Table 5</t>
+  </si>
+  <si>
+    <t>Publication.Type</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Article.Title</t>
+  </si>
+  <si>
+    <t>Source.Title</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Start.Page</t>
+  </si>
+  <si>
+    <t>Publication.Year</t>
+  </si>
+  <si>
+    <t>accept_reject</t>
+  </si>
+  <si>
+    <t>reason_reject</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>paper_pulled</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>checkedby</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>firstTemp</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>studyID</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Abdul Baqi; Hussain, S. A.; Wazir Muhammad; Sharafat Khan</t>
+  </si>
+  <si>
+    <t>Effect of different stratification periods on germination and vigour of pecan cultivars.</t>
+  </si>
+  <si>
+    <t>Sarhad Journal of Agriculture</t>
+  </si>
+  <si>
+    <t>Pecan</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ILL needed</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Abdul Baqi</t>
+  </si>
+  <si>
+    <t>abdul</t>
+  </si>
+  <si>
+    <t>abdul94</t>
+  </si>
+  <si>
+    <t>Abreu, Daniela Cleide A. de; Nogueira, Antonio Carlos; Medeiros, Antonio Carlos de Souza</t>
+  </si>
+  <si>
+    <t>Efeito do substrato e da temperatura na germina√ß√£o de sementes de cataia (Drimys brasiliensis miers. winteraceae)</t>
+  </si>
+  <si>
+    <t>Revista Brasileira de Sementes</t>
+  </si>
+  <si>
+    <t>Drimys</t>
+  </si>
+  <si>
+    <t>brasiliensis</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Abreu, Daniela Cleide A. de</t>
+  </si>
+  <si>
+    <t>Abreu</t>
+  </si>
+  <si>
+    <t>abreu</t>
+  </si>
+  <si>
+    <t>abreu05</t>
+  </si>
+  <si>
+    <t>Abuduca Diel; Ayimaimu Shawuti; Maimai Tiaili</t>
+  </si>
+  <si>
+    <t>Effect of pistachio seed soaking in solution of GA3 before stratification on the germination rate.</t>
+  </si>
+  <si>
+    <t>China Fruits</t>
+  </si>
+  <si>
+    <t>Pistachio</t>
+  </si>
+  <si>
+    <t>There is a 0 GA treatment</t>
+  </si>
+  <si>
+    <t>EMW</t>
+  </si>
+  <si>
+    <t>Abuduca Diel</t>
+  </si>
+  <si>
+    <t>abuduca</t>
+  </si>
+  <si>
+    <t>abuduca06</t>
+  </si>
+  <si>
+    <t>Acosta, J. M.; Bentivegna, D. J.; Panigo, E. S.; Dellaferrera, I.; Perreta, M. G.</t>
+  </si>
+  <si>
+    <t>Factors affecting seed germination and emergence of Gomphrena perennis</t>
+  </si>
+  <si>
+    <t>WEED RESEARCH</t>
+  </si>
+  <si>
+    <t>Gomphrena</t>
+  </si>
+  <si>
+    <t>perennis</t>
+  </si>
+  <si>
+    <t>Acosta, J. M.</t>
+  </si>
+  <si>
+    <t>Acosta</t>
+  </si>
+  <si>
+    <t>acosta</t>
+  </si>
+  <si>
+    <t>acosta13</t>
+  </si>
+  <si>
+    <t>Acuna, P. B.</t>
+  </si>
+  <si>
+    <t>Effect of pretreatment on germination of seeds of Eucryphia glutinosa (Poepp. et Endl.) Baillon.</t>
+  </si>
+  <si>
+    <t>Bosque</t>
+  </si>
+  <si>
+    <t>Eucryphia</t>
+  </si>
+  <si>
+    <t>glutinosa</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Acuna</t>
+  </si>
+  <si>
+    <t>acuna</t>
+  </si>
+  <si>
+    <t>acuna03</t>
+  </si>
+  <si>
+    <t>Agah, F.; Esmaeili, M. A.; Farzam, M.; Abbasi, R.</t>
+  </si>
+  <si>
+    <t>Effect of dormancy breaking treatments and seed bed medium on seed germination and morphology of Capparis spinosa L. seedlings.</t>
+  </si>
+  <si>
+    <t>Iranian Journal of Seed Science and Technology</t>
+  </si>
+  <si>
+    <t>fa45</t>
+  </si>
+  <si>
+    <t>Caper</t>
+  </si>
+  <si>
+    <t>"Mazdavand ecotype"</t>
+  </si>
+  <si>
+    <t>Agah, F.</t>
+  </si>
+  <si>
+    <t>Agah</t>
+  </si>
+  <si>
+    <t>agah</t>
+  </si>
+  <si>
+    <t>agah20</t>
+  </si>
+  <si>
+    <t>Ahmad, H.; Hitchmough, J. D.</t>
+  </si>
+  <si>
+    <t>Germination and emergence of understorey and tall canopy forbs used in naturalistic sowing mixes. A comparison of performance in vitro v the field</t>
+  </si>
+  <si>
+    <t>SEED SCIENCE AND TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t>Ahmad, H.</t>
+  </si>
+  <si>
+    <t>Ahmad</t>
+  </si>
+  <si>
+    <t>ahmad</t>
+  </si>
+  <si>
+    <t>ahmad07</t>
+  </si>
+  <si>
+    <t>Ahn, H. K.; Kim, S. K.; Oh, J. H.</t>
+  </si>
+  <si>
+    <t>Seed germination of Actinidia arguta as affected by chilling, gibberellin, kinetin and light.</t>
+  </si>
+  <si>
+    <t>Journal of the Korean Society for Horticultural Science</t>
+  </si>
+  <si>
+    <t>Actinida</t>
+  </si>
+  <si>
+    <t>arguta</t>
+  </si>
+  <si>
+    <t>Ahn, H. K.</t>
+  </si>
+  <si>
+    <t>Ahn</t>
+  </si>
+  <si>
+    <t>ahn</t>
+  </si>
+  <si>
+    <t>ahn84</t>
+  </si>
+  <si>
+    <t>Ahola, V; Leinonen, K</t>
+  </si>
+  <si>
+    <t>Responses of Betula pendula, Picea abies, and Pinus sylvestris seeds to red/far-red ratios as affected by moist chilling and germination temperature</t>
+  </si>
+  <si>
+    <t>CANADIAN JOURNAL OF FOREST RESEARCH-REVUE CANADIENNE DE RECHERCHE FORESTIERE</t>
+  </si>
+  <si>
+    <t>Temp treatments might 100% covary with light treatments</t>
+  </si>
+  <si>
+    <t>Ahola, V</t>
+  </si>
+  <si>
+    <t>Ahola</t>
+  </si>
+  <si>
+    <t>ahola</t>
+  </si>
+  <si>
+    <t>ahola99</t>
+  </si>
+  <si>
+    <t>Aiello, N.; Fusani, P.</t>
+  </si>
+  <si>
+    <t>Effects of prechilling and gibberellic acid on seed germination of roseroot.</t>
+  </si>
+  <si>
+    <t>Sementi Elette</t>
+  </si>
+  <si>
+    <t>Rhodeola</t>
+  </si>
+  <si>
+    <t>rosea</t>
+  </si>
+  <si>
+    <t>Aiello, N.</t>
+  </si>
+  <si>
+    <t>Aiello</t>
+  </si>
+  <si>
+    <t>aiello</t>
+  </si>
+  <si>
+    <t>aiello04</t>
+  </si>
+  <si>
+    <t>Aiello, Nicola; Lombardo, Gabriella; Gianni, Sergio; Scartezzini, Fabrizio; Fusani, Pietro</t>
+  </si>
+  <si>
+    <t>The effect of cold stratification and of gibberellic acid on the seed germination of wild musk yarrow [Achillea erba-rotta subsp. moschata (Wulfen) I. Richardson] populations</t>
+  </si>
+  <si>
+    <t>JOURNAL OF APPLIED RESEARCH ON MEDICINAL AND AROMATIC PLANTS</t>
+  </si>
+  <si>
+    <t>Achillea</t>
+  </si>
+  <si>
+    <t>erbarotta</t>
+  </si>
+  <si>
+    <t>Aiello, Nicola</t>
+  </si>
+  <si>
+    <t>aiello17</t>
+  </si>
+  <si>
+    <t>Ailin Masini, Ana Carla; Edit Rovere, Adriana; Ines Pirk, Gabriela</t>
+  </si>
+  <si>
+    <t>Pre-germinative requirements of Maihuenia patagonica and Maihueniopsis darwinii endemic cacti from Patagonia</t>
+  </si>
+  <si>
+    <t>GAYANA BOTANICA</t>
+  </si>
+  <si>
+    <t>Maihuenia</t>
+  </si>
+  <si>
+    <t>Ailin Masini, Ana Carla</t>
+  </si>
+  <si>
+    <t>Ailin Masini</t>
+  </si>
+  <si>
+    <t>ailin</t>
+  </si>
+  <si>
+    <t>ailin14</t>
+  </si>
+  <si>
+    <t>Airi, S.; Bhatt, I. D.; Bhatt, A.; Rawal, R. S.; Dhar, U.</t>
+  </si>
+  <si>
+    <t>Variations in seed germination of Hippophae salicifolia with different presoaking treatments</t>
+  </si>
+  <si>
+    <t>Journal of Forestry Research (Harbin)</t>
+  </si>
+  <si>
+    <t>Hippophae</t>
+  </si>
+  <si>
+    <t>salicifolia</t>
+  </si>
+  <si>
+    <t>Airi, S.</t>
+  </si>
+  <si>
+    <t>Airi</t>
+  </si>
+  <si>
+    <t>airi</t>
+  </si>
+  <si>
+    <t>airi09</t>
+  </si>
+  <si>
+    <t>Al-Absi, K. M.</t>
+  </si>
+  <si>
+    <t>The effects of different pre-sowing seed treatments on breaking the dormancy of mahaleb cherries, Prunus mahaleb L. seeds</t>
+  </si>
+  <si>
+    <t>Prunus</t>
+  </si>
+  <si>
+    <t>mahaleb</t>
+  </si>
+  <si>
+    <t>UBC might have access to this journal</t>
+  </si>
+  <si>
+    <t>Al-Absi</t>
+  </si>
+  <si>
+    <t>al-absi</t>
+  </si>
+  <si>
+    <t>al-absi10</t>
+  </si>
+  <si>
+    <t>Alan, Ozlem; Eser, Benian</t>
+  </si>
+  <si>
+    <t>Pepper seed yield and quality in relation to fruit position on the mother plant.</t>
+  </si>
+  <si>
+    <t>Pakistan journal of biological sciences : PJBS</t>
+  </si>
+  <si>
+    <t>Capsicum</t>
+  </si>
+  <si>
+    <t>annuum</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>Alan, Ozlem</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>alan</t>
+  </si>
+  <si>
+    <t>alan07</t>
+  </si>
+  <si>
+    <t>Aldridge, C. D.; Probert, R. J.</t>
+  </si>
+  <si>
+    <t>Effects of partial drying on seed germination in the aquatic grasses Zizania palustris L. and Porteresia coarctata (Roxb.) Tateoka</t>
+  </si>
+  <si>
+    <t>Seed Science Research</t>
+  </si>
+  <si>
+    <t>Mutiple</t>
+  </si>
+  <si>
+    <t>Aldridge, C. D.</t>
+  </si>
+  <si>
+    <t>Aldridge</t>
+  </si>
+  <si>
+    <t>aldridge</t>
+  </si>
+  <si>
+    <t>aldridge92</t>
+  </si>
+  <si>
+    <t>AlHelal, AA</t>
+  </si>
+  <si>
+    <t>Studies on germination of Rumex dentatus L seeds</t>
+  </si>
+  <si>
+    <t>JOURNAL OF ARID ENVIRONMENTS</t>
+  </si>
+  <si>
+    <t>Rumex</t>
+  </si>
+  <si>
+    <t>dentatus</t>
+  </si>
+  <si>
+    <t>AlHelal</t>
+  </si>
+  <si>
+    <t>alhelal</t>
+  </si>
+  <si>
+    <t>alhelal96</t>
+  </si>
+  <si>
+    <t>Alinaghizadeh, M.; Khajeh-Hosseini, M.; Hosseini, S. A.; Mohasel, M. H. R.</t>
+  </si>
+  <si>
+    <t>The study of seed germination and dormancy of Chenopodium album, Convolvulus arvensis and Setaria viridis in pistachio orchards of Rafsanjan, Iran.</t>
+  </si>
+  <si>
+    <t>Iranian Journal of Seed Research</t>
+  </si>
+  <si>
+    <t>Pe71</t>
+  </si>
+  <si>
+    <t>Alinaghizadeh, M.</t>
+  </si>
+  <si>
+    <t>Alinaghizadeh</t>
+  </si>
+  <si>
+    <t>alinaghizadeh</t>
+  </si>
+  <si>
+    <t>alinaghizadeh17</t>
+  </si>
+  <si>
+    <t>ALLEN, G. S.</t>
+  </si>
+  <si>
+    <t>Factors affecting the viability and germination behavior of coniferous seed I. Cone and seed maturity, Tsuga heterophylla (Rafn.) Sarg. II. Cone and seed maturity, Pseudotsuga menziesii (Mirb.) Franco. III. Commercial processing and treatments similar to processing, Pseudotsuga menziesii (Mirb.) Franco, and other species</t>
+  </si>
+  <si>
+    <t>FOREST CHRON</t>
+  </si>
+  <si>
+    <t>ALLEN</t>
+  </si>
+  <si>
+    <t>allen</t>
+  </si>
+  <si>
+    <t>allen58</t>
+  </si>
+  <si>
+    <t>Alptekin, C. U.; Tilki, F.</t>
+  </si>
+  <si>
+    <t>Effects of stratification and pericarp removal on germination of Quercus libani acorns.</t>
+  </si>
+  <si>
+    <t>Silva Balcanica</t>
+  </si>
+  <si>
+    <t>2(1)</t>
+  </si>
+  <si>
+    <t>Quercus</t>
+  </si>
+  <si>
+    <t>libani</t>
+  </si>
+  <si>
+    <t>Alptekin, C. U.</t>
+  </si>
+  <si>
+    <t>Alptekin</t>
+  </si>
+  <si>
+    <t>alptekin</t>
+  </si>
+  <si>
+    <t>alptekin02</t>
+  </si>
+  <si>
+    <t>Amini, Arash; Kouchaksaraei, Masoud Tabari; Hosseini, Seyed Mohsen; Yousefzadeh, Hamed</t>
+  </si>
+  <si>
+    <t>INFLUENCE OF SEED MATURITY, PROVENANCE, AND DORMANCY BREAKAGE TREATMENT ON IMPROVEMENT OF SEED GERMINATION OF TILIA RUBRA SUBSP. CAUCASICA (RUPR.) V. ENGL. FORMA ANGULATA RUPR.</t>
+  </si>
+  <si>
+    <t>PROPAGATION OF ORNAMENTAL PLANTS</t>
+  </si>
+  <si>
+    <t>Tilia</t>
+  </si>
+  <si>
+    <t>rubra</t>
+  </si>
+  <si>
+    <t>Amini, Arash</t>
+  </si>
+  <si>
+    <t>Amini</t>
+  </si>
+  <si>
+    <t>amini</t>
+  </si>
+  <si>
+    <t>amini18</t>
+  </si>
+  <si>
+    <t>Amiri, J.; Rahemi, M.</t>
+  </si>
+  <si>
+    <t>The effect of temperature and hard shell removal on olive seed germination.</t>
+  </si>
+  <si>
+    <t>Journal of Agriculture Sciences</t>
+  </si>
+  <si>
+    <t>Olea</t>
+  </si>
+  <si>
+    <t>europaea</t>
+  </si>
+  <si>
+    <t>Amiri, J.</t>
+  </si>
+  <si>
+    <t>Amiri</t>
+  </si>
+  <si>
+    <t>amiri</t>
+  </si>
+  <si>
+    <t>amiri04</t>
+  </si>
+  <si>
+    <t>Amooaghaie, R.</t>
+  </si>
+  <si>
+    <t>The effect mechanism of moist-chilling and GA3 on seed germination and subsequent seedling growth of Ferula ovina Boiss.</t>
+  </si>
+  <si>
+    <t>Open Plant Science Journal</t>
+  </si>
+  <si>
+    <t>Ferula</t>
+  </si>
+  <si>
+    <t>ovina</t>
+  </si>
+  <si>
+    <t>Amooaghaie</t>
+  </si>
+  <si>
+    <t>amooaghaie</t>
+  </si>
+  <si>
+    <t>amooaghaie09</t>
+  </si>
+  <si>
+    <t>An JunXia; Zhao Yu; Zhang ZhengKun; Shi HaiPeng; Ji DongMing; Cao HongYi; Du Qian; Li QiYun</t>
+  </si>
+  <si>
+    <t>Induction of cold tolerance in rice at the breeding stage by Gongzhulingmycin.</t>
+  </si>
+  <si>
+    <t>Scientia Agricultura Sinica</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>An JunXia</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>an20</t>
+  </si>
+  <si>
+    <t>Angelini, Luciana G.; Clemente, Clarissa; Tavarini, Silvia</t>
+  </si>
+  <si>
+    <t>Pre-Germination Treatments, Temperature, and Light Conditions Improved Seed Germination of Passiflora incarnata L.</t>
+  </si>
+  <si>
+    <t>AGRICULTURE-BASEL</t>
+  </si>
+  <si>
+    <t>Angelini, Luciana G.</t>
+  </si>
+  <si>
+    <t>Angelini</t>
+  </si>
+  <si>
+    <t>angelini</t>
+  </si>
+  <si>
+    <t>angelini21</t>
+  </si>
+  <si>
+    <t>[Anonymous]</t>
+  </si>
+  <si>
+    <t>Seed testing.</t>
+  </si>
+  <si>
+    <t>Report. Forest Department, Fiji, 1960</t>
+  </si>
+  <si>
+    <t>Agathis</t>
+  </si>
+  <si>
+    <t>vitiensis</t>
+  </si>
+  <si>
+    <t>[anonymous]</t>
+  </si>
+  <si>
+    <t>[anonymous]61</t>
+  </si>
+  <si>
+    <t>Arji, I.; Dasgerdee, M. R.; Gerdekaneh, M.</t>
+  </si>
+  <si>
+    <t>Comparison of acid scarification, cold stratification on seed germination of three olive cultivars.</t>
+  </si>
+  <si>
+    <t>fa119</t>
+  </si>
+  <si>
+    <t>Arji, I.</t>
+  </si>
+  <si>
+    <t>Arji</t>
+  </si>
+  <si>
+    <t>arji</t>
+  </si>
+  <si>
+    <t>arji20</t>
+  </si>
+  <si>
+    <t>Arslan, Hulya; Kirmizi, Serap; Guleryuz, Gurcan; Sakar, F. Selcen</t>
+  </si>
+  <si>
+    <t>GERMINATION REQUIREMENTS OF ANDROSACE VILLOSA L. (PRIMULACEAE)</t>
+  </si>
+  <si>
+    <t>ACTA BIOLOGICA CRACOVIENSIA SERIES BOTANICA</t>
+  </si>
+  <si>
+    <t>Arslan, Hulya</t>
+  </si>
+  <si>
+    <t>Arslan</t>
+  </si>
+  <si>
+    <t>arslan</t>
+  </si>
+  <si>
+    <t>arslan11</t>
+  </si>
+  <si>
+    <t>Ashraf, M; Kausar, A; Ashraf, MY</t>
+  </si>
+  <si>
+    <t>Alleviation of salt stress in pearl millet (Pennisetum glaucum (L.) R. Br.) through seed treatments</t>
+  </si>
+  <si>
+    <t>AGRONOMIE</t>
+  </si>
+  <si>
+    <t>Pennisetum</t>
+  </si>
+  <si>
+    <t>glaucum</t>
+  </si>
+  <si>
+    <t>Ashraf, M</t>
+  </si>
+  <si>
+    <t>Ashraf</t>
+  </si>
+  <si>
+    <t>ashraf</t>
+  </si>
+  <si>
+    <t>ashraf03</t>
+  </si>
+  <si>
+    <t>Atabaki, Zahra Mahmoodi; Gherekhloo, Javid; Ghaderi-Far, Farshid; Ansari, Omid; Hassanpour-bourkheili, Saeid</t>
+  </si>
+  <si>
+    <t>Investigating the effects of temperature on seed germination of cutleaf geranium (Geranium dissectum L.) and determination of its cardinal temperatures</t>
+  </si>
+  <si>
+    <t>PHYTOPARASITICA</t>
+  </si>
+  <si>
+    <t>Geranium</t>
+  </si>
+  <si>
+    <t>dissectum</t>
+  </si>
+  <si>
+    <t>HHN</t>
+  </si>
+  <si>
+    <t>Atabaki, Zahra Mahmoodi</t>
+  </si>
+  <si>
+    <t>Atabaki</t>
+  </si>
+  <si>
+    <t>atabaki</t>
+  </si>
+  <si>
+    <t>atabaki21</t>
+  </si>
+  <si>
+    <t>Atak, Arif; Sen, Abdulbaki</t>
+  </si>
+  <si>
+    <t>A grape breeding programme using different Vitis species</t>
+  </si>
+  <si>
+    <t>PLANT BREEDING</t>
+  </si>
+  <si>
+    <t>Vitis</t>
+  </si>
+  <si>
+    <t>Atak, Arif</t>
+  </si>
+  <si>
+    <t>Atak</t>
+  </si>
+  <si>
+    <t>atak</t>
+  </si>
+  <si>
+    <t>atak21</t>
+  </si>
+  <si>
+    <t>Azizi, H.; Moghaddam, P. R.; Parsa, M.; Shoor, M.; Khorasani, R.</t>
+  </si>
+  <si>
+    <t>Study on seed dormancy breakage treatments and some germination properties of Colchicum kotschyi Boiss. as a medicinal plant.</t>
+  </si>
+  <si>
+    <t>Iranian Journal of Seed Science and Research</t>
+  </si>
+  <si>
+    <t>fa399</t>
+  </si>
+  <si>
+    <t>Colchicum</t>
+  </si>
+  <si>
+    <t>kotschyi</t>
+  </si>
+  <si>
+    <t>Azizi, H.</t>
+  </si>
+  <si>
+    <t>Azizi</t>
+  </si>
+  <si>
+    <t>azizi</t>
+  </si>
+  <si>
+    <t>azizi19</t>
+  </si>
+  <si>
+    <t>Bae EunJi; Na HaeYoung</t>
+  </si>
+  <si>
+    <t>Optimum seed maturity, stratification and washing method for establishment of seed propagation system in water dropwort (Oenanthe stolonifera DC).</t>
+  </si>
+  <si>
+    <t>Korean Journal of Breeding Science</t>
+  </si>
+  <si>
+    <t>Oenanthe</t>
+  </si>
+  <si>
+    <t>javanica</t>
+  </si>
+  <si>
+    <t>Bae EunJi</t>
+  </si>
+  <si>
+    <t>bae</t>
+  </si>
+  <si>
+    <t>bae15</t>
+  </si>
+  <si>
+    <t>Baek, Saeng Geul; Im, Jin Hyun; Kwak, Myeong Ja; Park, Cho Hee; Lee, Mi Hyun; Na, Chae Sun; Woo, Su Young</t>
+  </si>
+  <si>
+    <t>Non-Deep Physiological Dormancy in Seed and Germination Requirements of Lysimachia coreana Nakai</t>
+  </si>
+  <si>
+    <t>HORTICULTURAE</t>
+  </si>
+  <si>
+    <t>Lysimachia</t>
+  </si>
+  <si>
+    <t>coreana</t>
+  </si>
+  <si>
+    <t>Baek, Saeng Geul</t>
+  </si>
+  <si>
+    <t>Baek</t>
+  </si>
+  <si>
+    <t>baek</t>
+  </si>
+  <si>
+    <t>baek21</t>
+  </si>
+  <si>
+    <t>Bahrani, M. J.; Niknejad-Kazempour, H.</t>
+  </si>
+  <si>
+    <t>Effect of dormancy breaking treatments and salinity on seed germination of two desert shrubs</t>
+  </si>
+  <si>
+    <t>ARID LAND RESEARCH AND MANAGEMENT</t>
+  </si>
+  <si>
+    <t>Bahrani, M. J.</t>
+  </si>
+  <si>
+    <t>Bahrani</t>
+  </si>
+  <si>
+    <t>bahrani</t>
+  </si>
+  <si>
+    <t>bahrani07</t>
+  </si>
+  <si>
+    <t>BALBOA O; GIL G; VALENZUELA W</t>
+  </si>
+  <si>
+    <t>SEED GERMINATION BEHAVIOR OF 2 CULTIVAR MERICIER CHERRY PRUNUS-AVIUM CLONES</t>
+  </si>
+  <si>
+    <t>Ciencia e Investigacion Agraria</t>
+  </si>
+  <si>
+    <t>BALBOA O</t>
+  </si>
+  <si>
+    <t>balboa</t>
+  </si>
+  <si>
+    <t>balboa83</t>
+  </si>
+  <si>
+    <t>Barak, Rebecca S.; Lichtenberger, Taran M.; Wellman-Houde, Alyssa; Kramer, Andrea T.; Larkin, Daniel J.</t>
+  </si>
+  <si>
+    <t>Cracking the case: Seed traits and phylogeny predict time to germination in prairie restoration species</t>
+  </si>
+  <si>
+    <t>ECOLOGY AND EVOLUTION</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>Barak, Rebecca S.</t>
+  </si>
+  <si>
+    <t>Barak</t>
+  </si>
+  <si>
+    <t>barak</t>
+  </si>
+  <si>
+    <t>barak18</t>
+  </si>
+  <si>
+    <t>BARNHILL, MA; CUNNINGHAM, M; FARMER, RE</t>
+  </si>
+  <si>
+    <t>GERMINATION CHARACTERISTICS OF PAULOWNIA-TOMENTOSA</t>
+  </si>
+  <si>
+    <t>Paulownia</t>
+  </si>
+  <si>
+    <t>tomentosa</t>
+  </si>
+  <si>
+    <t>can't find article through UBC search collections</t>
+  </si>
+  <si>
+    <t>BARNHILL, MA</t>
+  </si>
+  <si>
+    <t>BARNHILL</t>
+  </si>
+  <si>
+    <t>barnhill</t>
+  </si>
+  <si>
+    <t>barnhill82</t>
+  </si>
+  <si>
+    <t>Barros Moreira, Orlanda Cristina; Martins, Jose; Silva, Luis; Moura, Monica</t>
+  </si>
+  <si>
+    <t>Seed Germination and Seedling Growth of the Endangered Azorean Cherry Prunus azorica</t>
+  </si>
+  <si>
+    <t>HORTSCIENCE</t>
+  </si>
+  <si>
+    <t>azorica</t>
+  </si>
+  <si>
+    <t>Barros Moreira, Orlanda Cristina</t>
+  </si>
+  <si>
+    <t>Barros Moreira</t>
+  </si>
+  <si>
+    <t>barros</t>
+  </si>
+  <si>
+    <t>barros12</t>
+  </si>
+  <si>
+    <t>Basaran, U.; Mut, H.; Asci, O. Onal; Ayan, I.; Acar, Z.</t>
+  </si>
+  <si>
+    <t>Germination pattern of naturally grown Lathyrus and Vicia species to different methods and seedbeds</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL JOURNAL OF PLANT PRODUCTION</t>
+  </si>
+  <si>
+    <t>Basaran, U.</t>
+  </si>
+  <si>
+    <t>Basaran</t>
+  </si>
+  <si>
+    <t>basaran</t>
+  </si>
+  <si>
+    <t>basaran12</t>
+  </si>
+  <si>
+    <t>Basbag, Mehmet; Toncer, Ozlem; Basbag, Sema</t>
+  </si>
+  <si>
+    <t>Effects of different temperatures and duration on germination of caper (Capparis ovata) seeds</t>
+  </si>
+  <si>
+    <t>JOURNAL OF ENVIRONMENTAL BIOLOGY</t>
+  </si>
+  <si>
+    <t>Capparis</t>
+  </si>
+  <si>
+    <t>ovata</t>
+  </si>
+  <si>
+    <t>Basbag, Mehmet</t>
+  </si>
+  <si>
+    <t>Basbag</t>
+  </si>
+  <si>
+    <t>basbag</t>
+  </si>
+  <si>
+    <t>basbag09</t>
+  </si>
+  <si>
+    <t>Bashiri, K.; Jokar, A.; Karami, A.</t>
+  </si>
+  <si>
+    <t>Effects of cold stratification and plant growth regulators on seed germination of Iranian horned poppy (Glaucium corniculatum).</t>
+  </si>
+  <si>
+    <t>fa53</t>
+  </si>
+  <si>
+    <t>Glaucium</t>
+  </si>
+  <si>
+    <t>corniculatum</t>
+  </si>
+  <si>
+    <t>Bashiri, K.</t>
+  </si>
+  <si>
+    <t>Bashiri</t>
+  </si>
+  <si>
+    <t>bashiri</t>
+  </si>
+  <si>
+    <t>bashiri17</t>
+  </si>
+  <si>
+    <t>Batlla, D; Benech-Arnold, RL</t>
+  </si>
+  <si>
+    <t>A quantitative analysis of dormancy loss dynamics in Polygonum aviculare L. seeds: Development of a thermal time model based on changes in seed population thermal parameters</t>
+  </si>
+  <si>
+    <t>SEED SCIENCE RESEARCH</t>
+  </si>
+  <si>
+    <t>Polygonum</t>
+  </si>
+  <si>
+    <t>aviculare</t>
+  </si>
+  <si>
+    <t>Batlla, D</t>
+  </si>
+  <si>
+    <t>Batlla</t>
+  </si>
+  <si>
+    <t>batlla</t>
+  </si>
+  <si>
+    <t>batlla03</t>
+  </si>
+  <si>
+    <t>Battaglia, M</t>
+  </si>
+  <si>
+    <t>Seed germination model for Eucalytpus delegatensis provenances germinating under conditions of variable temperature and water potential</t>
+  </si>
+  <si>
+    <t>AUSTRALIAN JOURNAL OF PLANT PHYSIOLOGY</t>
+  </si>
+  <si>
+    <t>Eucalyptus</t>
+  </si>
+  <si>
+    <t>delegatensis</t>
+  </si>
+  <si>
+    <t>Battaglia</t>
+  </si>
+  <si>
+    <t>battaglia</t>
+  </si>
+  <si>
+    <t>battaglia97</t>
+  </si>
+  <si>
+    <t>BATTAGLIA, M</t>
+  </si>
+  <si>
+    <t>SEED-GERMINATION PHYSIOLOGY OF EUCALYPTUS-DELEGATENIS BAKER,R.T. IN TASMANIA</t>
+  </si>
+  <si>
+    <t>AUSTRALIAN JOURNAL OF BOTANY</t>
+  </si>
+  <si>
+    <t>BATTAGLIA</t>
+  </si>
+  <si>
+    <t>battaglia93</t>
+  </si>
+  <si>
+    <t>Belletti, P.; Monteleone, I.; Ferrazzini, D.; Cotto, C.</t>
+  </si>
+  <si>
+    <t>Are sea buckthorn seeds really dormant?</t>
+  </si>
+  <si>
+    <t>Sherwood - Foreste ed Alberi Oggi</t>
+  </si>
+  <si>
+    <t>rhamnoides</t>
+  </si>
+  <si>
+    <t>Belletti, P.</t>
+  </si>
+  <si>
+    <t>Belletti</t>
+  </si>
+  <si>
+    <t>belletti</t>
+  </si>
+  <si>
+    <t>belletti05</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Beppu, K.; Kawashima, Y.; Kataoka, I.</t>
+  </si>
+  <si>
+    <t>Effects of chilling exposure and heating temperature on bud burst and flowering of 'KU-PP1' peach tree.</t>
+  </si>
+  <si>
+    <t>Acta Horticulturae</t>
+  </si>
+  <si>
+    <t>persica</t>
+  </si>
+  <si>
+    <t>Beppu, K.</t>
+  </si>
+  <si>
+    <t>Beppu</t>
+  </si>
+  <si>
+    <t>beppu</t>
+  </si>
+  <si>
+    <t>beppu18</t>
+  </si>
+  <si>
+    <t>Beyhan, N.; Demir, T.; Marangoz, D.</t>
+  </si>
+  <si>
+    <t>The effect of some germination inducing treatments and growing with plastic tube on seed germination and seedling development of walnut.</t>
+  </si>
+  <si>
+    <t>Ondokuzmayis Universitesi, Ziraat Fakultesi Dergisi</t>
+  </si>
+  <si>
+    <t>Juglans</t>
+  </si>
+  <si>
+    <t>Beyhan, N.</t>
+  </si>
+  <si>
+    <t>Beyhan</t>
+  </si>
+  <si>
+    <t>beyhan</t>
+  </si>
+  <si>
+    <t>beyhan99</t>
+  </si>
+  <si>
+    <t>Bezdeckova, L.; Reznickova, J.</t>
+  </si>
+  <si>
+    <t>Effect of pre-sowing treatment on the germination and emergence of silver fir seeds.</t>
+  </si>
+  <si>
+    <t>Zpravy Lesnickeho Vyzkumu</t>
+  </si>
+  <si>
+    <t>Abies</t>
+  </si>
+  <si>
+    <t>alba</t>
+  </si>
+  <si>
+    <t>Bezdeckova, L.</t>
+  </si>
+  <si>
+    <t>Bezdeckova</t>
+  </si>
+  <si>
+    <t>bezdeckova</t>
+  </si>
+  <si>
+    <t>bezdeckova12</t>
+  </si>
+  <si>
+    <t>BIBBY, K. M.</t>
+  </si>
+  <si>
+    <t>Experiments in pre -germination treatment of tree seed</t>
+  </si>
+  <si>
+    <t>FOREST RES NOTES [NEW ZEALAND]</t>
+  </si>
+  <si>
+    <t>BIBBY</t>
+  </si>
+  <si>
+    <t>bibby</t>
+  </si>
+  <si>
+    <t>bibby53</t>
+  </si>
+  <si>
+    <t>BOCHICCHIO A; VAZZANA C; RASCHI A; SALAMINI F</t>
+  </si>
+  <si>
+    <t>EFFECT OF MATURITY DEGREE AND SEED AGE ON GERMINATION AND EARLY GROWTH AT 20 C AND IN COLD TEST CONDITIONS FOR MAIZE HYBRID LARGELY CULTIVATED IN ITALY</t>
+  </si>
+  <si>
+    <t>Rivista di Agronomia</t>
+  </si>
+  <si>
+    <t>Zea</t>
+  </si>
+  <si>
+    <t>Z. mays</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>BOCHICCHIO A</t>
+  </si>
+  <si>
+    <t>bochicchio</t>
+  </si>
+  <si>
+    <t>bochicchio86</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Boddy, Louis G; Bradford, Kent J; Fischer, Albert J</t>
+  </si>
+  <si>
+    <t>Germination rates (GR, calculated by replicate as the inverse of median time to germination (1/t50) using Equation 5) following 24 days of stratification at three temperatures Tb for germination.</t>
+  </si>
+  <si>
+    <t>Figshare</t>
+  </si>
+  <si>
+    <t>Echinochloa</t>
+  </si>
+  <si>
+    <t>oryzicola</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Boddy, Louis G</t>
+  </si>
+  <si>
+    <t>Boddy</t>
+  </si>
+  <si>
+    <t>boddy</t>
+  </si>
+  <si>
+    <t>boddy13</t>
+  </si>
+  <si>
+    <t>Maximum germination rates (GR, calculated by replicate as the inverse of median time to germination (1/t50) using Equation 5) after stratification at 5¬∞C under various water potentials.</t>
+  </si>
+  <si>
+    <t>BORGHETTI, M; VENDRAMIN, GG; VENEZIANO, A; GIANNINI, R</t>
+  </si>
+  <si>
+    <t>INFLUENCE OF STRATIFICATION ON GERMINATION OF PINUS-LEUCODERMIS</t>
+  </si>
+  <si>
+    <t>Pinus</t>
+  </si>
+  <si>
+    <t>leucodermis</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>BORGHETTI, M</t>
+  </si>
+  <si>
+    <t>BORGHETTI</t>
+  </si>
+  <si>
+    <t>borghetti</t>
+  </si>
+  <si>
+    <t>borghetti86</t>
+  </si>
+  <si>
+    <t>Boscagli, A; Sette, B</t>
+  </si>
+  <si>
+    <t>Seed germination enhancement in Satureja montana L. ssp montana</t>
+  </si>
+  <si>
+    <t>Satureja</t>
+  </si>
+  <si>
+    <t>montana</t>
+  </si>
+  <si>
+    <t>Request from authors</t>
+  </si>
+  <si>
+    <t>Boscagli, A</t>
+  </si>
+  <si>
+    <t>Boscagli</t>
+  </si>
+  <si>
+    <t>boscagli</t>
+  </si>
+  <si>
+    <t>boscagli01</t>
+  </si>
+  <si>
+    <t>Boyaci, S.; Altun, B.; Kazankaya, A.</t>
+  </si>
+  <si>
+    <t>The effect of different stratification media and temperature applications on seed germination and seedling growing in rosehip (Rosa canina L.).</t>
+  </si>
+  <si>
+    <t>Yuzuncu Yil Universitesi Journal of Agricultural Sciences</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>canina L.</t>
+  </si>
+  <si>
+    <t>Boyaci, S.</t>
+  </si>
+  <si>
+    <t>Boyaci</t>
+  </si>
+  <si>
+    <t>boyaci</t>
+  </si>
+  <si>
+    <t>boyaci21</t>
+  </si>
+  <si>
+    <t>Bozic, Manja; Stanojevic, Aleksandra; Markovic, Ksenija; Micic, Dragana Ignjatovic; Nikolic, Dragana; Milivojevic, Marija; Nikolic, Ana</t>
+  </si>
+  <si>
+    <t>PHYSIOLOGICAL AND GENE EXPRESSION CHANGES DURING IMBIBITION IN MAIZE SEEDS UNDER LOW TEMPERATURE CONDITIONS</t>
+  </si>
+  <si>
+    <t>GENETIKA-BELGRADE</t>
+  </si>
+  <si>
+    <t>Bozic, Manja</t>
+  </si>
+  <si>
+    <t>Bozic</t>
+  </si>
+  <si>
+    <t>bozic</t>
+  </si>
+  <si>
+    <t>bozic21</t>
+  </si>
+  <si>
+    <t>Braendel, Markus</t>
+  </si>
+  <si>
+    <t>Dormancy and germination of heteromorphic achenes of Bidens frondosa</t>
+  </si>
+  <si>
+    <t>Flora (Jena)</t>
+  </si>
+  <si>
+    <t>Bidens</t>
+  </si>
+  <si>
+    <t>frondosa</t>
+  </si>
+  <si>
+    <t>Braendel</t>
+  </si>
+  <si>
+    <t>braendel</t>
+  </si>
+  <si>
+    <t>braendel04</t>
+  </si>
+  <si>
+    <t>Brandel, M</t>
+  </si>
+  <si>
+    <t>The effect of stratification temperatures on the level of dormancy in primary and secondary dormant seeds of two Carex species</t>
+  </si>
+  <si>
+    <t>PLANT ECOLOGY</t>
+  </si>
+  <si>
+    <t>Carex</t>
+  </si>
+  <si>
+    <t>spp.</t>
+  </si>
+  <si>
+    <t>Brandel</t>
+  </si>
+  <si>
+    <t>brandel</t>
+  </si>
+  <si>
+    <t>brandel05</t>
+  </si>
+  <si>
+    <t>Brenchley, JL; Probert, RJ</t>
+  </si>
+  <si>
+    <t>Seed germination responses to some environmental factors in the seagrass Zostera capricorni from eastern Australia</t>
+  </si>
+  <si>
+    <t>AQUATIC BOTANY</t>
+  </si>
+  <si>
+    <t>Zostera</t>
+  </si>
+  <si>
+    <t>capricorni</t>
+  </si>
+  <si>
+    <t>Brenchley, JL</t>
+  </si>
+  <si>
+    <t>Brenchley</t>
+  </si>
+  <si>
+    <t>brenchley</t>
+  </si>
+  <si>
+    <t>brenchley98</t>
+  </si>
+  <si>
+    <t>BREVIS ACU√ëA, PATRICIO</t>
+  </si>
+  <si>
+    <t>Efecto de tratamiento pregerminativo sobre la germinaci√≥n de semillas de Eucryphia glutinosa (Poepp. et Endl.) Baillon</t>
+  </si>
+  <si>
+    <t>Bosque (Valdivia)</t>
+  </si>
+  <si>
+    <t>BREVIS ACU√ëA</t>
+  </si>
+  <si>
+    <t>brevis</t>
+  </si>
+  <si>
+    <t>brevis03</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Bruckner, C. H.; C. e Silva, J. Osmar da; Cruz, C. D.; Wagner Junior, A.; Moreno Sanchez, M. A.</t>
+  </si>
+  <si>
+    <t>Effect of the Embryo Genotype on the Chilling Requirement for Overcoming Peach Seed Dormancy</t>
+  </si>
+  <si>
+    <t>VII INTERNATIONAL PEACH SYMPOSIUM</t>
+  </si>
+  <si>
+    <t>Bruckner, C. H.</t>
+  </si>
+  <si>
+    <t>Bruckner</t>
+  </si>
+  <si>
+    <t>bruckner</t>
+  </si>
+  <si>
+    <t>bruckner12</t>
+  </si>
+  <si>
+    <t>Brunzel, Stefan</t>
+  </si>
+  <si>
+    <t>Ex-Situ Cultivation and In-Situ Management as Contribution to the Protection of Species - The examples of Cypripedium calceolus, Gladiolus palustris, Gentianella bohemica and Gentianella lutescens</t>
+  </si>
+  <si>
+    <t>Naturschutz und Landschaftsplanung</t>
+  </si>
+  <si>
+    <t>Brunzel</t>
+  </si>
+  <si>
+    <t>brunzel</t>
+  </si>
+  <si>
+    <t>brunzel10</t>
+  </si>
+  <si>
+    <t>Budisavljevic, Alan; Sandev, Dubravka; Randic, Marko; Stamenkovic, Vanja; Kovacic, Sanja</t>
+  </si>
+  <si>
+    <t>Seed dormancy and germination of five selected NATURA-2000 plant species from Croatia showing different germination strategies</t>
+  </si>
+  <si>
+    <t>PLANT BIOSYSTEMS</t>
+  </si>
+  <si>
+    <t>Budisavljevic, Alan</t>
+  </si>
+  <si>
+    <t>Budisavljevic</t>
+  </si>
+  <si>
+    <t>budisavljevic</t>
+  </si>
+  <si>
+    <t>budisavljevic21</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>BUSURIN, M.</t>
+  </si>
+  <si>
+    <t>The biology of the development of cherry seeds Referat. Zhur., Biol., 1959, No. 92748. (Translation)</t>
+  </si>
+  <si>
+    <t>Dokl. Mosk. Sel'skokhoz. Akad Im. K. A. Timiryazeva</t>
+  </si>
+  <si>
+    <t>avium</t>
+  </si>
+  <si>
+    <t>BUSURIN</t>
+  </si>
+  <si>
+    <t>busurin</t>
+  </si>
+  <si>
+    <t>busurin58</t>
+  </si>
+  <si>
+    <t>BUTKENE Z P</t>
+  </si>
+  <si>
+    <t>BIOLOGICAL AND BIOCHEMICAL CHARACTERIZATION OF THE BOG BLUEBERRY 5. SEED GERMINATION</t>
+  </si>
+  <si>
+    <t>Lietuvos TSR Mokslu Akademijos Darbai Serija C Biologijos Mokslai</t>
+  </si>
+  <si>
+    <t>Vaccinium</t>
+  </si>
+  <si>
+    <t>corymbosum</t>
+  </si>
+  <si>
+    <t>butkene</t>
+  </si>
+  <si>
+    <t>butkene89</t>
+  </si>
+  <si>
+    <t>Caliskan, Oguzhan; Mavi, Kazim; Polat, Aytekin</t>
+  </si>
+  <si>
+    <t>Influences of presowing treatments on the germination and emergence of fig seeds (Ficus carica L.)</t>
+  </si>
+  <si>
+    <t>ACTA SCIENTIARUM-AGRONOMY</t>
+  </si>
+  <si>
+    <t>Ficus</t>
+  </si>
+  <si>
+    <t>carica</t>
+  </si>
+  <si>
+    <t>Caliskan, Oguzhan</t>
+  </si>
+  <si>
+    <t>Caliskan</t>
+  </si>
+  <si>
+    <t>caliskan</t>
+  </si>
+  <si>
+    <t>caliskan12</t>
+  </si>
+  <si>
+    <t>Campo Dall'Orto, F. A.; Ojima, M.; Rigitano, O.; Scaranari, H. J.; Martins, F. P.</t>
+  </si>
+  <si>
+    <t>Germination of apple seeds.</t>
+  </si>
+  <si>
+    <t>Bragantia</t>
+  </si>
+  <si>
+    <t>Campo Dall'Orto, F. A.</t>
+  </si>
+  <si>
+    <t>Campo Dall'Orto</t>
+  </si>
+  <si>
+    <t>campo</t>
+  </si>
+  <si>
+    <t>campo78</t>
+  </si>
+  <si>
+    <t>Cao, Qingjun; Li, Gang; Cui, Zhengguo; Yang, Fentuan; Jiang, Xiaoli; Diallo, Lamine; Kong, Fanli</t>
+  </si>
+  <si>
+    <t>Seed Priming with Melatonin Improves the Seed Germination of Waxy Maize under Chilling Stress via Promoting the Antioxidant System and Starch Metabolism</t>
+  </si>
+  <si>
+    <t>SCIENTIFIC REPORTS</t>
+  </si>
+  <si>
+    <t>Cao, Qingjun</t>
+  </si>
+  <si>
+    <t>Cao</t>
+  </si>
+  <si>
+    <t>cao</t>
+  </si>
+  <si>
+    <t>cao19</t>
+  </si>
+  <si>
+    <t>CARPENTER, WJ; OSTMARK, ER</t>
+  </si>
+  <si>
+    <t>GROWTH-REGULATORS AND STORAGE-TEMPERATURE GOVERN GERMINATION OF COREOPSIS SEED</t>
+  </si>
+  <si>
+    <t>Coreopsis</t>
+  </si>
+  <si>
+    <t>lanceolata</t>
+  </si>
+  <si>
+    <t>CARPENTER, WJ</t>
+  </si>
+  <si>
+    <t>CARPENTER</t>
+  </si>
+  <si>
+    <t>carpenter</t>
+  </si>
+  <si>
+    <t>carpenter92</t>
+  </si>
+  <si>
+    <t>Carron, C. A.; Baroffio, C. A.; Vouillamoz, J. F.</t>
+  </si>
+  <si>
+    <t>Stratification methods for the germination of vervain.</t>
+  </si>
+  <si>
+    <t>Revue Suisse de Viticulture, Arboriculture et Horticulture</t>
+  </si>
+  <si>
+    <t>Verbena</t>
+  </si>
+  <si>
+    <t>officinalis</t>
+  </si>
+  <si>
+    <t>Carron, C. A.</t>
+  </si>
+  <si>
+    <t>Carron</t>
+  </si>
+  <si>
+    <t>carron</t>
+  </si>
+  <si>
+    <t>carron08</t>
+  </si>
+  <si>
+    <t>CASTRO, SA; FUENTES, ER; TIMMERMANN, BN</t>
+  </si>
+  <si>
+    <t>GERMINATION RESPONSES AND RESIN PRODUCTION OF GRINDELIA-GLUTINOSA AND G-TARAPACANA FROM THE ATACAMA DESERT</t>
+  </si>
+  <si>
+    <t>Grindelia</t>
+  </si>
+  <si>
+    <t>CASTRO, SA</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>castro</t>
+  </si>
+  <si>
+    <t>castro95</t>
+  </si>
+  <si>
+    <t>Chachalis, D.; Darawsheh, M. K.; Khah, E. M.</t>
+  </si>
+  <si>
+    <t>Effects of initial seed moisture content, imbibition temperature and seed vigour on germination, electrolyte leakage and seedling growth in plum tomatoes</t>
+  </si>
+  <si>
+    <t>JOURNAL OF FOOD AGRICULTURE &amp; ENVIRONMENT</t>
+  </si>
+  <si>
+    <t>Chachalis, D.</t>
+  </si>
+  <si>
+    <t>Chachalis</t>
+  </si>
+  <si>
+    <t>chachalis</t>
+  </si>
+  <si>
+    <t>chachalis08</t>
+  </si>
+  <si>
+    <t>Chakraborty, A. K.; Pandey, O. N.; Bhardwaj, S. D.</t>
+  </si>
+  <si>
+    <t>Presowing treatment on seeds of Terminalia bellirica.</t>
+  </si>
+  <si>
+    <t>Journal of Research, Birsa Agricultural University</t>
+  </si>
+  <si>
+    <t>Terminalia</t>
+  </si>
+  <si>
+    <t>bellirica</t>
+  </si>
+  <si>
+    <t>Chakraborty, A. K.</t>
+  </si>
+  <si>
+    <t>Chakraborty</t>
+  </si>
+  <si>
+    <t>chakraborty</t>
+  </si>
+  <si>
+    <t>chakraborty92</t>
+  </si>
+  <si>
+    <t>Chang, Tsu-Liang; Huang, I-ching; Lee, Chi-yang; Lu, Sheng-you; Chiu, Huei-long</t>
+  </si>
+  <si>
+    <t>The seed storage performance, seed dormancy and the growth of seedling of Lithocarpus lepidocarpus (Hayata) Hayata</t>
+  </si>
+  <si>
+    <t>Journal of the Agricultural Association of China</t>
+  </si>
+  <si>
+    <t>Lithocarpus</t>
+  </si>
+  <si>
+    <t>lepidocarpus</t>
+  </si>
+  <si>
+    <t>Chang, Tsu-Liang</t>
+  </si>
+  <si>
+    <t>Chang</t>
+  </si>
+  <si>
+    <t>chang</t>
+  </si>
+  <si>
+    <t>chang06</t>
+  </si>
+  <si>
+    <t>Chaves, Laura M. Cortese; Bonos, Stacy A.</t>
+  </si>
+  <si>
+    <t>Germination in Three Switchgrass Populations after Two Cycles of Divergent Selection for Seed Weight</t>
+  </si>
+  <si>
+    <t>AGRONOMY JOURNAL</t>
+  </si>
+  <si>
+    <t>Panicum</t>
+  </si>
+  <si>
+    <t>virgatum</t>
+  </si>
+  <si>
+    <t>Chaves, Laura M. Cortese</t>
+  </si>
+  <si>
+    <t>Chaves</t>
+  </si>
+  <si>
+    <t>chaves</t>
+  </si>
+  <si>
+    <t>chaves16</t>
+  </si>
+  <si>
+    <t>Chen, Iou-Zen; Huang, Chaur-Chuang; Lin, Chen-Yu; Lin, Jui-Yi</t>
+  </si>
+  <si>
+    <t>Effects of cool stratification and water rinse on the seed germination of the shatterstone (Phyllanthus urinaria L.) seeds.</t>
+  </si>
+  <si>
+    <t>Journal of the Chinese Society for Horticultural Science</t>
+  </si>
+  <si>
+    <t>Phyllanthus</t>
+  </si>
+  <si>
+    <t>urinaria</t>
+  </si>
+  <si>
+    <t>Chen, Iou-Zen</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>chen05</t>
+  </si>
+  <si>
+    <t>Chen, S. Y.; Lu, S. Y.; Chien, C. T.</t>
+  </si>
+  <si>
+    <t>Germination and storage of Trema cannabina seeds</t>
+  </si>
+  <si>
+    <t>Trema</t>
+  </si>
+  <si>
+    <t>cannabina</t>
+  </si>
+  <si>
+    <t>Chen, S. Y.</t>
+  </si>
+  <si>
+    <t>chen08</t>
+  </si>
+  <si>
+    <t>Chen, Shun-Ying; Chou, Shih-Han; Tsai, Ching-Chu; Hsu, Wen-Yu; Baskin, Carol C.; Baskin, Jerry M.; Chien, Ching-Te; Kuo-Huang, Ling-Long</t>
+  </si>
+  <si>
+    <t>Effects of moist cold stratification on germination, plant growth regulators, metabolites and embryo ultrastructure in seeds of Acer morrisonense (Sapindaceae)</t>
+  </si>
+  <si>
+    <t>PLANT PHYSIOLOGY AND BIOCHEMISTRY</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>morrisonense</t>
+  </si>
+  <si>
+    <t>Chen, Shun-Ying</t>
+  </si>
+  <si>
+    <t>chen15</t>
+  </si>
+  <si>
+    <t>Chen, Shun-Ying; Ku, Shing-Rong; Baskin, Jerry M.; Baskin, Carol C.; Chien, Ching-Te</t>
+  </si>
+  <si>
+    <t>Seed dormancy and germination in Neolitsea acuminatissima (Lauraceae)</t>
+  </si>
+  <si>
+    <t>Taiwan Journal of Forest Science</t>
+  </si>
+  <si>
+    <t>Neolitsea</t>
+  </si>
+  <si>
+    <t>acuminatissima</t>
+  </si>
+  <si>
+    <t>chen06</t>
+  </si>
+  <si>
+    <t>Association of abscisic acid and gibberellins with dormancy and germination in seeds of Prunus buergeriana Miq.</t>
+  </si>
+  <si>
+    <t>Taiwan Forestry Research Institute Data Catalog</t>
+  </si>
+  <si>
+    <t>buergeriana</t>
+  </si>
+  <si>
+    <t>Chiba, S.; Hayashida, M.</t>
+  </si>
+  <si>
+    <t>Seed selection and an effective germination-promoting method in Abies mariesii.</t>
+  </si>
+  <si>
+    <t>Journal of the Japanese Forest Society</t>
+  </si>
+  <si>
+    <t>mariessi</t>
+  </si>
+  <si>
+    <t>Chiba, S.</t>
+  </si>
+  <si>
+    <t>Chiba</t>
+  </si>
+  <si>
+    <t>chiba</t>
+  </si>
+  <si>
+    <t>chiba20</t>
+  </si>
+  <si>
+    <t>Chichizola, G. A.; Rovere, A. E.; Gonzalez, S. L.</t>
+  </si>
+  <si>
+    <t>Germination of Oenothera odorata, endemic ruderal Onagraceae from Argentina</t>
+  </si>
+  <si>
+    <t>PHYTON-INTERNATIONAL JOURNAL OF EXPERIMENTAL BOTANY</t>
+  </si>
+  <si>
+    <t>Oenothera</t>
+  </si>
+  <si>
+    <t>odorata</t>
+  </si>
+  <si>
+    <t>Chichizola, G. A.</t>
+  </si>
+  <si>
+    <t>Chichizola</t>
+  </si>
+  <si>
+    <t>chichizola</t>
+  </si>
+  <si>
+    <t>chichizola18</t>
+  </si>
+  <si>
+    <t>Chien, Chien-Te; Chen, Shun-Ying; Lu, Shueen-You</t>
+  </si>
+  <si>
+    <t>Germination and storage of Trema cannabina seeds.</t>
+  </si>
+  <si>
+    <t>Chien, Chien-Te</t>
+  </si>
+  <si>
+    <t>Chien</t>
+  </si>
+  <si>
+    <t>chien</t>
+  </si>
+  <si>
+    <t>chien09</t>
+  </si>
+  <si>
+    <t>Chien, Ching-Te; Chen, Shun-Ying; Baskin, Jerry M; Baskin, Carol C; Kuo, Shing-Rong</t>
+  </si>
+  <si>
+    <t>Seed Dormancy and Germination in Neolitsea acuminatissima (Lauraceae).</t>
+  </si>
+  <si>
+    <t>Chien, Ching-Te</t>
+  </si>
+  <si>
+    <t>chien06</t>
+  </si>
+  <si>
+    <t>Chira, D.; Mantale, C.; Chira, F.; Juveloiu, E.; Avram, C.; Achim, G.</t>
+  </si>
+  <si>
+    <t>Methods to improve artificial regeneration of the sweet chestnut.</t>
+  </si>
+  <si>
+    <t>Revista Padurilor</t>
+  </si>
+  <si>
+    <t>Chira, D.</t>
+  </si>
+  <si>
+    <t>Chira</t>
+  </si>
+  <si>
+    <t>chira</t>
+  </si>
+  <si>
+    <t>chira20</t>
+  </si>
+  <si>
+    <t>Cho, Hyun Jung; Sanders, Yvonne L.</t>
+  </si>
+  <si>
+    <t>Note on organic dormancy of estuarine Ruppia maritima L. seeds</t>
+  </si>
+  <si>
+    <t>HYDROBIOLOGIA</t>
+  </si>
+  <si>
+    <t>Ruppia</t>
+  </si>
+  <si>
+    <t>maritima</t>
+  </si>
+  <si>
+    <t>Cho, Hyun Jung</t>
+  </si>
+  <si>
+    <t>Cho</t>
+  </si>
+  <si>
+    <t>cho</t>
+  </si>
+  <si>
+    <t>cho09</t>
+  </si>
+  <si>
+    <t>Cho, Ju Sung; Jang, Bo Kook; Lee, Cheol Hee</t>
+  </si>
+  <si>
+    <t>Seed dormancy and germination characteristics of the endangered species Cicuta virosa L. in South Korea</t>
+  </si>
+  <si>
+    <t>HORTICULTURE ENVIRONMENT AND BIOTECHNOLOGY</t>
+  </si>
+  <si>
+    <t>Cicuta</t>
+  </si>
+  <si>
+    <t>virosa</t>
+  </si>
+  <si>
+    <t>Cho, Ju Sung</t>
+  </si>
+  <si>
+    <t>cho18</t>
+  </si>
+  <si>
+    <t>Cho, Ju Sung; Lee, Cheol Hee</t>
+  </si>
+  <si>
+    <t>Effect of germination and water absorption on scarification and stratification of kousa dogwood seed</t>
+  </si>
+  <si>
+    <t>Cornus</t>
+  </si>
+  <si>
+    <t>kousa</t>
+  </si>
+  <si>
+    <t>Cho, Young Yeol; Lee, Yong-Beom; Oh, Myung-Min; Son, Jung Eek</t>
+  </si>
+  <si>
+    <t>Application of Quadratic Models for Establishment of Adequate Temperature Ranges in Germination of Various Hot Pepper (Capsicum annuum L.) Cultivars</t>
+  </si>
+  <si>
+    <t>Cho, Young Yeol</t>
+  </si>
+  <si>
+    <t>cho12</t>
+  </si>
+  <si>
+    <t>Chu AiXiang; Li YanMei; Shen CaiXia</t>
+  </si>
+  <si>
+    <t>Effects of different treatments on the seed germination of Malus Red Splendor.</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Malus</t>
+  </si>
+  <si>
+    <t>pumila</t>
+  </si>
+  <si>
+    <t>Chu AiXiang</t>
+  </si>
+  <si>
+    <t>chu</t>
+  </si>
+  <si>
+    <t>chu12</t>
+  </si>
+  <si>
+    <t>Chuanren, D; Bochu, W; Liu, WQ; Jing, C; Jie, L; Huan, Z</t>
+  </si>
+  <si>
+    <t>Effect of chemical and physical factors to improve the germination rate of Echinacea angustifolia seeds</t>
+  </si>
+  <si>
+    <t>COLLOIDS AND SURFACES B-BIOINTERFACES</t>
+  </si>
+  <si>
+    <t>Echinacea</t>
+  </si>
+  <si>
+    <t>angustifolia</t>
+  </si>
+  <si>
+    <t>Chuanren, D</t>
+  </si>
+  <si>
+    <t>Chuanren</t>
+  </si>
+  <si>
+    <t>chuanren</t>
+  </si>
+  <si>
+    <t>chuanren04</t>
+  </si>
+  <si>
+    <t>Clemente, Adelaide S.; Mueller, Jonas V.; Almeida, Erika; Costa, Catarina A.; Dias, Sara Lobo; Brehm, Joana Magos; Rebelo, Rui; Martins-Loucao, Maria Amelia</t>
+  </si>
+  <si>
+    <t>What can routine germination tests in seed banks tell us about the germination ecology of endemic and protected species?</t>
+  </si>
+  <si>
+    <t>BOTANY</t>
+  </si>
+  <si>
+    <t>Clemente, Adelaide S.</t>
+  </si>
+  <si>
+    <t>Clemente</t>
+  </si>
+  <si>
+    <t>clemente</t>
+  </si>
+  <si>
+    <t>clemente17</t>
+  </si>
+  <si>
+    <t>COLE, JC</t>
+  </si>
+  <si>
+    <t>INCREASED GERMINATION THROUGH PREGERMINATION TREATMENTS OF CHINESE PISTACHIO SEEDS</t>
+  </si>
+  <si>
+    <t>JOURNAL OF PRODUCTION AGRICULTURE</t>
+  </si>
+  <si>
+    <t>Pistacia</t>
+  </si>
+  <si>
+    <t>chinensis</t>
+  </si>
+  <si>
+    <t>COLE</t>
+  </si>
+  <si>
+    <t>cole</t>
+  </si>
+  <si>
+    <t>cole94</t>
+  </si>
+  <si>
+    <t>Connolly, Brian M.; Agnew, Lauren K.; Orrock, John L.</t>
+  </si>
+  <si>
+    <t>Interactive Effects of Contact Fungicide and Cold Stratification on the Germination Rate for Five Dominant Temperate Tree Species</t>
+  </si>
+  <si>
+    <t>FOREST SCIENCE</t>
+  </si>
+  <si>
+    <t>Connolly, Brian M.</t>
+  </si>
+  <si>
+    <t>Connolly</t>
+  </si>
+  <si>
+    <t>connolly</t>
+  </si>
+  <si>
+    <t>connolly17</t>
+  </si>
+  <si>
+    <t>Conversa, Giulia; Elia, Antonio</t>
+  </si>
+  <si>
+    <t>Effect of seed age, stratification, and soaking on germination of wild asparagus (Asparagus acutifolius L.)</t>
+  </si>
+  <si>
+    <t>SCIENTIA HORTICULTURAE</t>
+  </si>
+  <si>
+    <t>Asparagus</t>
+  </si>
+  <si>
+    <t>acutifolius</t>
+  </si>
+  <si>
+    <t>Conversa, Giulia</t>
+  </si>
+  <si>
+    <t>Conversa</t>
+  </si>
+  <si>
+    <t>conversa</t>
+  </si>
+  <si>
+    <t>conversa09</t>
+  </si>
+  <si>
+    <t>Crank, E.</t>
+  </si>
+  <si>
+    <t>Seed germination studies on the endangered species Thymophylla tephroleuca.</t>
+  </si>
+  <si>
+    <t>Wildflower</t>
+  </si>
+  <si>
+    <t>Thymophylla</t>
+  </si>
+  <si>
+    <t>tephroleuca</t>
+  </si>
+  <si>
+    <t>Crank</t>
+  </si>
+  <si>
+    <t>crank</t>
+  </si>
+  <si>
+    <t>crank92</t>
+  </si>
+  <si>
+    <t>Deb, C. R.; Sangtam, T. L.; Jamir, N. S.</t>
+  </si>
+  <si>
+    <t>Seed biology of Berberis manipurana Ahrendt: a threatened natural dye yielding plant.</t>
+  </si>
+  <si>
+    <t>American Journal of Plant Sciences</t>
+  </si>
+  <si>
+    <t>Berberis</t>
+  </si>
+  <si>
+    <t>manipurana</t>
+  </si>
+  <si>
+    <t>Deb, C. R.</t>
+  </si>
+  <si>
+    <t>Deb</t>
+  </si>
+  <si>
+    <t>deb</t>
+  </si>
+  <si>
+    <t>deb17</t>
+  </si>
+  <si>
+    <t>Deol, I. S.; Chopra, H. R.; Grewal, S. S.</t>
+  </si>
+  <si>
+    <t>Studies on seed germination and seedling growth of Sharbati peach (Prunus persica Batsch).</t>
+  </si>
+  <si>
+    <t>Punjab Horticultural Journal</t>
+  </si>
+  <si>
+    <t>Deol, I. S.</t>
+  </si>
+  <si>
+    <t>Deol</t>
+  </si>
+  <si>
+    <t>deol</t>
+  </si>
+  <si>
+    <t>deol93</t>
+  </si>
+  <si>
+    <t>Derakhshan, A.; Gherekhloo, J.</t>
+  </si>
+  <si>
+    <t>FACTORS AFFECTING Cyperus difformis SEED GERMINATION AND SEEDLING EMERGENCE</t>
+  </si>
+  <si>
+    <t>PLANTA DANINHA</t>
+  </si>
+  <si>
+    <t>Cyperus</t>
+  </si>
+  <si>
+    <t>difformis</t>
+  </si>
+  <si>
+    <t>Derakhshan, A.</t>
+  </si>
+  <si>
+    <t>Derakhshan</t>
+  </si>
+  <si>
+    <t>derakhshan</t>
+  </si>
+  <si>
+    <t>derakhshan13</t>
   </si>
 </sst>
 </file>
@@ -2013,14 +4431,5044 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="134.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>197</v>
+      </c>
+      <c r="R1" t="s">
+        <v>198</v>
+      </c>
+      <c r="S1" t="s">
+        <v>199</v>
+      </c>
+      <c r="T1" t="s">
+        <v>200</v>
+      </c>
+      <c r="U1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>67</v>
+      </c>
+      <c r="H2">
+        <v>1994</v>
+      </c>
+      <c r="I2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2" t="s">
+        <v>207</v>
+      </c>
+      <c r="N2" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>209</v>
+      </c>
+      <c r="R2" t="s">
+        <v>210</v>
+      </c>
+      <c r="S2" t="s">
+        <v>210</v>
+      </c>
+      <c r="T2" t="s">
+        <v>211</v>
+      </c>
+      <c r="U2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>149</v>
+      </c>
+      <c r="H3">
+        <v>2005</v>
+      </c>
+      <c r="I3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K3" t="s">
+        <v>207</v>
+      </c>
+      <c r="M3" t="s">
+        <v>218</v>
+      </c>
+      <c r="O3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>209</v>
+      </c>
+      <c r="R3" t="s">
+        <v>219</v>
+      </c>
+      <c r="S3" t="s">
+        <v>220</v>
+      </c>
+      <c r="T3" t="s">
+        <v>221</v>
+      </c>
+      <c r="U3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>66</v>
+      </c>
+      <c r="H4">
+        <v>2006</v>
+      </c>
+      <c r="I4" t="s">
+        <v>226</v>
+      </c>
+      <c r="K4" t="s">
+        <v>207</v>
+      </c>
+      <c r="P4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>228</v>
+      </c>
+      <c r="R4" t="s">
+        <v>229</v>
+      </c>
+      <c r="S4" t="s">
+        <v>229</v>
+      </c>
+      <c r="T4" t="s">
+        <v>230</v>
+      </c>
+      <c r="U4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5">
+        <v>53</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>69</v>
+      </c>
+      <c r="H5">
+        <v>2013</v>
+      </c>
+      <c r="I5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J5" t="s">
+        <v>236</v>
+      </c>
+      <c r="K5" t="s">
+        <v>207</v>
+      </c>
+      <c r="O5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>209</v>
+      </c>
+      <c r="R5" t="s">
+        <v>237</v>
+      </c>
+      <c r="S5" t="s">
+        <v>238</v>
+      </c>
+      <c r="T5" t="s">
+        <v>239</v>
+      </c>
+      <c r="U5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>79</v>
+      </c>
+      <c r="H6">
+        <v>2003</v>
+      </c>
+      <c r="I6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J6" t="s">
+        <v>245</v>
+      </c>
+      <c r="K6" t="s">
+        <v>207</v>
+      </c>
+      <c r="M6" t="s">
+        <v>246</v>
+      </c>
+      <c r="N6" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>209</v>
+      </c>
+      <c r="R6" t="s">
+        <v>241</v>
+      </c>
+      <c r="S6" t="s">
+        <v>247</v>
+      </c>
+      <c r="T6" t="s">
+        <v>248</v>
+      </c>
+      <c r="U6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7">
+        <v>2020</v>
+      </c>
+      <c r="I7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>228</v>
+      </c>
+      <c r="R7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S7" t="s">
+        <v>257</v>
+      </c>
+      <c r="T7" t="s">
+        <v>258</v>
+      </c>
+      <c r="U7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E8">
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>624</v>
+      </c>
+      <c r="H8">
+        <v>2007</v>
+      </c>
+      <c r="I8" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>228</v>
+      </c>
+      <c r="R8" t="s">
+        <v>264</v>
+      </c>
+      <c r="S8" t="s">
+        <v>265</v>
+      </c>
+      <c r="T8" t="s">
+        <v>266</v>
+      </c>
+      <c r="U8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>290</v>
+      </c>
+      <c r="H9">
+        <v>1984</v>
+      </c>
+      <c r="I9" t="s">
+        <v>271</v>
+      </c>
+      <c r="J9" t="s">
+        <v>272</v>
+      </c>
+      <c r="K9" t="s">
+        <v>207</v>
+      </c>
+      <c r="N9" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>209</v>
+      </c>
+      <c r="R9" t="s">
+        <v>273</v>
+      </c>
+      <c r="S9" t="s">
+        <v>274</v>
+      </c>
+      <c r="T9" t="s">
+        <v>275</v>
+      </c>
+      <c r="U9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>1709</v>
+      </c>
+      <c r="H10">
+        <v>1999</v>
+      </c>
+      <c r="I10" t="s">
+        <v>263</v>
+      </c>
+      <c r="K10" t="s">
+        <v>207</v>
+      </c>
+      <c r="O10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>209</v>
+      </c>
+      <c r="R10" t="s">
+        <v>281</v>
+      </c>
+      <c r="S10" t="s">
+        <v>282</v>
+      </c>
+      <c r="T10" t="s">
+        <v>283</v>
+      </c>
+      <c r="U10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>33</v>
+      </c>
+      <c r="H11">
+        <v>2004</v>
+      </c>
+      <c r="I11" t="s">
+        <v>288</v>
+      </c>
+      <c r="J11" t="s">
+        <v>289</v>
+      </c>
+      <c r="K11" t="s">
+        <v>207</v>
+      </c>
+      <c r="N11" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>209</v>
+      </c>
+      <c r="R11" t="s">
+        <v>290</v>
+      </c>
+      <c r="S11" t="s">
+        <v>291</v>
+      </c>
+      <c r="T11" t="s">
+        <v>292</v>
+      </c>
+      <c r="U11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>108</v>
+      </c>
+      <c r="H12">
+        <v>2017</v>
+      </c>
+      <c r="I12" t="s">
+        <v>297</v>
+      </c>
+      <c r="J12" t="s">
+        <v>298</v>
+      </c>
+      <c r="K12" t="s">
+        <v>207</v>
+      </c>
+      <c r="N12" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>209</v>
+      </c>
+      <c r="R12" t="s">
+        <v>299</v>
+      </c>
+      <c r="S12" t="s">
+        <v>291</v>
+      </c>
+      <c r="T12" t="s">
+        <v>292</v>
+      </c>
+      <c r="U12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13" t="s">
+        <v>303</v>
+      </c>
+      <c r="E13">
+        <v>71</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>188</v>
+      </c>
+      <c r="H13">
+        <v>2014</v>
+      </c>
+      <c r="I13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J13" t="s">
+        <v>263</v>
+      </c>
+      <c r="K13" t="s">
+        <v>207</v>
+      </c>
+      <c r="M13" t="s">
+        <v>246</v>
+      </c>
+      <c r="O13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>209</v>
+      </c>
+      <c r="R13" t="s">
+        <v>305</v>
+      </c>
+      <c r="S13" t="s">
+        <v>306</v>
+      </c>
+      <c r="T13" t="s">
+        <v>307</v>
+      </c>
+      <c r="U13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D14" t="s">
+        <v>311</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>27</v>
+      </c>
+      <c r="H14">
+        <v>2009</v>
+      </c>
+      <c r="I14" t="s">
+        <v>312</v>
+      </c>
+      <c r="J14" t="s">
+        <v>313</v>
+      </c>
+      <c r="K14" t="s">
+        <v>207</v>
+      </c>
+      <c r="O14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>209</v>
+      </c>
+      <c r="R14" t="s">
+        <v>314</v>
+      </c>
+      <c r="S14" t="s">
+        <v>315</v>
+      </c>
+      <c r="T14" t="s">
+        <v>316</v>
+      </c>
+      <c r="U14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15">
+        <v>38</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>332</v>
+      </c>
+      <c r="H15">
+        <v>2010</v>
+      </c>
+      <c r="I15" t="s">
+        <v>320</v>
+      </c>
+      <c r="J15" t="s">
+        <v>321</v>
+      </c>
+      <c r="K15" t="s">
+        <v>207</v>
+      </c>
+      <c r="N15" t="s">
+        <v>208</v>
+      </c>
+      <c r="P15" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>209</v>
+      </c>
+      <c r="R15" t="s">
+        <v>318</v>
+      </c>
+      <c r="S15" t="s">
+        <v>323</v>
+      </c>
+      <c r="T15" t="s">
+        <v>324</v>
+      </c>
+      <c r="U15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16" t="s">
+        <v>327</v>
+      </c>
+      <c r="D16" t="s">
+        <v>328</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>23</v>
+      </c>
+      <c r="G16">
+        <v>4251</v>
+      </c>
+      <c r="H16">
+        <v>2007</v>
+      </c>
+      <c r="I16" t="s">
+        <v>329</v>
+      </c>
+      <c r="J16" t="s">
+        <v>330</v>
+      </c>
+      <c r="K16" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>331</v>
+      </c>
+      <c r="R16" t="s">
+        <v>332</v>
+      </c>
+      <c r="S16" t="s">
+        <v>333</v>
+      </c>
+      <c r="T16" t="s">
+        <v>334</v>
+      </c>
+      <c r="U16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" t="s">
+        <v>337</v>
+      </c>
+      <c r="D17" t="s">
+        <v>338</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>199</v>
+      </c>
+      <c r="H17">
+        <v>1992</v>
+      </c>
+      <c r="I17" t="s">
+        <v>339</v>
+      </c>
+      <c r="K17" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>331</v>
+      </c>
+      <c r="R17" t="s">
+        <v>340</v>
+      </c>
+      <c r="S17" t="s">
+        <v>341</v>
+      </c>
+      <c r="T17" t="s">
+        <v>342</v>
+      </c>
+      <c r="U17" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" t="s">
+        <v>346</v>
+      </c>
+      <c r="E18">
+        <v>33</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>39</v>
+      </c>
+      <c r="H18">
+        <v>1996</v>
+      </c>
+      <c r="I18" t="s">
+        <v>347</v>
+      </c>
+      <c r="J18" t="s">
+        <v>348</v>
+      </c>
+      <c r="K18" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>331</v>
+      </c>
+      <c r="R18" t="s">
+        <v>344</v>
+      </c>
+      <c r="S18" t="s">
+        <v>349</v>
+      </c>
+      <c r="T18" t="s">
+        <v>350</v>
+      </c>
+      <c r="U18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C19" t="s">
+        <v>353</v>
+      </c>
+      <c r="D19" t="s">
+        <v>354</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>355</v>
+      </c>
+      <c r="H19">
+        <v>2017</v>
+      </c>
+      <c r="I19" t="s">
+        <v>263</v>
+      </c>
+      <c r="K19" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>331</v>
+      </c>
+      <c r="R19" t="s">
+        <v>356</v>
+      </c>
+      <c r="S19" t="s">
+        <v>357</v>
+      </c>
+      <c r="T19" t="s">
+        <v>358</v>
+      </c>
+      <c r="U19" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" t="s">
+        <v>360</v>
+      </c>
+      <c r="C20" t="s">
+        <v>361</v>
+      </c>
+      <c r="D20" t="s">
+        <v>362</v>
+      </c>
+      <c r="E20">
+        <v>34</v>
+      </c>
+      <c r="F20">
+        <v>-3</v>
+      </c>
+      <c r="G20">
+        <v>266</v>
+      </c>
+      <c r="H20">
+        <v>1958</v>
+      </c>
+      <c r="I20" t="s">
+        <v>263</v>
+      </c>
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>331</v>
+      </c>
+      <c r="R20" t="s">
+        <v>360</v>
+      </c>
+      <c r="S20" t="s">
+        <v>363</v>
+      </c>
+      <c r="T20" t="s">
+        <v>364</v>
+      </c>
+      <c r="U20" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" t="s">
+        <v>366</v>
+      </c>
+      <c r="C21" t="s">
+        <v>367</v>
+      </c>
+      <c r="D21" t="s">
+        <v>368</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>369</v>
+      </c>
+      <c r="G21">
+        <v>21</v>
+      </c>
+      <c r="H21">
+        <v>2002</v>
+      </c>
+      <c r="I21" t="s">
+        <v>370</v>
+      </c>
+      <c r="J21" t="s">
+        <v>371</v>
+      </c>
+      <c r="K21" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>331</v>
+      </c>
+      <c r="R21" t="s">
+        <v>372</v>
+      </c>
+      <c r="S21" t="s">
+        <v>373</v>
+      </c>
+      <c r="T21" t="s">
+        <v>374</v>
+      </c>
+      <c r="U21" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" t="s">
+        <v>376</v>
+      </c>
+      <c r="C22" t="s">
+        <v>377</v>
+      </c>
+      <c r="D22" t="s">
+        <v>378</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>97</v>
+      </c>
+      <c r="H22">
+        <v>2018</v>
+      </c>
+      <c r="I22" t="s">
+        <v>379</v>
+      </c>
+      <c r="J22" t="s">
+        <v>380</v>
+      </c>
+      <c r="K22" t="s">
+        <v>207</v>
+      </c>
+      <c r="N22" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>38</v>
+      </c>
+      <c r="R22" t="s">
+        <v>381</v>
+      </c>
+      <c r="S22" t="s">
+        <v>382</v>
+      </c>
+      <c r="T22" t="s">
+        <v>383</v>
+      </c>
+      <c r="U22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" t="s">
+        <v>385</v>
+      </c>
+      <c r="C23" t="s">
+        <v>386</v>
+      </c>
+      <c r="D23" t="s">
+        <v>387</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>99</v>
+      </c>
+      <c r="H23">
+        <v>2004</v>
+      </c>
+      <c r="I23" t="s">
+        <v>388</v>
+      </c>
+      <c r="J23" t="s">
+        <v>389</v>
+      </c>
+      <c r="K23" t="s">
+        <v>207</v>
+      </c>
+      <c r="N23" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R23" t="s">
+        <v>390</v>
+      </c>
+      <c r="S23" t="s">
+        <v>391</v>
+      </c>
+      <c r="T23" t="s">
+        <v>392</v>
+      </c>
+      <c r="U23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" t="s">
+        <v>394</v>
+      </c>
+      <c r="C24" t="s">
+        <v>395</v>
+      </c>
+      <c r="D24" t="s">
+        <v>396</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>22</v>
+      </c>
+      <c r="H24">
+        <v>2009</v>
+      </c>
+      <c r="I24" t="s">
+        <v>397</v>
+      </c>
+      <c r="J24" t="s">
+        <v>398</v>
+      </c>
+      <c r="K24" t="s">
+        <v>207</v>
+      </c>
+      <c r="O24" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>38</v>
+      </c>
+      <c r="R24" t="s">
+        <v>394</v>
+      </c>
+      <c r="S24" t="s">
+        <v>399</v>
+      </c>
+      <c r="T24" t="s">
+        <v>400</v>
+      </c>
+      <c r="U24" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" t="s">
+        <v>402</v>
+      </c>
+      <c r="C25" t="s">
+        <v>403</v>
+      </c>
+      <c r="D25" t="s">
+        <v>404</v>
+      </c>
+      <c r="E25">
+        <v>53</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>2195</v>
+      </c>
+      <c r="H25">
+        <v>2020</v>
+      </c>
+      <c r="I25" t="s">
+        <v>405</v>
+      </c>
+      <c r="K25" t="s">
+        <v>207</v>
+      </c>
+      <c r="N25" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R25" t="s">
+        <v>406</v>
+      </c>
+      <c r="S25" t="s">
+        <v>406</v>
+      </c>
+      <c r="T25" t="s">
+        <v>407</v>
+      </c>
+      <c r="U25" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" t="s">
+        <v>409</v>
+      </c>
+      <c r="C26" t="s">
+        <v>410</v>
+      </c>
+      <c r="D26" t="s">
+        <v>411</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>2021</v>
+      </c>
+      <c r="I26" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" t="s">
+        <v>207</v>
+      </c>
+      <c r="O26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>38</v>
+      </c>
+      <c r="R26" t="s">
+        <v>412</v>
+      </c>
+      <c r="S26" t="s">
+        <v>413</v>
+      </c>
+      <c r="T26" t="s">
+        <v>414</v>
+      </c>
+      <c r="U26" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" t="s">
+        <v>416</v>
+      </c>
+      <c r="C27" t="s">
+        <v>417</v>
+      </c>
+      <c r="D27" t="s">
+        <v>418</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>1961</v>
+      </c>
+      <c r="I27" t="s">
+        <v>419</v>
+      </c>
+      <c r="J27" t="s">
+        <v>420</v>
+      </c>
+      <c r="K27" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>331</v>
+      </c>
+      <c r="R27" t="s">
+        <v>416</v>
+      </c>
+      <c r="S27" t="s">
+        <v>416</v>
+      </c>
+      <c r="T27" t="s">
+        <v>421</v>
+      </c>
+      <c r="U27" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" t="s">
+        <v>423</v>
+      </c>
+      <c r="C28" t="s">
+        <v>424</v>
+      </c>
+      <c r="D28" t="s">
+        <v>252</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>425</v>
+      </c>
+      <c r="H28">
+        <v>2020</v>
+      </c>
+      <c r="I28" t="s">
+        <v>263</v>
+      </c>
+      <c r="K28" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>331</v>
+      </c>
+      <c r="R28" t="s">
+        <v>426</v>
+      </c>
+      <c r="S28" t="s">
+        <v>427</v>
+      </c>
+      <c r="T28" t="s">
+        <v>428</v>
+      </c>
+      <c r="U28" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" t="s">
+        <v>430</v>
+      </c>
+      <c r="C29" t="s">
+        <v>431</v>
+      </c>
+      <c r="D29" t="s">
+        <v>432</v>
+      </c>
+      <c r="E29">
+        <v>53</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>32</v>
+      </c>
+      <c r="H29">
+        <v>2011</v>
+      </c>
+      <c r="I29" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" t="s">
+        <v>207</v>
+      </c>
+      <c r="O29" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>331</v>
+      </c>
+      <c r="R29" t="s">
+        <v>433</v>
+      </c>
+      <c r="S29" t="s">
+        <v>434</v>
+      </c>
+      <c r="T29" t="s">
+        <v>435</v>
+      </c>
+      <c r="U29" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" t="s">
+        <v>437</v>
+      </c>
+      <c r="C30" t="s">
+        <v>438</v>
+      </c>
+      <c r="D30" t="s">
+        <v>439</v>
+      </c>
+      <c r="E30">
+        <v>23</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>227</v>
+      </c>
+      <c r="H30">
+        <v>2003</v>
+      </c>
+      <c r="I30" t="s">
+        <v>440</v>
+      </c>
+      <c r="J30" t="s">
+        <v>441</v>
+      </c>
+      <c r="K30" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>331</v>
+      </c>
+      <c r="R30" t="s">
+        <v>442</v>
+      </c>
+      <c r="S30" t="s">
+        <v>443</v>
+      </c>
+      <c r="T30" t="s">
+        <v>444</v>
+      </c>
+      <c r="U30" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" t="s">
+        <v>446</v>
+      </c>
+      <c r="C31" t="s">
+        <v>447</v>
+      </c>
+      <c r="D31" t="s">
+        <v>448</v>
+      </c>
+      <c r="E31">
+        <v>49</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>143</v>
+      </c>
+      <c r="H31">
+        <v>2021</v>
+      </c>
+      <c r="I31" t="s">
+        <v>449</v>
+      </c>
+      <c r="J31" t="s">
+        <v>450</v>
+      </c>
+      <c r="K31" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>451</v>
+      </c>
+      <c r="R31" t="s">
+        <v>452</v>
+      </c>
+      <c r="S31" t="s">
+        <v>453</v>
+      </c>
+      <c r="T31" t="s">
+        <v>454</v>
+      </c>
+      <c r="U31" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" t="s">
+        <v>456</v>
+      </c>
+      <c r="C32" t="s">
+        <v>457</v>
+      </c>
+      <c r="D32" t="s">
+        <v>458</v>
+      </c>
+      <c r="E32">
+        <v>140</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>1136</v>
+      </c>
+      <c r="H32">
+        <v>2021</v>
+      </c>
+      <c r="I32" t="s">
+        <v>459</v>
+      </c>
+      <c r="J32" t="s">
+        <v>263</v>
+      </c>
+      <c r="K32" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>451</v>
+      </c>
+      <c r="R32" t="s">
+        <v>460</v>
+      </c>
+      <c r="S32" t="s">
+        <v>461</v>
+      </c>
+      <c r="T32" t="s">
+        <v>462</v>
+      </c>
+      <c r="U32" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" t="s">
+        <v>464</v>
+      </c>
+      <c r="C33" t="s">
+        <v>465</v>
+      </c>
+      <c r="D33" t="s">
+        <v>466</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>467</v>
+      </c>
+      <c r="H33">
+        <v>2019</v>
+      </c>
+      <c r="I33" t="s">
+        <v>468</v>
+      </c>
+      <c r="J33" t="s">
+        <v>469</v>
+      </c>
+      <c r="K33" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>451</v>
+      </c>
+      <c r="R33" t="s">
+        <v>470</v>
+      </c>
+      <c r="S33" t="s">
+        <v>471</v>
+      </c>
+      <c r="T33" t="s">
+        <v>472</v>
+      </c>
+      <c r="U33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s">
+        <v>474</v>
+      </c>
+      <c r="C34" t="s">
+        <v>475</v>
+      </c>
+      <c r="D34" t="s">
+        <v>476</v>
+      </c>
+      <c r="E34">
+        <v>47</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>128</v>
+      </c>
+      <c r="H34">
+        <v>2015</v>
+      </c>
+      <c r="I34" t="s">
+        <v>477</v>
+      </c>
+      <c r="J34" t="s">
+        <v>478</v>
+      </c>
+      <c r="K34" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>451</v>
+      </c>
+      <c r="R34" t="s">
+        <v>479</v>
+      </c>
+      <c r="S34" t="s">
+        <v>479</v>
+      </c>
+      <c r="T34" t="s">
+        <v>480</v>
+      </c>
+      <c r="U34" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" t="s">
+        <v>482</v>
+      </c>
+      <c r="C35" t="s">
+        <v>483</v>
+      </c>
+      <c r="D35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>11</v>
+      </c>
+      <c r="H35">
+        <v>2021</v>
+      </c>
+      <c r="I35" t="s">
+        <v>485</v>
+      </c>
+      <c r="J35" t="s">
+        <v>486</v>
+      </c>
+      <c r="K35" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>331</v>
+      </c>
+      <c r="R35" t="s">
+        <v>487</v>
+      </c>
+      <c r="S35" t="s">
+        <v>488</v>
+      </c>
+      <c r="T35" t="s">
+        <v>489</v>
+      </c>
+      <c r="U35" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
+        <v>491</v>
+      </c>
+      <c r="C36" t="s">
+        <v>492</v>
+      </c>
+      <c r="D36" t="s">
+        <v>493</v>
+      </c>
+      <c r="E36">
+        <v>21</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>107</v>
+      </c>
+      <c r="H36">
+        <v>2007</v>
+      </c>
+      <c r="I36" t="s">
+        <v>263</v>
+      </c>
+      <c r="K36" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>331</v>
+      </c>
+      <c r="R36" t="s">
+        <v>494</v>
+      </c>
+      <c r="S36" t="s">
+        <v>495</v>
+      </c>
+      <c r="T36" t="s">
+        <v>496</v>
+      </c>
+      <c r="U36" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" t="s">
+        <v>498</v>
+      </c>
+      <c r="C37" t="s">
+        <v>499</v>
+      </c>
+      <c r="D37" t="s">
+        <v>500</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>231</v>
+      </c>
+      <c r="H37">
+        <v>1983</v>
+      </c>
+      <c r="I37" t="s">
+        <v>263</v>
+      </c>
+      <c r="K37" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>331</v>
+      </c>
+      <c r="R37" t="s">
+        <v>501</v>
+      </c>
+      <c r="S37" t="s">
+        <v>501</v>
+      </c>
+      <c r="T37" t="s">
+        <v>502</v>
+      </c>
+      <c r="U37" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" t="s">
+        <v>504</v>
+      </c>
+      <c r="C38" t="s">
+        <v>505</v>
+      </c>
+      <c r="D38" t="s">
+        <v>506</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <v>5551</v>
+      </c>
+      <c r="H38">
+        <v>2018</v>
+      </c>
+      <c r="I38" t="s">
+        <v>263</v>
+      </c>
+      <c r="K38" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>507</v>
+      </c>
+      <c r="R38" t="s">
+        <v>508</v>
+      </c>
+      <c r="S38" t="s">
+        <v>509</v>
+      </c>
+      <c r="T38" t="s">
+        <v>510</v>
+      </c>
+      <c r="U38" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" t="s">
+        <v>512</v>
+      </c>
+      <c r="C39" t="s">
+        <v>513</v>
+      </c>
+      <c r="D39" t="s">
+        <v>262</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>217</v>
+      </c>
+      <c r="H39">
+        <v>1982</v>
+      </c>
+      <c r="I39" t="s">
+        <v>514</v>
+      </c>
+      <c r="J39" t="s">
+        <v>515</v>
+      </c>
+      <c r="K39" t="s">
+        <v>207</v>
+      </c>
+      <c r="P39" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>507</v>
+      </c>
+      <c r="R39" t="s">
+        <v>517</v>
+      </c>
+      <c r="S39" t="s">
+        <v>518</v>
+      </c>
+      <c r="T39" t="s">
+        <v>519</v>
+      </c>
+      <c r="U39" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" t="s">
+        <v>521</v>
+      </c>
+      <c r="C40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E40">
+        <v>47</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>1222</v>
+      </c>
+      <c r="H40">
+        <v>2012</v>
+      </c>
+      <c r="I40" t="s">
+        <v>320</v>
+      </c>
+      <c r="J40" t="s">
+        <v>524</v>
+      </c>
+      <c r="K40" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>507</v>
+      </c>
+      <c r="R40" t="s">
+        <v>525</v>
+      </c>
+      <c r="S40" t="s">
+        <v>526</v>
+      </c>
+      <c r="T40" t="s">
+        <v>527</v>
+      </c>
+      <c r="U40" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" t="s">
+        <v>529</v>
+      </c>
+      <c r="C41" t="s">
+        <v>530</v>
+      </c>
+      <c r="D41" t="s">
+        <v>531</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>325</v>
+      </c>
+      <c r="H41">
+        <v>2012</v>
+      </c>
+      <c r="I41" t="s">
+        <v>263</v>
+      </c>
+      <c r="K41" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>507</v>
+      </c>
+      <c r="R41" t="s">
+        <v>532</v>
+      </c>
+      <c r="S41" t="s">
+        <v>533</v>
+      </c>
+      <c r="T41" t="s">
+        <v>534</v>
+      </c>
+      <c r="U41" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" t="s">
+        <v>536</v>
+      </c>
+      <c r="C42" t="s">
+        <v>537</v>
+      </c>
+      <c r="D42" t="s">
+        <v>538</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>621</v>
+      </c>
+      <c r="H42">
+        <v>2009</v>
+      </c>
+      <c r="I42" t="s">
+        <v>539</v>
+      </c>
+      <c r="J42" t="s">
+        <v>540</v>
+      </c>
+      <c r="K42" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>507</v>
+      </c>
+      <c r="R42" t="s">
+        <v>541</v>
+      </c>
+      <c r="S42" t="s">
+        <v>542</v>
+      </c>
+      <c r="T42" t="s">
+        <v>543</v>
+      </c>
+      <c r="U42" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" t="s">
+        <v>545</v>
+      </c>
+      <c r="C43" t="s">
+        <v>546</v>
+      </c>
+      <c r="D43" t="s">
+        <v>466</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>547</v>
+      </c>
+      <c r="H43">
+        <v>2017</v>
+      </c>
+      <c r="I43" t="s">
+        <v>548</v>
+      </c>
+      <c r="J43" t="s">
+        <v>549</v>
+      </c>
+      <c r="K43" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>507</v>
+      </c>
+      <c r="R43" t="s">
+        <v>550</v>
+      </c>
+      <c r="S43" t="s">
+        <v>551</v>
+      </c>
+      <c r="T43" t="s">
+        <v>552</v>
+      </c>
+      <c r="U43" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" t="s">
+        <v>554</v>
+      </c>
+      <c r="C44" t="s">
+        <v>555</v>
+      </c>
+      <c r="D44" t="s">
+        <v>556</v>
+      </c>
+      <c r="E44">
+        <v>13</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>55</v>
+      </c>
+      <c r="H44">
+        <v>2003</v>
+      </c>
+      <c r="I44" t="s">
+        <v>557</v>
+      </c>
+      <c r="J44" t="s">
+        <v>558</v>
+      </c>
+      <c r="K44" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>507</v>
+      </c>
+      <c r="R44" t="s">
+        <v>559</v>
+      </c>
+      <c r="S44" t="s">
+        <v>560</v>
+      </c>
+      <c r="T44" t="s">
+        <v>561</v>
+      </c>
+      <c r="U44" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" t="s">
+        <v>563</v>
+      </c>
+      <c r="C45" t="s">
+        <v>564</v>
+      </c>
+      <c r="D45" t="s">
+        <v>565</v>
+      </c>
+      <c r="E45">
+        <v>24</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>69</v>
+      </c>
+      <c r="H45">
+        <v>1997</v>
+      </c>
+      <c r="I45" t="s">
+        <v>566</v>
+      </c>
+      <c r="J45" t="s">
+        <v>567</v>
+      </c>
+      <c r="K45" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>507</v>
+      </c>
+      <c r="R45" t="s">
+        <v>563</v>
+      </c>
+      <c r="S45" t="s">
+        <v>568</v>
+      </c>
+      <c r="T45" t="s">
+        <v>569</v>
+      </c>
+      <c r="U45" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" t="s">
+        <v>571</v>
+      </c>
+      <c r="C46" t="s">
+        <v>572</v>
+      </c>
+      <c r="D46" t="s">
+        <v>573</v>
+      </c>
+      <c r="E46">
+        <v>41</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>119</v>
+      </c>
+      <c r="H46">
+        <v>1993</v>
+      </c>
+      <c r="I46" t="s">
+        <v>566</v>
+      </c>
+      <c r="J46" t="s">
+        <v>567</v>
+      </c>
+      <c r="K46" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>507</v>
+      </c>
+      <c r="R46" t="s">
+        <v>571</v>
+      </c>
+      <c r="S46" t="s">
+        <v>574</v>
+      </c>
+      <c r="T46" t="s">
+        <v>569</v>
+      </c>
+      <c r="U46" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" t="s">
+        <v>576</v>
+      </c>
+      <c r="C47" t="s">
+        <v>577</v>
+      </c>
+      <c r="D47" t="s">
+        <v>578</v>
+      </c>
+      <c r="E47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47">
+        <v>110</v>
+      </c>
+      <c r="G47">
+        <v>29</v>
+      </c>
+      <c r="H47">
+        <v>2005</v>
+      </c>
+      <c r="I47" t="s">
+        <v>312</v>
+      </c>
+      <c r="J47" t="s">
+        <v>579</v>
+      </c>
+      <c r="K47" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>507</v>
+      </c>
+      <c r="R47" t="s">
+        <v>580</v>
+      </c>
+      <c r="S47" t="s">
+        <v>581</v>
+      </c>
+      <c r="T47" t="s">
+        <v>582</v>
+      </c>
+      <c r="U47" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>584</v>
+      </c>
+      <c r="B48" t="s">
+        <v>585</v>
+      </c>
+      <c r="C48" t="s">
+        <v>586</v>
+      </c>
+      <c r="D48" t="s">
+        <v>587</v>
+      </c>
+      <c r="E48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48">
+        <v>1229</v>
+      </c>
+      <c r="G48">
+        <v>229</v>
+      </c>
+      <c r="H48">
+        <v>2018</v>
+      </c>
+      <c r="I48" t="s">
+        <v>320</v>
+      </c>
+      <c r="J48" t="s">
+        <v>588</v>
+      </c>
+      <c r="K48" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>451</v>
+      </c>
+      <c r="R48" t="s">
+        <v>589</v>
+      </c>
+      <c r="S48" t="s">
+        <v>590</v>
+      </c>
+      <c r="T48" t="s">
+        <v>591</v>
+      </c>
+      <c r="U48" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" t="s">
+        <v>593</v>
+      </c>
+      <c r="C49" t="s">
+        <v>594</v>
+      </c>
+      <c r="D49" t="s">
+        <v>595</v>
+      </c>
+      <c r="E49">
+        <v>14</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>101</v>
+      </c>
+      <c r="H49">
+        <v>1999</v>
+      </c>
+      <c r="I49" t="s">
+        <v>596</v>
+      </c>
+      <c r="J49" t="s">
+        <v>263</v>
+      </c>
+      <c r="K49" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>451</v>
+      </c>
+      <c r="R49" t="s">
+        <v>597</v>
+      </c>
+      <c r="S49" t="s">
+        <v>598</v>
+      </c>
+      <c r="T49" t="s">
+        <v>599</v>
+      </c>
+      <c r="U49" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" t="s">
+        <v>601</v>
+      </c>
+      <c r="C50" t="s">
+        <v>602</v>
+      </c>
+      <c r="D50" t="s">
+        <v>603</v>
+      </c>
+      <c r="E50">
+        <v>57</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>249</v>
+      </c>
+      <c r="H50">
+        <v>2012</v>
+      </c>
+      <c r="I50" t="s">
+        <v>604</v>
+      </c>
+      <c r="J50" t="s">
+        <v>605</v>
+      </c>
+      <c r="K50" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>451</v>
+      </c>
+      <c r="R50" t="s">
+        <v>606</v>
+      </c>
+      <c r="S50" t="s">
+        <v>607</v>
+      </c>
+      <c r="T50" t="s">
+        <v>608</v>
+      </c>
+      <c r="U50" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>202</v>
+      </c>
+      <c r="B51" t="s">
+        <v>610</v>
+      </c>
+      <c r="C51" t="s">
+        <v>611</v>
+      </c>
+      <c r="D51" t="s">
+        <v>612</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>-7</v>
+      </c>
+      <c r="G51">
+        <v>9</v>
+      </c>
+      <c r="H51">
+        <v>1953</v>
+      </c>
+      <c r="I51" t="s">
+        <v>263</v>
+      </c>
+      <c r="K51" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>451</v>
+      </c>
+      <c r="R51" t="s">
+        <v>610</v>
+      </c>
+      <c r="S51" t="s">
+        <v>613</v>
+      </c>
+      <c r="T51" t="s">
+        <v>614</v>
+      </c>
+      <c r="U51" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" t="s">
+        <v>616</v>
+      </c>
+      <c r="C52" t="s">
+        <v>617</v>
+      </c>
+      <c r="D52" t="s">
+        <v>618</v>
+      </c>
+      <c r="E52">
+        <v>20</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>395</v>
+      </c>
+      <c r="H52">
+        <v>1986</v>
+      </c>
+      <c r="I52" t="s">
+        <v>619</v>
+      </c>
+      <c r="J52" t="s">
+        <v>620</v>
+      </c>
+      <c r="K52" t="s">
+        <v>207</v>
+      </c>
+      <c r="M52" t="s">
+        <v>621</v>
+      </c>
+      <c r="N52" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>622</v>
+      </c>
+      <c r="R52" t="s">
+        <v>623</v>
+      </c>
+      <c r="S52" t="s">
+        <v>623</v>
+      </c>
+      <c r="T52" t="s">
+        <v>624</v>
+      </c>
+      <c r="U52" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>626</v>
+      </c>
+      <c r="B53" t="s">
+        <v>627</v>
+      </c>
+      <c r="C53" t="s">
+        <v>628</v>
+      </c>
+      <c r="D53" t="s">
+        <v>629</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>2013</v>
+      </c>
+      <c r="I53" t="s">
+        <v>630</v>
+      </c>
+      <c r="J53" t="s">
+        <v>631</v>
+      </c>
+      <c r="K53" t="s">
+        <v>207</v>
+      </c>
+      <c r="M53" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>622</v>
+      </c>
+      <c r="R53" t="s">
+        <v>633</v>
+      </c>
+      <c r="S53" t="s">
+        <v>634</v>
+      </c>
+      <c r="T53" t="s">
+        <v>635</v>
+      </c>
+      <c r="U53" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>626</v>
+      </c>
+      <c r="B54" t="s">
+        <v>627</v>
+      </c>
+      <c r="C54" t="s">
+        <v>637</v>
+      </c>
+      <c r="D54" t="s">
+        <v>629</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>2013</v>
+      </c>
+      <c r="I54" t="s">
+        <v>630</v>
+      </c>
+      <c r="J54" t="s">
+        <v>631</v>
+      </c>
+      <c r="K54" t="s">
+        <v>207</v>
+      </c>
+      <c r="M54" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>622</v>
+      </c>
+      <c r="R54" t="s">
+        <v>633</v>
+      </c>
+      <c r="S54" t="s">
+        <v>634</v>
+      </c>
+      <c r="T54" t="s">
+        <v>635</v>
+      </c>
+      <c r="U54" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" t="s">
+        <v>638</v>
+      </c>
+      <c r="C55" t="s">
+        <v>639</v>
+      </c>
+      <c r="D55" t="s">
+        <v>279</v>
+      </c>
+      <c r="E55">
+        <v>16</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>867</v>
+      </c>
+      <c r="H55">
+        <v>1986</v>
+      </c>
+      <c r="I55" t="s">
+        <v>640</v>
+      </c>
+      <c r="J55" t="s">
+        <v>641</v>
+      </c>
+      <c r="K55" t="s">
+        <v>207</v>
+      </c>
+      <c r="M55" t="s">
+        <v>632</v>
+      </c>
+      <c r="N55" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>622</v>
+      </c>
+      <c r="R55" t="s">
+        <v>643</v>
+      </c>
+      <c r="S55" t="s">
+        <v>644</v>
+      </c>
+      <c r="T55" t="s">
+        <v>645</v>
+      </c>
+      <c r="U55" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" t="s">
+        <v>647</v>
+      </c>
+      <c r="C56" t="s">
+        <v>648</v>
+      </c>
+      <c r="D56" t="s">
+        <v>262</v>
+      </c>
+      <c r="E56">
+        <v>29</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>347</v>
+      </c>
+      <c r="H56">
+        <v>2001</v>
+      </c>
+      <c r="I56" t="s">
+        <v>649</v>
+      </c>
+      <c r="J56" t="s">
+        <v>650</v>
+      </c>
+      <c r="K56" t="s">
+        <v>207</v>
+      </c>
+      <c r="N56" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>622</v>
+      </c>
+      <c r="R56" t="s">
+        <v>652</v>
+      </c>
+      <c r="S56" t="s">
+        <v>653</v>
+      </c>
+      <c r="T56" t="s">
+        <v>654</v>
+      </c>
+      <c r="U56" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>202</v>
+      </c>
+      <c r="B57" t="s">
+        <v>656</v>
+      </c>
+      <c r="C57" t="s">
+        <v>657</v>
+      </c>
+      <c r="D57" t="s">
+        <v>658</v>
+      </c>
+      <c r="E57">
+        <v>31</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>330</v>
+      </c>
+      <c r="H57">
+        <v>2021</v>
+      </c>
+      <c r="I57" t="s">
+        <v>659</v>
+      </c>
+      <c r="J57" t="s">
+        <v>660</v>
+      </c>
+      <c r="K57" t="s">
+        <v>207</v>
+      </c>
+      <c r="M57" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>622</v>
+      </c>
+      <c r="R57" t="s">
+        <v>661</v>
+      </c>
+      <c r="S57" t="s">
+        <v>662</v>
+      </c>
+      <c r="T57" t="s">
+        <v>663</v>
+      </c>
+      <c r="U57" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>202</v>
+      </c>
+      <c r="B58" t="s">
+        <v>665</v>
+      </c>
+      <c r="C58" t="s">
+        <v>666</v>
+      </c>
+      <c r="D58" t="s">
+        <v>667</v>
+      </c>
+      <c r="E58">
+        <v>53</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>1147</v>
+      </c>
+      <c r="H58">
+        <v>2021</v>
+      </c>
+      <c r="I58" t="s">
+        <v>619</v>
+      </c>
+      <c r="J58" t="s">
+        <v>620</v>
+      </c>
+      <c r="K58" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>622</v>
+      </c>
+      <c r="R58" t="s">
+        <v>668</v>
+      </c>
+      <c r="S58" t="s">
+        <v>669</v>
+      </c>
+      <c r="T58" t="s">
+        <v>670</v>
+      </c>
+      <c r="U58" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>202</v>
+      </c>
+      <c r="B59" t="s">
+        <v>672</v>
+      </c>
+      <c r="C59" t="s">
+        <v>673</v>
+      </c>
+      <c r="D59" t="s">
+        <v>674</v>
+      </c>
+      <c r="E59">
+        <v>199</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>228</v>
+      </c>
+      <c r="H59">
+        <v>2004</v>
+      </c>
+      <c r="I59" t="s">
+        <v>675</v>
+      </c>
+      <c r="J59" t="s">
+        <v>676</v>
+      </c>
+      <c r="K59" t="s">
+        <v>207</v>
+      </c>
+      <c r="M59" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>622</v>
+      </c>
+      <c r="R59" t="s">
+        <v>672</v>
+      </c>
+      <c r="S59" t="s">
+        <v>677</v>
+      </c>
+      <c r="T59" t="s">
+        <v>678</v>
+      </c>
+      <c r="U59" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" t="s">
+        <v>680</v>
+      </c>
+      <c r="C60" t="s">
+        <v>681</v>
+      </c>
+      <c r="D60" t="s">
+        <v>682</v>
+      </c>
+      <c r="E60">
+        <v>178</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>163</v>
+      </c>
+      <c r="H60">
+        <v>2005</v>
+      </c>
+      <c r="I60" t="s">
+        <v>683</v>
+      </c>
+      <c r="J60" t="s">
+        <v>684</v>
+      </c>
+      <c r="K60" t="s">
+        <v>207</v>
+      </c>
+      <c r="M60" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>622</v>
+      </c>
+      <c r="R60" t="s">
+        <v>680</v>
+      </c>
+      <c r="S60" t="s">
+        <v>685</v>
+      </c>
+      <c r="T60" t="s">
+        <v>686</v>
+      </c>
+      <c r="U60" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>202</v>
+      </c>
+      <c r="B61" t="s">
+        <v>688</v>
+      </c>
+      <c r="C61" t="s">
+        <v>689</v>
+      </c>
+      <c r="D61" t="s">
+        <v>690</v>
+      </c>
+      <c r="E61">
+        <v>62</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>177</v>
+      </c>
+      <c r="H61">
+        <v>1998</v>
+      </c>
+      <c r="I61" t="s">
+        <v>691</v>
+      </c>
+      <c r="J61" t="s">
+        <v>692</v>
+      </c>
+      <c r="K61" t="s">
+        <v>207</v>
+      </c>
+      <c r="M61" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>622</v>
+      </c>
+      <c r="R61" t="s">
+        <v>693</v>
+      </c>
+      <c r="S61" t="s">
+        <v>694</v>
+      </c>
+      <c r="T61" t="s">
+        <v>695</v>
+      </c>
+      <c r="U61" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" t="s">
+        <v>697</v>
+      </c>
+      <c r="C62" t="s">
+        <v>698</v>
+      </c>
+      <c r="D62" t="s">
+        <v>699</v>
+      </c>
+      <c r="E62">
+        <v>24</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>79</v>
+      </c>
+      <c r="H62">
+        <v>2003</v>
+      </c>
+      <c r="I62" t="s">
+        <v>244</v>
+      </c>
+      <c r="J62" t="s">
+        <v>245</v>
+      </c>
+      <c r="K62" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>451</v>
+      </c>
+      <c r="R62" t="s">
+        <v>697</v>
+      </c>
+      <c r="S62" t="s">
+        <v>700</v>
+      </c>
+      <c r="T62" t="s">
+        <v>701</v>
+      </c>
+      <c r="U62" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>703</v>
+      </c>
+      <c r="B63" t="s">
+        <v>704</v>
+      </c>
+      <c r="C63" t="s">
+        <v>705</v>
+      </c>
+      <c r="D63" t="s">
+        <v>706</v>
+      </c>
+      <c r="E63">
+        <v>962</v>
+      </c>
+      <c r="G63">
+        <v>195</v>
+      </c>
+      <c r="H63">
+        <v>2012</v>
+      </c>
+      <c r="I63" t="s">
+        <v>320</v>
+      </c>
+      <c r="J63" t="s">
+        <v>588</v>
+      </c>
+      <c r="K63" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>451</v>
+      </c>
+      <c r="R63" t="s">
+        <v>707</v>
+      </c>
+      <c r="S63" t="s">
+        <v>708</v>
+      </c>
+      <c r="T63" t="s">
+        <v>709</v>
+      </c>
+      <c r="U63" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>202</v>
+      </c>
+      <c r="B64" t="s">
+        <v>711</v>
+      </c>
+      <c r="C64" t="s">
+        <v>712</v>
+      </c>
+      <c r="D64" t="s">
+        <v>713</v>
+      </c>
+      <c r="E64">
+        <v>42</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64">
+        <v>148</v>
+      </c>
+      <c r="H64">
+        <v>2010</v>
+      </c>
+      <c r="I64" t="s">
+        <v>263</v>
+      </c>
+      <c r="K64" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>451</v>
+      </c>
+      <c r="R64" t="s">
+        <v>711</v>
+      </c>
+      <c r="S64" t="s">
+        <v>714</v>
+      </c>
+      <c r="T64" t="s">
+        <v>715</v>
+      </c>
+      <c r="U64" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" t="s">
+        <v>717</v>
+      </c>
+      <c r="C65" t="s">
+        <v>718</v>
+      </c>
+      <c r="D65" t="s">
+        <v>719</v>
+      </c>
+      <c r="E65">
+        <v>155</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>116</v>
+      </c>
+      <c r="H65">
+        <v>2021</v>
+      </c>
+      <c r="I65" t="s">
+        <v>263</v>
+      </c>
+      <c r="K65" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>451</v>
+      </c>
+      <c r="R65" t="s">
+        <v>720</v>
+      </c>
+      <c r="S65" t="s">
+        <v>721</v>
+      </c>
+      <c r="T65" t="s">
+        <v>722</v>
+      </c>
+      <c r="U65" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>724</v>
+      </c>
+      <c r="B66" t="s">
+        <v>725</v>
+      </c>
+      <c r="C66" t="s">
+        <v>726</v>
+      </c>
+      <c r="D66" t="s">
+        <v>727</v>
+      </c>
+      <c r="E66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G66">
+        <v>186</v>
+      </c>
+      <c r="H66">
+        <v>1958</v>
+      </c>
+      <c r="I66" t="s">
+        <v>320</v>
+      </c>
+      <c r="J66" t="s">
+        <v>728</v>
+      </c>
+      <c r="K66" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>451</v>
+      </c>
+      <c r="R66" t="s">
+        <v>725</v>
+      </c>
+      <c r="S66" t="s">
+        <v>729</v>
+      </c>
+      <c r="T66" t="s">
+        <v>730</v>
+      </c>
+      <c r="U66" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>202</v>
+      </c>
+      <c r="B67" t="s">
+        <v>732</v>
+      </c>
+      <c r="C67" t="s">
+        <v>733</v>
+      </c>
+      <c r="D67" t="s">
+        <v>734</v>
+      </c>
+      <c r="E67" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>38</v>
+      </c>
+      <c r="H67">
+        <v>1989</v>
+      </c>
+      <c r="I67" t="s">
+        <v>735</v>
+      </c>
+      <c r="J67" t="s">
+        <v>736</v>
+      </c>
+      <c r="K67" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>451</v>
+      </c>
+      <c r="R67" t="s">
+        <v>732</v>
+      </c>
+      <c r="S67" t="s">
+        <v>732</v>
+      </c>
+      <c r="T67" t="s">
+        <v>737</v>
+      </c>
+      <c r="U67" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68" t="s">
+        <v>739</v>
+      </c>
+      <c r="C68" t="s">
+        <v>740</v>
+      </c>
+      <c r="D68" t="s">
+        <v>741</v>
+      </c>
+      <c r="E68">
+        <v>34</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>293</v>
+      </c>
+      <c r="H68">
+        <v>2012</v>
+      </c>
+      <c r="I68" t="s">
+        <v>742</v>
+      </c>
+      <c r="J68" t="s">
+        <v>743</v>
+      </c>
+      <c r="K68" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>331</v>
+      </c>
+      <c r="R68" t="s">
+        <v>744</v>
+      </c>
+      <c r="S68" t="s">
+        <v>745</v>
+      </c>
+      <c r="T68" t="s">
+        <v>746</v>
+      </c>
+      <c r="U68" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>202</v>
+      </c>
+      <c r="B69" t="s">
+        <v>748</v>
+      </c>
+      <c r="C69" t="s">
+        <v>749</v>
+      </c>
+      <c r="D69" t="s">
+        <v>750</v>
+      </c>
+      <c r="E69">
+        <v>37</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+      <c r="G69">
+        <v>83</v>
+      </c>
+      <c r="H69">
+        <v>1978</v>
+      </c>
+      <c r="K69" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>331</v>
+      </c>
+      <c r="R69" t="s">
+        <v>751</v>
+      </c>
+      <c r="S69" t="s">
+        <v>752</v>
+      </c>
+      <c r="T69" t="s">
+        <v>753</v>
+      </c>
+      <c r="U69" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>202</v>
+      </c>
+      <c r="B70" t="s">
+        <v>755</v>
+      </c>
+      <c r="C70" t="s">
+        <v>756</v>
+      </c>
+      <c r="D70" t="s">
+        <v>757</v>
+      </c>
+      <c r="E70">
+        <v>9</v>
+      </c>
+      <c r="H70">
+        <v>2019</v>
+      </c>
+      <c r="K70" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>331</v>
+      </c>
+      <c r="R70" t="s">
+        <v>758</v>
+      </c>
+      <c r="S70" t="s">
+        <v>759</v>
+      </c>
+      <c r="T70" t="s">
+        <v>760</v>
+      </c>
+      <c r="U70" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>202</v>
+      </c>
+      <c r="B71" t="s">
+        <v>762</v>
+      </c>
+      <c r="C71" t="s">
+        <v>763</v>
+      </c>
+      <c r="D71" t="s">
+        <v>523</v>
+      </c>
+      <c r="E71">
+        <v>27</v>
+      </c>
+      <c r="F71">
+        <v>11</v>
+      </c>
+      <c r="G71">
+        <v>1190</v>
+      </c>
+      <c r="H71">
+        <v>1992</v>
+      </c>
+      <c r="I71" t="s">
+        <v>764</v>
+      </c>
+      <c r="J71" t="s">
+        <v>765</v>
+      </c>
+      <c r="K71" t="s">
+        <v>207</v>
+      </c>
+      <c r="O71" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>331</v>
+      </c>
+      <c r="R71" t="s">
+        <v>766</v>
+      </c>
+      <c r="S71" t="s">
+        <v>767</v>
+      </c>
+      <c r="T71" t="s">
+        <v>768</v>
+      </c>
+      <c r="U71" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>202</v>
+      </c>
+      <c r="B72" t="s">
+        <v>770</v>
+      </c>
+      <c r="C72" t="s">
+        <v>771</v>
+      </c>
+      <c r="D72" t="s">
+        <v>772</v>
+      </c>
+      <c r="E72">
+        <v>40</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>195</v>
+      </c>
+      <c r="H72">
+        <v>2008</v>
+      </c>
+      <c r="I72" t="s">
+        <v>773</v>
+      </c>
+      <c r="J72" t="s">
+        <v>774</v>
+      </c>
+      <c r="K72" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>331</v>
+      </c>
+      <c r="R72" t="s">
+        <v>775</v>
+      </c>
+      <c r="S72" t="s">
+        <v>776</v>
+      </c>
+      <c r="T72" t="s">
+        <v>777</v>
+      </c>
+      <c r="U72" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>202</v>
+      </c>
+      <c r="B73" t="s">
+        <v>779</v>
+      </c>
+      <c r="C73" t="s">
+        <v>780</v>
+      </c>
+      <c r="D73" t="s">
+        <v>346</v>
+      </c>
+      <c r="E73">
+        <v>29</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>25</v>
+      </c>
+      <c r="H73">
+        <v>1995</v>
+      </c>
+      <c r="I73" t="s">
+        <v>781</v>
+      </c>
+      <c r="K73" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>331</v>
+      </c>
+      <c r="R73" t="s">
+        <v>782</v>
+      </c>
+      <c r="S73" t="s">
+        <v>783</v>
+      </c>
+      <c r="T73" t="s">
+        <v>784</v>
+      </c>
+      <c r="U73" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>202</v>
+      </c>
+      <c r="B74" t="s">
+        <v>786</v>
+      </c>
+      <c r="C74" t="s">
+        <v>787</v>
+      </c>
+      <c r="D74" t="s">
+        <v>788</v>
+      </c>
+      <c r="E74">
+        <v>6</v>
+      </c>
+      <c r="F74" s="1">
+        <v>44624</v>
+      </c>
+      <c r="G74">
+        <v>299</v>
+      </c>
+      <c r="H74">
+        <v>2008</v>
+      </c>
+      <c r="K74" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>331</v>
+      </c>
+      <c r="R74" t="s">
+        <v>789</v>
+      </c>
+      <c r="S74" t="s">
+        <v>790</v>
+      </c>
+      <c r="T74" t="s">
+        <v>791</v>
+      </c>
+      <c r="U74" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>202</v>
+      </c>
+      <c r="B75" t="s">
+        <v>793</v>
+      </c>
+      <c r="C75" t="s">
+        <v>794</v>
+      </c>
+      <c r="D75" t="s">
+        <v>795</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>95</v>
+      </c>
+      <c r="H75">
+        <v>1992</v>
+      </c>
+      <c r="I75" t="s">
+        <v>796</v>
+      </c>
+      <c r="J75" t="s">
+        <v>797</v>
+      </c>
+      <c r="K75" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>331</v>
+      </c>
+      <c r="R75" t="s">
+        <v>798</v>
+      </c>
+      <c r="S75" t="s">
+        <v>799</v>
+      </c>
+      <c r="T75" t="s">
+        <v>800</v>
+      </c>
+      <c r="U75" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>202</v>
+      </c>
+      <c r="B76" t="s">
+        <v>802</v>
+      </c>
+      <c r="C76" t="s">
+        <v>803</v>
+      </c>
+      <c r="D76" t="s">
+        <v>804</v>
+      </c>
+      <c r="E76">
+        <v>7</v>
+      </c>
+      <c r="F76">
+        <v>6</v>
+      </c>
+      <c r="G76">
+        <v>511</v>
+      </c>
+      <c r="H76">
+        <v>2006</v>
+      </c>
+      <c r="I76" t="s">
+        <v>805</v>
+      </c>
+      <c r="J76" t="s">
+        <v>806</v>
+      </c>
+      <c r="K76" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>331</v>
+      </c>
+      <c r="R76" t="s">
+        <v>807</v>
+      </c>
+      <c r="S76" t="s">
+        <v>808</v>
+      </c>
+      <c r="T76" t="s">
+        <v>809</v>
+      </c>
+      <c r="U76" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>202</v>
+      </c>
+      <c r="B77" t="s">
+        <v>811</v>
+      </c>
+      <c r="C77" t="s">
+        <v>812</v>
+      </c>
+      <c r="D77" t="s">
+        <v>813</v>
+      </c>
+      <c r="E77">
+        <v>108</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>566</v>
+      </c>
+      <c r="H77">
+        <v>2016</v>
+      </c>
+      <c r="I77" t="s">
+        <v>814</v>
+      </c>
+      <c r="J77" t="s">
+        <v>815</v>
+      </c>
+      <c r="K77" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>331</v>
+      </c>
+      <c r="R77" t="s">
+        <v>816</v>
+      </c>
+      <c r="S77" t="s">
+        <v>817</v>
+      </c>
+      <c r="T77" t="s">
+        <v>818</v>
+      </c>
+      <c r="U77" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" t="s">
+        <v>820</v>
+      </c>
+      <c r="C78" t="s">
+        <v>821</v>
+      </c>
+      <c r="D78" t="s">
+        <v>822</v>
+      </c>
+      <c r="E78">
+        <v>51</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>209</v>
+      </c>
+      <c r="H78">
+        <v>2005</v>
+      </c>
+      <c r="I78" t="s">
+        <v>823</v>
+      </c>
+      <c r="J78" t="s">
+        <v>824</v>
+      </c>
+      <c r="K78" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>331</v>
+      </c>
+      <c r="R78" t="s">
+        <v>825</v>
+      </c>
+      <c r="S78" t="s">
+        <v>826</v>
+      </c>
+      <c r="T78" t="s">
+        <v>827</v>
+      </c>
+      <c r="U78" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" t="s">
+        <v>829</v>
+      </c>
+      <c r="C79" t="s">
+        <v>830</v>
+      </c>
+      <c r="D79" t="s">
+        <v>262</v>
+      </c>
+      <c r="E79">
+        <v>36</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>105</v>
+      </c>
+      <c r="H79">
+        <v>2008</v>
+      </c>
+      <c r="I79" t="s">
+        <v>831</v>
+      </c>
+      <c r="J79" t="s">
+        <v>832</v>
+      </c>
+      <c r="K79" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>331</v>
+      </c>
+      <c r="R79" t="s">
+        <v>833</v>
+      </c>
+      <c r="S79" t="s">
+        <v>826</v>
+      </c>
+      <c r="T79" t="s">
+        <v>827</v>
+      </c>
+      <c r="U79" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>202</v>
+      </c>
+      <c r="B80" t="s">
+        <v>835</v>
+      </c>
+      <c r="C80" t="s">
+        <v>836</v>
+      </c>
+      <c r="D80" t="s">
+        <v>837</v>
+      </c>
+      <c r="E80">
+        <v>94</v>
+      </c>
+      <c r="G80">
+        <v>165</v>
+      </c>
+      <c r="H80">
+        <v>2015</v>
+      </c>
+      <c r="I80" t="s">
+        <v>838</v>
+      </c>
+      <c r="J80" t="s">
+        <v>839</v>
+      </c>
+      <c r="K80" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>451</v>
+      </c>
+      <c r="R80" t="s">
+        <v>840</v>
+      </c>
+      <c r="S80" t="s">
+        <v>826</v>
+      </c>
+      <c r="T80" t="s">
+        <v>827</v>
+      </c>
+      <c r="U80" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>202</v>
+      </c>
+      <c r="B81" t="s">
+        <v>842</v>
+      </c>
+      <c r="C81" t="s">
+        <v>843</v>
+      </c>
+      <c r="D81" t="s">
+        <v>844</v>
+      </c>
+      <c r="E81">
+        <v>21</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>125</v>
+      </c>
+      <c r="H81">
+        <v>2006</v>
+      </c>
+      <c r="I81" t="s">
+        <v>845</v>
+      </c>
+      <c r="J81" t="s">
+        <v>846</v>
+      </c>
+      <c r="K81" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>451</v>
+      </c>
+      <c r="R81" t="s">
+        <v>840</v>
+      </c>
+      <c r="S81" t="s">
+        <v>826</v>
+      </c>
+      <c r="T81" t="s">
+        <v>827</v>
+      </c>
+      <c r="U81" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>626</v>
+      </c>
+      <c r="B82" t="s">
+        <v>840</v>
+      </c>
+      <c r="C82" t="s">
+        <v>848</v>
+      </c>
+      <c r="D82" t="s">
+        <v>849</v>
+      </c>
+      <c r="E82" t="s">
+        <v>41</v>
+      </c>
+      <c r="H82">
+        <v>2006</v>
+      </c>
+      <c r="I82" t="s">
+        <v>320</v>
+      </c>
+      <c r="J82" t="s">
+        <v>850</v>
+      </c>
+      <c r="K82" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>451</v>
+      </c>
+      <c r="R82" t="s">
+        <v>840</v>
+      </c>
+      <c r="S82" t="s">
+        <v>826</v>
+      </c>
+      <c r="T82" t="s">
+        <v>827</v>
+      </c>
+      <c r="U82" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>202</v>
+      </c>
+      <c r="B83" t="s">
+        <v>851</v>
+      </c>
+      <c r="C83" t="s">
+        <v>852</v>
+      </c>
+      <c r="D83" t="s">
+        <v>853</v>
+      </c>
+      <c r="E83">
+        <v>102</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+      <c r="G83">
+        <v>372</v>
+      </c>
+      <c r="H83">
+        <v>2020</v>
+      </c>
+      <c r="I83" t="s">
+        <v>604</v>
+      </c>
+      <c r="J83" t="s">
+        <v>854</v>
+      </c>
+      <c r="K83" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>331</v>
+      </c>
+      <c r="R83" t="s">
+        <v>855</v>
+      </c>
+      <c r="S83" t="s">
+        <v>856</v>
+      </c>
+      <c r="T83" t="s">
+        <v>857</v>
+      </c>
+      <c r="U83" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>202</v>
+      </c>
+      <c r="B84" t="s">
+        <v>859</v>
+      </c>
+      <c r="C84" t="s">
+        <v>860</v>
+      </c>
+      <c r="D84" t="s">
+        <v>861</v>
+      </c>
+      <c r="E84">
+        <v>87</v>
+      </c>
+      <c r="G84">
+        <v>265</v>
+      </c>
+      <c r="H84">
+        <v>2018</v>
+      </c>
+      <c r="I84" t="s">
+        <v>862</v>
+      </c>
+      <c r="J84" t="s">
+        <v>863</v>
+      </c>
+      <c r="K84" t="s">
+        <v>207</v>
+      </c>
+      <c r="O84" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>331</v>
+      </c>
+      <c r="R84" t="s">
+        <v>864</v>
+      </c>
+      <c r="S84" t="s">
+        <v>865</v>
+      </c>
+      <c r="T84" t="s">
+        <v>866</v>
+      </c>
+      <c r="U84" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>626</v>
+      </c>
+      <c r="B85" t="s">
+        <v>868</v>
+      </c>
+      <c r="C85" t="s">
+        <v>869</v>
+      </c>
+      <c r="D85" t="s">
+        <v>849</v>
+      </c>
+      <c r="E85" t="s">
+        <v>41</v>
+      </c>
+      <c r="H85">
+        <v>2009</v>
+      </c>
+      <c r="I85" t="s">
+        <v>831</v>
+      </c>
+      <c r="J85" t="s">
+        <v>832</v>
+      </c>
+      <c r="K85" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>331</v>
+      </c>
+      <c r="R85" t="s">
+        <v>870</v>
+      </c>
+      <c r="S85" t="s">
+        <v>871</v>
+      </c>
+      <c r="T85" t="s">
+        <v>872</v>
+      </c>
+      <c r="U85" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>626</v>
+      </c>
+      <c r="B86" t="s">
+        <v>874</v>
+      </c>
+      <c r="C86" t="s">
+        <v>875</v>
+      </c>
+      <c r="D86" t="s">
+        <v>849</v>
+      </c>
+      <c r="E86" t="s">
+        <v>41</v>
+      </c>
+      <c r="H86">
+        <v>2006</v>
+      </c>
+      <c r="I86" t="s">
+        <v>845</v>
+      </c>
+      <c r="J86" t="s">
+        <v>846</v>
+      </c>
+      <c r="K86" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>331</v>
+      </c>
+      <c r="R86" t="s">
+        <v>876</v>
+      </c>
+      <c r="S86" t="s">
+        <v>871</v>
+      </c>
+      <c r="T86" t="s">
+        <v>872</v>
+      </c>
+      <c r="U86" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>202</v>
+      </c>
+      <c r="B87" t="s">
+        <v>878</v>
+      </c>
+      <c r="C87" t="s">
+        <v>879</v>
+      </c>
+      <c r="D87" t="s">
+        <v>880</v>
+      </c>
+      <c r="E87">
+        <v>135</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>27</v>
+      </c>
+      <c r="H87">
+        <v>2020</v>
+      </c>
+      <c r="K87" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>331</v>
+      </c>
+      <c r="R87" t="s">
+        <v>881</v>
+      </c>
+      <c r="S87" t="s">
+        <v>882</v>
+      </c>
+      <c r="T87" t="s">
+        <v>883</v>
+      </c>
+      <c r="U87" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>202</v>
+      </c>
+      <c r="B88" t="s">
+        <v>885</v>
+      </c>
+      <c r="C88" t="s">
+        <v>886</v>
+      </c>
+      <c r="D88" t="s">
+        <v>887</v>
+      </c>
+      <c r="E88">
+        <v>617</v>
+      </c>
+      <c r="G88">
+        <v>197</v>
+      </c>
+      <c r="H88">
+        <v>2009</v>
+      </c>
+      <c r="I88" t="s">
+        <v>888</v>
+      </c>
+      <c r="J88" t="s">
+        <v>889</v>
+      </c>
+      <c r="K88" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>331</v>
+      </c>
+      <c r="R88" t="s">
+        <v>890</v>
+      </c>
+      <c r="S88" t="s">
+        <v>891</v>
+      </c>
+      <c r="T88" t="s">
+        <v>892</v>
+      </c>
+      <c r="U88" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>202</v>
+      </c>
+      <c r="B89" t="s">
+        <v>894</v>
+      </c>
+      <c r="C89" t="s">
+        <v>895</v>
+      </c>
+      <c r="D89" t="s">
+        <v>896</v>
+      </c>
+      <c r="E89">
+        <v>59</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="G89">
+        <v>473</v>
+      </c>
+      <c r="H89">
+        <v>2018</v>
+      </c>
+      <c r="I89" t="s">
+        <v>897</v>
+      </c>
+      <c r="J89" t="s">
+        <v>898</v>
+      </c>
+      <c r="K89" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>331</v>
+      </c>
+      <c r="R89" t="s">
+        <v>899</v>
+      </c>
+      <c r="S89" t="s">
+        <v>891</v>
+      </c>
+      <c r="T89" t="s">
+        <v>892</v>
+      </c>
+      <c r="U89" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>202</v>
+      </c>
+      <c r="B90" t="s">
+        <v>901</v>
+      </c>
+      <c r="C90" t="s">
+        <v>902</v>
+      </c>
+      <c r="D90" t="s">
+        <v>896</v>
+      </c>
+      <c r="E90">
+        <v>59</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>335</v>
+      </c>
+      <c r="H90">
+        <v>2018</v>
+      </c>
+      <c r="I90" t="s">
+        <v>903</v>
+      </c>
+      <c r="J90" t="s">
+        <v>904</v>
+      </c>
+      <c r="K90" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>451</v>
+      </c>
+      <c r="R90" t="s">
+        <v>899</v>
+      </c>
+      <c r="S90" t="s">
+        <v>891</v>
+      </c>
+      <c r="T90" t="s">
+        <v>892</v>
+      </c>
+      <c r="U90" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>202</v>
+      </c>
+      <c r="B91" t="s">
+        <v>905</v>
+      </c>
+      <c r="C91" t="s">
+        <v>906</v>
+      </c>
+      <c r="D91" t="s">
+        <v>896</v>
+      </c>
+      <c r="E91">
+        <v>53</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>222</v>
+      </c>
+      <c r="H91">
+        <v>2012</v>
+      </c>
+      <c r="I91" t="s">
+        <v>329</v>
+      </c>
+      <c r="J91" t="s">
+        <v>330</v>
+      </c>
+      <c r="K91" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>451</v>
+      </c>
+      <c r="R91" t="s">
+        <v>907</v>
+      </c>
+      <c r="S91" t="s">
+        <v>891</v>
+      </c>
+      <c r="T91" t="s">
+        <v>892</v>
+      </c>
+      <c r="U91" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>202</v>
+      </c>
+      <c r="B92" t="s">
+        <v>909</v>
+      </c>
+      <c r="C92" t="s">
+        <v>910</v>
+      </c>
+      <c r="D92" t="s">
+        <v>911</v>
+      </c>
+      <c r="E92">
+        <v>31</v>
+      </c>
+      <c r="F92">
+        <v>11</v>
+      </c>
+      <c r="G92">
+        <v>43</v>
+      </c>
+      <c r="H92">
+        <v>2012</v>
+      </c>
+      <c r="I92" t="s">
+        <v>912</v>
+      </c>
+      <c r="J92" t="s">
+        <v>913</v>
+      </c>
+      <c r="K92" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>451</v>
+      </c>
+      <c r="R92" t="s">
+        <v>914</v>
+      </c>
+      <c r="S92" t="s">
+        <v>914</v>
+      </c>
+      <c r="T92" t="s">
+        <v>915</v>
+      </c>
+      <c r="U92" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>202</v>
+      </c>
+      <c r="B93" t="s">
+        <v>917</v>
+      </c>
+      <c r="C93" t="s">
+        <v>918</v>
+      </c>
+      <c r="D93" t="s">
+        <v>919</v>
+      </c>
+      <c r="E93">
+        <v>37</v>
+      </c>
+      <c r="F93" s="1">
+        <v>44624</v>
+      </c>
+      <c r="G93">
+        <v>101</v>
+      </c>
+      <c r="H93">
+        <v>2004</v>
+      </c>
+      <c r="I93" t="s">
+        <v>920</v>
+      </c>
+      <c r="J93" t="s">
+        <v>921</v>
+      </c>
+      <c r="K93" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>451</v>
+      </c>
+      <c r="R93" t="s">
+        <v>922</v>
+      </c>
+      <c r="S93" t="s">
+        <v>923</v>
+      </c>
+      <c r="T93" t="s">
+        <v>924</v>
+      </c>
+      <c r="U93" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94" t="s">
+        <v>926</v>
+      </c>
+      <c r="C94" t="s">
+        <v>927</v>
+      </c>
+      <c r="D94" t="s">
+        <v>928</v>
+      </c>
+      <c r="E94">
+        <v>95</v>
+      </c>
+      <c r="F94">
+        <v>7</v>
+      </c>
+      <c r="G94">
+        <v>673</v>
+      </c>
+      <c r="H94">
+        <v>2017</v>
+      </c>
+      <c r="K94" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>451</v>
+      </c>
+      <c r="R94" t="s">
+        <v>929</v>
+      </c>
+      <c r="S94" t="s">
+        <v>930</v>
+      </c>
+      <c r="T94" t="s">
+        <v>931</v>
+      </c>
+      <c r="U94" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" t="s">
+        <v>933</v>
+      </c>
+      <c r="C95" t="s">
+        <v>934</v>
+      </c>
+      <c r="D95" t="s">
+        <v>935</v>
+      </c>
+      <c r="E95">
+        <v>7</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>116</v>
+      </c>
+      <c r="H95">
+        <v>1994</v>
+      </c>
+      <c r="I95" t="s">
+        <v>936</v>
+      </c>
+      <c r="J95" t="s">
+        <v>937</v>
+      </c>
+      <c r="K95" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>451</v>
+      </c>
+      <c r="R95" t="s">
+        <v>933</v>
+      </c>
+      <c r="S95" t="s">
+        <v>938</v>
+      </c>
+      <c r="T95" t="s">
+        <v>939</v>
+      </c>
+      <c r="U95" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>202</v>
+      </c>
+      <c r="B96" t="s">
+        <v>941</v>
+      </c>
+      <c r="C96" t="s">
+        <v>942</v>
+      </c>
+      <c r="D96" t="s">
+        <v>943</v>
+      </c>
+      <c r="E96">
+        <v>63</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96">
+        <v>303</v>
+      </c>
+      <c r="H96">
+        <v>2017</v>
+      </c>
+      <c r="I96" t="s">
+        <v>263</v>
+      </c>
+      <c r="K96" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>451</v>
+      </c>
+      <c r="R96" t="s">
+        <v>944</v>
+      </c>
+      <c r="S96" t="s">
+        <v>945</v>
+      </c>
+      <c r="T96" t="s">
+        <v>946</v>
+      </c>
+      <c r="U96" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>202</v>
+      </c>
+      <c r="B97" t="s">
+        <v>948</v>
+      </c>
+      <c r="C97" t="s">
+        <v>949</v>
+      </c>
+      <c r="D97" t="s">
+        <v>950</v>
+      </c>
+      <c r="E97">
+        <v>119</v>
+      </c>
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97">
+        <v>241</v>
+      </c>
+      <c r="H97">
+        <v>2009</v>
+      </c>
+      <c r="I97" t="s">
+        <v>951</v>
+      </c>
+      <c r="J97" t="s">
+        <v>952</v>
+      </c>
+      <c r="K97" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>331</v>
+      </c>
+      <c r="R97" t="s">
+        <v>953</v>
+      </c>
+      <c r="S97" t="s">
+        <v>954</v>
+      </c>
+      <c r="T97" t="s">
+        <v>955</v>
+      </c>
+      <c r="U97" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" t="s">
+        <v>957</v>
+      </c>
+      <c r="C98" t="s">
+        <v>958</v>
+      </c>
+      <c r="D98" t="s">
+        <v>959</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>23</v>
+      </c>
+      <c r="H98">
+        <v>1992</v>
+      </c>
+      <c r="I98" t="s">
+        <v>960</v>
+      </c>
+      <c r="J98" t="s">
+        <v>961</v>
+      </c>
+      <c r="K98" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>331</v>
+      </c>
+      <c r="R98" t="s">
+        <v>957</v>
+      </c>
+      <c r="S98" t="s">
+        <v>962</v>
+      </c>
+      <c r="T98" t="s">
+        <v>963</v>
+      </c>
+      <c r="U98" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>202</v>
+      </c>
+      <c r="B99" t="s">
+        <v>965</v>
+      </c>
+      <c r="C99" t="s">
+        <v>966</v>
+      </c>
+      <c r="D99" t="s">
+        <v>967</v>
+      </c>
+      <c r="E99">
+        <v>8</v>
+      </c>
+      <c r="F99">
+        <v>6</v>
+      </c>
+      <c r="G99">
+        <v>1285</v>
+      </c>
+      <c r="H99">
+        <v>2017</v>
+      </c>
+      <c r="I99" t="s">
+        <v>968</v>
+      </c>
+      <c r="J99" t="s">
+        <v>969</v>
+      </c>
+      <c r="K99" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>451</v>
+      </c>
+      <c r="R99" t="s">
+        <v>970</v>
+      </c>
+      <c r="S99" t="s">
+        <v>971</v>
+      </c>
+      <c r="T99" t="s">
+        <v>972</v>
+      </c>
+      <c r="U99" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>202</v>
+      </c>
+      <c r="B100" t="s">
+        <v>974</v>
+      </c>
+      <c r="C100" t="s">
+        <v>975</v>
+      </c>
+      <c r="D100" t="s">
+        <v>976</v>
+      </c>
+      <c r="E100">
+        <v>33</v>
+      </c>
+      <c r="F100" s="1">
+        <v>44565</v>
+      </c>
+      <c r="G100">
+        <v>58</v>
+      </c>
+      <c r="H100">
+        <v>1993</v>
+      </c>
+      <c r="I100" t="s">
+        <v>320</v>
+      </c>
+      <c r="J100" t="s">
+        <v>588</v>
+      </c>
+      <c r="K100" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>451</v>
+      </c>
+      <c r="R100" t="s">
+        <v>977</v>
+      </c>
+      <c r="S100" t="s">
+        <v>978</v>
+      </c>
+      <c r="T100" t="s">
+        <v>979</v>
+      </c>
+      <c r="U100" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>981</v>
+      </c>
+      <c r="C101" t="s">
+        <v>982</v>
+      </c>
+      <c r="D101" t="s">
+        <v>983</v>
+      </c>
+      <c r="E101">
+        <v>31</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="G101">
+        <v>823</v>
+      </c>
+      <c r="H101">
+        <v>2013</v>
+      </c>
+      <c r="I101" t="s">
+        <v>984</v>
+      </c>
+      <c r="J101" t="s">
+        <v>985</v>
+      </c>
+      <c r="K101" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>451</v>
+      </c>
+      <c r="R101" t="s">
+        <v>986</v>
+      </c>
+      <c r="S101" t="s">
+        <v>987</v>
+      </c>
+      <c r="T101" t="s">
+        <v>988</v>
+      </c>
+      <c r="U101" t="s">
+        <v>989</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2029,7 +9477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AP245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AL166" sqref="AL166:AN245"/>
     </sheetView>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD230B6E-822A-6F48-9FD4-4BB6CCF9926C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6DA914-CA0D-5045-817F-41BDAC5DCEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37780" yWindow="-420" windowWidth="33760" windowHeight="19380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6063" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6071" uniqueCount="995">
   <si>
     <t>datasetID</t>
   </si>
@@ -2993,6 +2993,21 @@
   </si>
   <si>
     <t>derakhshan13</t>
+  </si>
+  <si>
+    <t>Deirdre</t>
+  </si>
+  <si>
+    <t>Tolu</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Sylvia</t>
+  </si>
+  <si>
+    <t>Dinara</t>
   </si>
 </sst>
 </file>
@@ -4431,18 +4446,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U101"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="134.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>184</v>
       </c>
@@ -4507,7 +4523,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>202</v>
       </c>
@@ -4557,7 +4573,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>202</v>
       </c>
@@ -4613,7 +4629,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>202</v>
       </c>
@@ -4644,6 +4660,9 @@
       <c r="K4" t="s">
         <v>207</v>
       </c>
+      <c r="N4" t="s">
+        <v>208</v>
+      </c>
       <c r="P4" t="s">
         <v>227</v>
       </c>
@@ -4663,7 +4682,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -4715,8 +4734,11 @@
       <c r="U5" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V5" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -4772,7 +4794,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>202</v>
       </c>
@@ -4803,6 +4825,9 @@
       <c r="K7" t="s">
         <v>207</v>
       </c>
+      <c r="N7" t="s">
+        <v>208</v>
+      </c>
       <c r="P7" t="s">
         <v>255</v>
       </c>
@@ -4822,7 +4847,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>202</v>
       </c>
@@ -4853,6 +4878,9 @@
       <c r="K8" t="s">
         <v>207</v>
       </c>
+      <c r="N8" t="s">
+        <v>208</v>
+      </c>
       <c r="Q8" t="s">
         <v>228</v>
       </c>
@@ -4869,7 +4897,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>202</v>
       </c>
@@ -4922,7 +4950,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>202</v>
       </c>
@@ -4975,7 +5003,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>202</v>
       </c>
@@ -5028,7 +5056,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -5078,7 +5106,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>202</v>
       </c>
@@ -5134,7 +5162,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>202</v>
       </c>
@@ -5186,8 +5214,11 @@
       <c r="U14" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>202</v>
       </c>
@@ -5243,7 +5274,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>202</v>
       </c>
@@ -5293,7 +5324,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>202</v>
       </c>
@@ -5340,7 +5371,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>202</v>
       </c>
@@ -5389,8 +5420,11 @@
       <c r="U18" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V18" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>202</v>
       </c>
@@ -5437,7 +5471,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>202</v>
       </c>
@@ -5484,7 +5518,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>202</v>
       </c>
@@ -5534,7 +5568,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>202</v>
       </c>
@@ -5587,7 +5621,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -5640,7 +5674,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>202</v>
       </c>
@@ -5689,8 +5723,11 @@
       <c r="U24" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V24" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>202</v>
       </c>
@@ -5740,7 +5777,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>202</v>
       </c>
@@ -5790,7 +5827,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>202</v>
       </c>
@@ -5837,7 +5874,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>202</v>
       </c>
@@ -5884,7 +5921,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>202</v>
       </c>
@@ -5937,7 +5974,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>202</v>
       </c>
@@ -5987,7 +6024,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>202</v>
       </c>
@@ -6037,7 +6074,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>202</v>
       </c>
@@ -7687,7 +7724,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>202</v>
       </c>
@@ -7734,7 +7771,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>724</v>
       </c>
@@ -7781,7 +7818,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>202</v>
       </c>
@@ -7831,7 +7868,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>202</v>
       </c>
@@ -7881,7 +7918,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>202</v>
       </c>
@@ -7925,7 +7962,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -7963,7 +8000,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>202</v>
       </c>
@@ -8015,8 +8052,11 @@
       <c r="U71" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V71" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>202</v>
       </c>
@@ -8066,7 +8106,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>202</v>
       </c>
@@ -8113,7 +8153,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>202</v>
       </c>
@@ -8157,7 +8197,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>202</v>
       </c>
@@ -8207,7 +8247,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>202</v>
       </c>
@@ -8257,7 +8297,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>202</v>
       </c>
@@ -8307,7 +8347,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -8357,7 +8397,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>202</v>
       </c>
@@ -8407,7 +8447,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>202</v>
       </c>
@@ -9478,7 +9518,7 @@
   <dimension ref="A1:AP245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AL166" sqref="AL166:AN245"/>
     </sheetView>
   </sheetViews>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6DA914-CA0D-5045-817F-41BDAC5DCEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C3E10A-EBF0-0842-8A46-68217B94AD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="28800" windowHeight="14700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6071" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7223" uniqueCount="1725">
   <si>
     <t>datasetID</t>
   </si>
@@ -3008,6 +3008,2196 @@
   </si>
   <si>
     <t>Dinara</t>
+  </si>
+  <si>
+    <t>NEW FORESTS</t>
+  </si>
+  <si>
+    <t>Seed Technology</t>
+  </si>
+  <si>
+    <t>WEED SCIENCE</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>ACTA BOTANICA BOREALI-OCCIDENTALIA SINICA</t>
+  </si>
+  <si>
+    <t>Pyrus</t>
+  </si>
+  <si>
+    <t>PLANTS-BASEL</t>
+  </si>
+  <si>
+    <t>AMERICAN JOURNAL OF BOTANY</t>
+  </si>
+  <si>
+    <t>Trakia Journal of Sciences</t>
+  </si>
+  <si>
+    <t>EDWARDS D G W; OLSEN P E</t>
+  </si>
+  <si>
+    <t>A PHOTOPERIOD RESPONSE IN GERMINATION OF WESTERN HEMLOCK SEEDS</t>
+  </si>
+  <si>
+    <t>Canadian Journal of Forest Research</t>
+  </si>
+  <si>
+    <t>Tsuga</t>
+  </si>
+  <si>
+    <t>heterophylla</t>
+  </si>
+  <si>
+    <t>had to search in UBC library</t>
+  </si>
+  <si>
+    <t>EDWARDS D G W</t>
+  </si>
+  <si>
+    <t>edwards</t>
+  </si>
+  <si>
+    <t>edwards73</t>
+  </si>
+  <si>
+    <t>Edwards, DGW; ElKassaby, YA</t>
+  </si>
+  <si>
+    <t>The effect of stratification and artificial light on the germination of mountain hemlock seeds</t>
+  </si>
+  <si>
+    <t>mertensiana</t>
+  </si>
+  <si>
+    <t>Edwards, DGW</t>
+  </si>
+  <si>
+    <t>Edwards</t>
+  </si>
+  <si>
+    <t>edwards96</t>
+  </si>
+  <si>
+    <t>El-Dengawy, EFA</t>
+  </si>
+  <si>
+    <t>Promotion of seed germination and subsequent seedling growth of loquat (Eriobotrya japonica, Lindl) by moist-chilling and GA(3) applications</t>
+  </si>
+  <si>
+    <t>Eriobotrya</t>
+  </si>
+  <si>
+    <t>japonica</t>
+  </si>
+  <si>
+    <t>El-Dengawy</t>
+  </si>
+  <si>
+    <t>el-dengawy</t>
+  </si>
+  <si>
+    <t>el-dengawy05</t>
+  </si>
+  <si>
+    <t>Elisafenko, T. V.</t>
+  </si>
+  <si>
+    <t>Features of seed germination in different ecological groups of the species of the section Violidum, subgenus Nomimium, genus Viola L. (Violaceae)</t>
+  </si>
+  <si>
+    <t>CONTEMPORARY PROBLEMS OF ECOLOGY</t>
+  </si>
+  <si>
+    <t>Viola</t>
+  </si>
+  <si>
+    <t>Elisafenko</t>
+  </si>
+  <si>
+    <t>elisafenko</t>
+  </si>
+  <si>
+    <t>elisafenko15</t>
+  </si>
+  <si>
+    <t>Erken, Kamil</t>
+  </si>
+  <si>
+    <t>Investigation of Vegetative Properties and Generative Production of the Potential Ornamental and Narrow Endemic Species Verbascum yurtkuranianum (Scrophulariaceae) for Ex situ Conservation</t>
+  </si>
+  <si>
+    <t>BIORESOURCES</t>
+  </si>
+  <si>
+    <t>Verbascum</t>
+  </si>
+  <si>
+    <t>yurtkuranianum</t>
+  </si>
+  <si>
+    <t>Erken</t>
+  </si>
+  <si>
+    <t>erken</t>
+  </si>
+  <si>
+    <t>erken21</t>
+  </si>
+  <si>
+    <t>Etemadi, N.; Haghighi, M.; Nikbakht, A.; Zamani, Z.</t>
+  </si>
+  <si>
+    <t>Methods to promote germination of Kelussia odoratissima Mozaff., an Iranian endemic medicinal plant.</t>
+  </si>
+  <si>
+    <t>Herba Polonica</t>
+  </si>
+  <si>
+    <t>Kelussia</t>
+  </si>
+  <si>
+    <t>odoratissima</t>
+  </si>
+  <si>
+    <t>Etemadi, N.</t>
+  </si>
+  <si>
+    <t>Etemadi</t>
+  </si>
+  <si>
+    <t>etemadi</t>
+  </si>
+  <si>
+    <t>etemadi10</t>
+  </si>
+  <si>
+    <t>ETOH T; NOMA Y; NISHITARUMIZU Y; WAKAMOTO T</t>
+  </si>
+  <si>
+    <t>SEED PRODUCTIVITY AND GERMINABILITY OF VARIOUS GARLIC CLONES COLLECTED IN SOVIET CENTRAL ASIA</t>
+  </si>
+  <si>
+    <t>Memoirs of the Faculty of Agriculture Kagoshima University</t>
+  </si>
+  <si>
+    <t>ETOH T</t>
+  </si>
+  <si>
+    <t>etoh</t>
+  </si>
+  <si>
+    <t>etoh88</t>
+  </si>
+  <si>
+    <t>Fadaei, Hadi; Sakai, Tetsuro; Yoshimura, Tetsuhiko; Kazuyuki, Moriya</t>
+  </si>
+  <si>
+    <t>Effect of temperature and Gebrlic acid on dormancy and germination in specie wild edible Pistachio (Pistacia. vera) (Case Study in Khajeh Kalat forest)</t>
+  </si>
+  <si>
+    <t>IACSIT-SC 2009: INTERNATIONAL ASSOCIATION OF COMPUTER SCIENCE AND INFORMATION TECHNOLOGY - SPRING CONFERENCE</t>
+  </si>
+  <si>
+    <t>vera</t>
+  </si>
+  <si>
+    <t>Fadaei, Hadi</t>
+  </si>
+  <si>
+    <t>Fadaei</t>
+  </si>
+  <si>
+    <t>fadaei</t>
+  </si>
+  <si>
+    <t>fadaei09</t>
+  </si>
+  <si>
+    <t>Falusi, M.</t>
+  </si>
+  <si>
+    <t>Geographic variation and seed germination in Pinus brutia.</t>
+  </si>
+  <si>
+    <t>Annali, Accademia Italiana di Scienze Forestali</t>
+  </si>
+  <si>
+    <t>Falusi</t>
+  </si>
+  <si>
+    <t>falusi</t>
+  </si>
+  <si>
+    <t>falusi82</t>
+  </si>
+  <si>
+    <t>Fang Hai-ling; Li Wei-lin; Liang Cheng-yuan</t>
+  </si>
+  <si>
+    <t>Effect of different pro-treatment conditions on seed germination of Mentha haplocalyx Briq</t>
+  </si>
+  <si>
+    <t>Journal of Plant Resources and Environment</t>
+  </si>
+  <si>
+    <t>Mentha</t>
+  </si>
+  <si>
+    <t>haplocalyx</t>
+  </si>
+  <si>
+    <t>Fang Hai-ling</t>
+  </si>
+  <si>
+    <t>fang</t>
+  </si>
+  <si>
+    <t>fang09</t>
+  </si>
+  <si>
+    <t>Farhadi, Mostafa; Tigabu, Mulualem; Arian, Alireza Ghasemi; Sharifani, Mehdi; Daneshvar, Abolfazl; Oden, Per Christer</t>
+  </si>
+  <si>
+    <t>Pre-sowing treatment for breaking dormancy in Acer velutinum Boiss. seed lots</t>
+  </si>
+  <si>
+    <t>JOURNAL OF FORESTRY RESEARCH</t>
+  </si>
+  <si>
+    <t>velutinum</t>
+  </si>
+  <si>
+    <t>Farhadi, Mostafa</t>
+  </si>
+  <si>
+    <t>Farhadi</t>
+  </si>
+  <si>
+    <t>farhadi</t>
+  </si>
+  <si>
+    <t>farhadi13</t>
+  </si>
+  <si>
+    <t>Farooq, M.; Basra, S. M. A.; Cheema, M. A.; Afzal, I.</t>
+  </si>
+  <si>
+    <t>Integration of pre-sowing soaking, chilling and heating treatments for vigour enhancement in rice (Oryza sativa L.)</t>
+  </si>
+  <si>
+    <t>Oryza</t>
+  </si>
+  <si>
+    <t>sativa</t>
+  </si>
+  <si>
+    <t>Farooq, M.</t>
+  </si>
+  <si>
+    <t>Farooq</t>
+  </si>
+  <si>
+    <t>farooq</t>
+  </si>
+  <si>
+    <t>farooq06</t>
+  </si>
+  <si>
+    <t>Farooq, M; Basra, SMA; Ahmad, N; Hafeez, K</t>
+  </si>
+  <si>
+    <t>Thermal hardening: A new seed vigor enhancement tool in rice</t>
+  </si>
+  <si>
+    <t>JOURNAL OF INTEGRATIVE PLANT BIOLOGY</t>
+  </si>
+  <si>
+    <t>Farooq, M</t>
+  </si>
+  <si>
+    <t>farooq05</t>
+  </si>
+  <si>
+    <t>Fateh, E.; Majnoonhosseini, N.; Arefi, H. M.; Sharif-Zadeh, F.</t>
+  </si>
+  <si>
+    <t>Seed dormancy methods breakage in Astragalus tribuloides.</t>
+  </si>
+  <si>
+    <t>Iranian Journal of Rangelands and Forests Plant Breeding and Genetic Research</t>
+  </si>
+  <si>
+    <t>Astragalus</t>
+  </si>
+  <si>
+    <t>tribuloides</t>
+  </si>
+  <si>
+    <t>Fateh, E.</t>
+  </si>
+  <si>
+    <t>Fateh</t>
+  </si>
+  <si>
+    <t>fateh</t>
+  </si>
+  <si>
+    <t>fateh06</t>
+  </si>
+  <si>
+    <t>Fatemeh, Ahmadloo; Masoud, Tabari; Pejman, Azadi; Aidin, Hamidi</t>
+  </si>
+  <si>
+    <t>Effect of plant growth promoting rhizobacteria (PGPRs) and stratification on germination traits of Crataegus pseudoheterophylla Pojark. seeds</t>
+  </si>
+  <si>
+    <t>Crataegus</t>
+  </si>
+  <si>
+    <t>pseudoheterophylla</t>
+  </si>
+  <si>
+    <t>Fatemeh, Ahmadloo</t>
+  </si>
+  <si>
+    <t>Fatemeh</t>
+  </si>
+  <si>
+    <t>fatemeh</t>
+  </si>
+  <si>
+    <t>fatemeh14</t>
+  </si>
+  <si>
+    <t>Fedewa, Chad A.; Stewart, J. Ryan</t>
+  </si>
+  <si>
+    <t>Seed Germination Characteristics of Prairie Dropseed (Sporobolus heterolepis)</t>
+  </si>
+  <si>
+    <t>NATURAL AREAS JOURNAL</t>
+  </si>
+  <si>
+    <t>Sporobolus</t>
+  </si>
+  <si>
+    <t>heterolepis</t>
+  </si>
+  <si>
+    <t>Fedewa, Chad A.</t>
+  </si>
+  <si>
+    <t>Fedewa</t>
+  </si>
+  <si>
+    <t>fedewa</t>
+  </si>
+  <si>
+    <t>fedewa09</t>
+  </si>
+  <si>
+    <t>Feng, Jing; Shen, Yongbao; Shi, Fenghou; Li, Chengzhong</t>
+  </si>
+  <si>
+    <t>Embryo Development, Seed Germination, and the Kind of Dormancy of Ginkgo biloba L.</t>
+  </si>
+  <si>
+    <t>FORESTS</t>
+  </si>
+  <si>
+    <t>Ginkgo</t>
+  </si>
+  <si>
+    <t>biloba</t>
+  </si>
+  <si>
+    <t>Feng, Jing</t>
+  </si>
+  <si>
+    <t>Feng</t>
+  </si>
+  <si>
+    <t>feng</t>
+  </si>
+  <si>
+    <t>feng18</t>
+  </si>
+  <si>
+    <t>Fernandez-Pascual, Eduardo; Jimenez-Alfaro, Borja; Emilio Diaz, Tomas</t>
+  </si>
+  <si>
+    <t>The temperature dimension of the seed germination niche in fen wetlands</t>
+  </si>
+  <si>
+    <t>Fernandez-Pascual, Eduardo</t>
+  </si>
+  <si>
+    <t>Fernandez-Pascual</t>
+  </si>
+  <si>
+    <t>fernandez-pascual</t>
+  </si>
+  <si>
+    <t>fernandez-pascual13</t>
+  </si>
+  <si>
+    <t>Ferreira, WR; Ranal, MA</t>
+  </si>
+  <si>
+    <t>Seed germination and seedlng growth of Brassica chinensis L. var. parachinensis (Bailey) Sinskaja (flowering white cabbage)</t>
+  </si>
+  <si>
+    <t>PESQUISA AGROPECUARIA BRASILEIRA</t>
+  </si>
+  <si>
+    <t>Brassica</t>
+  </si>
+  <si>
+    <t>Ferreira, WR</t>
+  </si>
+  <si>
+    <t>Ferreira</t>
+  </si>
+  <si>
+    <t>ferreira</t>
+  </si>
+  <si>
+    <t>ferreira99</t>
+  </si>
+  <si>
+    <t>Fetouh, M. I.; Hassan, F. A.</t>
+  </si>
+  <si>
+    <t>Seed germination criteria and seedling characteristics of Magnolia grandiflora L. trees after cold stratification treatments.</t>
+  </si>
+  <si>
+    <t>International Journal of Current Microbiology and Applied Sciences</t>
+  </si>
+  <si>
+    <t>Magnolia</t>
+  </si>
+  <si>
+    <t>grandiflora</t>
+  </si>
+  <si>
+    <t>Fetouh, M. I.</t>
+  </si>
+  <si>
+    <t>Fetouh</t>
+  </si>
+  <si>
+    <t>fetouh</t>
+  </si>
+  <si>
+    <t>fetouh14</t>
+  </si>
+  <si>
+    <t>Figueroa, JA</t>
+  </si>
+  <si>
+    <t>Seed germination in temperate rain forest species of southern Chile: chilling and gap-dependency germination</t>
+  </si>
+  <si>
+    <t>Figueroa</t>
+  </si>
+  <si>
+    <t>figueroa</t>
+  </si>
+  <si>
+    <t>figueroa03</t>
+  </si>
+  <si>
+    <t>Flores, P. C.; Poggi, D.; Garcia, S. M.; Gariglio, N. F.</t>
+  </si>
+  <si>
+    <t>Topographic tetrazolium testing of Black Walnut (Juglans nigra L.) seeds</t>
+  </si>
+  <si>
+    <t>nigra</t>
+  </si>
+  <si>
+    <t>Flores, P. C.</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>flores</t>
+  </si>
+  <si>
+    <t>flores11</t>
+  </si>
+  <si>
+    <t>Forbes, Kathleen; Beardmore, Tannis</t>
+  </si>
+  <si>
+    <t>SEED STORAGE POTENTIAL FOR DWARF BIRCH (BETULA GLANDULOSA MICHX.)</t>
+  </si>
+  <si>
+    <t>Betula</t>
+  </si>
+  <si>
+    <t>glandulosa</t>
+  </si>
+  <si>
+    <t>Forbes, Kathleen</t>
+  </si>
+  <si>
+    <t>Forbes</t>
+  </si>
+  <si>
+    <t>forbes</t>
+  </si>
+  <si>
+    <t>forbes09</t>
+  </si>
+  <si>
+    <t>Forbis, Tara A.</t>
+  </si>
+  <si>
+    <t>Germination phenology of some Great Basin native annual forb species</t>
+  </si>
+  <si>
+    <t>PLANT SPECIES BIOLOGY</t>
+  </si>
+  <si>
+    <t>Forbis</t>
+  </si>
+  <si>
+    <t>forbis</t>
+  </si>
+  <si>
+    <t>forbis10</t>
+  </si>
+  <si>
+    <t>Frattaroli, Anna Rita; Di Martino, Luciano; Di Cecco, Valter; Catoni, Rosangela; Varone, Laura; Di Santo, Marco; Gratani, Loretta</t>
+  </si>
+  <si>
+    <t>Seed germination capability of four endemic species in the Central Apennines (Italy): relationships with seed size</t>
+  </si>
+  <si>
+    <t>Lazaroa</t>
+  </si>
+  <si>
+    <t>Frattaroli, Anna Rita</t>
+  </si>
+  <si>
+    <t>Frattaroli</t>
+  </si>
+  <si>
+    <t>frattaroli</t>
+  </si>
+  <si>
+    <t>frattaroli13</t>
+  </si>
+  <si>
+    <t>FULBRIGHT, TE; FLENNIKEN, KS; WAGGERMAN, GL</t>
+  </si>
+  <si>
+    <t>ENHANCING GERMINATION OF SPINY HACKBERRY SEEDS</t>
+  </si>
+  <si>
+    <t>JOURNAL OF RANGE MANAGEMENT</t>
+  </si>
+  <si>
+    <t>Celtik</t>
+  </si>
+  <si>
+    <t>palIida</t>
+  </si>
+  <si>
+    <t>FULBRIGHT, TE</t>
+  </si>
+  <si>
+    <t>FULBRIGHT</t>
+  </si>
+  <si>
+    <t>fulbright</t>
+  </si>
+  <si>
+    <t>fulbright86</t>
+  </si>
+  <si>
+    <t>Gajanayake, Bandara; Trader, Brian W.; Reddy, K. Raja; Harkess, Richard L.</t>
+  </si>
+  <si>
+    <t>Thermotolerance Classification of Ornamental Pepper Cultivars Using Seed Germination Traits</t>
+  </si>
+  <si>
+    <t>Gajanayake, Bandara</t>
+  </si>
+  <si>
+    <t>Gajanayake</t>
+  </si>
+  <si>
+    <t>gajanayake</t>
+  </si>
+  <si>
+    <t>gajanayake11</t>
+  </si>
+  <si>
+    <t>Garruna-Hernandez, Rene; Latournerie-Moreno, Luis; Ayala-Garay, Oscar; Santamaria, Jorge M.; Pinzon-Lopez, Luis</t>
+  </si>
+  <si>
+    <t>PRE-SOWING TREATMENTS: AN OPTION TO INCREASE GERMINATION OF HABANERO PEPPER SEEDS (Capsicum chinense Jacq.)</t>
+  </si>
+  <si>
+    <t>AGROCIENCIA</t>
+  </si>
+  <si>
+    <t>chinese</t>
+  </si>
+  <si>
+    <t>accepted because of control</t>
+  </si>
+  <si>
+    <t>Garruna-Hernandez, Rene</t>
+  </si>
+  <si>
+    <t>Garruna-Hernandez</t>
+  </si>
+  <si>
+    <t>garruna-hernandez</t>
+  </si>
+  <si>
+    <t>garruna-hernandez14</t>
+  </si>
+  <si>
+    <t>George, B. B.; Hamadina, E. I.</t>
+  </si>
+  <si>
+    <t>Scarification and low temperature stratification effects on germination of mature seeds of cassava (Manihot esculenta) hybrids.</t>
+  </si>
+  <si>
+    <t>International Journal of Modern Botany</t>
+  </si>
+  <si>
+    <t>Manihot</t>
+  </si>
+  <si>
+    <t>esculenta</t>
+  </si>
+  <si>
+    <t>George, B. B.</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>george</t>
+  </si>
+  <si>
+    <t>george20</t>
+  </si>
+  <si>
+    <t>Gere, J.; Karidzangundi, R.; Ntuli, V.; Nyamugure, T.; Mudyiwa, S. M.; Kundhlande, A.</t>
+  </si>
+  <si>
+    <t>Filing considerably breaks seed dormancy of Berchemia discolor Hemsley.</t>
+  </si>
+  <si>
+    <t>African Journal of Plant Science</t>
+  </si>
+  <si>
+    <t>Berchemia</t>
+  </si>
+  <si>
+    <t>discolor Hemsley</t>
+  </si>
+  <si>
+    <t>Gere, J.</t>
+  </si>
+  <si>
+    <t>Gere</t>
+  </si>
+  <si>
+    <t>gere</t>
+  </si>
+  <si>
+    <t>gere15</t>
+  </si>
+  <si>
+    <t>Geszprych, A.; Weglarz, Z.</t>
+  </si>
+  <si>
+    <t>Reproduction ability of Rhaponticum carthamoides (Willd.) Iljn cultivated in Poland.</t>
+  </si>
+  <si>
+    <t>Rhaponticum</t>
+  </si>
+  <si>
+    <t>carthamoides</t>
+  </si>
+  <si>
+    <t>Geszprych, A.</t>
+  </si>
+  <si>
+    <t>Geszprych</t>
+  </si>
+  <si>
+    <t>geszprych</t>
+  </si>
+  <si>
+    <t>geszprych02</t>
+  </si>
+  <si>
+    <t>Ghanbari, M.; Modarres-Sanavy, S. A. M.; Mokhtassi-Bidgoli, A.</t>
+  </si>
+  <si>
+    <t>Germination characteristics and seed activity of enzymes of different landraces of Indian cheese maker (Withania coagulans) in response to sodium hypochlorite and pre-chilling.</t>
+  </si>
+  <si>
+    <t>Fa119</t>
+  </si>
+  <si>
+    <t>Withania</t>
+  </si>
+  <si>
+    <t>coagulans</t>
+  </si>
+  <si>
+    <t>Ghanbari, M.</t>
+  </si>
+  <si>
+    <t>Ghanbari</t>
+  </si>
+  <si>
+    <t>ghanbari</t>
+  </si>
+  <si>
+    <t>ghanbari18</t>
+  </si>
+  <si>
+    <t>Ghimeray, Amal Kumar; Sharma, Pankaja; Shim, Ie-Sung; Park, Cheolho; Ïù¥ÌòÑÏö∞; Ïù¥Î≥¥Îçï</t>
+  </si>
+  <si>
+    <t>Effect of Storage Conditions and Scarification on in vitro Seed Germination in Lorathus tanakae Hosok</t>
+  </si>
+  <si>
+    <t>Korean Journal of Plant Reources.</t>
+  </si>
+  <si>
+    <t>Loranthus</t>
+  </si>
+  <si>
+    <t>tanakae</t>
+  </si>
+  <si>
+    <t>Ghimeray, Amal Kumar</t>
+  </si>
+  <si>
+    <t>Ghimeray</t>
+  </si>
+  <si>
+    <t>ghimeray</t>
+  </si>
+  <si>
+    <t>ghimeray14</t>
+  </si>
+  <si>
+    <t>Gianni, Sergio; Aiello, Nicola; Lombardo, Gabriella Salvina; Fusani, Pietro</t>
+  </si>
+  <si>
+    <t>Seed germination requirements of Buck's beard [Aruncus dioicus (Walter) Fernald (Rosaceae)]</t>
+  </si>
+  <si>
+    <t>Aruncus</t>
+  </si>
+  <si>
+    <t>dioicus Fernald</t>
+  </si>
+  <si>
+    <t>Gianni, Sergio</t>
+  </si>
+  <si>
+    <t>Gianni</t>
+  </si>
+  <si>
+    <t>gianni</t>
+  </si>
+  <si>
+    <t>gianni19</t>
+  </si>
+  <si>
+    <t>Gimenez-Benavides, L.; Milla, R.</t>
+  </si>
+  <si>
+    <t>Comparative germination ecology of two altitudinal vicariant Saxifraga species endemic to the north of Spain</t>
+  </si>
+  <si>
+    <t>PLANT BIOLOGY</t>
+  </si>
+  <si>
+    <t>Saxifraga</t>
+  </si>
+  <si>
+    <t>Gimenez-Benavides, L.</t>
+  </si>
+  <si>
+    <t>Gimenez-Benavides</t>
+  </si>
+  <si>
+    <t>gimenez-benavides</t>
+  </si>
+  <si>
+    <t>gimenez-benavides13</t>
+  </si>
+  <si>
+    <t>Gisbert, C.; Prohens, J.; Nuez, F.</t>
+  </si>
+  <si>
+    <t>Treatments for Improving Seed Germination in Eggplant and Related Species</t>
+  </si>
+  <si>
+    <t>V INTERNATIONAL SYMPOSIUM ON SEED, TRANSPLANT AND STAND ESTABLISHMENT OF HORTICULTURAL CROPS</t>
+  </si>
+  <si>
+    <t>Solanum</t>
+  </si>
+  <si>
+    <t>melongena</t>
+  </si>
+  <si>
+    <t>Gisbert, C.</t>
+  </si>
+  <si>
+    <t>Gisbert</t>
+  </si>
+  <si>
+    <t>gisbert</t>
+  </si>
+  <si>
+    <t>gisbert11</t>
+  </si>
+  <si>
+    <t>Goggans, J. F.; Jones, L.; Lynch, K. D.</t>
+  </si>
+  <si>
+    <t>Germination rate of Arizona Cypress improved by better cone collection techniques and seed pregermination treatments.</t>
+  </si>
+  <si>
+    <t>Tree Planters' Notes</t>
+  </si>
+  <si>
+    <t>Cupressus</t>
+  </si>
+  <si>
+    <t>arizonica</t>
+  </si>
+  <si>
+    <t>Goggans, J. F.</t>
+  </si>
+  <si>
+    <t>Goggans</t>
+  </si>
+  <si>
+    <t>goggans</t>
+  </si>
+  <si>
+    <t>goggans74</t>
+  </si>
+  <si>
+    <t>Gokturk, A.; Olmez, Z.; Temel, F.; Yahyaoglu, Z.</t>
+  </si>
+  <si>
+    <t>Effects of some pre-treatments on germination of Russian olive (Elaeagnus angustifolia L.) seeds.</t>
+  </si>
+  <si>
+    <t>Suleyman Demirel Universitesi Orman Fakultesi Dergisi Seri A</t>
+  </si>
+  <si>
+    <t>Elaeagnus</t>
+  </si>
+  <si>
+    <t>Gokturk, A.</t>
+  </si>
+  <si>
+    <t>Gokturk</t>
+  </si>
+  <si>
+    <t>gokturk</t>
+  </si>
+  <si>
+    <t>gokturk07</t>
+  </si>
+  <si>
+    <t>Gonzalez-Puelles, J. E.; Landin, M.; Gallego, P. P.; Barreal, M. E.</t>
+  </si>
+  <si>
+    <t>Deciphering kiwifruit seed germination using neural network tools</t>
+  </si>
+  <si>
+    <t>IX INTERNATIONAL SYMPOSIUM ON KIWIFRUIT</t>
+  </si>
+  <si>
+    <t>Actinidia</t>
+  </si>
+  <si>
+    <t>Gonzalez-Puelles, J. E.</t>
+  </si>
+  <si>
+    <t>Gonzalez-Puelles</t>
+  </si>
+  <si>
+    <t>gonzalez-puelles</t>
+  </si>
+  <si>
+    <t>gonzalez-puelles18</t>
+  </si>
+  <si>
+    <t>Gougouli, Maria; Koutsoumanis, Konstantinos P.</t>
+  </si>
+  <si>
+    <t>Modeling germination of fungal spores at constant and fluctuating temperature conditions</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL JOURNAL OF FOOD MICROBIOLOGY</t>
+  </si>
+  <si>
+    <t>Gougouli, Maria</t>
+  </si>
+  <si>
+    <t>Gougouli</t>
+  </si>
+  <si>
+    <t>gougouli</t>
+  </si>
+  <si>
+    <t>gougouli12</t>
+  </si>
+  <si>
+    <t>Greenwood, ME; DuBowy, PJ</t>
+  </si>
+  <si>
+    <t>Germination characteristics of Zannichellia palustris from New South Wales, Australia</t>
+  </si>
+  <si>
+    <t>Zannichellia</t>
+  </si>
+  <si>
+    <t>palustris</t>
+  </si>
+  <si>
+    <t>Greenwood, ME</t>
+  </si>
+  <si>
+    <t>Greenwood</t>
+  </si>
+  <si>
+    <t>greenwood</t>
+  </si>
+  <si>
+    <t>greenwood05</t>
+  </si>
+  <si>
+    <t>Gremer, Jennifer R.; Chiono, Alec; Suglia, Elena; Bontrager, Megan; Okafor, Lauren; Schmitt, Johanna</t>
+  </si>
+  <si>
+    <t>Variation in the seasonal germination niche across an elevational gradient: the role of germination cueing in current and future climates</t>
+  </si>
+  <si>
+    <t>Streptanthus</t>
+  </si>
+  <si>
+    <t>tortuosus</t>
+  </si>
+  <si>
+    <t>Gremer, Jennifer R.</t>
+  </si>
+  <si>
+    <t>Gremer</t>
+  </si>
+  <si>
+    <t>gremer</t>
+  </si>
+  <si>
+    <t>gremer20</t>
+  </si>
+  <si>
+    <t>Gremer, Jennifer R; Wilcox, Chenoa J; Chiono, Alec; Suglia, Elena; Schmitt, Johanna</t>
+  </si>
+  <si>
+    <t>Data from: Germination timing and chilling exposure create contingency in life history and influence fitness in the native wildflower Streptanthus tortuosus</t>
+  </si>
+  <si>
+    <t>Dryad</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>Gremer, Jennifer R</t>
+  </si>
+  <si>
+    <t>gremer19</t>
+  </si>
+  <si>
+    <t>Gribaudo, I.; Gambino, G.; Vallania, R.</t>
+  </si>
+  <si>
+    <t>Optimization of somatic embryogenesis in grapevine</t>
+  </si>
+  <si>
+    <t>PROCEEDINGS OF THE INTERNATIONAL WORKSHOP ON ADVANCES IN GRAPEVINE AND WINE RESEARCH</t>
+  </si>
+  <si>
+    <t>Gribaudo, I.</t>
+  </si>
+  <si>
+    <t>Gribaudo</t>
+  </si>
+  <si>
+    <t>gribaudo</t>
+  </si>
+  <si>
+    <t>gribaudo07</t>
+  </si>
+  <si>
+    <t>GRIBKOV, V. V.</t>
+  </si>
+  <si>
+    <t>Preparation of Siberian larch seed planting Referat. Zhur., Biol., 1959, No. 79234. (Translation)</t>
+  </si>
+  <si>
+    <t>Preparation of Siberian larch seed planting [3]</t>
+  </si>
+  <si>
+    <t>GRIBKOV</t>
+  </si>
+  <si>
+    <t>gribkov</t>
+  </si>
+  <si>
+    <t>gribkov58</t>
+  </si>
+  <si>
+    <t>Guan, K. L.; Fan, X.; Zhen, G.</t>
+  </si>
+  <si>
+    <t>Causes of seed dormancy of Cornus officinalis and conditions for germination.</t>
+  </si>
+  <si>
+    <t>Plant Physiology Communications</t>
+  </si>
+  <si>
+    <t>Guan, K. L.</t>
+  </si>
+  <si>
+    <t>Guan</t>
+  </si>
+  <si>
+    <t>guan</t>
+  </si>
+  <si>
+    <t>guan89</t>
+  </si>
+  <si>
+    <t>Guenaoui, Chedia; Taoufik, Saleh Ksiksi; Smiti, Samira; Neffati, Mohamed</t>
+  </si>
+  <si>
+    <t>RESPONSE OF SEED GERMINATION OF TUNISIAN ALLIUM AMPELOPRASUM TO TEMPERATURE AND SALT STRESSES</t>
+  </si>
+  <si>
+    <t>REVUE D ECOLOGIE-LA TERRE ET LA VIE</t>
+  </si>
+  <si>
+    <t>Guenaoui, Chedia</t>
+  </si>
+  <si>
+    <t>Guenaoui</t>
+  </si>
+  <si>
+    <t>guenaoui</t>
+  </si>
+  <si>
+    <t>guenaoui12</t>
+  </si>
+  <si>
+    <t>Guerriero, R.; Scalabrelli, G.</t>
+  </si>
+  <si>
+    <t>Effect of stratification duration on seed germination of several peach line rootstocks.</t>
+  </si>
+  <si>
+    <t>Guerriero, R.</t>
+  </si>
+  <si>
+    <t>Guerriero</t>
+  </si>
+  <si>
+    <t>guerriero</t>
+  </si>
+  <si>
+    <t>guerriero85</t>
+  </si>
+  <si>
+    <t>Hamala, Tuomas; Mattila, Tiina M; Leinonen, Paivi H; Kuittinen, Helmi; Savolainen, Outi</t>
+  </si>
+  <si>
+    <t>Measurements of seed germination in Arabidopsis lyrata</t>
+  </si>
+  <si>
+    <t>Arabidopsis</t>
+  </si>
+  <si>
+    <t>lyrata</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Hamala, Tuomas</t>
+  </si>
+  <si>
+    <t>Hamala</t>
+  </si>
+  <si>
+    <t>hamala</t>
+  </si>
+  <si>
+    <t>hamala17</t>
+  </si>
+  <si>
+    <t>Han, C. Y.; Long, C. L.</t>
+  </si>
+  <si>
+    <t>Dormancy, germination and storage of Magnolia ingrata seeds</t>
+  </si>
+  <si>
+    <t>ingrata</t>
+  </si>
+  <si>
+    <t>Han, C. Y.</t>
+  </si>
+  <si>
+    <t>Han</t>
+  </si>
+  <si>
+    <t>han</t>
+  </si>
+  <si>
+    <t>han10</t>
+  </si>
+  <si>
+    <t>Han Min; Li Ming-ming; Chen Chen; Zhang Zhi-huan; Xu Kun</t>
+  </si>
+  <si>
+    <t>Relationship between seed germination indices and seedling's chilling tolerance of tomato rootstocks</t>
+  </si>
+  <si>
+    <t>Shengtaixue Zazhi</t>
+  </si>
+  <si>
+    <t>lycopersicum</t>
+  </si>
+  <si>
+    <t>Han Min</t>
+  </si>
+  <si>
+    <t>han18</t>
+  </si>
+  <si>
+    <t>Han Xiu-li; Jia Gui-xia</t>
+  </si>
+  <si>
+    <t>Studies on Optimal Germination Conditions of Different Cultivars and Heat-resistance Techniques for Seeds of Lilium x formolongi</t>
+  </si>
+  <si>
+    <t>Forest Research</t>
+  </si>
+  <si>
+    <t>Lilium x</t>
+  </si>
+  <si>
+    <t>formolongi</t>
+  </si>
+  <si>
+    <t>Han Xiu-li</t>
+  </si>
+  <si>
+    <t>han08</t>
+  </si>
+  <si>
+    <t>Harrington, Timothy B.</t>
+  </si>
+  <si>
+    <t>Seed Germination and Seedling Emergence of Scotch Broom (Cytisus scoparius)</t>
+  </si>
+  <si>
+    <t>Cytisus</t>
+  </si>
+  <si>
+    <t>scoparius</t>
+  </si>
+  <si>
+    <t>Harrington</t>
+  </si>
+  <si>
+    <t>harrington</t>
+  </si>
+  <si>
+    <t>harrington09</t>
+  </si>
+  <si>
+    <t>HASKELL, G</t>
+  </si>
+  <si>
+    <t>PRESOAKING AND COLD HARDINESS IN MAIZE</t>
+  </si>
+  <si>
+    <t>PLANT AND SOIL</t>
+  </si>
+  <si>
+    <t>mays</t>
+  </si>
+  <si>
+    <t>HASKELL</t>
+  </si>
+  <si>
+    <t>haskell</t>
+  </si>
+  <si>
+    <t>haskell49</t>
+  </si>
+  <si>
+    <t>Hawkins, BJ; Guest, HJ; Kolotelo, D</t>
+  </si>
+  <si>
+    <t>Freezing tolerance of conifer seeds and germinants</t>
+  </si>
+  <si>
+    <t>TREE PHYSIOLOGY</t>
+  </si>
+  <si>
+    <t>Hawkins, BJ</t>
+  </si>
+  <si>
+    <t>Hawkins</t>
+  </si>
+  <si>
+    <t>hawkins</t>
+  </si>
+  <si>
+    <t>hawkins03</t>
+  </si>
+  <si>
+    <t>Hawkins, Tracy S.</t>
+  </si>
+  <si>
+    <t>Regulating acorn germination and seedling emergence in Quercus pagoda (Raf.) as it relates to natural and artificial regeneration</t>
+  </si>
+  <si>
+    <t>pagoda</t>
+  </si>
+  <si>
+    <t>hawkins19</t>
+  </si>
+  <si>
+    <t>He, Lanlan; Jaganathan, Ganesh K.; Liu, Baolin</t>
+  </si>
+  <si>
+    <t>Morphophysiological dormancy and germination ecology in diaspores of the subtropical palm Phoenix canariensis</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>canariensis</t>
+  </si>
+  <si>
+    <t>He, Lanlan</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>he22</t>
+  </si>
+  <si>
+    <t>He, T.; Jia, J. F.</t>
+  </si>
+  <si>
+    <t>Breaking dormancy in seeds of Anisodus tanguticus: an endangered medicinal herb of high altitude in the Qinghai-Tibet Plateau</t>
+  </si>
+  <si>
+    <t>Anisodus</t>
+  </si>
+  <si>
+    <t>tanguticus</t>
+  </si>
+  <si>
+    <t>He, T.</t>
+  </si>
+  <si>
+    <t>he09</t>
+  </si>
+  <si>
+    <t>Hernandez-Verdugo, Sergio; Lopez-Espana, Ricardo G.; Porras, Flor; Parra-Terraza, Saul; Villarreal-Romero, Manuel; Osuna-Enciso, Tomas</t>
+  </si>
+  <si>
+    <t>VARIATION IN GERMINATION AMONG POPULATIONS AND PLANTS OF WILD CHILI PEPPER</t>
+  </si>
+  <si>
+    <t>Capsicum annuum</t>
+  </si>
+  <si>
+    <t>var. glabriusculum</t>
+  </si>
+  <si>
+    <t>Hernandez-Verdugo, Sergio</t>
+  </si>
+  <si>
+    <t>Hernandez-Verdugo</t>
+  </si>
+  <si>
+    <t>hernandez-verdugo</t>
+  </si>
+  <si>
+    <t>hernandez-verdugo10</t>
+  </si>
+  <si>
+    <t>Herron, H; Clemens, J</t>
+  </si>
+  <si>
+    <t>Seed dormancy and germination in Melicytus ramiflorus (Violaceae)</t>
+  </si>
+  <si>
+    <t>NEW ZEALAND JOURNAL OF BOTANY</t>
+  </si>
+  <si>
+    <t>Melicytus</t>
+  </si>
+  <si>
+    <t>ramiflorus</t>
+  </si>
+  <si>
+    <t>Herron, H</t>
+  </si>
+  <si>
+    <t>Herron</t>
+  </si>
+  <si>
+    <t>herron</t>
+  </si>
+  <si>
+    <t>herron01</t>
+  </si>
+  <si>
+    <t>Hodges, Joshua A.; Price, Jodi N.; Nimmo, Dale G.; Guja, Lydia K.</t>
+  </si>
+  <si>
+    <t>Evidence for direct effects of fire-cues on germination of some perennial forbs common in grassy ecosystems</t>
+  </si>
+  <si>
+    <t>AUSTRAL ECOLOGY</t>
+  </si>
+  <si>
+    <t>Hodges, Joshua A.</t>
+  </si>
+  <si>
+    <t>Hodges</t>
+  </si>
+  <si>
+    <t>hodges</t>
+  </si>
+  <si>
+    <t>hodges19</t>
+  </si>
+  <si>
+    <t>Honsova, H.; Chladkova, P.; Grbavcic, M.; Stolcova, M.</t>
+  </si>
+  <si>
+    <t>POSSIBILITIES OF GERMINATION INCREASING OF ECHINACEA GENUS SEED BY STRATIFICATION</t>
+  </si>
+  <si>
+    <t>PROCEEDINGS OF XVITH INTERNATIONAL CONFERENCE ON CURRENT ISSUES OF CULTIVATION, MANUFACTURING AND USAGE OF MEDICINAL, AROMATIC AND SPICY PLANTS</t>
+  </si>
+  <si>
+    <t>Honsova, H.</t>
+  </si>
+  <si>
+    <t>Honsova</t>
+  </si>
+  <si>
+    <t>honsova</t>
+  </si>
+  <si>
+    <t>honsova10</t>
+  </si>
+  <si>
+    <t>Houskova, Katerina; Kleparnik, Jan; Mauer, Oldrich</t>
+  </si>
+  <si>
+    <t>How to accelerate the germination of Scots pine and Norway spruce seeds?</t>
+  </si>
+  <si>
+    <t>JOURNAL OF FOREST SCIENCE</t>
+  </si>
+  <si>
+    <t>Houskova, Katerina</t>
+  </si>
+  <si>
+    <t>Houskova</t>
+  </si>
+  <si>
+    <t>houskova</t>
+  </si>
+  <si>
+    <t>houskova21</t>
+  </si>
+  <si>
+    <t>Hsieh, Tung-Yu; Nee, Cheng-Chu; Chien, Ching-Te</t>
+  </si>
+  <si>
+    <t>Seed germination of Taiwanese Actinidia latifolia (Gardn. &amp; Champ.) Merr.</t>
+  </si>
+  <si>
+    <t>latifolia</t>
+  </si>
+  <si>
+    <t>Hsieh, Tung-Yu</t>
+  </si>
+  <si>
+    <t>Hsieh</t>
+  </si>
+  <si>
+    <t>hsieh</t>
+  </si>
+  <si>
+    <t>hsieh04</t>
+  </si>
+  <si>
+    <t>Hsu, F. H.</t>
+  </si>
+  <si>
+    <t>Germination of forage and native grass species in Taiwan.</t>
+  </si>
+  <si>
+    <t>Taiwan Livestock Research</t>
+  </si>
+  <si>
+    <t>Hsu</t>
+  </si>
+  <si>
+    <t>hsu</t>
+  </si>
+  <si>
+    <t>hsu86</t>
+  </si>
+  <si>
+    <t>Hsu, F.-H.</t>
+  </si>
+  <si>
+    <t>Effects of temperature on seed germination and field emergence of warm-season forage grasses.</t>
+  </si>
+  <si>
+    <t>Tropical plants</t>
+  </si>
+  <si>
+    <t>Multple</t>
+  </si>
+  <si>
+    <t>hsu84</t>
+  </si>
+  <si>
+    <t>HSU, FH; NELSON, CJ; MATCHES, AG</t>
+  </si>
+  <si>
+    <t>TEMPERATURE EFFECTS ON GERMINATION OF PERENNIAL WARM-SEASON FORAGE GRASSES</t>
+  </si>
+  <si>
+    <t>CROP SCIENCE</t>
+  </si>
+  <si>
+    <t>HSU, FH</t>
+  </si>
+  <si>
+    <t>HSU</t>
+  </si>
+  <si>
+    <t>hsu85</t>
+  </si>
+  <si>
+    <t>Hu, Guanghui; Li, Zhao; Lu, Yuncai; Li, Chunxia; Gong, Shichen; Yan, Shuqin; Li, Guoliang; Wang, Mingquan; Ren, Honglei; Guan, Haitao; Zhang, Zhengwei; Qin, Dongling; Chai, Mengzhu; Yu, Juping; Li, Yu; Yang, Deguang; Wang, Tianyu; Zhang, Zhiwu</t>
+  </si>
+  <si>
+    <t>Genome-wide association study Identified multiple Genetic Loci on Chilling Resistance During Germination in Maize</t>
+  </si>
+  <si>
+    <t>Hu, Guanghui</t>
+  </si>
+  <si>
+    <t>Hu</t>
+  </si>
+  <si>
+    <t>hu</t>
+  </si>
+  <si>
+    <t>hu17</t>
+  </si>
+  <si>
+    <t>Hu, Ke; Li, Guang-Lai; Li, Juan; Wang, De-Qun</t>
+  </si>
+  <si>
+    <t>[Influence of storage conditions on the seed development of Corydalis yanhusuo].</t>
+  </si>
+  <si>
+    <t>Zhong yao cai = Zhongyaocai = Journal of Chinese medicinal materials</t>
+  </si>
+  <si>
+    <t>Corydalis</t>
+  </si>
+  <si>
+    <t>yanhusuo</t>
+  </si>
+  <si>
+    <t>Hu, Ke</t>
+  </si>
+  <si>
+    <t>hu12</t>
+  </si>
+  <si>
+    <t>Huang, Wei; Chen, Kaining; Shi, Xian; Ren, Kuixiao; Li, Wenchao</t>
+  </si>
+  <si>
+    <t>The contribution of seeds to the recruitment of a Nymphoides peltata population</t>
+  </si>
+  <si>
+    <t>LIMNOLOGICA</t>
+  </si>
+  <si>
+    <t>Nymphoides</t>
+  </si>
+  <si>
+    <t>peltata</t>
+  </si>
+  <si>
+    <t>Huang, Wei</t>
+  </si>
+  <si>
+    <t>Huang</t>
+  </si>
+  <si>
+    <t>huang</t>
+  </si>
+  <si>
+    <t>huang14</t>
+  </si>
+  <si>
+    <t>Hudson, Jessica J.; Degenhardt, Dani</t>
+  </si>
+  <si>
+    <t>Stratification of beaked hazelnut (Corylus cornuta) seed improves germination</t>
+  </si>
+  <si>
+    <t>Corylus</t>
+  </si>
+  <si>
+    <t>cornuta</t>
+  </si>
+  <si>
+    <t>Hudson, Jessica J.</t>
+  </si>
+  <si>
+    <t>Hudson</t>
+  </si>
+  <si>
+    <t>hudson</t>
+  </si>
+  <si>
+    <t>hudson20</t>
+  </si>
+  <si>
+    <t>Hugo, E.; Saayman-Du Toit, A. E. J.; Reinhardt, C. F.</t>
+  </si>
+  <si>
+    <t>Germination characteristics of the grass weed Digitaria nuda (Schumach.)</t>
+  </si>
+  <si>
+    <t>SOUTH AFRICAN JOURNAL OF BOTANY</t>
+  </si>
+  <si>
+    <t>Digitaria</t>
+  </si>
+  <si>
+    <t>nuda</t>
+  </si>
+  <si>
+    <t>Hugo, E.</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>hugo</t>
+  </si>
+  <si>
+    <t>hugo14</t>
+  </si>
+  <si>
+    <t>Hwang, I. T.; Choi, J. S.; Kuack, H. H.; Kim, J. S.; Lee, H. J.; Cho, K. Y.</t>
+  </si>
+  <si>
+    <t>Seed germination, seedling growth, and herbicidal responses of Bidens tripartita L.</t>
+  </si>
+  <si>
+    <t>Korean Journal of Weed Science</t>
+  </si>
+  <si>
+    <t>tripartita L.</t>
+  </si>
+  <si>
+    <t>Hwang, I. T.</t>
+  </si>
+  <si>
+    <t>Hwang</t>
+  </si>
+  <si>
+    <t>hwang</t>
+  </si>
+  <si>
+    <t>hwang96</t>
+  </si>
+  <si>
+    <t>Ikeda, H; Itoh, K</t>
+  </si>
+  <si>
+    <t>Germination and water dispersal of seeds from a threatened plant species Penthorum chinense</t>
+  </si>
+  <si>
+    <t>ECOLOGICAL RESEARCH</t>
+  </si>
+  <si>
+    <t>Penthorum</t>
+  </si>
+  <si>
+    <t>chinense</t>
+  </si>
+  <si>
+    <t>Ikeda, H</t>
+  </si>
+  <si>
+    <t>Ikeda</t>
+  </si>
+  <si>
+    <t>ikeda</t>
+  </si>
+  <si>
+    <t>ikeda01</t>
+  </si>
+  <si>
+    <t>Irvani, N.; Solouki, M.; Omidi, M.; Saidi, A.; Zare, A. R.</t>
+  </si>
+  <si>
+    <t>Seed germination and dormancy breaking in Dorema ammoniacum D., an endangered medicinal plant.</t>
+  </si>
+  <si>
+    <t>Dorema</t>
+  </si>
+  <si>
+    <t>ammoniacum D.</t>
+  </si>
+  <si>
+    <t>Irvani, N.</t>
+  </si>
+  <si>
+    <t>Irvani</t>
+  </si>
+  <si>
+    <t>irvani</t>
+  </si>
+  <si>
+    <t>irvani12</t>
+  </si>
+  <si>
+    <t>Jang, Gyeong Ho; Chung, Jae Min; Rhie, Yong Ha; Lee, Seung Youn</t>
+  </si>
+  <si>
+    <t>Seed Dormancy Class and Ecophysiological Features of Veronicastrum sibiricum (L.) Pennell (Scrophulariaceae) Native to the Korea Peninsula</t>
+  </si>
+  <si>
+    <t>Veronicastrum</t>
+  </si>
+  <si>
+    <t>sibiricum</t>
+  </si>
+  <si>
+    <t>Jang, Gyeong Ho</t>
+  </si>
+  <si>
+    <t>Jang</t>
+  </si>
+  <si>
+    <t>jang</t>
+  </si>
+  <si>
+    <t>jang22</t>
+  </si>
+  <si>
+    <t>Javanmard, T.; Zamani, Z.; Afshar, R. Keshavarz; Hashemi, M.; Struik, P. C.</t>
+  </si>
+  <si>
+    <t>Seed washing, exogenous application of gibberellic acid, and cold stratification enhance the germination of sweet cherry (Prunus avium L.) seed</t>
+  </si>
+  <si>
+    <t>JOURNAL OF HORTICULTURAL SCIENCE &amp; BIOTECHNOLOGY</t>
+  </si>
+  <si>
+    <t>Javanmard, T.</t>
+  </si>
+  <si>
+    <t>Javanmard</t>
+  </si>
+  <si>
+    <t>javanmard</t>
+  </si>
+  <si>
+    <t>javanmard14</t>
+  </si>
+  <si>
+    <t>Jensen, M</t>
+  </si>
+  <si>
+    <t>Moisture content controls the effectiveness of dormancy breakage in Abies nordmanniana (Steven) spach seeds</t>
+  </si>
+  <si>
+    <t>BASIC AND APPLIED ASPECTS OF SEED BIOLOGY</t>
+  </si>
+  <si>
+    <t>nordmanniana</t>
+  </si>
+  <si>
+    <t>Jensen</t>
+  </si>
+  <si>
+    <t>jensen</t>
+  </si>
+  <si>
+    <t>jensen97</t>
+  </si>
+  <si>
+    <t>Jensen, Martin; Kristiansen, Kell</t>
+  </si>
+  <si>
+    <t>REMOVAL OF DISTAL PART OF COTYLEDONS OR SOAKING IN BAP OVERCOMES EMBRYONIC DORMANCY IN SOUR CHERRY</t>
+  </si>
+  <si>
+    <t>cerasus</t>
+  </si>
+  <si>
+    <t>Jensen, Martin</t>
+  </si>
+  <si>
+    <t>jensen09</t>
+  </si>
+  <si>
+    <t>Jeon, Seung-Ho; Kim, Seokhyeon; ChungJongIl; SangInShim; Î•òÏòÅÏÑ≠; ÍπÄÎØºÏ≤†; ÏÜêÎã§ÎãàÏóò</t>
+  </si>
+  <si>
+    <t>Effect of Presowing Seed Treatments on Germination and Seedling Emergence in Taraxacum platycarpum</t>
+  </si>
+  <si>
+    <t>KOREAN JOURNAL OF MEDICINAL CROP SCIENCE</t>
+  </si>
+  <si>
+    <t>Taraxacum</t>
+  </si>
+  <si>
+    <t>platycarpum</t>
+  </si>
+  <si>
+    <t>Jeon, Seung-Ho</t>
+  </si>
+  <si>
+    <t>Jeon</t>
+  </si>
+  <si>
+    <t>jeon</t>
+  </si>
+  <si>
+    <t>jeon10</t>
+  </si>
+  <si>
+    <t>Ji, Wei; Li, Zhiqian; Yao, Wenkong; Jong, Peijie; Wang, Yuejin</t>
+  </si>
+  <si>
+    <t>Abnormal Seedlings Emerged during Embryo Rescue and Its Remedy for Seedless Grape Breeding</t>
+  </si>
+  <si>
+    <t>KOREAN JOURNAL OF HORTICULTURAL SCIENCE &amp; TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>seedless grape</t>
+  </si>
+  <si>
+    <t>Ji, Wei</t>
+  </si>
+  <si>
+    <t>Ji</t>
+  </si>
+  <si>
+    <t>ji</t>
+  </si>
+  <si>
+    <t>ji13</t>
+  </si>
+  <si>
+    <t>Jiang, HY; Howell, GS</t>
+  </si>
+  <si>
+    <t>Applying chlorophyll fluorescence technique to cold hardiness studies of grapevines</t>
+  </si>
+  <si>
+    <t>AMERICAN JOURNAL OF ENOLOGY AND VITICULTURE</t>
+  </si>
+  <si>
+    <t>labruscana</t>
+  </si>
+  <si>
+    <t>Jiang, HY</t>
+  </si>
+  <si>
+    <t>Jiang</t>
+  </si>
+  <si>
+    <t>jiang</t>
+  </si>
+  <si>
+    <t>jiang02</t>
+  </si>
+  <si>
+    <t>Jin Yaqin; Li Donglin; Huang Xuefang</t>
+  </si>
+  <si>
+    <t>Dynamic Variation Characteristic of Endogenous Hormone Content in Cornus macrophylla Seeds during Cold Stratification</t>
+  </si>
+  <si>
+    <t>macrophylla</t>
+  </si>
+  <si>
+    <t>Jin Yaqin</t>
+  </si>
+  <si>
+    <t>jin</t>
+  </si>
+  <si>
+    <t>jin14</t>
+  </si>
+  <si>
+    <t>Jiro, Otsubo; Shigeru, Mariko; Ichiroku, Hayashi</t>
+  </si>
+  <si>
+    <t>Factors affecting the vertical distribution of Betula platyphylla var. japonica and Betula ermanii on Mt. Neko in Nagano Prefecture, Japan</t>
+  </si>
+  <si>
+    <t>Journal of Ecology and Field Biology</t>
+  </si>
+  <si>
+    <t>Jiro, Otsubo</t>
+  </si>
+  <si>
+    <t>Jiro</t>
+  </si>
+  <si>
+    <t>jiro</t>
+  </si>
+  <si>
+    <t>jiro10</t>
+  </si>
+  <si>
+    <t>Jo, J. S.; Won, J. Y.; Kang, H. K.</t>
+  </si>
+  <si>
+    <t>Studies on the germination of Korean ginseng (Panax ginseng C. A. Meyer) seed. I. Influences of non-stratification of seed on embryo growth and germination.</t>
+  </si>
+  <si>
+    <t>Korean Journal of Crop Science</t>
+  </si>
+  <si>
+    <t>Panax</t>
+  </si>
+  <si>
+    <t>ginseng</t>
+  </si>
+  <si>
+    <t>Jo, J. S.</t>
+  </si>
+  <si>
+    <t>Jo</t>
+  </si>
+  <si>
+    <t>jo</t>
+  </si>
+  <si>
+    <t>jo88</t>
+  </si>
+  <si>
+    <t>Jolliff, G. D.; Seddigh, M.; Franz, R. E.</t>
+  </si>
+  <si>
+    <t>Seed germination and dormancy of new meadowfoam (Limnanthes spp.) genotypes.</t>
+  </si>
+  <si>
+    <t>Industrial Crops and Products</t>
+  </si>
+  <si>
+    <t>Limnanthes</t>
+  </si>
+  <si>
+    <t>Jolliff, G. D.</t>
+  </si>
+  <si>
+    <t>Jolliff</t>
+  </si>
+  <si>
+    <t>jolliff</t>
+  </si>
+  <si>
+    <t>jolliff94</t>
+  </si>
+  <si>
+    <t>Jones, S. K.; Gosling, P. G.</t>
+  </si>
+  <si>
+    <t>Target moisture content prechill overcomes the dormancy of temperate conifer seeds</t>
+  </si>
+  <si>
+    <t>New Forests</t>
+  </si>
+  <si>
+    <t>Jones, S. K.</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>jones</t>
+  </si>
+  <si>
+    <t>jones94</t>
+  </si>
+  <si>
+    <t>Joshi, M; Dhar, U</t>
+  </si>
+  <si>
+    <t>Effect of various presowing treatments on seed germination of Heracleum candicans Wall. ex DC.: a high value medicinal plant</t>
+  </si>
+  <si>
+    <t>Heracleum</t>
+  </si>
+  <si>
+    <t>candicans</t>
+  </si>
+  <si>
+    <t>Joshi, M</t>
+  </si>
+  <si>
+    <t>Joshi</t>
+  </si>
+  <si>
+    <t>joshi</t>
+  </si>
+  <si>
+    <t>joshi03</t>
+  </si>
+  <si>
+    <t>Jusung, ChoÔºå; HEE, LEE CHEOL; Í∂åÌòÅÏ§Ä</t>
+  </si>
+  <si>
+    <t>Seed Germination and Dormancy Breaking of Thalictrum rochebrunianum var. grandisepalum (H. Lev.) Nakai</t>
+  </si>
+  <si>
+    <t>Thalictrum</t>
+  </si>
+  <si>
+    <t>rochebrunianum</t>
+  </si>
+  <si>
+    <t>Jusung, ChoÔºå</t>
+  </si>
+  <si>
+    <t>Jusung</t>
+  </si>
+  <si>
+    <t>jusung</t>
+  </si>
+  <si>
+    <t>jusung16</t>
+  </si>
+  <si>
+    <t>Kalimuthu, K.; Lakshmanan, K. K.</t>
+  </si>
+  <si>
+    <t>Effect of different treatments on pod germination of Pterocarpus species.</t>
+  </si>
+  <si>
+    <t>Indian Journal of Forestry</t>
+  </si>
+  <si>
+    <t>Pterocarpus</t>
+  </si>
+  <si>
+    <t>Kalimuthu, K.</t>
+  </si>
+  <si>
+    <t>Kalimuthu</t>
+  </si>
+  <si>
+    <t>kalimuthu</t>
+  </si>
+  <si>
+    <t>kalimuthu95</t>
+  </si>
+  <si>
+    <t>Kamal, Md Mostafa; Erazo, Carlos; Tanino, Karen K.; Kawamura, Yukio; Kasuga, Jun; Laarveld, Bernard; Olkowski, Andrew; Uemura, Matsuo</t>
+  </si>
+  <si>
+    <t>A single seed treatment mediated through reactive oxygen species increases germination, growth performance, and abiotic stress tolerance inArabidopsisand rice</t>
+  </si>
+  <si>
+    <t>BIOSCIENCE BIOTECHNOLOGY AND BIOCHEMISTRY</t>
+  </si>
+  <si>
+    <t>accepted for control group</t>
+  </si>
+  <si>
+    <t>Kamal, Md Mostafa</t>
+  </si>
+  <si>
+    <t>Kamal</t>
+  </si>
+  <si>
+    <t>kamal</t>
+  </si>
+  <si>
+    <t>kamal20</t>
+  </si>
+  <si>
+    <t>Kamareh, T. F.; Shirvany, A.; Matinizadeh, M.; Etemad, V.; Khoshnevis, M.; Alizadeh, T.</t>
+  </si>
+  <si>
+    <t>Effects of different treatments on the germination of wild pear (Pyrus glabra) seeds and their peroxidase, amylase, and catalase reactions.</t>
+  </si>
+  <si>
+    <t>Journal of Medicinal Plants Research</t>
+  </si>
+  <si>
+    <t>glabra</t>
+  </si>
+  <si>
+    <t>Kamareh, T. F.</t>
+  </si>
+  <si>
+    <t>Kamareh</t>
+  </si>
+  <si>
+    <t>kamareh</t>
+  </si>
+  <si>
+    <t>kamareh12</t>
+  </si>
+  <si>
+    <t>Kan, Jing; Song, Songquan</t>
+  </si>
+  <si>
+    <t>Effects of dehydration, chilling, light, phytohormones and nitric oxide on germination of Pistia stratiotes seeds</t>
+  </si>
+  <si>
+    <t>Pistia</t>
+  </si>
+  <si>
+    <t>stratiotes</t>
+  </si>
+  <si>
+    <t>Kan, Jing</t>
+  </si>
+  <si>
+    <t>Kan</t>
+  </si>
+  <si>
+    <t>kan</t>
+  </si>
+  <si>
+    <t>kan08</t>
+  </si>
+  <si>
+    <t>Kang JinHo; Jeon ByongSam; Yoon SooYoung; Lee SangWoo; Chung JongIl</t>
+  </si>
+  <si>
+    <t>Pre-sowing treatments to improve germination of intact seeds in burcucumber (Sicyos angulatus L.).</t>
+  </si>
+  <si>
+    <t>Sicyos</t>
+  </si>
+  <si>
+    <t>angulatus</t>
+  </si>
+  <si>
+    <t>Kang JinHo</t>
+  </si>
+  <si>
+    <t>kang</t>
+  </si>
+  <si>
+    <t>kang03</t>
+  </si>
+  <si>
+    <t>Kanjana, W.; Suzuki, T.; Ishii, K.; Kozaki, T.; Iigo, M.; Yamane, K.</t>
+  </si>
+  <si>
+    <t>Transcriptome analysis of seed dormancy after rinsing and chilling in ornamental peaches (Prunus persica (L.) Batsch).</t>
+  </si>
+  <si>
+    <t>BMC Genomics</t>
+  </si>
+  <si>
+    <t>(8 August 2016)</t>
+  </si>
+  <si>
+    <t>Kanjana, W.</t>
+  </si>
+  <si>
+    <t>Kanjana</t>
+  </si>
+  <si>
+    <t>kanjana</t>
+  </si>
+  <si>
+    <t>kanjana16</t>
+  </si>
+  <si>
+    <t>KAPUR A; KAUR J; SHARMA H L; SINGH H</t>
+  </si>
+  <si>
+    <t>PRECONDITIONING OF PEANUT ARACHIS-HYPOGAEA SEEDS TO RELEASE DORMANCY</t>
+  </si>
+  <si>
+    <t>Annals of Biology (Hissar)</t>
+  </si>
+  <si>
+    <t>Arachis</t>
+  </si>
+  <si>
+    <t>hypogaea</t>
+  </si>
+  <si>
+    <t>accepted for control</t>
+  </si>
+  <si>
+    <t>KAPUR A</t>
+  </si>
+  <si>
+    <t>kapur</t>
+  </si>
+  <si>
+    <t>kapur90</t>
   </si>
 </sst>
 </file>
@@ -3504,7 +5694,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3521,6 +5711,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4446,10 +6637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9508,6 +11699,4710 @@
         <v>989</v>
       </c>
     </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>146</v>
+      </c>
+      <c r="H102">
+        <v>1973</v>
+      </c>
+      <c r="I102" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J102" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K102" t="s">
+        <v>207</v>
+      </c>
+      <c r="P102" t="s">
+        <v>1009</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>507</v>
+      </c>
+      <c r="R102" t="s">
+        <v>1010</v>
+      </c>
+      <c r="S102" t="s">
+        <v>1010</v>
+      </c>
+      <c r="T102" t="s">
+        <v>1011</v>
+      </c>
+      <c r="U102" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D103" t="s">
+        <v>262</v>
+      </c>
+      <c r="E103">
+        <v>24</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>225</v>
+      </c>
+      <c r="H103">
+        <v>1996</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J103" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K103" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>507</v>
+      </c>
+      <c r="R103" t="s">
+        <v>1016</v>
+      </c>
+      <c r="S103" t="s">
+        <v>1017</v>
+      </c>
+      <c r="T103" t="s">
+        <v>1011</v>
+      </c>
+      <c r="U103" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>202</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D104" t="s">
+        <v>950</v>
+      </c>
+      <c r="E104">
+        <v>105</v>
+      </c>
+      <c r="F104">
+        <v>3</v>
+      </c>
+      <c r="G104">
+        <v>331</v>
+      </c>
+      <c r="H104">
+        <v>2005</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J104" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K104" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>507</v>
+      </c>
+      <c r="R104" t="s">
+        <v>1019</v>
+      </c>
+      <c r="S104" t="s">
+        <v>1023</v>
+      </c>
+      <c r="T104" t="s">
+        <v>1024</v>
+      </c>
+      <c r="U104" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>202</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E105">
+        <v>8</v>
+      </c>
+      <c r="F105">
+        <v>4</v>
+      </c>
+      <c r="G105">
+        <v>523</v>
+      </c>
+      <c r="H105">
+        <v>2015</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J105" t="s">
+        <v>684</v>
+      </c>
+      <c r="K105" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>507</v>
+      </c>
+      <c r="R105" t="s">
+        <v>1026</v>
+      </c>
+      <c r="S105" t="s">
+        <v>1030</v>
+      </c>
+      <c r="T105" t="s">
+        <v>1031</v>
+      </c>
+      <c r="U105" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>202</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E106">
+        <v>16</v>
+      </c>
+      <c r="F106">
+        <v>4</v>
+      </c>
+      <c r="G106">
+        <v>7529</v>
+      </c>
+      <c r="H106">
+        <v>2021</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J106" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K106" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>622</v>
+      </c>
+      <c r="R106" t="s">
+        <v>1033</v>
+      </c>
+      <c r="S106" t="s">
+        <v>1038</v>
+      </c>
+      <c r="T106" t="s">
+        <v>1039</v>
+      </c>
+      <c r="U106" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>202</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E107">
+        <v>56</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>21</v>
+      </c>
+      <c r="H107">
+        <v>2010</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K107" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>331</v>
+      </c>
+      <c r="R107" t="s">
+        <v>1046</v>
+      </c>
+      <c r="S107" t="s">
+        <v>1047</v>
+      </c>
+      <c r="T107" t="s">
+        <v>1048</v>
+      </c>
+      <c r="U107" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>202</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E108">
+        <v>24</v>
+      </c>
+      <c r="F108">
+        <v>33</v>
+      </c>
+      <c r="G108">
+        <v>129</v>
+      </c>
+      <c r="H108">
+        <v>1988</v>
+      </c>
+      <c r="K108" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>331</v>
+      </c>
+      <c r="R108" t="s">
+        <v>1053</v>
+      </c>
+      <c r="S108" t="s">
+        <v>1053</v>
+      </c>
+      <c r="T108" t="s">
+        <v>1054</v>
+      </c>
+      <c r="U108" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>703</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E109" t="s">
+        <v>41</v>
+      </c>
+      <c r="G109">
+        <v>604</v>
+      </c>
+      <c r="H109">
+        <v>2009</v>
+      </c>
+      <c r="I109" t="s">
+        <v>936</v>
+      </c>
+      <c r="J109" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K109" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>331</v>
+      </c>
+      <c r="R109" t="s">
+        <v>1060</v>
+      </c>
+      <c r="S109" t="s">
+        <v>1061</v>
+      </c>
+      <c r="T109" t="s">
+        <v>1062</v>
+      </c>
+      <c r="U109" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>202</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E110">
+        <v>31</v>
+      </c>
+      <c r="G110">
+        <v>157</v>
+      </c>
+      <c r="H110">
+        <v>1982</v>
+      </c>
+      <c r="I110" t="s">
+        <v>998</v>
+      </c>
+      <c r="K110" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>331</v>
+      </c>
+      <c r="R110" t="s">
+        <v>1064</v>
+      </c>
+      <c r="S110" t="s">
+        <v>1067</v>
+      </c>
+      <c r="T110" t="s">
+        <v>1068</v>
+      </c>
+      <c r="U110" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>202</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E111">
+        <v>18</v>
+      </c>
+      <c r="F111">
+        <v>4</v>
+      </c>
+      <c r="G111">
+        <v>53</v>
+      </c>
+      <c r="H111">
+        <v>2009</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J111" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K111" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>331</v>
+      </c>
+      <c r="R111" t="s">
+        <v>1075</v>
+      </c>
+      <c r="S111" t="s">
+        <v>1075</v>
+      </c>
+      <c r="T111" t="s">
+        <v>1076</v>
+      </c>
+      <c r="U111" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>202</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E112">
+        <v>24</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <v>273</v>
+      </c>
+      <c r="H112">
+        <v>2013</v>
+      </c>
+      <c r="I112" t="s">
+        <v>838</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1081</v>
+      </c>
+      <c r="K112" t="s">
+        <v>207</v>
+      </c>
+      <c r="O112" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>331</v>
+      </c>
+      <c r="R112" t="s">
+        <v>1082</v>
+      </c>
+      <c r="S112" t="s">
+        <v>1083</v>
+      </c>
+      <c r="T112" t="s">
+        <v>1084</v>
+      </c>
+      <c r="U112" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>202</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D113" t="s">
+        <v>262</v>
+      </c>
+      <c r="E113">
+        <v>34</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <v>499</v>
+      </c>
+      <c r="H113">
+        <v>2006</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K113" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>451</v>
+      </c>
+      <c r="R113" t="s">
+        <v>1090</v>
+      </c>
+      <c r="S113" t="s">
+        <v>1091</v>
+      </c>
+      <c r="T113" t="s">
+        <v>1092</v>
+      </c>
+      <c r="U113" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>202</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E114">
+        <v>47</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <v>187</v>
+      </c>
+      <c r="H114">
+        <v>2005</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K114" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>451</v>
+      </c>
+      <c r="R114" t="s">
+        <v>1097</v>
+      </c>
+      <c r="S114" t="s">
+        <v>1091</v>
+      </c>
+      <c r="T114" t="s">
+        <v>1092</v>
+      </c>
+      <c r="U114" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>202</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E115">
+        <v>13</v>
+      </c>
+      <c r="F115">
+        <v>4</v>
+      </c>
+      <c r="G115">
+        <v>345</v>
+      </c>
+      <c r="H115">
+        <v>2006</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J115" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K115" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>451</v>
+      </c>
+      <c r="R115" t="s">
+        <v>1104</v>
+      </c>
+      <c r="S115" t="s">
+        <v>1105</v>
+      </c>
+      <c r="T115" t="s">
+        <v>1106</v>
+      </c>
+      <c r="U115" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>202</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D116" t="s">
+        <v>950</v>
+      </c>
+      <c r="E116">
+        <v>172</v>
+      </c>
+      <c r="G116">
+        <v>61</v>
+      </c>
+      <c r="H116">
+        <v>2014</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K116" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>451</v>
+      </c>
+      <c r="R116" t="s">
+        <v>1112</v>
+      </c>
+      <c r="S116" t="s">
+        <v>1113</v>
+      </c>
+      <c r="T116" t="s">
+        <v>1114</v>
+      </c>
+      <c r="U116" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>202</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E117">
+        <v>29</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117">
+        <v>188</v>
+      </c>
+      <c r="H117">
+        <v>2009</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1120</v>
+      </c>
+      <c r="K117" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>451</v>
+      </c>
+      <c r="R117" t="s">
+        <v>1121</v>
+      </c>
+      <c r="S117" t="s">
+        <v>1122</v>
+      </c>
+      <c r="T117" t="s">
+        <v>1123</v>
+      </c>
+      <c r="U117" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>202</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E118">
+        <v>9</v>
+      </c>
+      <c r="F118">
+        <v>11</v>
+      </c>
+      <c r="H118">
+        <v>2018</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1128</v>
+      </c>
+      <c r="J118" t="s">
+        <v>1129</v>
+      </c>
+      <c r="K118" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>451</v>
+      </c>
+      <c r="R118" t="s">
+        <v>1130</v>
+      </c>
+      <c r="S118" t="s">
+        <v>1131</v>
+      </c>
+      <c r="T118" t="s">
+        <v>1132</v>
+      </c>
+      <c r="U118" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>202</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D119" t="s">
+        <v>682</v>
+      </c>
+      <c r="E119">
+        <v>214</v>
+      </c>
+      <c r="F119">
+        <v>4</v>
+      </c>
+      <c r="G119">
+        <v>489</v>
+      </c>
+      <c r="H119">
+        <v>2013</v>
+      </c>
+      <c r="I119" t="s">
+        <v>263</v>
+      </c>
+      <c r="K119" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>451</v>
+      </c>
+      <c r="R119" t="s">
+        <v>1136</v>
+      </c>
+      <c r="S119" t="s">
+        <v>1137</v>
+      </c>
+      <c r="T119" t="s">
+        <v>1138</v>
+      </c>
+      <c r="U119" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>202</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E120">
+        <v>34</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120">
+        <v>353</v>
+      </c>
+      <c r="H120">
+        <v>1999</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J120" t="s">
+        <v>937</v>
+      </c>
+      <c r="K120" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>451</v>
+      </c>
+      <c r="R120" t="s">
+        <v>1144</v>
+      </c>
+      <c r="S120" t="s">
+        <v>1145</v>
+      </c>
+      <c r="T120" t="s">
+        <v>1146</v>
+      </c>
+      <c r="U120" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>202</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+      <c r="F121">
+        <v>3</v>
+      </c>
+      <c r="G121">
+        <v>235</v>
+      </c>
+      <c r="H121">
+        <v>2014</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1151</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1152</v>
+      </c>
+      <c r="K121" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>451</v>
+      </c>
+      <c r="R121" t="s">
+        <v>1153</v>
+      </c>
+      <c r="S121" t="s">
+        <v>1154</v>
+      </c>
+      <c r="T121" t="s">
+        <v>1155</v>
+      </c>
+      <c r="U121" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>202</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D122" t="s">
+        <v>682</v>
+      </c>
+      <c r="E122">
+        <v>166</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122">
+        <v>227</v>
+      </c>
+      <c r="H122">
+        <v>2003</v>
+      </c>
+      <c r="I122" t="s">
+        <v>263</v>
+      </c>
+      <c r="K122" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>451</v>
+      </c>
+      <c r="R122" t="s">
+        <v>1157</v>
+      </c>
+      <c r="S122" t="s">
+        <v>1159</v>
+      </c>
+      <c r="T122" t="s">
+        <v>1160</v>
+      </c>
+      <c r="U122" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>202</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D123" t="s">
+        <v>262</v>
+      </c>
+      <c r="E123">
+        <v>39</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>230</v>
+      </c>
+      <c r="H123">
+        <v>2011</v>
+      </c>
+      <c r="I123" t="s">
+        <v>596</v>
+      </c>
+      <c r="J123" t="s">
+        <v>1164</v>
+      </c>
+      <c r="K123" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>451</v>
+      </c>
+      <c r="R123" t="s">
+        <v>1165</v>
+      </c>
+      <c r="S123" t="s">
+        <v>1166</v>
+      </c>
+      <c r="T123" t="s">
+        <v>1167</v>
+      </c>
+      <c r="U123" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>202</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D124" t="s">
+        <v>378</v>
+      </c>
+      <c r="E124">
+        <v>9</v>
+      </c>
+      <c r="F124">
+        <v>3</v>
+      </c>
+      <c r="G124">
+        <v>143</v>
+      </c>
+      <c r="H124">
+        <v>2009</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J124" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K124" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>451</v>
+      </c>
+      <c r="R124" t="s">
+        <v>1173</v>
+      </c>
+      <c r="S124" t="s">
+        <v>1174</v>
+      </c>
+      <c r="T124" t="s">
+        <v>1175</v>
+      </c>
+      <c r="U124" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>202</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E125">
+        <v>25</v>
+      </c>
+      <c r="F125">
+        <v>3</v>
+      </c>
+      <c r="G125">
+        <v>221</v>
+      </c>
+      <c r="H125">
+        <v>2010</v>
+      </c>
+      <c r="I125" t="s">
+        <v>263</v>
+      </c>
+      <c r="K125" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>451</v>
+      </c>
+      <c r="R125" t="s">
+        <v>1177</v>
+      </c>
+      <c r="S125" t="s">
+        <v>1180</v>
+      </c>
+      <c r="T125" t="s">
+        <v>1181</v>
+      </c>
+      <c r="U125" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>202</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E126">
+        <v>34</v>
+      </c>
+      <c r="G126">
+        <v>43</v>
+      </c>
+      <c r="H126">
+        <v>2013</v>
+      </c>
+      <c r="I126" t="s">
+        <v>998</v>
+      </c>
+      <c r="K126" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>507</v>
+      </c>
+      <c r="R126" t="s">
+        <v>1186</v>
+      </c>
+      <c r="S126" t="s">
+        <v>1187</v>
+      </c>
+      <c r="T126" t="s">
+        <v>1188</v>
+      </c>
+      <c r="U126" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>202</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E127">
+        <v>39</v>
+      </c>
+      <c r="F127">
+        <v>6</v>
+      </c>
+      <c r="G127">
+        <v>552</v>
+      </c>
+      <c r="H127">
+        <v>1986</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1194</v>
+      </c>
+      <c r="K127" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>507</v>
+      </c>
+      <c r="R127" t="s">
+        <v>1195</v>
+      </c>
+      <c r="S127" t="s">
+        <v>1196</v>
+      </c>
+      <c r="T127" t="s">
+        <v>1197</v>
+      </c>
+      <c r="U127" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>202</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D128" t="s">
+        <v>996</v>
+      </c>
+      <c r="E128">
+        <v>33</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <v>134</v>
+      </c>
+      <c r="H128">
+        <v>2011</v>
+      </c>
+      <c r="I128" t="s">
+        <v>998</v>
+      </c>
+      <c r="K128" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>507</v>
+      </c>
+      <c r="R128" t="s">
+        <v>1201</v>
+      </c>
+      <c r="S128" t="s">
+        <v>1202</v>
+      </c>
+      <c r="T128" t="s">
+        <v>1203</v>
+      </c>
+      <c r="U128" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>202</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E129">
+        <v>48</v>
+      </c>
+      <c r="F129">
+        <v>4</v>
+      </c>
+      <c r="G129">
+        <v>413</v>
+      </c>
+      <c r="H129">
+        <v>2014</v>
+      </c>
+      <c r="I129" t="s">
+        <v>329</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1208</v>
+      </c>
+      <c r="K129" t="s">
+        <v>207</v>
+      </c>
+      <c r="P129" t="s">
+        <v>1209</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>507</v>
+      </c>
+      <c r="R129" t="s">
+        <v>1210</v>
+      </c>
+      <c r="S129" t="s">
+        <v>1211</v>
+      </c>
+      <c r="T129" t="s">
+        <v>1212</v>
+      </c>
+      <c r="U129" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>202</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E130">
+        <v>10</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>15</v>
+      </c>
+      <c r="H130">
+        <v>2020</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1217</v>
+      </c>
+      <c r="J130" t="s">
+        <v>1218</v>
+      </c>
+      <c r="K130" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>507</v>
+      </c>
+      <c r="R130" t="s">
+        <v>1219</v>
+      </c>
+      <c r="S130" t="s">
+        <v>1220</v>
+      </c>
+      <c r="T130" t="s">
+        <v>1221</v>
+      </c>
+      <c r="U130" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>202</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E131">
+        <v>9</v>
+      </c>
+      <c r="F131">
+        <v>6</v>
+      </c>
+      <c r="G131">
+        <v>274</v>
+      </c>
+      <c r="H131">
+        <v>2015</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1226</v>
+      </c>
+      <c r="J131" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K131" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>507</v>
+      </c>
+      <c r="R131" t="s">
+        <v>1228</v>
+      </c>
+      <c r="S131" t="s">
+        <v>1229</v>
+      </c>
+      <c r="T131" t="s">
+        <v>1230</v>
+      </c>
+      <c r="U131" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>202</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E132">
+        <v>48</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132">
+        <v>61</v>
+      </c>
+      <c r="H132">
+        <v>2002</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J132" t="s">
+        <v>1235</v>
+      </c>
+      <c r="K132" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>507</v>
+      </c>
+      <c r="R132" t="s">
+        <v>1236</v>
+      </c>
+      <c r="S132" t="s">
+        <v>1237</v>
+      </c>
+      <c r="T132" t="s">
+        <v>1238</v>
+      </c>
+      <c r="U132" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>202</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D133" t="s">
+        <v>354</v>
+      </c>
+      <c r="E133">
+        <v>5</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H133">
+        <v>2018</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J133" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K133" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>507</v>
+      </c>
+      <c r="R133" t="s">
+        <v>1245</v>
+      </c>
+      <c r="S133" t="s">
+        <v>1246</v>
+      </c>
+      <c r="T133" t="s">
+        <v>1247</v>
+      </c>
+      <c r="U133" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>202</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E134">
+        <v>27</v>
+      </c>
+      <c r="F134">
+        <v>3</v>
+      </c>
+      <c r="G134">
+        <v>263</v>
+      </c>
+      <c r="H134">
+        <v>2014</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1252</v>
+      </c>
+      <c r="J134" t="s">
+        <v>1253</v>
+      </c>
+      <c r="K134" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>507</v>
+      </c>
+      <c r="R134" t="s">
+        <v>1254</v>
+      </c>
+      <c r="S134" t="s">
+        <v>1255</v>
+      </c>
+      <c r="T134" t="s">
+        <v>1256</v>
+      </c>
+      <c r="U134" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>202</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D135" t="s">
+        <v>719</v>
+      </c>
+      <c r="E135">
+        <v>153</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>5</v>
+      </c>
+      <c r="H135">
+        <v>2019</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1260</v>
+      </c>
+      <c r="J135" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K135" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>507</v>
+      </c>
+      <c r="R135" t="s">
+        <v>1262</v>
+      </c>
+      <c r="S135" t="s">
+        <v>1263</v>
+      </c>
+      <c r="T135" t="s">
+        <v>1264</v>
+      </c>
+      <c r="U135" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>202</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E136">
+        <v>15</v>
+      </c>
+      <c r="F136">
+        <v>3</v>
+      </c>
+      <c r="G136">
+        <v>593</v>
+      </c>
+      <c r="H136">
+        <v>2013</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1269</v>
+      </c>
+      <c r="J136" t="s">
+        <v>684</v>
+      </c>
+      <c r="K136" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>507</v>
+      </c>
+      <c r="R136" t="s">
+        <v>1270</v>
+      </c>
+      <c r="S136" t="s">
+        <v>1271</v>
+      </c>
+      <c r="T136" t="s">
+        <v>1272</v>
+      </c>
+      <c r="U136" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>703</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E137">
+        <v>898</v>
+      </c>
+      <c r="G137">
+        <v>45</v>
+      </c>
+      <c r="H137">
+        <v>2011</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J137" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K137" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>331</v>
+      </c>
+      <c r="R137" t="s">
+        <v>1279</v>
+      </c>
+      <c r="S137" t="s">
+        <v>1280</v>
+      </c>
+      <c r="T137" t="s">
+        <v>1281</v>
+      </c>
+      <c r="U137" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>202</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E138">
+        <v>25</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>3</v>
+      </c>
+      <c r="H138">
+        <v>1974</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J138" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K138" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>331</v>
+      </c>
+      <c r="R138" t="s">
+        <v>1288</v>
+      </c>
+      <c r="S138" t="s">
+        <v>1289</v>
+      </c>
+      <c r="T138" t="s">
+        <v>1290</v>
+      </c>
+      <c r="U138" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>202</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E139" t="s">
+        <v>41</v>
+      </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
+      <c r="G139">
+        <v>32</v>
+      </c>
+      <c r="H139">
+        <v>2007</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J139" t="s">
+        <v>921</v>
+      </c>
+      <c r="K139" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>331</v>
+      </c>
+      <c r="R139" t="s">
+        <v>1296</v>
+      </c>
+      <c r="S139" t="s">
+        <v>1297</v>
+      </c>
+      <c r="T139" t="s">
+        <v>1298</v>
+      </c>
+      <c r="U139" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>703</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E140">
+        <v>1218</v>
+      </c>
+      <c r="G140">
+        <v>359</v>
+      </c>
+      <c r="H140">
+        <v>2018</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K140" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>331</v>
+      </c>
+      <c r="R140" t="s">
+        <v>1304</v>
+      </c>
+      <c r="S140" t="s">
+        <v>1305</v>
+      </c>
+      <c r="T140" t="s">
+        <v>1306</v>
+      </c>
+      <c r="U140" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>202</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E141">
+        <v>152</v>
+      </c>
+      <c r="F141">
+        <v>3</v>
+      </c>
+      <c r="G141">
+        <v>153</v>
+      </c>
+      <c r="H141">
+        <v>2012</v>
+      </c>
+      <c r="K141" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>331</v>
+      </c>
+      <c r="R141" t="s">
+        <v>1311</v>
+      </c>
+      <c r="S141" t="s">
+        <v>1312</v>
+      </c>
+      <c r="T141" t="s">
+        <v>1313</v>
+      </c>
+      <c r="U141" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>202</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D142" t="s">
+        <v>690</v>
+      </c>
+      <c r="E142">
+        <v>82</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>2005</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J142" t="s">
+        <v>1318</v>
+      </c>
+      <c r="K142" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>331</v>
+      </c>
+      <c r="R142" t="s">
+        <v>1319</v>
+      </c>
+      <c r="S142" t="s">
+        <v>1320</v>
+      </c>
+      <c r="T142" t="s">
+        <v>1321</v>
+      </c>
+      <c r="U142" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>202</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E143">
+        <v>107</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143">
+        <v>350</v>
+      </c>
+      <c r="H143">
+        <v>2020</v>
+      </c>
+      <c r="I143" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J143" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K143" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>331</v>
+      </c>
+      <c r="R143" t="s">
+        <v>1327</v>
+      </c>
+      <c r="S143" t="s">
+        <v>1328</v>
+      </c>
+      <c r="T143" t="s">
+        <v>1329</v>
+      </c>
+      <c r="U143" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>626</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E144" t="s">
+        <v>41</v>
+      </c>
+      <c r="H144">
+        <v>2019</v>
+      </c>
+      <c r="K144" t="s">
+        <v>207</v>
+      </c>
+      <c r="P144" t="s">
+        <v>1334</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>331</v>
+      </c>
+      <c r="R144" t="s">
+        <v>1335</v>
+      </c>
+      <c r="S144" t="s">
+        <v>1328</v>
+      </c>
+      <c r="T144" t="s">
+        <v>1329</v>
+      </c>
+      <c r="U144" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>703</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E145" t="s">
+        <v>41</v>
+      </c>
+      <c r="F145">
+        <v>754</v>
+      </c>
+      <c r="G145">
+        <v>97</v>
+      </c>
+      <c r="H145">
+        <v>2007</v>
+      </c>
+      <c r="I145" t="s">
+        <v>459</v>
+      </c>
+      <c r="K145" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>331</v>
+      </c>
+      <c r="R145" t="s">
+        <v>1340</v>
+      </c>
+      <c r="S145" t="s">
+        <v>1341</v>
+      </c>
+      <c r="T145" t="s">
+        <v>1342</v>
+      </c>
+      <c r="U145" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>724</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E146" t="s">
+        <v>41</v>
+      </c>
+      <c r="G146">
+        <v>6</v>
+      </c>
+      <c r="H146">
+        <v>1958</v>
+      </c>
+      <c r="K146" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>331</v>
+      </c>
+      <c r="R146" t="s">
+        <v>1344</v>
+      </c>
+      <c r="S146" t="s">
+        <v>1347</v>
+      </c>
+      <c r="T146" t="s">
+        <v>1348</v>
+      </c>
+      <c r="U146" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>202</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E147" t="s">
+        <v>41</v>
+      </c>
+      <c r="F147">
+        <v>5</v>
+      </c>
+      <c r="G147">
+        <v>24</v>
+      </c>
+      <c r="H147">
+        <v>1989</v>
+      </c>
+      <c r="I147" t="s">
+        <v>903</v>
+      </c>
+      <c r="J147" t="s">
+        <v>774</v>
+      </c>
+      <c r="K147" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>331</v>
+      </c>
+      <c r="R147" t="s">
+        <v>1353</v>
+      </c>
+      <c r="S147" t="s">
+        <v>1354</v>
+      </c>
+      <c r="T147" t="s">
+        <v>1355</v>
+      </c>
+      <c r="U147" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>202</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E148">
+        <v>67</v>
+      </c>
+      <c r="F148">
+        <v>4</v>
+      </c>
+      <c r="G148">
+        <v>399</v>
+      </c>
+      <c r="H148">
+        <v>2012</v>
+      </c>
+      <c r="K148" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>331</v>
+      </c>
+      <c r="R148" t="s">
+        <v>1360</v>
+      </c>
+      <c r="S148" t="s">
+        <v>1361</v>
+      </c>
+      <c r="T148" t="s">
+        <v>1362</v>
+      </c>
+      <c r="U148" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>202</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D149" t="s">
+        <v>587</v>
+      </c>
+      <c r="E149" t="s">
+        <v>41</v>
+      </c>
+      <c r="F149">
+        <v>173</v>
+      </c>
+      <c r="G149">
+        <v>185</v>
+      </c>
+      <c r="H149">
+        <v>1985</v>
+      </c>
+      <c r="I149" t="s">
+        <v>320</v>
+      </c>
+      <c r="J149" t="s">
+        <v>588</v>
+      </c>
+      <c r="K149" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>622</v>
+      </c>
+      <c r="R149" t="s">
+        <v>1366</v>
+      </c>
+      <c r="S149" t="s">
+        <v>1367</v>
+      </c>
+      <c r="T149" t="s">
+        <v>1368</v>
+      </c>
+      <c r="U149" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>626</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E150" t="s">
+        <v>41</v>
+      </c>
+      <c r="H150">
+        <v>2017</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1372</v>
+      </c>
+      <c r="J150" t="s">
+        <v>1373</v>
+      </c>
+      <c r="K150" t="s">
+        <v>207</v>
+      </c>
+      <c r="N150" t="s">
+        <v>1374</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>622</v>
+      </c>
+      <c r="R150" t="s">
+        <v>1375</v>
+      </c>
+      <c r="S150" t="s">
+        <v>1376</v>
+      </c>
+      <c r="T150" t="s">
+        <v>1377</v>
+      </c>
+      <c r="U150" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>202</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D151" t="s">
+        <v>262</v>
+      </c>
+      <c r="E151">
+        <v>38</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>252</v>
+      </c>
+      <c r="H151">
+        <v>2010</v>
+      </c>
+      <c r="I151" t="s">
+        <v>1151</v>
+      </c>
+      <c r="J151" t="s">
+        <v>1381</v>
+      </c>
+      <c r="K151" t="s">
+        <v>207</v>
+      </c>
+      <c r="N151" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>622</v>
+      </c>
+      <c r="R151" t="s">
+        <v>1382</v>
+      </c>
+      <c r="S151" t="s">
+        <v>1383</v>
+      </c>
+      <c r="T151" t="s">
+        <v>1384</v>
+      </c>
+      <c r="U151" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>202</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E152">
+        <v>37</v>
+      </c>
+      <c r="F152">
+        <v>3</v>
+      </c>
+      <c r="G152">
+        <v>884</v>
+      </c>
+      <c r="H152">
+        <v>2018</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J152" t="s">
+        <v>1389</v>
+      </c>
+      <c r="K152" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>622</v>
+      </c>
+      <c r="R152" t="s">
+        <v>1390</v>
+      </c>
+      <c r="S152" t="s">
+        <v>1390</v>
+      </c>
+      <c r="T152" t="s">
+        <v>1384</v>
+      </c>
+      <c r="U152" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>202</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E153">
+        <v>21</v>
+      </c>
+      <c r="F153">
+        <v>5</v>
+      </c>
+      <c r="G153">
+        <v>729</v>
+      </c>
+      <c r="H153">
+        <v>2008</v>
+      </c>
+      <c r="I153" t="s">
+        <v>1395</v>
+      </c>
+      <c r="J153" t="s">
+        <v>1396</v>
+      </c>
+      <c r="K153" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>622</v>
+      </c>
+      <c r="R153" t="s">
+        <v>1397</v>
+      </c>
+      <c r="S153" t="s">
+        <v>1397</v>
+      </c>
+      <c r="T153" t="s">
+        <v>1384</v>
+      </c>
+      <c r="U153" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>202</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D154" t="s">
+        <v>997</v>
+      </c>
+      <c r="E154">
+        <v>57</v>
+      </c>
+      <c r="F154">
+        <v>6</v>
+      </c>
+      <c r="G154">
+        <v>620</v>
+      </c>
+      <c r="H154">
+        <v>2009</v>
+      </c>
+      <c r="I154" t="s">
+        <v>1401</v>
+      </c>
+      <c r="J154" t="s">
+        <v>1402</v>
+      </c>
+      <c r="K154" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>622</v>
+      </c>
+      <c r="R154" t="s">
+        <v>1399</v>
+      </c>
+      <c r="S154" t="s">
+        <v>1403</v>
+      </c>
+      <c r="T154" t="s">
+        <v>1404</v>
+      </c>
+      <c r="U154" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>202</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>4</v>
+      </c>
+      <c r="G155">
+        <v>342</v>
+      </c>
+      <c r="H155">
+        <v>1949</v>
+      </c>
+      <c r="I155" t="s">
+        <v>619</v>
+      </c>
+      <c r="J155" t="s">
+        <v>1409</v>
+      </c>
+      <c r="K155" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>622</v>
+      </c>
+      <c r="R155" t="s">
+        <v>1406</v>
+      </c>
+      <c r="S155" t="s">
+        <v>1410</v>
+      </c>
+      <c r="T155" t="s">
+        <v>1411</v>
+      </c>
+      <c r="U155" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>202</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E156">
+        <v>23</v>
+      </c>
+      <c r="F156">
+        <v>18</v>
+      </c>
+      <c r="G156">
+        <v>1237</v>
+      </c>
+      <c r="H156">
+        <v>2003</v>
+      </c>
+      <c r="I156" t="s">
+        <v>263</v>
+      </c>
+      <c r="J156" t="s">
+        <v>684</v>
+      </c>
+      <c r="K156" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>622</v>
+      </c>
+      <c r="R156" t="s">
+        <v>1416</v>
+      </c>
+      <c r="S156" t="s">
+        <v>1417</v>
+      </c>
+      <c r="T156" t="s">
+        <v>1418</v>
+      </c>
+      <c r="U156" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>202</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D157" t="s">
+        <v>995</v>
+      </c>
+      <c r="E157">
+        <v>50</v>
+      </c>
+      <c r="F157">
+        <v>3</v>
+      </c>
+      <c r="G157">
+        <v>425</v>
+      </c>
+      <c r="H157">
+        <v>2019</v>
+      </c>
+      <c r="I157" t="s">
+        <v>370</v>
+      </c>
+      <c r="J157" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K157" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>622</v>
+      </c>
+      <c r="R157" t="s">
+        <v>1420</v>
+      </c>
+      <c r="S157" t="s">
+        <v>1417</v>
+      </c>
+      <c r="T157" t="s">
+        <v>1418</v>
+      </c>
+      <c r="U157" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>202</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D158" t="s">
+        <v>928</v>
+      </c>
+      <c r="E158">
+        <v>100</v>
+      </c>
+      <c r="F158">
+        <v>4</v>
+      </c>
+      <c r="G158">
+        <v>367</v>
+      </c>
+      <c r="H158">
+        <v>2022</v>
+      </c>
+      <c r="I158" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J158" t="s">
+        <v>1427</v>
+      </c>
+      <c r="K158" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>622</v>
+      </c>
+      <c r="R158" t="s">
+        <v>1428</v>
+      </c>
+      <c r="S158" t="s">
+        <v>1429</v>
+      </c>
+      <c r="T158" t="s">
+        <v>1430</v>
+      </c>
+      <c r="U158" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>202</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D159" t="s">
+        <v>262</v>
+      </c>
+      <c r="E159">
+        <v>37</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>229</v>
+      </c>
+      <c r="H159">
+        <v>2009</v>
+      </c>
+      <c r="I159" t="s">
+        <v>1434</v>
+      </c>
+      <c r="J159" t="s">
+        <v>1435</v>
+      </c>
+      <c r="K159" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>622</v>
+      </c>
+      <c r="R159" t="s">
+        <v>1436</v>
+      </c>
+      <c r="S159" t="s">
+        <v>1429</v>
+      </c>
+      <c r="T159" t="s">
+        <v>1430</v>
+      </c>
+      <c r="U159" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>202</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E160">
+        <v>44</v>
+      </c>
+      <c r="F160">
+        <v>6</v>
+      </c>
+      <c r="G160">
+        <v>667</v>
+      </c>
+      <c r="H160">
+        <v>2010</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J160" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K160" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>622</v>
+      </c>
+      <c r="R160" t="s">
+        <v>1442</v>
+      </c>
+      <c r="S160" t="s">
+        <v>1443</v>
+      </c>
+      <c r="T160" t="s">
+        <v>1444</v>
+      </c>
+      <c r="U160" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>202</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E161">
+        <v>39</v>
+      </c>
+      <c r="F161">
+        <v>2</v>
+      </c>
+      <c r="G161">
+        <v>245</v>
+      </c>
+      <c r="H161">
+        <v>2001</v>
+      </c>
+      <c r="I161" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J161" t="s">
+        <v>1450</v>
+      </c>
+      <c r="K161" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>622</v>
+      </c>
+      <c r="R161" t="s">
+        <v>1451</v>
+      </c>
+      <c r="S161" t="s">
+        <v>1452</v>
+      </c>
+      <c r="T161" t="s">
+        <v>1453</v>
+      </c>
+      <c r="U161" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>202</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E162">
+        <v>44</v>
+      </c>
+      <c r="F162">
+        <v>7</v>
+      </c>
+      <c r="G162">
+        <v>1271</v>
+      </c>
+      <c r="H162">
+        <v>2019</v>
+      </c>
+      <c r="I162" t="s">
+        <v>263</v>
+      </c>
+      <c r="J162" t="s">
+        <v>684</v>
+      </c>
+      <c r="K162" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>622</v>
+      </c>
+      <c r="R162" t="s">
+        <v>1458</v>
+      </c>
+      <c r="S162" t="s">
+        <v>1459</v>
+      </c>
+      <c r="T162" t="s">
+        <v>1460</v>
+      </c>
+      <c r="U162" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>703</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E163" t="s">
+        <v>41</v>
+      </c>
+      <c r="G163">
+        <v>147</v>
+      </c>
+      <c r="H163">
+        <v>2010</v>
+      </c>
+      <c r="I163" t="s">
+        <v>920</v>
+      </c>
+      <c r="J163" t="s">
+        <v>684</v>
+      </c>
+      <c r="K163" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>622</v>
+      </c>
+      <c r="R163" t="s">
+        <v>1465</v>
+      </c>
+      <c r="S163" t="s">
+        <v>1466</v>
+      </c>
+      <c r="T163" t="s">
+        <v>1467</v>
+      </c>
+      <c r="U163" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>202</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E164">
+        <v>67</v>
+      </c>
+      <c r="F164">
+        <v>3</v>
+      </c>
+      <c r="G164">
+        <v>134</v>
+      </c>
+      <c r="H164">
+        <v>2021</v>
+      </c>
+      <c r="I164" t="s">
+        <v>263</v>
+      </c>
+      <c r="J164" t="s">
+        <v>684</v>
+      </c>
+      <c r="K164" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>622</v>
+      </c>
+      <c r="R164" t="s">
+        <v>1472</v>
+      </c>
+      <c r="S164" t="s">
+        <v>1473</v>
+      </c>
+      <c r="T164" t="s">
+        <v>1474</v>
+      </c>
+      <c r="U164" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>202</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D165" t="s">
+        <v>844</v>
+      </c>
+      <c r="E165">
+        <v>19</v>
+      </c>
+      <c r="F165">
+        <v>2</v>
+      </c>
+      <c r="G165">
+        <v>173</v>
+      </c>
+      <c r="H165">
+        <v>2004</v>
+      </c>
+      <c r="I165" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J165" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K165" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>622</v>
+      </c>
+      <c r="R165" t="s">
+        <v>1479</v>
+      </c>
+      <c r="S165" t="s">
+        <v>1480</v>
+      </c>
+      <c r="T165" t="s">
+        <v>1481</v>
+      </c>
+      <c r="U165" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>202</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E166">
+        <v>19</v>
+      </c>
+      <c r="F166">
+        <v>2</v>
+      </c>
+      <c r="G166">
+        <v>87</v>
+      </c>
+      <c r="H166">
+        <v>1986</v>
+      </c>
+      <c r="I166" t="s">
+        <v>263</v>
+      </c>
+      <c r="J166" t="s">
+        <v>684</v>
+      </c>
+      <c r="K166" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>622</v>
+      </c>
+      <c r="R166" t="s">
+        <v>1483</v>
+      </c>
+      <c r="S166" t="s">
+        <v>1486</v>
+      </c>
+      <c r="T166" t="s">
+        <v>1487</v>
+      </c>
+      <c r="U166" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>202</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E167" t="s">
+        <v>41</v>
+      </c>
+      <c r="G167">
+        <v>63</v>
+      </c>
+      <c r="H167">
+        <v>1984</v>
+      </c>
+      <c r="I167" t="s">
+        <v>1492</v>
+      </c>
+      <c r="J167" t="s">
+        <v>684</v>
+      </c>
+      <c r="K167" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>622</v>
+      </c>
+      <c r="R167" t="s">
+        <v>1489</v>
+      </c>
+      <c r="S167" t="s">
+        <v>1486</v>
+      </c>
+      <c r="T167" t="s">
+        <v>1487</v>
+      </c>
+      <c r="U167" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>202</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E168">
+        <v>25</v>
+      </c>
+      <c r="F168">
+        <v>2</v>
+      </c>
+      <c r="G168">
+        <v>215</v>
+      </c>
+      <c r="H168">
+        <v>1985</v>
+      </c>
+      <c r="I168" t="s">
+        <v>263</v>
+      </c>
+      <c r="J168" t="s">
+        <v>684</v>
+      </c>
+      <c r="K168" t="s">
+        <v>207</v>
+      </c>
+      <c r="N168" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>622</v>
+      </c>
+      <c r="R168" t="s">
+        <v>1497</v>
+      </c>
+      <c r="S168" t="s">
+        <v>1498</v>
+      </c>
+      <c r="T168" t="s">
+        <v>1487</v>
+      </c>
+      <c r="U168" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>202</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D169" t="s">
+        <v>757</v>
+      </c>
+      <c r="E169">
+        <v>7</v>
+      </c>
+      <c r="H169">
+        <v>2017</v>
+      </c>
+      <c r="I169" t="s">
+        <v>619</v>
+      </c>
+      <c r="J169" t="s">
+        <v>1409</v>
+      </c>
+      <c r="K169" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>622</v>
+      </c>
+      <c r="R169" t="s">
+        <v>1502</v>
+      </c>
+      <c r="S169" t="s">
+        <v>1503</v>
+      </c>
+      <c r="T169" t="s">
+        <v>1504</v>
+      </c>
+      <c r="U169" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>202</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E170">
+        <v>35</v>
+      </c>
+      <c r="F170">
+        <v>7</v>
+      </c>
+      <c r="G170">
+        <v>1022</v>
+      </c>
+      <c r="H170">
+        <v>2012</v>
+      </c>
+      <c r="I170" t="s">
+        <v>1509</v>
+      </c>
+      <c r="J170" t="s">
+        <v>1510</v>
+      </c>
+      <c r="K170" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>622</v>
+      </c>
+      <c r="R170" t="s">
+        <v>1511</v>
+      </c>
+      <c r="S170" t="s">
+        <v>1503</v>
+      </c>
+      <c r="T170" t="s">
+        <v>1504</v>
+      </c>
+      <c r="U170" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>202</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E171">
+        <v>44</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>2014</v>
+      </c>
+      <c r="I171" t="s">
+        <v>1516</v>
+      </c>
+      <c r="J171" t="s">
+        <v>1517</v>
+      </c>
+      <c r="K171" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>622</v>
+      </c>
+      <c r="R171" t="s">
+        <v>1518</v>
+      </c>
+      <c r="S171" t="s">
+        <v>1519</v>
+      </c>
+      <c r="T171" t="s">
+        <v>1520</v>
+      </c>
+      <c r="U171" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>202</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D172" t="s">
+        <v>262</v>
+      </c>
+      <c r="E172">
+        <v>48</v>
+      </c>
+      <c r="F172">
+        <v>3</v>
+      </c>
+      <c r="G172">
+        <v>401</v>
+      </c>
+      <c r="H172">
+        <v>2020</v>
+      </c>
+      <c r="I172" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J172" t="s">
+        <v>1525</v>
+      </c>
+      <c r="K172" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>622</v>
+      </c>
+      <c r="R172" t="s">
+        <v>1526</v>
+      </c>
+      <c r="S172" t="s">
+        <v>1527</v>
+      </c>
+      <c r="T172" t="s">
+        <v>1528</v>
+      </c>
+      <c r="U172" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>202</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E173">
+        <v>90</v>
+      </c>
+      <c r="G173">
+        <v>52</v>
+      </c>
+      <c r="H173">
+        <v>2014</v>
+      </c>
+      <c r="I173" t="s">
+        <v>1533</v>
+      </c>
+      <c r="J173" t="s">
+        <v>1534</v>
+      </c>
+      <c r="K173" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>622</v>
+      </c>
+      <c r="R173" t="s">
+        <v>1535</v>
+      </c>
+      <c r="S173" t="s">
+        <v>1536</v>
+      </c>
+      <c r="T173" t="s">
+        <v>1537</v>
+      </c>
+      <c r="U173" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>202</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E174">
+        <v>16</v>
+      </c>
+      <c r="F174">
+        <v>2</v>
+      </c>
+      <c r="G174">
+        <v>114</v>
+      </c>
+      <c r="H174">
+        <v>1996</v>
+      </c>
+      <c r="I174" t="s">
+        <v>675</v>
+      </c>
+      <c r="J174" t="s">
+        <v>1542</v>
+      </c>
+      <c r="K174" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>622</v>
+      </c>
+      <c r="R174" t="s">
+        <v>1543</v>
+      </c>
+      <c r="S174" t="s">
+        <v>1544</v>
+      </c>
+      <c r="T174" t="s">
+        <v>1545</v>
+      </c>
+      <c r="U174" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>202</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E175">
+        <v>16</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>99</v>
+      </c>
+      <c r="H175">
+        <v>2001</v>
+      </c>
+      <c r="I175" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J175" t="s">
+        <v>1551</v>
+      </c>
+      <c r="K175" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>622</v>
+      </c>
+      <c r="R175" t="s">
+        <v>1552</v>
+      </c>
+      <c r="S175" t="s">
+        <v>1553</v>
+      </c>
+      <c r="T175" t="s">
+        <v>1554</v>
+      </c>
+      <c r="U175" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>202</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E176">
+        <v>10</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>9</v>
+      </c>
+      <c r="H176">
+        <v>2012</v>
+      </c>
+      <c r="I176" t="s">
+        <v>1558</v>
+      </c>
+      <c r="J176" t="s">
+        <v>1559</v>
+      </c>
+      <c r="K176" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>622</v>
+      </c>
+      <c r="R176" t="s">
+        <v>1560</v>
+      </c>
+      <c r="S176" t="s">
+        <v>1561</v>
+      </c>
+      <c r="T176" t="s">
+        <v>1562</v>
+      </c>
+      <c r="U176" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>202</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E177">
+        <v>11</v>
+      </c>
+      <c r="F177">
+        <v>2</v>
+      </c>
+      <c r="H177">
+        <v>2022</v>
+      </c>
+      <c r="I177" t="s">
+        <v>1566</v>
+      </c>
+      <c r="J177" t="s">
+        <v>1567</v>
+      </c>
+      <c r="K177" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>622</v>
+      </c>
+      <c r="R177" t="s">
+        <v>1568</v>
+      </c>
+      <c r="S177" t="s">
+        <v>1569</v>
+      </c>
+      <c r="T177" t="s">
+        <v>1570</v>
+      </c>
+      <c r="U177" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>202</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E178">
+        <v>89</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>74</v>
+      </c>
+      <c r="H178">
+        <v>2014</v>
+      </c>
+      <c r="I178" t="s">
+        <v>320</v>
+      </c>
+      <c r="J178" t="s">
+        <v>728</v>
+      </c>
+      <c r="K178" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>507</v>
+      </c>
+      <c r="R178" t="s">
+        <v>1575</v>
+      </c>
+      <c r="S178" t="s">
+        <v>1576</v>
+      </c>
+      <c r="T178" t="s">
+        <v>1577</v>
+      </c>
+      <c r="U178" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>703</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E179">
+        <v>30</v>
+      </c>
+      <c r="G179">
+        <v>181</v>
+      </c>
+      <c r="H179">
+        <v>1997</v>
+      </c>
+      <c r="I179" t="s">
+        <v>604</v>
+      </c>
+      <c r="J179" t="s">
+        <v>1582</v>
+      </c>
+      <c r="K179" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>507</v>
+      </c>
+      <c r="R179" t="s">
+        <v>1579</v>
+      </c>
+      <c r="S179" t="s">
+        <v>1583</v>
+      </c>
+      <c r="T179" t="s">
+        <v>1584</v>
+      </c>
+      <c r="U179" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>202</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D180" t="s">
+        <v>378</v>
+      </c>
+      <c r="E180">
+        <v>9</v>
+      </c>
+      <c r="F180">
+        <v>3</v>
+      </c>
+      <c r="G180">
+        <v>135</v>
+      </c>
+      <c r="H180">
+        <v>2009</v>
+      </c>
+      <c r="I180" t="s">
+        <v>320</v>
+      </c>
+      <c r="J180" t="s">
+        <v>1588</v>
+      </c>
+      <c r="K180" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>507</v>
+      </c>
+      <c r="R180" t="s">
+        <v>1589</v>
+      </c>
+      <c r="S180" t="s">
+        <v>1583</v>
+      </c>
+      <c r="T180" t="s">
+        <v>1584</v>
+      </c>
+      <c r="U180" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>202</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E181">
+        <v>18</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <v>9</v>
+      </c>
+      <c r="H181">
+        <v>2010</v>
+      </c>
+      <c r="I181" t="s">
+        <v>1594</v>
+      </c>
+      <c r="J181" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K181" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>507</v>
+      </c>
+      <c r="R181" t="s">
+        <v>1596</v>
+      </c>
+      <c r="S181" t="s">
+        <v>1597</v>
+      </c>
+      <c r="T181" t="s">
+        <v>1598</v>
+      </c>
+      <c r="U181" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>202</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E182">
+        <v>31</v>
+      </c>
+      <c r="F182">
+        <v>4</v>
+      </c>
+      <c r="G182">
+        <v>483</v>
+      </c>
+      <c r="H182">
+        <v>2013</v>
+      </c>
+      <c r="I182" t="s">
+        <v>1603</v>
+      </c>
+      <c r="K182" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>507</v>
+      </c>
+      <c r="R182" t="s">
+        <v>1604</v>
+      </c>
+      <c r="S182" t="s">
+        <v>1605</v>
+      </c>
+      <c r="T182" t="s">
+        <v>1606</v>
+      </c>
+      <c r="U182" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>202</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E183">
+        <v>53</v>
+      </c>
+      <c r="F183">
+        <v>3</v>
+      </c>
+      <c r="G183">
+        <v>210</v>
+      </c>
+      <c r="H183">
+        <v>2002</v>
+      </c>
+      <c r="I183" t="s">
+        <v>459</v>
+      </c>
+      <c r="J183" t="s">
+        <v>1611</v>
+      </c>
+      <c r="K183" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>507</v>
+      </c>
+      <c r="R183" t="s">
+        <v>1612</v>
+      </c>
+      <c r="S183" t="s">
+        <v>1613</v>
+      </c>
+      <c r="T183" t="s">
+        <v>1614</v>
+      </c>
+      <c r="U183" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>202</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D184" t="s">
+        <v>999</v>
+      </c>
+      <c r="E184">
+        <v>34</v>
+      </c>
+      <c r="F184">
+        <v>11</v>
+      </c>
+      <c r="G184">
+        <v>2255</v>
+      </c>
+      <c r="H184">
+        <v>2014</v>
+      </c>
+      <c r="I184" t="s">
+        <v>903</v>
+      </c>
+      <c r="J184" t="s">
+        <v>1618</v>
+      </c>
+      <c r="K184" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>507</v>
+      </c>
+      <c r="R184" t="s">
+        <v>1619</v>
+      </c>
+      <c r="S184" t="s">
+        <v>1619</v>
+      </c>
+      <c r="T184" t="s">
+        <v>1620</v>
+      </c>
+      <c r="U184" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>202</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E185">
+        <v>33</v>
+      </c>
+      <c r="F185">
+        <v>2</v>
+      </c>
+      <c r="G185">
+        <v>121</v>
+      </c>
+      <c r="H185">
+        <v>2010</v>
+      </c>
+      <c r="I185" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J185" t="s">
+        <v>684</v>
+      </c>
+      <c r="K185" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>507</v>
+      </c>
+      <c r="R185" t="s">
+        <v>1625</v>
+      </c>
+      <c r="S185" t="s">
+        <v>1626</v>
+      </c>
+      <c r="T185" t="s">
+        <v>1627</v>
+      </c>
+      <c r="U185" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>202</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E186">
+        <v>33</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>54</v>
+      </c>
+      <c r="H186">
+        <v>1988</v>
+      </c>
+      <c r="I186" t="s">
+        <v>1632</v>
+      </c>
+      <c r="J186" t="s">
+        <v>1633</v>
+      </c>
+      <c r="K186" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>507</v>
+      </c>
+      <c r="R186" t="s">
+        <v>1634</v>
+      </c>
+      <c r="S186" t="s">
+        <v>1635</v>
+      </c>
+      <c r="T186" t="s">
+        <v>1636</v>
+      </c>
+      <c r="U186" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>202</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+      <c r="F187">
+        <v>3</v>
+      </c>
+      <c r="G187">
+        <v>179</v>
+      </c>
+      <c r="H187">
+        <v>1994</v>
+      </c>
+      <c r="I187" t="s">
+        <v>1641</v>
+      </c>
+      <c r="J187" t="s">
+        <v>684</v>
+      </c>
+      <c r="K187" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>507</v>
+      </c>
+      <c r="R187" t="s">
+        <v>1642</v>
+      </c>
+      <c r="S187" t="s">
+        <v>1643</v>
+      </c>
+      <c r="T187" t="s">
+        <v>1644</v>
+      </c>
+      <c r="U187" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>202</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E188">
+        <v>8</v>
+      </c>
+      <c r="F188">
+        <v>4</v>
+      </c>
+      <c r="G188">
+        <v>309</v>
+      </c>
+      <c r="H188">
+        <v>1994</v>
+      </c>
+      <c r="I188" t="s">
+        <v>998</v>
+      </c>
+      <c r="K188" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>507</v>
+      </c>
+      <c r="R188" t="s">
+        <v>1649</v>
+      </c>
+      <c r="S188" t="s">
+        <v>1650</v>
+      </c>
+      <c r="T188" t="s">
+        <v>1651</v>
+      </c>
+      <c r="U188" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>202</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D189" t="s">
+        <v>262</v>
+      </c>
+      <c r="E189">
+        <v>31</v>
+      </c>
+      <c r="F189">
+        <v>3</v>
+      </c>
+      <c r="G189">
+        <v>737</v>
+      </c>
+      <c r="H189">
+        <v>2003</v>
+      </c>
+      <c r="I189" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J189" t="s">
+        <v>1656</v>
+      </c>
+      <c r="K189" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>507</v>
+      </c>
+      <c r="R189" t="s">
+        <v>1657</v>
+      </c>
+      <c r="S189" t="s">
+        <v>1658</v>
+      </c>
+      <c r="T189" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U189" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>202</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E190">
+        <v>29</v>
+      </c>
+      <c r="F190">
+        <v>3</v>
+      </c>
+      <c r="G190">
+        <v>339</v>
+      </c>
+      <c r="H190">
+        <v>2016</v>
+      </c>
+      <c r="I190" t="s">
+        <v>1663</v>
+      </c>
+      <c r="J190" t="s">
+        <v>1664</v>
+      </c>
+      <c r="K190" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>507</v>
+      </c>
+      <c r="R190" t="s">
+        <v>1665</v>
+      </c>
+      <c r="S190" t="s">
+        <v>1666</v>
+      </c>
+      <c r="T190" t="s">
+        <v>1667</v>
+      </c>
+      <c r="U190" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>202</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E191">
+        <v>18</v>
+      </c>
+      <c r="F191">
+        <v>2</v>
+      </c>
+      <c r="G191">
+        <v>104</v>
+      </c>
+      <c r="H191">
+        <v>1995</v>
+      </c>
+      <c r="I191" t="s">
+        <v>1672</v>
+      </c>
+      <c r="J191" t="s">
+        <v>684</v>
+      </c>
+      <c r="K191" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>507</v>
+      </c>
+      <c r="R191" t="s">
+        <v>1673</v>
+      </c>
+      <c r="S191" t="s">
+        <v>1674</v>
+      </c>
+      <c r="T191" t="s">
+        <v>1675</v>
+      </c>
+      <c r="U191" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>202</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E192">
+        <v>84</v>
+      </c>
+      <c r="F192">
+        <v>12</v>
+      </c>
+      <c r="G192">
+        <v>2597</v>
+      </c>
+      <c r="H192">
+        <v>2020</v>
+      </c>
+      <c r="I192" t="s">
+        <v>998</v>
+      </c>
+      <c r="K192" t="s">
+        <v>207</v>
+      </c>
+      <c r="P192" t="s">
+        <v>1680</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>507</v>
+      </c>
+      <c r="R192" t="s">
+        <v>1681</v>
+      </c>
+      <c r="S192" t="s">
+        <v>1682</v>
+      </c>
+      <c r="T192" t="s">
+        <v>1683</v>
+      </c>
+      <c r="U192" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>202</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E193">
+        <v>6</v>
+      </c>
+      <c r="F193">
+        <v>45</v>
+      </c>
+      <c r="G193">
+        <v>5669</v>
+      </c>
+      <c r="H193">
+        <v>2012</v>
+      </c>
+      <c r="I193" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J193" t="s">
+        <v>1688</v>
+      </c>
+      <c r="K193" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>507</v>
+      </c>
+      <c r="R193" t="s">
+        <v>1689</v>
+      </c>
+      <c r="S193" t="s">
+        <v>1690</v>
+      </c>
+      <c r="T193" t="s">
+        <v>1691</v>
+      </c>
+      <c r="U193" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>202</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D194" t="s">
+        <v>262</v>
+      </c>
+      <c r="E194">
+        <v>36</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>38</v>
+      </c>
+      <c r="H194">
+        <v>2008</v>
+      </c>
+      <c r="I194" t="s">
+        <v>1695</v>
+      </c>
+      <c r="J194" t="s">
+        <v>1696</v>
+      </c>
+      <c r="K194" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>507</v>
+      </c>
+      <c r="R194" t="s">
+        <v>1697</v>
+      </c>
+      <c r="S194" t="s">
+        <v>1698</v>
+      </c>
+      <c r="T194" t="s">
+        <v>1699</v>
+      </c>
+      <c r="U194" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>202</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E195">
+        <v>48</v>
+      </c>
+      <c r="F195">
+        <v>3</v>
+      </c>
+      <c r="G195">
+        <v>169</v>
+      </c>
+      <c r="H195">
+        <v>2003</v>
+      </c>
+      <c r="I195" t="s">
+        <v>1703</v>
+      </c>
+      <c r="J195" t="s">
+        <v>1704</v>
+      </c>
+      <c r="K195" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>507</v>
+      </c>
+      <c r="R195" t="s">
+        <v>1705</v>
+      </c>
+      <c r="S195" t="s">
+        <v>1705</v>
+      </c>
+      <c r="T195" t="s">
+        <v>1706</v>
+      </c>
+      <c r="U195" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>202</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E196">
+        <v>17</v>
+      </c>
+      <c r="F196">
+        <v>575</v>
+      </c>
+      <c r="G196" t="s">
+        <v>1711</v>
+      </c>
+      <c r="H196">
+        <v>2016</v>
+      </c>
+      <c r="I196" t="s">
+        <v>320</v>
+      </c>
+      <c r="J196" t="s">
+        <v>588</v>
+      </c>
+      <c r="K196" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>507</v>
+      </c>
+      <c r="R196" t="s">
+        <v>1712</v>
+      </c>
+      <c r="S196" t="s">
+        <v>1713</v>
+      </c>
+      <c r="T196" t="s">
+        <v>1714</v>
+      </c>
+      <c r="U196" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>202</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E197">
+        <v>6</v>
+      </c>
+      <c r="F197">
+        <v>2</v>
+      </c>
+      <c r="G197">
+        <v>141</v>
+      </c>
+      <c r="H197">
+        <v>1990</v>
+      </c>
+      <c r="I197" t="s">
+        <v>1719</v>
+      </c>
+      <c r="J197" t="s">
+        <v>1720</v>
+      </c>
+      <c r="K197" t="s">
+        <v>207</v>
+      </c>
+      <c r="P197" t="s">
+        <v>1721</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>507</v>
+      </c>
+      <c r="R197" t="s">
+        <v>1722</v>
+      </c>
+      <c r="S197" t="s">
+        <v>1722</v>
+      </c>
+      <c r="T197" t="s">
+        <v>1723</v>
+      </c>
+      <c r="U197" t="s">
+        <v>1724</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9518,7 +16413,7 @@
   <dimension ref="A1:AP245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AL166" sqref="AL166:AN245"/>
     </sheetView>
   </sheetViews>
@@ -31883,255 +38778,393 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="K1:M30"/>
+  <dimension ref="A19:O79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M30"/>
+    <sheetView topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39:I231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K1">
-        <v>5.7750000000000004</v>
-      </c>
-      <c r="M1">
-        <v>6.0960000000000001</v>
-      </c>
-    </row>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K2">
-        <v>6.05</v>
-      </c>
-      <c r="M2">
-        <v>6.3710000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K3">
-        <v>7.5620000000000003</v>
-      </c>
-      <c r="M3">
-        <v>8.0210000000000008</v>
-      </c>
-    </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K4">
-        <v>6.0039999999999996</v>
-      </c>
-      <c r="M4">
-        <v>6.7370000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K5">
-        <v>6.508</v>
-      </c>
-      <c r="M5">
-        <v>7.0119999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K6">
-        <v>10.542</v>
-      </c>
-      <c r="M6">
-        <v>13.887</v>
-      </c>
-    </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K7">
-        <v>7.7</v>
-      </c>
-      <c r="M7">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="8" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K8">
-        <v>9.2579999999999991</v>
-      </c>
-      <c r="M8">
-        <v>10.221</v>
-      </c>
-    </row>
-    <row r="9" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K9">
-        <v>7.6539999999999999</v>
-      </c>
-      <c r="M9">
-        <v>9.8539999999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K10">
-        <v>7.0119999999999996</v>
-      </c>
-      <c r="M10">
-        <v>8.0210000000000008</v>
-      </c>
-    </row>
-    <row r="11" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K11">
-        <v>6.9210000000000003</v>
-      </c>
-      <c r="M11">
-        <v>7.6079999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K12">
-        <v>7.242</v>
-      </c>
-      <c r="M12">
-        <v>7.9290000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K13">
-        <v>8.3420000000000005</v>
-      </c>
-      <c r="M13">
-        <v>8.3870000000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K14">
-        <v>6.508</v>
-      </c>
-      <c r="M14">
-        <v>7.5620000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K15">
-        <v>8.0210000000000008</v>
-      </c>
-      <c r="M15">
-        <v>8.4329999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K16">
-        <v>8.5709999999999997</v>
-      </c>
-      <c r="M16">
-        <v>8.6620000000000008</v>
-      </c>
-    </row>
-    <row r="17" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K17">
-        <v>8.8919999999999995</v>
-      </c>
-      <c r="M17">
-        <v>11.641999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K18">
-        <v>9.4420000000000002</v>
-      </c>
-      <c r="M18">
-        <v>10.129</v>
-      </c>
-    </row>
-    <row r="19" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K19">
-        <v>7.7460000000000004</v>
-      </c>
-      <c r="M19">
-        <v>8.3420000000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K20">
-        <v>10.266999999999999</v>
-      </c>
-      <c r="M20">
-        <v>10.45</v>
-      </c>
-    </row>
-    <row r="21" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K21">
-        <v>7.9290000000000003</v>
-      </c>
-      <c r="M21">
-        <v>8.3420000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K22">
-        <v>10.358000000000001</v>
-      </c>
-      <c r="M22">
-        <v>10.954000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K23">
-        <v>10.221</v>
-      </c>
-      <c r="M23">
-        <v>12.558</v>
-      </c>
-    </row>
-    <row r="24" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K24">
-        <v>12.603999999999999</v>
-      </c>
-      <c r="M24">
-        <v>14.667</v>
-      </c>
-    </row>
-    <row r="25" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K25">
-        <v>13.933</v>
-      </c>
-      <c r="M25">
-        <v>14.667</v>
-      </c>
-    </row>
-    <row r="26" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K26">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="M26">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="27" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K27">
-        <v>8.6620000000000008</v>
-      </c>
-      <c r="M27">
-        <v>9.4420000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K28">
-        <v>9.4420000000000002</v>
-      </c>
-      <c r="M28">
-        <v>10.542</v>
-      </c>
-    </row>
-    <row r="29" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K29">
-        <v>9.5790000000000006</v>
-      </c>
-      <c r="M29">
-        <v>12.007999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K30">
-        <v>11.092000000000001</v>
-      </c>
-      <c r="M30">
-        <v>13.108000000000001</v>
-      </c>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F79" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toluamuwo/Documents/WL2022/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24EB25C-E652-D640-A30C-25B91E317FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33200" yWindow="700" windowWidth="31760" windowHeight="20180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -18,12 +17,20 @@
     <sheet name="data_detailed" sheetId="1" r:id="rId3"/>
     <sheet name="scratch" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6715" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6722" uniqueCount="1228">
   <si>
     <t>datasetID</t>
   </si>
@@ -3712,7 +3719,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4595,7 +4602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView topLeftCell="A59" workbookViewId="0">
@@ -4613,7 +4620,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>79</v>
       </c>
@@ -4627,7 +4634,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -4635,7 +4642,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>82</v>
       </c>
@@ -4643,7 +4650,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>84</v>
       </c>
@@ -4651,7 +4658,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>86</v>
       </c>
@@ -4659,7 +4666,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>88</v>
       </c>
@@ -4667,7 +4674,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>90</v>
       </c>
@@ -4675,7 +4682,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>92</v>
       </c>
@@ -4683,7 +4690,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>94</v>
       </c>
@@ -4691,7 +4698,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>96</v>
       </c>
@@ -4699,7 +4706,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>98</v>
       </c>
@@ -4707,7 +4714,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>100</v>
       </c>
@@ -4715,7 +4722,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>102</v>
       </c>
@@ -4723,7 +4730,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>104</v>
       </c>
@@ -4731,7 +4738,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>106</v>
       </c>
@@ -4801,7 +4808,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
@@ -4809,7 +4816,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
@@ -4817,7 +4824,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>2</v>
       </c>
@@ -4825,7 +4832,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>3</v>
       </c>
@@ -4833,7 +4840,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
@@ -4841,7 +4848,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
@@ -4849,7 +4856,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>1212</v>
       </c>
@@ -4857,7 +4864,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -4865,7 +4872,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>7</v>
       </c>
@@ -4873,7 +4880,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>135</v>
       </c>
@@ -4881,7 +4888,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>136</v>
       </c>
@@ -4889,7 +4896,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>133</v>
       </c>
@@ -4897,7 +4904,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>11</v>
       </c>
@@ -4905,7 +4912,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>12</v>
       </c>
@@ -4913,7 +4920,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>13</v>
       </c>
@@ -4921,7 +4928,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>165</v>
       </c>
@@ -4929,7 +4936,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>166</v>
       </c>
@@ -4937,7 +4944,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>163</v>
       </c>
@@ -4945,7 +4952,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>162</v>
       </c>
@@ -4953,7 +4960,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>140</v>
       </c>
@@ -4961,7 +4968,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>15</v>
       </c>
@@ -4969,7 +4976,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>16</v>
       </c>
@@ -4977,7 +4984,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>17</v>
       </c>
@@ -4985,7 +4992,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>18</v>
       </c>
@@ -4993,7 +5000,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>19</v>
       </c>
@@ -5001,7 +5008,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>20</v>
       </c>
@@ -5009,7 +5016,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>21</v>
       </c>
@@ -5017,7 +5024,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>148</v>
       </c>
@@ -5025,7 +5032,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>23</v>
       </c>
@@ -5033,7 +5040,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>24</v>
       </c>
@@ -5041,7 +5048,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>25</v>
       </c>
@@ -5049,7 +5056,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>26</v>
       </c>
@@ -5057,7 +5064,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>27</v>
       </c>
@@ -5065,7 +5072,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>28</v>
       </c>
@@ -5073,7 +5080,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>29</v>
       </c>
@@ -5081,7 +5088,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>30</v>
       </c>
@@ -5089,7 +5096,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>157</v>
       </c>
@@ -5097,7 +5104,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>31</v>
       </c>
@@ -5105,7 +5112,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>32</v>
       </c>
@@ -5113,7 +5120,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>33</v>
       </c>
@@ -5121,7 +5128,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>34</v>
       </c>
@@ -5129,7 +5136,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>35</v>
       </c>
@@ -5153,11 +5160,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D44" workbookViewId="0">
-      <selection activeCell="V74" sqref="V74"/>
+    <sheetView tabSelected="1" topLeftCell="E60" workbookViewId="0">
+      <selection activeCell="U89" sqref="U89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8710,8 +8717,11 @@
       <c r="R80" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S80" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>197</v>
       </c>
@@ -8751,8 +8761,11 @@
       <c r="R81" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S81" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>487</v>
       </c>
@@ -8786,8 +8799,11 @@
       <c r="R82" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S82" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>197</v>
       </c>
@@ -8827,8 +8843,11 @@
       <c r="R83" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S83" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>197</v>
       </c>
@@ -8868,8 +8887,11 @@
       <c r="R84" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S84" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>487</v>
       </c>
@@ -8903,8 +8925,11 @@
       <c r="R85" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S85" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>487</v>
       </c>
@@ -8938,8 +8963,11 @@
       <c r="R86" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S86" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>197</v>
       </c>
@@ -8974,7 +9002,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>197</v>
       </c>
@@ -9012,7 +9040,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>197</v>
       </c>
@@ -9053,7 +9081,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>197</v>
       </c>
@@ -9094,7 +9122,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>197</v>
       </c>
@@ -9138,7 +9166,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>197</v>
       </c>
@@ -9182,7 +9210,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>197</v>
       </c>
@@ -9223,7 +9251,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>197</v>
       </c>
@@ -9258,7 +9286,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>197</v>
       </c>
@@ -9299,7 +9327,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>197</v>
       </c>
@@ -13389,7 +13417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ245"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="56" workbookViewId="0">
@@ -35760,7 +35788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A19:O79"/>
   <sheetViews>
     <sheetView topLeftCell="A210" workbookViewId="0">

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3443355C-AF36-4E4C-8A7D-99252FBDA50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50525B43-C97B-A342-8EC7-D8CA37591FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37120" yWindow="2900" windowWidth="35360" windowHeight="16020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37120" yWindow="2900" windowWidth="35360" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6605" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6606" uniqueCount="1227">
   <si>
     <t>datasetID</t>
   </si>
@@ -3646,9 +3646,6 @@
     <t>SC</t>
   </si>
   <si>
-    <t>treatment duration (days)</t>
-  </si>
-  <si>
     <t>duration of chilling or stratification (days)</t>
   </si>
   <si>
@@ -3704,6 +3701,9 @@
   </si>
   <si>
     <t>seed.mass.given</t>
+  </si>
+  <si>
+    <t>duration for which a chemical treatment was applied (days)</t>
   </si>
 </sst>
 </file>
@@ -4608,8 +4608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4992,7 +4992,7 @@
         <v>17</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -5040,7 +5040,7 @@
         <v>23</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>1207</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -5085,10 +5085,10 @@
     </row>
     <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -5149,10 +5149,10 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B70" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -5168,7 +5168,7 @@
         <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
   </sheetData>
@@ -5190,7 +5190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="V74" sqref="V74"/>
     </sheetView>
   </sheetViews>
@@ -7795,7 +7795,7 @@
         <v>193</v>
       </c>
       <c r="P58" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="Q58" t="s">
         <v>476</v>
@@ -8024,7 +8024,7 @@
         <v>193</v>
       </c>
       <c r="P63" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="Q63" t="s">
         <v>362</v>
@@ -8150,7 +8150,7 @@
         <v>193</v>
       </c>
       <c r="P66" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Q66" t="s">
         <v>362</v>
@@ -8194,7 +8194,7 @@
         <v>193</v>
       </c>
       <c r="P67" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Q67" t="s">
         <v>362</v>
@@ -8238,7 +8238,7 @@
         <v>193</v>
       </c>
       <c r="P68" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="Q68" t="s">
         <v>281</v>
@@ -9163,7 +9163,7 @@
         <v>193</v>
       </c>
       <c r="P91" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Q91" t="s">
         <v>362</v>
@@ -9207,7 +9207,7 @@
         <v>193</v>
       </c>
       <c r="P92" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="Q92" t="s">
         <v>362</v>
@@ -9529,7 +9529,7 @@
         <v>193</v>
       </c>
       <c r="P100" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="Q100" t="s">
         <v>362</v>
@@ -10688,7 +10688,7 @@
         <v>193</v>
       </c>
       <c r="P129" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="Q129" t="s">
         <v>399</v>
@@ -11288,7 +11288,7 @@
         <v>193</v>
       </c>
       <c r="P144" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="Q144" t="s">
         <v>281</v>
@@ -11440,7 +11440,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="Q148" t="s">
         <v>476</v>
@@ -11689,7 +11689,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="Q154" t="s">
         <v>476</v>
@@ -11897,7 +11897,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Q159" t="s">
         <v>476</v>
@@ -12260,7 +12260,7 @@
         <v>193</v>
       </c>
       <c r="P168" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="Q168" t="s">
         <v>476</v>
@@ -12623,7 +12623,7 @@
         <v>193</v>
       </c>
       <c r="P177" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Q177" t="s">
         <v>399</v>
@@ -12705,7 +12705,7 @@
         <v>193</v>
       </c>
       <c r="P179" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="Q179" t="s">
         <v>399</v>
@@ -12787,7 +12787,7 @@
         <v>193</v>
       </c>
       <c r="P181" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="Q181" t="s">
         <v>399</v>
@@ -12831,7 +12831,7 @@
         <v>193</v>
       </c>
       <c r="P182" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="Q182" t="s">
         <v>399</v>
@@ -13364,7 +13364,7 @@
         <v>193</v>
       </c>
       <c r="P195" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="Q195" t="s">
         <v>399</v>
@@ -13426,9 +13426,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS267"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="U1" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI7" sqref="AI7"/>
+      <selection pane="bottomLeft" activeCell="AT10" sqref="AT10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13437,7 +13437,7 @@
     <col min="35" max="35" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>15</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="W1" s="13" t="s">
         <v>17</v>
@@ -13541,7 +13541,7 @@
         <v>28</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AJ1" s="13" t="s">
         <v>29</v>
@@ -13565,13 +13565,16 @@
         <v>34</v>
       </c>
       <c r="AQ1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AR1" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AS1" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -13615,7 +13618,7 @@
         <v>159</v>
       </c>
       <c r="T2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U2" t="s">
         <v>45</v>
@@ -13672,7 +13675,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -13716,7 +13719,7 @@
         <v>159</v>
       </c>
       <c r="T3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U3" t="s">
         <v>45</v>
@@ -13773,7 +13776,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -13817,7 +13820,7 @@
         <v>159</v>
       </c>
       <c r="T4" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U4" t="s">
         <v>45</v>
@@ -13874,7 +13877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -13918,7 +13921,7 @@
         <v>159</v>
       </c>
       <c r="T5" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U5" t="s">
         <v>45</v>
@@ -13975,7 +13978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -14019,7 +14022,7 @@
         <v>159</v>
       </c>
       <c r="T6" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U6" t="s">
         <v>45</v>
@@ -14076,7 +14079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -14120,7 +14123,7 @@
         <v>159</v>
       </c>
       <c r="T7" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U7" t="s">
         <v>45</v>
@@ -14177,7 +14180,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -14221,7 +14224,7 @@
         <v>159</v>
       </c>
       <c r="T8" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U8" t="s">
         <v>45</v>
@@ -14278,7 +14281,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -14322,7 +14325,7 @@
         <v>159</v>
       </c>
       <c r="T9" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U9" t="s">
         <v>45</v>
@@ -14379,7 +14382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -14423,7 +14426,7 @@
         <v>159</v>
       </c>
       <c r="T10" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U10" t="s">
         <v>53</v>
@@ -14483,7 +14486,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -14527,7 +14530,7 @@
         <v>159</v>
       </c>
       <c r="T11" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U11" t="s">
         <v>53</v>
@@ -14587,7 +14590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -14631,7 +14634,7 @@
         <v>159</v>
       </c>
       <c r="T12" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U12" t="s">
         <v>53</v>
@@ -14691,7 +14694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -14735,7 +14738,7 @@
         <v>159</v>
       </c>
       <c r="T13" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U13" t="s">
         <v>53</v>
@@ -14795,7 +14798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -14839,7 +14842,7 @@
         <v>159</v>
       </c>
       <c r="T14" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U14" t="s">
         <v>53</v>
@@ -14899,7 +14902,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -14943,7 +14946,7 @@
         <v>159</v>
       </c>
       <c r="T15" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U15" t="s">
         <v>53</v>
@@ -15003,7 +15006,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -15047,7 +15050,7 @@
         <v>159</v>
       </c>
       <c r="T16" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U16" t="s">
         <v>53</v>
@@ -15151,7 +15154,7 @@
         <v>159</v>
       </c>
       <c r="T17" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U17" t="s">
         <v>53</v>
@@ -15255,7 +15258,7 @@
         <v>159</v>
       </c>
       <c r="T18" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U18" t="s">
         <v>54</v>
@@ -15359,7 +15362,7 @@
         <v>159</v>
       </c>
       <c r="T19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U19" t="s">
         <v>54</v>
@@ -15463,7 +15466,7 @@
         <v>159</v>
       </c>
       <c r="T20" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U20" t="s">
         <v>54</v>
@@ -15567,7 +15570,7 @@
         <v>159</v>
       </c>
       <c r="T21" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U21" t="s">
         <v>54</v>
@@ -15671,7 +15674,7 @@
         <v>159</v>
       </c>
       <c r="T22" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U22" t="s">
         <v>54</v>
@@ -15775,7 +15778,7 @@
         <v>159</v>
       </c>
       <c r="T23" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U23" t="s">
         <v>54</v>
@@ -15879,7 +15882,7 @@
         <v>159</v>
       </c>
       <c r="T24" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U24" t="s">
         <v>54</v>
@@ -15983,7 +15986,7 @@
         <v>159</v>
       </c>
       <c r="T25" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U25" t="s">
         <v>54</v>
@@ -16087,7 +16090,7 @@
         <v>159</v>
       </c>
       <c r="T26" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U26" t="s">
         <v>55</v>
@@ -16191,7 +16194,7 @@
         <v>159</v>
       </c>
       <c r="T27" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U27" t="s">
         <v>55</v>
@@ -16295,7 +16298,7 @@
         <v>159</v>
       </c>
       <c r="T28" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U28" t="s">
         <v>55</v>
@@ -16399,7 +16402,7 @@
         <v>159</v>
       </c>
       <c r="T29" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U29" t="s">
         <v>55</v>
@@ -16503,7 +16506,7 @@
         <v>159</v>
       </c>
       <c r="T30" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U30" t="s">
         <v>55</v>
@@ -16607,7 +16610,7 @@
         <v>159</v>
       </c>
       <c r="T31" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U31" t="s">
         <v>55</v>
@@ -16711,7 +16714,7 @@
         <v>159</v>
       </c>
       <c r="T32" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U32" t="s">
         <v>55</v>
@@ -16815,7 +16818,7 @@
         <v>159</v>
       </c>
       <c r="T33" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U33" t="s">
         <v>55</v>
@@ -16919,7 +16922,7 @@
         <v>159</v>
       </c>
       <c r="T34" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U34" t="s">
         <v>56</v>
@@ -17026,7 +17029,7 @@
         <v>30</v>
       </c>
       <c r="T35" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U35" t="s">
         <v>56</v>
@@ -17127,13 +17130,13 @@
         <v>0.6</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U36" t="s">
         <v>63</v>
       </c>
       <c r="V36" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W36">
         <v>4</v>
@@ -17219,7 +17222,7 @@
         <v>0.6</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U37" t="s">
         <v>51</v>
@@ -17314,7 +17317,7 @@
         <v>0.6</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U38" t="s">
         <v>62</v>
@@ -17406,7 +17409,7 @@
         <v>0.6</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U39" t="s">
         <v>24</v>
@@ -17498,7 +17501,7 @@
         <v>0.6</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U40" t="s">
         <v>64</v>
@@ -17587,13 +17590,13 @@
         <v>0.6</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U41" t="s">
         <v>63</v>
       </c>
       <c r="V41" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W41">
         <v>4</v>
@@ -17676,7 +17679,7 @@
         <v>0.6</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U42" t="s">
         <v>51</v>
@@ -17768,7 +17771,7 @@
         <v>0.6</v>
       </c>
       <c r="T43" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U43" t="s">
         <v>62</v>
@@ -17860,7 +17863,7 @@
         <v>0.6</v>
       </c>
       <c r="T44" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U44" t="s">
         <v>24</v>
@@ -17952,7 +17955,7 @@
         <v>0.6</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U45" t="s">
         <v>64</v>
@@ -18041,13 +18044,13 @@
         <v>0.6</v>
       </c>
       <c r="T46" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U46" t="s">
         <v>63</v>
       </c>
       <c r="V46" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W46">
         <v>4</v>
@@ -18130,7 +18133,7 @@
         <v>0.6</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U47" t="s">
         <v>51</v>
@@ -18222,7 +18225,7 @@
         <v>0.6</v>
       </c>
       <c r="T48" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U48" t="s">
         <v>62</v>
@@ -18314,7 +18317,7 @@
         <v>0.6</v>
       </c>
       <c r="T49" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U49" t="s">
         <v>24</v>
@@ -18406,7 +18409,7 @@
         <v>0.6</v>
       </c>
       <c r="T50" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U50" t="s">
         <v>64</v>
@@ -18495,13 +18498,13 @@
         <v>0.6</v>
       </c>
       <c r="T51" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U51" t="s">
         <v>63</v>
       </c>
       <c r="V51" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W51">
         <v>4</v>
@@ -18584,7 +18587,7 @@
         <v>0.6</v>
       </c>
       <c r="T52" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U52" t="s">
         <v>51</v>
@@ -18676,7 +18679,7 @@
         <v>0.6</v>
       </c>
       <c r="T53" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U53" t="s">
         <v>62</v>
@@ -18768,7 +18771,7 @@
         <v>0.6</v>
       </c>
       <c r="T54" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U54" t="s">
         <v>24</v>
@@ -18860,7 +18863,7 @@
         <v>0.6</v>
       </c>
       <c r="T55" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U55" t="s">
         <v>64</v>
@@ -18949,13 +18952,13 @@
         <v>0.6</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U56" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V56" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W56" s="2">
         <v>4</v>
@@ -19044,7 +19047,7 @@
         <v>0.6</v>
       </c>
       <c r="T57" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U57" s="2" t="s">
         <v>51</v>
@@ -19141,7 +19144,7 @@
         <v>0.6</v>
       </c>
       <c r="T58" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U58" s="2" t="s">
         <v>62</v>
@@ -19238,7 +19241,7 @@
         <v>0.6</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U59" s="2" t="s">
         <v>24</v>
@@ -19335,7 +19338,7 @@
         <v>0.6</v>
       </c>
       <c r="T60" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U60" s="2" t="s">
         <v>64</v>
@@ -19430,13 +19433,13 @@
         <v>0.6</v>
       </c>
       <c r="T61" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U61" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V61" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W61" s="2">
         <v>4</v>
@@ -19525,7 +19528,7 @@
         <v>0.6</v>
       </c>
       <c r="T62" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U62" s="2" t="s">
         <v>51</v>
@@ -19622,7 +19625,7 @@
         <v>0.6</v>
       </c>
       <c r="T63" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U63" s="2" t="s">
         <v>62</v>
@@ -19719,7 +19722,7 @@
         <v>0.6</v>
       </c>
       <c r="T64" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U64" s="2" t="s">
         <v>24</v>
@@ -19816,7 +19819,7 @@
         <v>0.6</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U65" s="2" t="s">
         <v>64</v>
@@ -19911,13 +19914,13 @@
         <v>0.6</v>
       </c>
       <c r="T66" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U66" t="s">
         <v>63</v>
       </c>
       <c r="V66" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W66">
         <v>4</v>
@@ -20000,7 +20003,7 @@
         <v>0.6</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U67" t="s">
         <v>51</v>
@@ -20092,7 +20095,7 @@
         <v>0.6</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U68" t="s">
         <v>62</v>
@@ -20184,7 +20187,7 @@
         <v>0.6</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U69" t="s">
         <v>24</v>
@@ -20276,7 +20279,7 @@
         <v>0.6</v>
       </c>
       <c r="T70" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U70" t="s">
         <v>64</v>
@@ -20365,13 +20368,13 @@
         <v>0.6</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U71" t="s">
         <v>63</v>
       </c>
       <c r="V71" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W71">
         <v>4</v>
@@ -20454,7 +20457,7 @@
         <v>0.6</v>
       </c>
       <c r="T72" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U72" t="s">
         <v>51</v>
@@ -20546,7 +20549,7 @@
         <v>0.6</v>
       </c>
       <c r="T73" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U73" t="s">
         <v>62</v>
@@ -20638,7 +20641,7 @@
         <v>0.6</v>
       </c>
       <c r="T74" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U74" t="s">
         <v>24</v>
@@ -20730,7 +20733,7 @@
         <v>0.6</v>
       </c>
       <c r="T75" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U75" t="s">
         <v>64</v>
@@ -20819,13 +20822,13 @@
         <v>0.6</v>
       </c>
       <c r="T76" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U76" t="s">
         <v>63</v>
       </c>
       <c r="V76" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W76">
         <v>4</v>
@@ -20908,7 +20911,7 @@
         <v>0.6</v>
       </c>
       <c r="T77" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U77" t="s">
         <v>51</v>
@@ -21000,7 +21003,7 @@
         <v>0.6</v>
       </c>
       <c r="T78" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U78" t="s">
         <v>62</v>
@@ -21092,7 +21095,7 @@
         <v>0.6</v>
       </c>
       <c r="T79" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U79" t="s">
         <v>24</v>
@@ -21184,7 +21187,7 @@
         <v>0.6</v>
       </c>
       <c r="T80" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U80" t="s">
         <v>64</v>
@@ -21273,13 +21276,13 @@
         <v>0.6</v>
       </c>
       <c r="T81" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U81" t="s">
         <v>63</v>
       </c>
       <c r="V81" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W81">
         <v>4</v>
@@ -21362,7 +21365,7 @@
         <v>0.6</v>
       </c>
       <c r="T82" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U82" t="s">
         <v>51</v>
@@ -21454,7 +21457,7 @@
         <v>0.6</v>
       </c>
       <c r="T83" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U83" t="s">
         <v>62</v>
@@ -21546,7 +21549,7 @@
         <v>0.6</v>
       </c>
       <c r="T84" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U84" t="s">
         <v>24</v>
@@ -21638,7 +21641,7 @@
         <v>0.6</v>
       </c>
       <c r="T85" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U85" t="s">
         <v>64</v>
@@ -21727,13 +21730,13 @@
         <v>0.6</v>
       </c>
       <c r="T86" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U86" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V86" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W86" s="2">
         <v>4</v>
@@ -21822,7 +21825,7 @@
         <v>0.6</v>
       </c>
       <c r="T87" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U87" s="2" t="s">
         <v>51</v>
@@ -21919,7 +21922,7 @@
         <v>0.6</v>
       </c>
       <c r="T88" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U88" s="2" t="s">
         <v>62</v>
@@ -22016,7 +22019,7 @@
         <v>0.6</v>
       </c>
       <c r="T89" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U89" s="2" t="s">
         <v>24</v>
@@ -22113,7 +22116,7 @@
         <v>0.6</v>
       </c>
       <c r="T90" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U90" s="2" t="s">
         <v>64</v>
@@ -22208,13 +22211,13 @@
         <v>0.6</v>
       </c>
       <c r="T91" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U91" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V91" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W91" s="2">
         <v>4</v>
@@ -22303,7 +22306,7 @@
         <v>0.6</v>
       </c>
       <c r="T92" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U92" s="2" t="s">
         <v>51</v>
@@ -22399,7 +22402,7 @@
         <v>0.6</v>
       </c>
       <c r="T93" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U93" s="2" t="s">
         <v>62</v>
@@ -22496,7 +22499,7 @@
         <v>0.6</v>
       </c>
       <c r="T94" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U94" s="2" t="s">
         <v>24</v>
@@ -22592,7 +22595,7 @@
         <v>0.6</v>
       </c>
       <c r="T95" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U95" s="2" t="s">
         <v>64</v>
@@ -22686,13 +22689,13 @@
         <v>0.6</v>
       </c>
       <c r="T96" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U96" t="s">
         <v>63</v>
       </c>
       <c r="V96" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W96">
         <v>4</v>
@@ -22776,7 +22779,7 @@
         <v>0.6</v>
       </c>
       <c r="T97" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U97" t="s">
         <v>51</v>
@@ -22869,7 +22872,7 @@
         <v>0.6</v>
       </c>
       <c r="T98" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U98" t="s">
         <v>62</v>
@@ -22961,7 +22964,7 @@
         <v>0.6</v>
       </c>
       <c r="T99" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U99" t="s">
         <v>24</v>
@@ -23054,7 +23057,7 @@
         <v>0.6</v>
       </c>
       <c r="T100" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U100" t="s">
         <v>64</v>
@@ -23144,13 +23147,13 @@
         <v>0.6</v>
       </c>
       <c r="T101" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U101" t="s">
         <v>63</v>
       </c>
       <c r="V101" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W101">
         <v>4</v>
@@ -23234,7 +23237,7 @@
         <v>0.6</v>
       </c>
       <c r="T102" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U102" t="s">
         <v>51</v>
@@ -23327,7 +23330,7 @@
         <v>0.6</v>
       </c>
       <c r="T103" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U103" t="s">
         <v>62</v>
@@ -23419,7 +23422,7 @@
         <v>0.6</v>
       </c>
       <c r="T104" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U104" t="s">
         <v>24</v>
@@ -23512,7 +23515,7 @@
         <v>0.6</v>
       </c>
       <c r="T105" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U105" t="s">
         <v>64</v>
@@ -23602,13 +23605,13 @@
         <v>0.6</v>
       </c>
       <c r="T106" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U106" t="s">
         <v>63</v>
       </c>
       <c r="V106" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W106">
         <v>4</v>
@@ -23691,7 +23694,7 @@
         <v>0.6</v>
       </c>
       <c r="T107" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U107" t="s">
         <v>51</v>
@@ -23783,7 +23786,7 @@
         <v>0.6</v>
       </c>
       <c r="T108" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U108" t="s">
         <v>62</v>
@@ -23875,7 +23878,7 @@
         <v>0.6</v>
       </c>
       <c r="T109" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U109" t="s">
         <v>24</v>
@@ -23967,7 +23970,7 @@
         <v>0.6</v>
       </c>
       <c r="T110" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U110" t="s">
         <v>64</v>
@@ -24056,13 +24059,13 @@
         <v>0.6</v>
       </c>
       <c r="T111" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U111" t="s">
         <v>63</v>
       </c>
       <c r="V111" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W111">
         <v>4</v>
@@ -24145,7 +24148,7 @@
         <v>0.6</v>
       </c>
       <c r="T112" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U112" t="s">
         <v>51</v>
@@ -24237,7 +24240,7 @@
         <v>0.6</v>
       </c>
       <c r="T113" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U113" t="s">
         <v>62</v>
@@ -24329,7 +24332,7 @@
         <v>0.6</v>
       </c>
       <c r="T114" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U114" t="s">
         <v>24</v>
@@ -24421,7 +24424,7 @@
         <v>0.6</v>
       </c>
       <c r="T115" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U115" t="s">
         <v>64</v>
@@ -24510,13 +24513,13 @@
         <v>0.6</v>
       </c>
       <c r="T116" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U116" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V116" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W116" s="2">
         <v>4</v>
@@ -24604,7 +24607,7 @@
         <v>0.6</v>
       </c>
       <c r="T117" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U117" s="2" t="s">
         <v>51</v>
@@ -24700,7 +24703,7 @@
         <v>0.6</v>
       </c>
       <c r="T118" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U118" s="2" t="s">
         <v>62</v>
@@ -24797,7 +24800,7 @@
         <v>0.6</v>
       </c>
       <c r="T119" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U119" s="2" t="s">
         <v>24</v>
@@ -24893,7 +24896,7 @@
         <v>0.6</v>
       </c>
       <c r="T120" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U120" s="2" t="s">
         <v>64</v>
@@ -24987,13 +24990,13 @@
         <v>0.6</v>
       </c>
       <c r="T121" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U121" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V121" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W121" s="2">
         <v>4</v>
@@ -25081,7 +25084,7 @@
         <v>0.6</v>
       </c>
       <c r="T122" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U122" s="2" t="s">
         <v>51</v>
@@ -25177,7 +25180,7 @@
         <v>0.6</v>
       </c>
       <c r="T123" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U123" s="2" t="s">
         <v>62</v>
@@ -25274,7 +25277,7 @@
         <v>0.6</v>
       </c>
       <c r="T124" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U124" s="2" t="s">
         <v>24</v>
@@ -25370,7 +25373,7 @@
         <v>0.6</v>
       </c>
       <c r="T125" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U125" s="2" t="s">
         <v>64</v>
@@ -25464,13 +25467,13 @@
         <v>0.6</v>
       </c>
       <c r="T126" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U126" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V126" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X126">
         <v>25</v>
@@ -25548,13 +25551,13 @@
         <v>0.6</v>
       </c>
       <c r="T127" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U127" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V127" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X127">
         <v>25</v>
@@ -25634,13 +25637,13 @@
         <v>0.6</v>
       </c>
       <c r="T128" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U128" s="2" t="s">
         <v>62</v>
       </c>
       <c r="V128" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X128">
         <v>25</v>
@@ -25720,13 +25723,13 @@
         <v>0.6</v>
       </c>
       <c r="T129" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U129" s="2" t="s">
         <v>24</v>
       </c>
       <c r="V129" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X129">
         <v>25</v>
@@ -25806,13 +25809,13 @@
         <v>0.6</v>
       </c>
       <c r="T130" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U130" s="2" t="s">
         <v>64</v>
       </c>
       <c r="V130" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X130">
         <v>25</v>
@@ -25889,13 +25892,13 @@
         <v>0.6</v>
       </c>
       <c r="T131" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U131" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V131" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X131">
         <v>25</v>
@@ -25973,13 +25976,13 @@
         <v>0.6</v>
       </c>
       <c r="T132" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U132" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V132" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X132">
         <v>25</v>
@@ -26060,13 +26063,13 @@
         <v>0.6</v>
       </c>
       <c r="T133" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U133" s="2" t="s">
         <v>62</v>
       </c>
       <c r="V133" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X133">
         <v>25</v>
@@ -26146,13 +26149,13 @@
         <v>0.6</v>
       </c>
       <c r="T134" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U134" s="2" t="s">
         <v>24</v>
       </c>
       <c r="V134" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X134">
         <v>25</v>
@@ -26233,13 +26236,13 @@
         <v>0.6</v>
       </c>
       <c r="T135" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U135" s="2" t="s">
         <v>64</v>
       </c>
       <c r="V135" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X135">
         <v>25</v>
@@ -26317,13 +26320,13 @@
         <v>0.6</v>
       </c>
       <c r="T136" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U136" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V136" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X136">
         <v>30</v>
@@ -26401,13 +26404,13 @@
         <v>0.6</v>
       </c>
       <c r="T137" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U137" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V137" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X137">
         <v>30</v>
@@ -26488,13 +26491,13 @@
         <v>0.6</v>
       </c>
       <c r="T138" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U138" s="2" t="s">
         <v>62</v>
       </c>
       <c r="V138" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X138">
         <v>30</v>
@@ -26574,13 +26577,13 @@
         <v>0.6</v>
       </c>
       <c r="T139" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U139" s="2" t="s">
         <v>24</v>
       </c>
       <c r="V139" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X139">
         <v>30</v>
@@ -26661,13 +26664,13 @@
         <v>0.6</v>
       </c>
       <c r="T140" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U140" s="2" t="s">
         <v>64</v>
       </c>
       <c r="V140" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X140">
         <v>30</v>
@@ -26745,13 +26748,13 @@
         <v>0.6</v>
       </c>
       <c r="T141" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U141" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V141" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X141">
         <v>30</v>
@@ -26828,13 +26831,13 @@
         <v>0.6</v>
       </c>
       <c r="T142" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U142" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V142" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X142">
         <v>30</v>
@@ -26914,13 +26917,13 @@
         <v>0.6</v>
       </c>
       <c r="T143" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U143" s="2" t="s">
         <v>62</v>
       </c>
       <c r="V143" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X143">
         <v>30</v>
@@ -27000,13 +27003,13 @@
         <v>0.6</v>
       </c>
       <c r="T144" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U144" s="2" t="s">
         <v>24</v>
       </c>
       <c r="V144" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X144">
         <v>30</v>
@@ -27086,13 +27089,13 @@
         <v>0.6</v>
       </c>
       <c r="T145" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U145" s="2" t="s">
         <v>64</v>
       </c>
       <c r="V145" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X145">
         <v>30</v>
@@ -27169,13 +27172,13 @@
         <v>0.6</v>
       </c>
       <c r="T146" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U146" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V146" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X146">
         <v>35</v>
@@ -27256,13 +27259,13 @@
         <v>0.6</v>
       </c>
       <c r="T147" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U147" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V147" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X147">
         <v>35</v>
@@ -27345,13 +27348,13 @@
         <v>0.6</v>
       </c>
       <c r="T148" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U148" s="2" t="s">
         <v>62</v>
       </c>
       <c r="V148" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X148">
         <v>35</v>
@@ -27435,13 +27438,13 @@
         <v>0.6</v>
       </c>
       <c r="T149" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U149" s="2" t="s">
         <v>24</v>
       </c>
       <c r="V149" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X149">
         <v>35</v>
@@ -27524,13 +27527,13 @@
         <v>0.6</v>
       </c>
       <c r="T150" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U150" s="2" t="s">
         <v>64</v>
       </c>
       <c r="V150" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X150">
         <v>35</v>
@@ -27611,13 +27614,13 @@
         <v>0.6</v>
       </c>
       <c r="T151" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U151" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V151" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X151">
         <v>35</v>
@@ -27698,13 +27701,13 @@
         <v>0.6</v>
       </c>
       <c r="T152" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U152" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V152" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X152">
         <v>35</v>
@@ -27787,13 +27790,13 @@
         <v>0.6</v>
       </c>
       <c r="T153" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U153" s="2" t="s">
         <v>62</v>
       </c>
       <c r="V153" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X153">
         <v>35</v>
@@ -27877,13 +27880,13 @@
         <v>0.6</v>
       </c>
       <c r="T154" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U154" s="2" t="s">
         <v>24</v>
       </c>
       <c r="V154" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X154">
         <v>35</v>
@@ -27966,13 +27969,13 @@
         <v>0.6</v>
       </c>
       <c r="T155" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U155" s="2" t="s">
         <v>64</v>
       </c>
       <c r="V155" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X155">
         <v>35</v>
@@ -28053,13 +28056,13 @@
         <v>0.6</v>
       </c>
       <c r="T156" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U156" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V156" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W156" s="2">
         <v>4</v>
@@ -28140,7 +28143,7 @@
         <v>0.6</v>
       </c>
       <c r="T157" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U157" s="2" t="s">
         <v>51</v>
@@ -28230,7 +28233,7 @@
         <v>0.6</v>
       </c>
       <c r="T158" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U158" s="2" t="s">
         <v>62</v>
@@ -28320,7 +28323,7 @@
         <v>0.6</v>
       </c>
       <c r="T159" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U159" s="2" t="s">
         <v>24</v>
@@ -28410,7 +28413,7 @@
         <v>0.6</v>
       </c>
       <c r="T160" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U160" s="2" t="s">
         <v>64</v>
@@ -28497,13 +28500,13 @@
         <v>0.6</v>
       </c>
       <c r="T161" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U161" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V161" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W161" s="2">
         <v>4</v>
@@ -28585,7 +28588,7 @@
         <v>0.6</v>
       </c>
       <c r="T162" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U162" s="2" t="s">
         <v>51</v>
@@ -28675,7 +28678,7 @@
         <v>0.6</v>
       </c>
       <c r="T163" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U163" s="2" t="s">
         <v>62</v>
@@ -28765,7 +28768,7 @@
         <v>0.6</v>
       </c>
       <c r="T164" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U164" s="2" t="s">
         <v>24</v>
@@ -28855,7 +28858,7 @@
         <v>0.6</v>
       </c>
       <c r="T165" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U165" s="2" t="s">
         <v>64</v>
@@ -28942,13 +28945,13 @@
         <v>0.6</v>
       </c>
       <c r="T166" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U166" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V166" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X166">
         <v>25</v>
@@ -29026,13 +29029,13 @@
         <v>0.6</v>
       </c>
       <c r="T167" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U167" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V167" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X167">
         <v>25</v>
@@ -29113,13 +29116,13 @@
         <v>0.6</v>
       </c>
       <c r="T168" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U168" s="2" t="s">
         <v>62</v>
       </c>
       <c r="V168" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X168">
         <v>25</v>
@@ -29199,13 +29202,13 @@
         <v>0.6</v>
       </c>
       <c r="T169" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U169" s="2" t="s">
         <v>24</v>
       </c>
       <c r="V169" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X169">
         <v>25</v>
@@ -29286,13 +29289,13 @@
         <v>0.6</v>
       </c>
       <c r="T170" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U170" s="2" t="s">
         <v>64</v>
       </c>
       <c r="V170" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X170">
         <v>25</v>
@@ -29370,13 +29373,13 @@
         <v>0.6</v>
       </c>
       <c r="T171" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U171" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V171" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X171">
         <v>25</v>
@@ -29454,13 +29457,13 @@
         <v>0.6</v>
       </c>
       <c r="T172" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U172" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V172" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X172">
         <v>25</v>
@@ -29541,13 +29544,13 @@
         <v>0.6</v>
       </c>
       <c r="T173" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U173" s="2" t="s">
         <v>62</v>
       </c>
       <c r="V173" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X173">
         <v>25</v>
@@ -29627,13 +29630,13 @@
         <v>0.6</v>
       </c>
       <c r="T174" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U174" s="2" t="s">
         <v>24</v>
       </c>
       <c r="V174" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X174">
         <v>25</v>
@@ -29714,13 +29717,13 @@
         <v>0.6</v>
       </c>
       <c r="T175" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U175" s="2" t="s">
         <v>64</v>
       </c>
       <c r="V175" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X175">
         <v>25</v>
@@ -29798,13 +29801,13 @@
         <v>0.6</v>
       </c>
       <c r="T176" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U176" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V176" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X176">
         <v>30</v>
@@ -29881,13 +29884,13 @@
         <v>0.6</v>
       </c>
       <c r="T177" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U177" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V177" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X177">
         <v>30</v>
@@ -29967,13 +29970,13 @@
         <v>0.6</v>
       </c>
       <c r="T178" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U178" s="2" t="s">
         <v>62</v>
       </c>
       <c r="V178" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X178">
         <v>30</v>
@@ -30053,13 +30056,13 @@
         <v>0.6</v>
       </c>
       <c r="T179" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U179" s="2" t="s">
         <v>24</v>
       </c>
       <c r="V179" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X179">
         <v>30</v>
@@ -30139,13 +30142,13 @@
         <v>0.6</v>
       </c>
       <c r="T180" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U180" s="2" t="s">
         <v>64</v>
       </c>
       <c r="V180" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X180">
         <v>30</v>
@@ -30222,13 +30225,13 @@
         <v>0.6</v>
       </c>
       <c r="T181" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U181" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V181" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X181">
         <v>30</v>
@@ -30305,13 +30308,13 @@
         <v>0.6</v>
       </c>
       <c r="T182" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U182" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V182" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X182">
         <v>30</v>
@@ -30391,13 +30394,13 @@
         <v>0.6</v>
       </c>
       <c r="T183" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U183" s="2" t="s">
         <v>62</v>
       </c>
       <c r="V183" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X183">
         <v>30</v>
@@ -30477,13 +30480,13 @@
         <v>0.6</v>
       </c>
       <c r="T184" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U184" s="2" t="s">
         <v>24</v>
       </c>
       <c r="V184" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X184">
         <v>30</v>
@@ -30563,13 +30566,13 @@
         <v>0.6</v>
       </c>
       <c r="T185" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U185" s="2" t="s">
         <v>64</v>
       </c>
       <c r="V185" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X185">
         <v>30</v>
@@ -30646,13 +30649,13 @@
         <v>0.6</v>
       </c>
       <c r="T186" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U186" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V186" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X186">
         <v>35</v>
@@ -30733,13 +30736,13 @@
         <v>0.6</v>
       </c>
       <c r="T187" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U187" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V187" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X187">
         <v>35</v>
@@ -30822,13 +30825,13 @@
         <v>0.6</v>
       </c>
       <c r="T188" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U188" s="2" t="s">
         <v>62</v>
       </c>
       <c r="V188" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X188">
         <v>35</v>
@@ -30912,13 +30915,13 @@
         <v>0.6</v>
       </c>
       <c r="T189" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U189" s="2" t="s">
         <v>24</v>
       </c>
       <c r="V189" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X189">
         <v>35</v>
@@ -31001,13 +31004,13 @@
         <v>0.6</v>
       </c>
       <c r="T190" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U190" s="2" t="s">
         <v>64</v>
       </c>
       <c r="V190" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X190">
         <v>35</v>
@@ -31088,13 +31091,13 @@
         <v>0.6</v>
       </c>
       <c r="T191" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U191" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V191" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X191">
         <v>35</v>
@@ -31175,13 +31178,13 @@
         <v>0.6</v>
       </c>
       <c r="T192" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U192" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V192" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X192">
         <v>35</v>
@@ -31264,13 +31267,13 @@
         <v>0.6</v>
       </c>
       <c r="T193" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U193" s="2" t="s">
         <v>62</v>
       </c>
       <c r="V193" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X193">
         <v>35</v>
@@ -31354,13 +31357,13 @@
         <v>0.6</v>
       </c>
       <c r="T194" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U194" s="2" t="s">
         <v>24</v>
       </c>
       <c r="V194" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X194">
         <v>35</v>
@@ -31443,13 +31446,13 @@
         <v>0.6</v>
       </c>
       <c r="T195" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U195" s="2" t="s">
         <v>64</v>
       </c>
       <c r="V195" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X195">
         <v>35</v>
@@ -31530,13 +31533,13 @@
         <v>0.6</v>
       </c>
       <c r="T196" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U196" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V196" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W196" s="2">
         <v>4</v>
@@ -31618,7 +31621,7 @@
         <v>0.6</v>
       </c>
       <c r="T197" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U197" s="2" t="s">
         <v>51</v>
@@ -31708,7 +31711,7 @@
         <v>0.6</v>
       </c>
       <c r="T198" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U198" s="2" t="s">
         <v>62</v>
@@ -31798,7 +31801,7 @@
         <v>0.6</v>
       </c>
       <c r="T199" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U199" s="2" t="s">
         <v>24</v>
@@ -31888,7 +31891,7 @@
         <v>0.6</v>
       </c>
       <c r="T200" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U200" s="2" t="s">
         <v>64</v>
@@ -31975,13 +31978,13 @@
         <v>0.6</v>
       </c>
       <c r="T201" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U201" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V201" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W201" s="2">
         <v>4</v>
@@ -32063,7 +32066,7 @@
         <v>0.6</v>
       </c>
       <c r="T202" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U202" s="2" t="s">
         <v>51</v>
@@ -32154,7 +32157,7 @@
         <v>0.6</v>
       </c>
       <c r="T203" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U203" s="2" t="s">
         <v>62</v>
@@ -32244,7 +32247,7 @@
         <v>0.6</v>
       </c>
       <c r="T204" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U204" s="2" t="s">
         <v>24</v>
@@ -32335,7 +32338,7 @@
         <v>0.6</v>
       </c>
       <c r="T205" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U205" s="2" t="s">
         <v>64</v>
@@ -32423,13 +32426,13 @@
         <v>0.6</v>
       </c>
       <c r="T206" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U206" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V206" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X206">
         <v>25</v>
@@ -32507,13 +32510,13 @@
         <v>0.6</v>
       </c>
       <c r="T207" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U207" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V207" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X207">
         <v>25</v>
@@ -32594,13 +32597,13 @@
         <v>0.6</v>
       </c>
       <c r="T208" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U208" s="2" t="s">
         <v>62</v>
       </c>
       <c r="V208" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X208">
         <v>25</v>
@@ -32680,13 +32683,13 @@
         <v>0.6</v>
       </c>
       <c r="T209" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U209" s="2" t="s">
         <v>24</v>
       </c>
       <c r="V209" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X209">
         <v>25</v>
@@ -32767,13 +32770,13 @@
         <v>0.6</v>
       </c>
       <c r="T210" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U210" s="2" t="s">
         <v>64</v>
       </c>
       <c r="V210" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X210">
         <v>25</v>
@@ -32851,13 +32854,13 @@
         <v>0.6</v>
       </c>
       <c r="T211" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U211" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V211" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X211">
         <v>25</v>
@@ -32934,13 +32937,13 @@
         <v>0.6</v>
       </c>
       <c r="T212" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U212" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V212" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X212">
         <v>25</v>
@@ -33020,13 +33023,13 @@
         <v>0.6</v>
       </c>
       <c r="T213" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U213" s="2" t="s">
         <v>62</v>
       </c>
       <c r="V213" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X213">
         <v>25</v>
@@ -33106,13 +33109,13 @@
         <v>0.6</v>
       </c>
       <c r="T214" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U214" s="2" t="s">
         <v>24</v>
       </c>
       <c r="V214" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X214">
         <v>25</v>
@@ -33192,13 +33195,13 @@
         <v>0.6</v>
       </c>
       <c r="T215" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U215" s="2" t="s">
         <v>64</v>
       </c>
       <c r="V215" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X215">
         <v>25</v>
@@ -33275,13 +33278,13 @@
         <v>0.6</v>
       </c>
       <c r="T216" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U216" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V216" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X216">
         <v>30</v>
@@ -33358,13 +33361,13 @@
         <v>0.6</v>
       </c>
       <c r="T217" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U217" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V217" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X217">
         <v>30</v>
@@ -33444,13 +33447,13 @@
         <v>0.6</v>
       </c>
       <c r="T218" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U218" s="2" t="s">
         <v>62</v>
       </c>
       <c r="V218" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X218">
         <v>30</v>
@@ -33530,13 +33533,13 @@
         <v>0.6</v>
       </c>
       <c r="T219" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U219" s="2" t="s">
         <v>24</v>
       </c>
       <c r="V219" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X219">
         <v>30</v>
@@ -33616,13 +33619,13 @@
         <v>0.6</v>
       </c>
       <c r="T220" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U220" s="2" t="s">
         <v>64</v>
       </c>
       <c r="V220" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X220">
         <v>30</v>
@@ -33699,13 +33702,13 @@
         <v>0.6</v>
       </c>
       <c r="T221" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U221" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V221" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X221">
         <v>30</v>
@@ -33782,13 +33785,13 @@
         <v>0.6</v>
       </c>
       <c r="T222" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U222" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V222" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X222">
         <v>30</v>
@@ -33868,13 +33871,13 @@
         <v>0.6</v>
       </c>
       <c r="T223" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U223" s="2" t="s">
         <v>62</v>
       </c>
       <c r="V223" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X223">
         <v>30</v>
@@ -33954,13 +33957,13 @@
         <v>0.6</v>
       </c>
       <c r="T224" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U224" s="2" t="s">
         <v>24</v>
       </c>
       <c r="V224" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X224">
         <v>30</v>
@@ -34040,13 +34043,13 @@
         <v>0.6</v>
       </c>
       <c r="T225" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U225" s="2" t="s">
         <v>64</v>
       </c>
       <c r="V225" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X225">
         <v>30</v>
@@ -34123,13 +34126,13 @@
         <v>0.6</v>
       </c>
       <c r="T226" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U226" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V226" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X226">
         <v>35</v>
@@ -34210,13 +34213,13 @@
         <v>0.6</v>
       </c>
       <c r="T227" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U227" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V227" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X227">
         <v>35</v>
@@ -34299,13 +34302,13 @@
         <v>0.6</v>
       </c>
       <c r="T228" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U228" s="2" t="s">
         <v>62</v>
       </c>
       <c r="V228" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X228">
         <v>35</v>
@@ -34389,13 +34392,13 @@
         <v>0.6</v>
       </c>
       <c r="T229" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U229" s="2" t="s">
         <v>24</v>
       </c>
       <c r="V229" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X229">
         <v>35</v>
@@ -34478,13 +34481,13 @@
         <v>0.6</v>
       </c>
       <c r="T230" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U230" s="2" t="s">
         <v>64</v>
       </c>
       <c r="V230" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X230">
         <v>35</v>
@@ -34565,13 +34568,13 @@
         <v>0.6</v>
       </c>
       <c r="T231" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U231" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V231" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X231">
         <v>35</v>
@@ -34653,13 +34656,13 @@
         <v>0.6</v>
       </c>
       <c r="T232" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U232" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V232" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X232">
         <v>35</v>
@@ -34742,13 +34745,13 @@
         <v>0.6</v>
       </c>
       <c r="T233" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U233" s="2" t="s">
         <v>62</v>
       </c>
       <c r="V233" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X233">
         <v>35</v>
@@ -34832,13 +34835,13 @@
         <v>0.6</v>
       </c>
       <c r="T234" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U234" s="2" t="s">
         <v>24</v>
       </c>
       <c r="V234" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X234">
         <v>35</v>
@@ -34921,13 +34924,13 @@
         <v>0.6</v>
       </c>
       <c r="T235" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U235" s="2" t="s">
         <v>64</v>
       </c>
       <c r="V235" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="X235">
         <v>35</v>
@@ -35008,13 +35011,13 @@
         <v>0.6</v>
       </c>
       <c r="T236" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U236" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V236" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W236" s="2">
         <v>4</v>
@@ -35096,7 +35099,7 @@
         <v>0.6</v>
       </c>
       <c r="T237" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U237" s="2" t="s">
         <v>51</v>
@@ -35187,7 +35190,7 @@
         <v>0.6</v>
       </c>
       <c r="T238" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U238" s="2" t="s">
         <v>62</v>
@@ -35277,7 +35280,7 @@
         <v>0.6</v>
       </c>
       <c r="T239" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U239" s="2" t="s">
         <v>24</v>
@@ -35368,7 +35371,7 @@
         <v>0.6</v>
       </c>
       <c r="T240" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U240" s="2" t="s">
         <v>64</v>
@@ -35456,13 +35459,13 @@
         <v>0.6</v>
       </c>
       <c r="T241" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U241" s="2" t="s">
         <v>63</v>
       </c>
       <c r="V241" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W241" s="2">
         <v>4</v>
@@ -35544,7 +35547,7 @@
         <v>0.6</v>
       </c>
       <c r="T242" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U242" s="2" t="s">
         <v>51</v>
@@ -35635,7 +35638,7 @@
         <v>0.6</v>
       </c>
       <c r="T243" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U243" s="2" t="s">
         <v>62</v>
@@ -35725,7 +35728,7 @@
         <v>0.6</v>
       </c>
       <c r="T244" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U244" s="2" t="s">
         <v>24</v>
@@ -35816,7 +35819,7 @@
         <v>0.6</v>
       </c>
       <c r="T245" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U245" s="2" t="s">
         <v>64</v>
@@ -35882,7 +35885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A19:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I39" sqref="I39:I231"/>
     </sheetView>
   </sheetViews>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50525B43-C97B-A342-8EC7-D8CA37591FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6811E572-E361-D748-A2D0-B6C5E852B524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37120" yWindow="2900" windowWidth="35360" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38200" yWindow="-700" windowWidth="37000" windowHeight="20640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6606" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6693" uniqueCount="1228">
   <si>
     <t>datasetID</t>
   </si>
@@ -3688,9 +3688,6 @@
     <t>18-20</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>The zero point germination is measured relative to - "end cold strat" - other options include "unknown", "start emergence, X days after end cold strat", "other, end of treatment X"</t>
   </si>
   <si>
@@ -3704,6 +3701,12 @@
   </si>
   <si>
     <t>duration for which a chemical treatment was applied (days)</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>AZ</t>
   </si>
 </sst>
 </file>
@@ -4608,8 +4611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5040,7 +5043,7 @@
         <v>23</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -5085,10 +5088,10 @@
     </row>
     <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -5152,7 +5155,7 @@
         <v>1218</v>
       </c>
       <c r="B70" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -5168,7 +5171,7 @@
         <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
   </sheetData>
@@ -5190,8 +5193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V74" sqref="V74"/>
+    <sheetView tabSelected="1" topLeftCell="B54" workbookViewId="0">
+      <selection activeCell="B84" sqref="A84:XFD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8744,8 +8747,11 @@
       <c r="R80" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S80" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>188</v>
       </c>
@@ -8785,8 +8791,11 @@
       <c r="R81" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S81" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>478</v>
       </c>
@@ -8820,8 +8829,11 @@
       <c r="R82" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S82" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>188</v>
       </c>
@@ -8861,8 +8873,11 @@
       <c r="R83" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S83" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>188</v>
       </c>
@@ -8902,8 +8917,11 @@
       <c r="R84" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S84" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>478</v>
       </c>
@@ -8938,7 +8956,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>478</v>
       </c>
@@ -8973,7 +8991,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>188</v>
       </c>
@@ -9008,7 +9026,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>188</v>
       </c>
@@ -9046,7 +9064,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>188</v>
       </c>
@@ -9087,7 +9105,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>188</v>
       </c>
@@ -9128,7 +9146,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>188</v>
       </c>
@@ -9172,7 +9190,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>188</v>
       </c>
@@ -9216,7 +9234,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>188</v>
       </c>
@@ -9257,7 +9275,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>188</v>
       </c>
@@ -9292,7 +9310,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -9333,7 +9351,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>188</v>
       </c>
@@ -13426,9 +13444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS267"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AT10" sqref="AT10"/>
+    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z251" sqref="Z251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13502,7 +13520,7 @@
         <v>15</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>1221</v>
+        <v>16</v>
       </c>
       <c r="W1" s="13" t="s">
         <v>17</v>
@@ -13541,7 +13559,7 @@
         <v>28</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AJ1" s="13" t="s">
         <v>29</v>
@@ -13623,6 +13641,12 @@
       <c r="U2" t="s">
         <v>45</v>
       </c>
+      <c r="V2" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
       <c r="X2">
         <v>20</v>
       </c>
@@ -13724,6 +13748,12 @@
       <c r="U3" t="s">
         <v>45</v>
       </c>
+      <c r="V3" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
       <c r="X3">
         <v>20</v>
       </c>
@@ -13825,6 +13855,12 @@
       <c r="U4" t="s">
         <v>45</v>
       </c>
+      <c r="V4" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
       <c r="X4">
         <v>20</v>
       </c>
@@ -13926,6 +13962,12 @@
       <c r="U5" t="s">
         <v>45</v>
       </c>
+      <c r="V5" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
       <c r="X5">
         <v>20</v>
       </c>
@@ -14027,6 +14069,12 @@
       <c r="U6" t="s">
         <v>45</v>
       </c>
+      <c r="V6" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
       <c r="X6">
         <v>20</v>
       </c>
@@ -14128,6 +14176,12 @@
       <c r="U7" t="s">
         <v>45</v>
       </c>
+      <c r="V7" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
       <c r="X7">
         <v>20</v>
       </c>
@@ -14229,6 +14283,12 @@
       <c r="U8" t="s">
         <v>45</v>
       </c>
+      <c r="V8" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
       <c r="X8">
         <v>20</v>
       </c>
@@ -14329,6 +14389,12 @@
       </c>
       <c r="U9" t="s">
         <v>45</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
       </c>
       <c r="X9">
         <v>20</v>
@@ -35867,6 +35933,351 @@
       </c>
       <c r="AR245" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="246" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>36</v>
+      </c>
+      <c r="B246" t="s">
+        <v>37</v>
+      </c>
+      <c r="C246" t="s">
+        <v>38</v>
+      </c>
+      <c r="D246" t="s">
+        <v>39</v>
+      </c>
+      <c r="E246" t="s">
+        <v>40</v>
+      </c>
+      <c r="F246" t="s">
+        <v>41</v>
+      </c>
+      <c r="G246" t="s">
+        <v>42</v>
+      </c>
+      <c r="I246" t="s">
+        <v>43</v>
+      </c>
+      <c r="L246">
+        <v>2203</v>
+      </c>
+      <c r="M246" t="s">
+        <v>44</v>
+      </c>
+      <c r="N246">
+        <v>50</v>
+      </c>
+      <c r="O246">
+        <v>2009</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>156</v>
+      </c>
+      <c r="R246">
+        <v>30</v>
+      </c>
+      <c r="T246" t="s">
+        <v>1220</v>
+      </c>
+      <c r="U246" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V246" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AA246" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB246">
+        <v>0</v>
+      </c>
+      <c r="AJ246" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK246">
+        <v>0</v>
+      </c>
+      <c r="AP246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>36</v>
+      </c>
+      <c r="B247" t="s">
+        <v>37</v>
+      </c>
+      <c r="C247" t="s">
+        <v>38</v>
+      </c>
+      <c r="D247" t="s">
+        <v>39</v>
+      </c>
+      <c r="E247" t="s">
+        <v>40</v>
+      </c>
+      <c r="F247" t="s">
+        <v>41</v>
+      </c>
+      <c r="G247" t="s">
+        <v>42</v>
+      </c>
+      <c r="I247" t="s">
+        <v>43</v>
+      </c>
+      <c r="L247">
+        <v>2203</v>
+      </c>
+      <c r="M247" t="s">
+        <v>44</v>
+      </c>
+      <c r="N247">
+        <v>50</v>
+      </c>
+      <c r="O247">
+        <v>2009</v>
+      </c>
+      <c r="Q247" t="s">
+        <v>156</v>
+      </c>
+      <c r="R247">
+        <v>30</v>
+      </c>
+      <c r="T247" t="s">
+        <v>1220</v>
+      </c>
+      <c r="U247" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V247" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AA247" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>36</v>
+      </c>
+      <c r="B248" t="s">
+        <v>37</v>
+      </c>
+      <c r="C248" t="s">
+        <v>38</v>
+      </c>
+      <c r="D248" t="s">
+        <v>39</v>
+      </c>
+      <c r="E248" t="s">
+        <v>40</v>
+      </c>
+      <c r="F248" t="s">
+        <v>41</v>
+      </c>
+      <c r="G248" t="s">
+        <v>42</v>
+      </c>
+      <c r="I248" t="s">
+        <v>43</v>
+      </c>
+      <c r="L248">
+        <v>2203</v>
+      </c>
+      <c r="M248" t="s">
+        <v>44</v>
+      </c>
+      <c r="N248">
+        <v>50</v>
+      </c>
+      <c r="O248">
+        <v>2009</v>
+      </c>
+      <c r="Q248" t="s">
+        <v>156</v>
+      </c>
+      <c r="R248">
+        <v>30</v>
+      </c>
+      <c r="T248" t="s">
+        <v>1220</v>
+      </c>
+      <c r="U248" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V248" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AA248" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>36</v>
+      </c>
+      <c r="B249" t="s">
+        <v>37</v>
+      </c>
+      <c r="C249" t="s">
+        <v>38</v>
+      </c>
+      <c r="D249" t="s">
+        <v>39</v>
+      </c>
+      <c r="E249" t="s">
+        <v>40</v>
+      </c>
+      <c r="F249" t="s">
+        <v>41</v>
+      </c>
+      <c r="G249" t="s">
+        <v>42</v>
+      </c>
+      <c r="I249" t="s">
+        <v>43</v>
+      </c>
+      <c r="L249">
+        <v>2203</v>
+      </c>
+      <c r="M249" t="s">
+        <v>44</v>
+      </c>
+      <c r="N249">
+        <v>50</v>
+      </c>
+      <c r="O249">
+        <v>2009</v>
+      </c>
+      <c r="Q249" t="s">
+        <v>156</v>
+      </c>
+      <c r="R249">
+        <v>30</v>
+      </c>
+      <c r="T249" t="s">
+        <v>1220</v>
+      </c>
+      <c r="U249" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V249" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AA249" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>36</v>
+      </c>
+      <c r="B250" t="s">
+        <v>37</v>
+      </c>
+      <c r="C250" t="s">
+        <v>38</v>
+      </c>
+      <c r="D250" t="s">
+        <v>39</v>
+      </c>
+      <c r="E250" t="s">
+        <v>40</v>
+      </c>
+      <c r="F250" t="s">
+        <v>41</v>
+      </c>
+      <c r="G250" t="s">
+        <v>42</v>
+      </c>
+      <c r="I250" t="s">
+        <v>43</v>
+      </c>
+      <c r="L250">
+        <v>2203</v>
+      </c>
+      <c r="M250" t="s">
+        <v>44</v>
+      </c>
+      <c r="N250">
+        <v>50</v>
+      </c>
+      <c r="O250">
+        <v>2009</v>
+      </c>
+      <c r="Q250" t="s">
+        <v>156</v>
+      </c>
+      <c r="R250">
+        <v>30</v>
+      </c>
+      <c r="T250" t="s">
+        <v>1220</v>
+      </c>
+      <c r="U250" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V250" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AA250" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="V251" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W251">
+        <v>0</v>
+      </c>
+      <c r="X251">
+        <v>5</v>
+      </c>
+      <c r="Z251">
+        <v>0</v>
+      </c>
+      <c r="AF251" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG251" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN251">
+        <v>4</v>
+      </c>
+      <c r="AO251">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="252" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="X252">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="X253">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="X254">
+        <v>20</v>
       </c>
     </row>
     <row r="266" spans="29:29" x14ac:dyDescent="0.2">

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08A1C8B-E84D-414F-BA7A-4B052FC78281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AAE430-5641-374C-981B-1943A6CCA18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4400" windowWidth="28800" windowHeight="16160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9731" uniqueCount="2648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9842" uniqueCount="2648">
   <si>
     <t>datasetID</t>
   </si>
@@ -8122,7 +8122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8308,8 +8308,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -8424,6 +8430,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8469,7 +8503,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8494,6 +8528,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9453,8 +9490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T492"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="C223" workbookViewId="0">
+      <selection activeCell="U176" sqref="U19:U176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9465,2563 +9502,2848 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="16" t="s">
         <v>795</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="16" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="G2">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="16">
         <v>1961</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P2" t="s">
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="16" t="s">
         <v>267</v>
       </c>
+      <c r="T2" s="16" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="16" t="s">
         <v>797</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="16" t="s">
         <v>798</v>
       </c>
-      <c r="G3">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16">
         <v>18</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="16">
         <v>1958</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="16" t="s">
         <v>799</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="16" t="s">
         <v>800</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P3" t="s">
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="16" t="s">
         <v>801</v>
       </c>
+      <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="16" t="s">
         <v>802</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="16" t="s">
         <v>803</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="16" t="s">
         <v>804</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="16">
         <v>67</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="16">
         <v>6</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="16">
         <v>1577</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="16">
         <v>2020</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="16" t="s">
         <v>805</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="O4" t="s">
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="16" t="s">
         <v>806</v>
       </c>
+      <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="16">
         <v>53</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="16">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="16">
         <v>69</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="16">
         <v>2013</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="O5" t="s">
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R5" t="s">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="16" t="s">
         <v>807</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="16" t="s">
         <v>808</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="16" t="s">
         <v>809</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="16">
         <v>14</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="16">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="16">
         <v>199</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="16">
         <v>2000</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="16" t="s">
         <v>739</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="N6" t="s">
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="P6" t="s">
+      <c r="O6" s="16"/>
+      <c r="P6" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R6" t="s">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="16" t="s">
         <v>810</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="16" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="16">
         <v>50</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="16">
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="16">
         <v>33</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="16">
         <v>2004</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="N7" t="s">
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="P7" t="s">
+      <c r="O7" s="16"/>
+      <c r="P7" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R7" t="s">
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="16" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="16">
         <v>7</v>
       </c>
-      <c r="G8">
+      <c r="F8" s="16"/>
+      <c r="G8" s="16">
         <v>108</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="16">
         <v>2017</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="N8" t="s">
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="P8" t="s">
+      <c r="O8" s="16"/>
+      <c r="P8" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R8" t="s">
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="16" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="16">
         <v>20</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="16">
         <v>27</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="16">
         <v>2009</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="O9" t="s">
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R9" t="s">
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="16" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="16">
         <v>38</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="16">
         <v>332</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="16">
         <v>2010</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="N10" t="s">
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="P10" t="s">
+      <c r="O10" s="16"/>
+      <c r="P10" s="16" t="s">
         <v>811</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="16" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="16" t="s">
         <v>812</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="16" t="s">
         <v>813</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="16" t="s">
         <v>814</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="16">
         <v>147</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="16">
         <v>2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="16">
         <v>172</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="16">
         <v>2020</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="16" t="s">
         <v>815</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="16" t="s">
         <v>816</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P11" t="s">
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R11" t="s">
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="16" t="s">
         <v>817</v>
       </c>
+      <c r="T11" s="16"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="16">
         <v>33</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="16">
         <v>1</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="16">
         <v>39</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="16">
         <v>1996</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P12" t="s">
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R12" t="s">
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" s="16" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="16">
         <v>21</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="16">
         <v>2002</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P13" t="s">
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R13" t="s">
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T13" s="16" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="16">
         <v>18</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="16">
         <v>3</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="16">
         <v>97</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="16">
         <v>2018</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="N14" t="s">
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="P14" t="s">
+      <c r="O14" s="16"/>
+      <c r="P14" s="16" t="s">
         <v>818</v>
       </c>
-      <c r="R14" t="s">
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T14" s="16" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="16" t="s">
         <v>819</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="16" t="s">
         <v>820</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="16">
         <v>10</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="16" t="s">
         <v>821</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="16">
         <v>289</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="16">
         <v>2006</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="N15" t="s">
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16" t="s">
         <v>822</v>
       </c>
-      <c r="P15" t="s">
+      <c r="O15" s="16"/>
+      <c r="P15" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R15" t="s">
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="16" t="s">
         <v>823</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T15" s="16" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="16">
         <v>3</v>
       </c>
-      <c r="G16">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16">
         <v>22</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="16">
         <v>2009</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="O16" t="s">
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R16" t="s">
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" s="16" t="s">
         <v>256</v>
       </c>
+      <c r="T16" s="16"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="16">
         <v>11</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="16">
         <v>10</v>
       </c>
-      <c r="H17">
+      <c r="G17" s="16"/>
+      <c r="H17" s="16">
         <v>2021</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="O17" t="s">
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R17" t="s">
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="T17" t="s">
+      <c r="T17" s="16" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="16">
         <v>53</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="16">
         <v>2</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="16">
         <v>32</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="16">
         <v>2011</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="O18" t="s">
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R18" t="s">
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T18" s="16" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="16">
         <v>49</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="16">
         <v>1</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="16">
         <v>143</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="16">
         <v>2021</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P19" t="s">
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R19" t="s">
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S19" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T19" s="16" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="16">
         <v>7</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="16">
         <v>11</v>
       </c>
-      <c r="H20">
+      <c r="G20" s="16"/>
+      <c r="H20" s="16">
         <v>2021</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P20" t="s">
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R20" t="s">
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S20" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="T20" t="s">
+      <c r="T20" s="16" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="16">
         <v>10</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="16">
         <v>2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="16">
         <v>217</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="16">
         <v>1982</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P21" t="s">
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="S21" t="s">
+      <c r="S21" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="T21" t="s">
+      <c r="T21" s="16" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="16">
         <v>47</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="16">
         <v>9</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="16">
         <v>1222</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="16">
         <v>2012</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P22" t="s">
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R22" t="s">
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S22" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="T22" t="s">
+      <c r="T22" s="16" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="16">
         <v>13</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="16">
         <v>1</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="16">
         <v>55</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="16">
         <v>2003</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P23" t="s">
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R23" t="s">
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S23" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="T23" t="s">
+      <c r="T23" s="16" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="16" t="s">
         <v>824</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="16">
         <v>14</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="16">
         <v>3</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="16">
         <v>277</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="16">
         <v>2004</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P24" t="s">
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R24" t="s">
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S24" s="16" t="s">
         <v>825</v>
       </c>
+      <c r="T24" s="16"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="16">
         <v>24</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="16">
         <v>1</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="16">
         <v>69</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="16">
         <v>1997</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P25" t="s">
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R25" t="s">
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="S25" t="s">
+      <c r="S25" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="T25" t="s">
+      <c r="T25" s="16" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="16">
         <v>41</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="16">
         <v>1</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="16">
         <v>119</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="16">
         <v>1993</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P26" t="s">
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R26" t="s">
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="S26" t="s">
+      <c r="S26" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="T26" t="s">
+      <c r="T26" s="16" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="16" t="s">
         <v>826</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="16" t="s">
         <v>827</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="16" t="s">
         <v>828</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="16">
         <v>4</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="16">
         <v>2</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="16">
         <v>112</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="16">
         <v>2012</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="16" t="s">
         <v>829</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="16" t="s">
         <v>830</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P27" t="s">
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R27" t="s">
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="S27" t="s">
+      <c r="S27" s="16" t="s">
         <v>831</v>
       </c>
+      <c r="T27" s="16"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="F28">
+      <c r="E28" s="16"/>
+      <c r="F28" s="16">
         <v>110</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="16">
         <v>29</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="16">
         <v>2005</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P28" t="s">
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R28" t="s">
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="S28" t="s">
+      <c r="S28" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="T28" t="s">
+      <c r="T28" s="16" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="16">
         <v>57</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="16">
         <v>3</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="16">
         <v>249</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="16">
         <v>2012</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P29" t="s">
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R29" t="s">
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="S29" t="s">
+      <c r="S29" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="T29" t="s">
+      <c r="T29" s="16" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="16" t="s">
         <v>832</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="16" t="s">
         <v>833</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="16">
         <v>28</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="16">
         <v>3</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="16">
         <v>597</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="16">
         <v>2000</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="16" t="s">
         <v>834</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P30" t="s">
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R30" t="s">
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S30" s="16" t="s">
         <v>835</v>
       </c>
+      <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="16">
         <v>16</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="16">
         <v>4</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="16">
         <v>867</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="16">
         <v>1986</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="M31" t="s">
+      <c r="L31" s="16"/>
+      <c r="M31" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="P31" t="s">
+      <c r="O31" s="16"/>
+      <c r="P31" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R31" t="s">
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="S31" t="s">
+      <c r="S31" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="T31" t="s">
+      <c r="T31" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="16">
         <v>29</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="16">
         <v>2</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="16">
         <v>347</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="16">
         <v>2001</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="N32" t="s">
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="P32" t="s">
+      <c r="O32" s="16"/>
+      <c r="P32" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R32" t="s">
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="S32" t="s">
+      <c r="S32" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="T32" t="s">
+      <c r="T32" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="16">
         <v>31</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="16">
         <v>2</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="16">
         <v>330</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="16">
         <v>2021</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="M33" t="s">
+      <c r="L33" s="16"/>
+      <c r="M33" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="P33" t="s">
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R33" t="s">
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="S33" t="s">
+      <c r="S33" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="T33" t="s">
+      <c r="T33" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="16">
         <v>199</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="16">
         <v>3</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="16">
         <v>228</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="16">
         <v>2004</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="M34" t="s">
+      <c r="L34" s="16"/>
+      <c r="M34" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="P34" t="s">
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R34" t="s">
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="S34" t="s">
+      <c r="S34" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="T34" t="s">
+      <c r="T34" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="16" t="s">
         <v>836</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="16">
         <v>199</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="16">
         <v>3</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="16">
         <v>228</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="16">
         <v>2004</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="M35" t="s">
+      <c r="L35" s="16"/>
+      <c r="M35" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="P35" t="s">
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="Q35" s="16" t="s">
         <v>837</v>
       </c>
-      <c r="R35" t="s">
+      <c r="R35" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="S35" t="s">
+      <c r="S35" s="16" t="s">
         <v>838</v>
       </c>
+      <c r="T35" s="16"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="16">
         <v>178</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="16">
         <v>2</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="16">
         <v>163</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="16">
         <v>2005</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="M36" t="s">
+      <c r="L36" s="16"/>
+      <c r="M36" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="P36" t="s">
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R36" t="s">
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="S36" t="s">
+      <c r="S36" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="T36" t="s">
+      <c r="T36" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="16">
         <v>62</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="16">
         <v>3</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="16">
         <v>177</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="16">
         <v>1998</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="M37" t="s">
+      <c r="L37" s="16"/>
+      <c r="M37" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="P37" t="s">
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R37" t="s">
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="S37" t="s">
+      <c r="S37" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="T37" t="s">
+      <c r="T37" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="16" t="s">
         <v>839</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="16" t="s">
         <v>840</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="16" t="s">
         <v>841</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="16">
         <v>79</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="16">
         <v>6</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="16">
         <v>643</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="16">
         <v>1997</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="16" t="s">
         <v>842</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="16" t="s">
         <v>843</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P38" t="s">
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R38" t="s">
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="S38" t="s">
+      <c r="S38" s="16" t="s">
         <v>844</v>
       </c>
+      <c r="T38" s="16"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="G39">
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16">
         <v>186</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="16">
         <v>1958</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P39" t="s">
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16" t="s">
         <v>845</v>
       </c>
-      <c r="R39" t="s">
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="S39" t="s">
+      <c r="S39" s="16" t="s">
         <v>381</v>
       </c>
+      <c r="T39" s="16"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="F40">
+      <c r="E40" s="16"/>
+      <c r="F40" s="16">
         <v>2</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="16">
         <v>38</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="16">
         <v>1989</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P40" t="s">
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R40" t="s">
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="S40" t="s">
+      <c r="S40" s="16" t="s">
         <v>387</v>
       </c>
+      <c r="T40" s="16"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="16" t="s">
         <v>846</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="16" t="s">
         <v>847</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="16">
         <v>119</v>
       </c>
-      <c r="G41">
+      <c r="F41" s="16"/>
+      <c r="G41" s="16">
         <v>44</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="16">
         <v>2014</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="16" t="s">
         <v>626</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="16" t="s">
         <v>627</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P41" t="s">
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R41" t="s">
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="S41" t="s">
+      <c r="S41" s="16" t="s">
         <v>848</v>
       </c>
+      <c r="T41" s="16"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="16" t="s">
         <v>849</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="16" t="s">
         <v>850</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="16" t="s">
         <v>851</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="16">
         <v>27</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="16">
         <v>4</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="16">
         <v>39</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="16">
         <v>2005</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="16" t="s">
         <v>852</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="16" t="s">
         <v>853</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P42" t="s">
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R42" t="s">
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="S42" t="s">
+      <c r="S42" s="16" t="s">
         <v>854</v>
       </c>
+      <c r="T42" s="16"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="16">
         <v>27</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="16">
         <v>11</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="16">
         <v>1190</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="16">
         <v>1992</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="O43" t="s">
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P43" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R43" t="s">
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="S43" t="s">
+      <c r="S43" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="T43" t="s">
+      <c r="T43" s="16" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="16">
         <v>40</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="16">
         <v>3</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="16">
         <v>195</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="16">
         <v>2008</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P44" t="s">
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R44" t="s">
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="S44" t="s">
+      <c r="S44" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="T44" t="s">
+      <c r="T44" s="16" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="16">
         <v>29</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="16">
         <v>1</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="16">
         <v>25</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="16">
         <v>1995</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="K45" t="s">
+      <c r="J45" s="16"/>
+      <c r="K45" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P45" t="s">
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R45" t="s">
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="S45" t="s">
+      <c r="S45" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="T45" t="s">
+      <c r="T45" s="16" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="16" t="s">
         <v>855</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="16" t="s">
         <v>856</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="16">
         <v>26</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="16">
         <v>1</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="16">
         <v>159</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="16">
         <v>1998</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="K46" t="s">
+      <c r="J46" s="16"/>
+      <c r="K46" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P46" t="s">
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R46" t="s">
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="S46" t="s">
+      <c r="S46" s="16" t="s">
         <v>857</v>
       </c>
+      <c r="T46" s="16"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="16">
         <v>4</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="16">
         <v>1</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="16">
         <v>95</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="16">
         <v>1992</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P47" t="s">
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R47" t="s">
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="S47" t="s">
+      <c r="S47" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="T47" t="s">
+      <c r="T47" s="16" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="16" t="s">
         <v>858</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="16" t="s">
         <v>859</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="16" t="s">
         <v>860</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="16">
         <v>21</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="16">
         <v>3</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="16">
         <v>181</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="16">
         <v>2007</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="16" t="s">
         <v>861</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="16" t="s">
         <v>862</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P48" t="s">
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R48" t="s">
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="S48" t="s">
+      <c r="S48" s="16" t="s">
         <v>863</v>
       </c>
+      <c r="T48" s="16"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="16">
         <v>7</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="16">
         <v>6</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="16">
         <v>511</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="16">
         <v>2006</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P49" t="s">
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R49" t="s">
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="S49" t="s">
+      <c r="S49" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="T49" t="s">
+      <c r="T49" s="16" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="16" t="s">
         <v>864</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="16" t="s">
         <v>865</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="16">
         <v>35</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="16">
         <v>4</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="16">
         <v>23</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="16">
         <v>2011</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="16" t="s">
         <v>867</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="16" t="s">
         <v>868</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P50" t="s">
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R50" t="s">
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="S50" t="s">
+      <c r="S50" s="16" t="s">
         <v>869</v>
       </c>
+      <c r="T50" s="16"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="16">
         <v>36</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="16">
         <v>1</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="16">
         <v>105</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="16">
         <v>2008</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P51" t="s">
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R51" t="s">
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="S51" t="s">
+      <c r="S51" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="T51" t="s">
+      <c r="T51" s="16" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="H52">
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16">
         <v>2006</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P52" t="s">
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R52" t="s">
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="S52" t="s">
+      <c r="S52" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="T52" t="s">
+      <c r="T52" s="16" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="16">
         <v>94</v>
       </c>
-      <c r="G53">
+      <c r="F53" s="16"/>
+      <c r="G53" s="16">
         <v>165</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="16">
         <v>2015</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P53" t="s">
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R53" t="s">
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="S53" t="s">
+      <c r="S53" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="T53" t="s">
+      <c r="T53" s="16" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="16" t="s">
         <v>870</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="16" t="s">
         <v>871</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="16">
         <v>19</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="16">
         <v>4</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="16">
         <v>287</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="16">
         <v>2004</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="16" t="s">
         <v>872</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="16" t="s">
         <v>873</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P54" t="s">
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="Q54" s="16" t="s">
         <v>874</v>
       </c>
-      <c r="R54" t="s">
+      <c r="R54" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="S54" t="s">
+      <c r="S54" s="16" t="s">
         <v>875</v>
       </c>
+      <c r="T54" s="16"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="16">
         <v>87</v>
       </c>
-      <c r="G55">
+      <c r="F55" s="16"/>
+      <c r="G55" s="16">
         <v>265</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="16">
         <v>2018</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="O55" t="s">
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="P55" t="s">
+      <c r="P55" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="R55" t="s">
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="S55" t="s">
+      <c r="S55" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="T55" t="s">
+      <c r="T55" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -12059,6 +12381,9 @@
       <c r="S56" t="s">
         <v>441</v>
       </c>
+      <c r="T56" s="18" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
@@ -12103,6 +12428,9 @@
       <c r="S57" t="s">
         <v>880</v>
       </c>
+      <c r="T57" s="18" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -12147,6 +12475,9 @@
       <c r="S58" t="s">
         <v>885</v>
       </c>
+      <c r="T58" s="18" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -12191,6 +12522,9 @@
       <c r="S59" t="s">
         <v>889</v>
       </c>
+      <c r="T59" s="18" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -12232,6 +12566,9 @@
       <c r="S60" t="s">
         <v>892</v>
       </c>
+      <c r="T60" s="18" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -12273,6 +12610,9 @@
       <c r="S61" t="s">
         <v>447</v>
       </c>
+      <c r="T61" s="18" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -12317,6 +12657,9 @@
       <c r="S62" t="s">
         <v>453</v>
       </c>
+      <c r="T62" s="18" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -12361,6 +12704,9 @@
       <c r="S63" t="s">
         <v>453</v>
       </c>
+      <c r="T63" s="18" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -12405,8 +12751,11 @@
       <c r="S64" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>188</v>
       </c>
@@ -12449,8 +12798,11 @@
       <c r="S65" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>188</v>
       </c>
@@ -12493,8 +12845,11 @@
       <c r="S66" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>188</v>
       </c>
@@ -12537,8 +12892,11 @@
       <c r="S67" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>188</v>
       </c>
@@ -12581,8 +12939,11 @@
       <c r="S68" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>188</v>
       </c>
@@ -12622,8 +12983,11 @@
       <c r="S69" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>188</v>
       </c>
@@ -12666,8 +13030,11 @@
       <c r="S70" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>188</v>
       </c>
@@ -12710,8 +13077,11 @@
       <c r="S71" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>188</v>
       </c>
@@ -12754,8 +13124,11 @@
       <c r="S72" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>188</v>
       </c>
@@ -12798,8 +13171,11 @@
       <c r="S73" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>188</v>
       </c>
@@ -12839,8 +13215,11 @@
       <c r="S74" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>188</v>
       </c>
@@ -12886,8 +13265,11 @@
       <c r="S75" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>188</v>
       </c>
@@ -12930,8 +13312,11 @@
       <c r="S76" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>188</v>
       </c>
@@ -12971,8 +13356,11 @@
       <c r="S77" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>188</v>
       </c>
@@ -13015,8 +13403,11 @@
       <c r="S78" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T78" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>188</v>
       </c>
@@ -13059,8 +13450,11 @@
       <c r="S79" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T79" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>188</v>
       </c>
@@ -13103,8 +13497,11 @@
       <c r="S80" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>188</v>
       </c>
@@ -13150,8 +13547,11 @@
       <c r="S81" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>188</v>
       </c>
@@ -13194,8 +13594,11 @@
       <c r="S82" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>188</v>
       </c>
@@ -13238,8 +13641,11 @@
       <c r="S83" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>188</v>
       </c>
@@ -13282,8 +13688,11 @@
       <c r="S84" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>188</v>
       </c>
@@ -13326,8 +13735,11 @@
       <c r="S85" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>188</v>
       </c>
@@ -13370,8 +13782,11 @@
       <c r="S86" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>188</v>
       </c>
@@ -13414,8 +13829,11 @@
       <c r="S87" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>188</v>
       </c>
@@ -13461,8 +13879,11 @@
       <c r="S88" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>188</v>
       </c>
@@ -13505,8 +13926,11 @@
       <c r="S89" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>188</v>
       </c>
@@ -13546,8 +13970,11 @@
       <c r="S90" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>188</v>
       </c>
@@ -13587,8 +14014,11 @@
       <c r="S91" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>188</v>
       </c>
@@ -13631,8 +14061,11 @@
       <c r="S92" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>188</v>
       </c>
@@ -13675,8 +14108,11 @@
       <c r="S93" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>188</v>
       </c>
@@ -13719,8 +14155,11 @@
       <c r="S94" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -13763,8 +14202,11 @@
       <c r="S95" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>188</v>
       </c>
@@ -13807,8 +14249,11 @@
       <c r="S96" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>188</v>
       </c>
@@ -13851,8 +14296,11 @@
       <c r="S97" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>188</v>
       </c>
@@ -13895,8 +14343,11 @@
       <c r="S98" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>188</v>
       </c>
@@ -13939,8 +14390,11 @@
       <c r="S99" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>188</v>
       </c>
@@ -13983,8 +14437,11 @@
       <c r="S100" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>188</v>
       </c>
@@ -14027,8 +14484,11 @@
       <c r="S101" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>188</v>
       </c>
@@ -14071,8 +14531,11 @@
       <c r="S102" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T102" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>188</v>
       </c>
@@ -14115,8 +14578,11 @@
       <c r="S103" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T103" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>188</v>
       </c>
@@ -14159,8 +14625,11 @@
       <c r="S104" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T104" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>188</v>
       </c>
@@ -14200,8 +14669,11 @@
       <c r="S105" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T105" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>188</v>
       </c>
@@ -14244,8 +14716,11 @@
       <c r="S106" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T106" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>188</v>
       </c>
@@ -14288,8 +14763,11 @@
       <c r="S107" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T107" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>188</v>
       </c>
@@ -14332,8 +14810,11 @@
       <c r="S108" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T108" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>188</v>
       </c>
@@ -14370,8 +14851,11 @@
       <c r="S109" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T109" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>188</v>
       </c>
@@ -14411,8 +14895,11 @@
       <c r="S110" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T110" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>188</v>
       </c>
@@ -14455,8 +14942,11 @@
       <c r="S111" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T111" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>188</v>
       </c>
@@ -14496,8 +14986,11 @@
       <c r="S112" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T112" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>335</v>
       </c>
@@ -14534,8 +15027,11 @@
       <c r="S113" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T113" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>335</v>
       </c>
@@ -14572,8 +15068,11 @@
       <c r="S114" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T114" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>335</v>
       </c>
@@ -14610,8 +15109,11 @@
       <c r="S115" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T115" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>188</v>
       </c>
@@ -14654,8 +15156,11 @@
       <c r="S116" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T116" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>188</v>
       </c>
@@ -14698,8 +15203,11 @@
       <c r="S117" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T117" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>188</v>
       </c>
@@ -14745,8 +15253,11 @@
       <c r="S118" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T118" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>188</v>
       </c>
@@ -14789,8 +15300,11 @@
       <c r="S119" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T119" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>188</v>
       </c>
@@ -14836,8 +15350,11 @@
       <c r="S120" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T120" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>188</v>
       </c>
@@ -14877,8 +15394,11 @@
       <c r="S121" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T121" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>188</v>
       </c>
@@ -14921,8 +15441,11 @@
       <c r="S122" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T122" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>188</v>
       </c>
@@ -14965,8 +15488,11 @@
       <c r="S123" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T123" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>188</v>
       </c>
@@ -15009,8 +15535,11 @@
       <c r="S124" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T124" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>374</v>
       </c>
@@ -15047,8 +15576,11 @@
       <c r="S125" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T125" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>188</v>
       </c>
@@ -15091,8 +15623,11 @@
       <c r="S126" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T126" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>188</v>
       </c>
@@ -15135,8 +15670,11 @@
       <c r="S127" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T127" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>188</v>
       </c>
@@ -15176,8 +15714,11 @@
       <c r="S128" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T128" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>188</v>
       </c>
@@ -15220,8 +15761,11 @@
       <c r="S129" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T129" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>188</v>
       </c>
@@ -15264,8 +15808,11 @@
       <c r="S130" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T130" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>188</v>
       </c>
@@ -15305,8 +15852,11 @@
       <c r="S131" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T131" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>188</v>
       </c>
@@ -15349,8 +15899,11 @@
       <c r="S132" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T132" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>188</v>
       </c>
@@ -15393,8 +15946,11 @@
       <c r="S133" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T133" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>188</v>
       </c>
@@ -15434,8 +15990,11 @@
       <c r="S134" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T134" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>188</v>
       </c>
@@ -15478,8 +16037,11 @@
       <c r="S135" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T135" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>188</v>
       </c>
@@ -15522,8 +16084,11 @@
       <c r="S136" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T136" s="18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>188</v>
       </c>
@@ -15566,8 +16131,11 @@
       <c r="S137" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T137" s="18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>188</v>
       </c>
@@ -15607,8 +16175,11 @@
       <c r="S138" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T138" s="18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>188</v>
       </c>
@@ -15651,8 +16222,11 @@
       <c r="S139" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T139" s="18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>374</v>
       </c>
@@ -15692,8 +16266,11 @@
       <c r="S140" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T140" s="18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>188</v>
       </c>
@@ -15736,8 +16313,11 @@
       <c r="S141" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T141" s="18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>188</v>
       </c>
@@ -15780,8 +16360,11 @@
       <c r="S142" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T142" s="18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>188</v>
       </c>
@@ -15824,8 +16407,11 @@
       <c r="S143" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T143" s="18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>188</v>
       </c>
@@ -15868,8 +16454,11 @@
       <c r="S144" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T144" s="18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>188</v>
       </c>
@@ -15912,8 +16501,11 @@
       <c r="S145" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T145" s="18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>188</v>
       </c>
@@ -15956,8 +16548,11 @@
       <c r="S146" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T146" s="18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>188</v>
       </c>
@@ -16000,8 +16595,11 @@
       <c r="S147" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T147" s="18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>188</v>
       </c>
@@ -16044,8 +16642,11 @@
       <c r="S148" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T148" s="18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>188</v>
       </c>
@@ -16088,8 +16689,11 @@
       <c r="S149" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T149" s="18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>188</v>
       </c>
@@ -16132,8 +16736,11 @@
       <c r="S150" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T150" s="18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>188</v>
       </c>
@@ -16176,8 +16783,11 @@
       <c r="S151" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T151" s="18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>188</v>
       </c>
@@ -16223,8 +16833,11 @@
       <c r="S152" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T152" s="18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>188</v>
       </c>
@@ -16267,8 +16880,11 @@
       <c r="S153" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T153" s="18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>188</v>
       </c>
@@ -16311,8 +16927,11 @@
       <c r="S154" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T154" s="18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>188</v>
       </c>
@@ -16352,8 +16971,11 @@
       <c r="S155" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T155" s="18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>188</v>
       </c>
@@ -16393,8 +17015,11 @@
       <c r="S156" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T156" s="18" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>188</v>
       </c>
@@ -16437,8 +17062,11 @@
       <c r="S157" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T157" s="18" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>188</v>
       </c>
@@ -16484,8 +17112,11 @@
       <c r="S158" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T158" s="18" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>188</v>
       </c>
@@ -16528,8 +17159,11 @@
       <c r="S159" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T159" s="18" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>188</v>
       </c>
@@ -16575,8 +17209,11 @@
       <c r="S160" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T160" s="18" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>188</v>
       </c>
@@ -16619,8 +17256,11 @@
       <c r="S161" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T161" s="18" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>188</v>
       </c>
@@ -16663,8 +17303,11 @@
       <c r="S162" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T162" s="18" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>188</v>
       </c>
@@ -16704,8 +17347,11 @@
       <c r="S163" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T163" s="18" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>188</v>
       </c>
@@ -16745,8 +17391,11 @@
       <c r="S164" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T164" s="18" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>188</v>
       </c>
@@ -16789,8 +17438,11 @@
       <c r="S165" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T165" s="18" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>188</v>
       </c>
@@ -16834,7 +17486,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>188</v>
       </c>
@@ -16878,7 +17530,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -16922,7 +17574,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>188</v>
       </c>
@@ -16966,7 +17618,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>188</v>
       </c>
@@ -17010,7 +17662,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>188</v>
       </c>
@@ -17051,7 +17703,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>188</v>
       </c>
@@ -17095,7 +17747,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>188</v>
       </c>
@@ -17139,7 +17791,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -17186,7 +17838,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>188</v>
       </c>
@@ -17227,7 +17879,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>188</v>
       </c>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AAE430-5641-374C-981B-1943A6CCA18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2562617-A2D2-3142-8835-31F06D7F92B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\oegres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2562617-A2D2-3142-8835-31F06D7F92B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C4DF18-3742-401B-B141-D66554CCACDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9842" uniqueCount="2648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9852" uniqueCount="2648">
   <si>
     <t>datasetID</t>
   </si>
@@ -8912,18 +8912,18 @@
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="2" max="2" width="70.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" s="5" t="s">
         <v>72</v>
       </c>
@@ -8934,10 +8934,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
         <v>75</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
         <v>77</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
         <v>79</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
         <v>81</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10" s="6" t="s">
         <v>83</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
         <v>85</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
         <v>87</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A13" s="6" t="s">
         <v>89</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14" s="6" t="s">
         <v>91</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A15" s="6" t="s">
         <v>93</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A16" s="6" t="s">
         <v>95</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A17" s="6" t="s">
         <v>97</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A18" s="6" t="s">
         <v>99</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A19" s="6"/>
       <c r="B19" s="2" t="s">
         <v>102</v>
@@ -9061,7 +9061,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A20" s="6"/>
       <c r="B20" s="2" t="s">
         <v>104</v>
@@ -9070,7 +9070,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A21" s="6"/>
       <c r="B21" s="2" t="s">
         <v>106</v>
@@ -9079,7 +9079,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
         <v>110</v>
       </c>
@@ -9087,12 +9087,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.6">
       <c r="H25" t="s">
         <v>33</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
         <v>113</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A30" s="7" t="s">
         <v>2</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A31" s="6" t="s">
         <v>3</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A34" s="6" t="s">
         <v>780</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A36" s="6" t="s">
         <v>7</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A37" s="7" t="s">
         <v>128</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A38" s="7" t="s">
         <v>129</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A39" s="7" t="s">
         <v>126</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A40" s="7" t="s">
         <v>11</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A41" s="7" t="s">
         <v>12</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A42" s="7" t="s">
         <v>13</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A43" s="7" t="s">
         <v>157</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A44" s="7" t="s">
         <v>158</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A45" s="7" t="s">
         <v>155</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A46" s="7" t="s">
         <v>154</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A47" s="7" t="s">
         <v>14</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A48" s="7" t="s">
         <v>15</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A49" s="7" t="s">
         <v>16</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A50" s="7" t="s">
         <v>17</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A51" s="7" t="s">
         <v>18</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A52" s="7" t="s">
         <v>19</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A53" s="7" t="s">
         <v>20</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A54" s="7" t="s">
         <v>21</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A55" s="7" t="s">
         <v>140</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A56" s="7" t="s">
         <v>23</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A57" s="7" t="s">
         <v>24</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A58" s="7" t="s">
         <v>25</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A59" s="7" t="s">
         <v>26</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A60" s="7" t="s">
         <v>27</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A61" s="7" t="s">
         <v>28</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A62" s="7" t="s">
         <v>791</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A63" s="7" t="s">
         <v>29</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A64" s="7" t="s">
         <v>30</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A65" s="7" t="s">
         <v>149</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A66" s="7" t="s">
         <v>31</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A67" s="7" t="s">
         <v>32</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A68" s="7" t="s">
         <v>33</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A69" s="7" t="s">
         <v>34</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A70" s="2" t="s">
         <v>785</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A71" s="7" t="s">
         <v>35</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A72" s="7" t="s">
         <v>93</v>
       </c>
@@ -9490,18 +9490,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C223" workbookViewId="0">
-      <selection activeCell="U176" sqref="U19:U176"/>
+    <sheetView tabSelected="1" topLeftCell="H158" workbookViewId="0">
+      <selection activeCell="T176" sqref="T176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="18" max="18" width="15.1640625" customWidth="1"/>
+    <col min="18" max="18" width="15.1484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A1" s="16" t="s">
         <v>173</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A2" s="16" t="s">
         <v>188</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A3" s="16" t="s">
         <v>188</v>
       </c>
@@ -9657,7 +9657,7 @@
       </c>
       <c r="T3" s="16"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A4" s="16" t="s">
         <v>188</v>
       </c>
@@ -9709,7 +9709,7 @@
       </c>
       <c r="T4" s="16"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A5" s="16" t="s">
         <v>188</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
         <v>188</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
         <v>188</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
         <v>188</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
         <v>188</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A10" s="16" t="s">
         <v>188</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A11" s="16" t="s">
         <v>188</v>
       </c>
@@ -10083,7 +10083,7 @@
       </c>
       <c r="T11" s="16"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A12" s="16" t="s">
         <v>188</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A13" s="16" t="s">
         <v>188</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A14" s="16" t="s">
         <v>188</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A15" s="16" t="s">
         <v>188</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A16" s="16" t="s">
         <v>188</v>
       </c>
@@ -10343,7 +10343,7 @@
       </c>
       <c r="T16" s="16"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A17" s="16" t="s">
         <v>188</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A18" s="16" t="s">
         <v>188</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A19" s="16" t="s">
         <v>188</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A20" s="16" t="s">
         <v>188</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A21" s="16" t="s">
         <v>188</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
         <v>188</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
         <v>188</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A24" s="16" t="s">
         <v>188</v>
       </c>
@@ -10759,7 +10759,7 @@
       </c>
       <c r="T24" s="16"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A25" s="16" t="s">
         <v>188</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A26" s="16" t="s">
         <v>188</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A27" s="16" t="s">
         <v>188</v>
       </c>
@@ -10913,7 +10913,7 @@
       </c>
       <c r="T27" s="16"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A28" s="16" t="s">
         <v>188</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A29" s="16" t="s">
         <v>188</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A30" s="16" t="s">
         <v>188</v>
       </c>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="T30" s="16"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A31" s="16" t="s">
         <v>188</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A32" s="16" t="s">
         <v>188</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A33" s="16" t="s">
         <v>188</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A34" s="16" t="s">
         <v>188</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A35" s="16" t="s">
         <v>188</v>
       </c>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="T35" s="16"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A36" s="16" t="s">
         <v>188</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A37" s="16" t="s">
         <v>188</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A38" s="16" t="s">
         <v>188</v>
       </c>
@@ -11495,7 +11495,7 @@
       </c>
       <c r="T38" s="16"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A39" s="16" t="s">
         <v>376</v>
       </c>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="T39" s="16"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A40" s="16" t="s">
         <v>188</v>
       </c>
@@ -11589,7 +11589,7 @@
       </c>
       <c r="T40" s="16"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A41" s="16" t="s">
         <v>188</v>
       </c>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="T41" s="16"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A42" s="16" t="s">
         <v>188</v>
       </c>
@@ -11687,7 +11687,7 @@
       </c>
       <c r="T42" s="16"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A43" s="16" t="s">
         <v>188</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A44" s="16" t="s">
         <v>188</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
         <v>188</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
         <v>188</v>
       </c>
@@ -11891,7 +11891,7 @@
       </c>
       <c r="T46" s="16"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
         <v>188</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
         <v>188</v>
       </c>
@@ -11993,7 +11993,7 @@
       </c>
       <c r="T48" s="16"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A49" s="16" t="s">
         <v>188</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A50" s="16" t="s">
         <v>188</v>
       </c>
@@ -12095,7 +12095,7 @@
       </c>
       <c r="T50" s="16"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A51" s="16" t="s">
         <v>188</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A52" s="16" t="s">
         <v>335</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A53" s="16" t="s">
         <v>188</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A54" s="16" t="s">
         <v>188</v>
       </c>
@@ -12295,7 +12295,7 @@
       </c>
       <c r="T54" s="16"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A55" s="16" t="s">
         <v>188</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
         <v>335</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
         <v>188</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
         <v>188</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
         <v>188</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
         <v>188</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
         <v>188</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
         <v>188</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
         <v>188</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
         <v>188</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
         <v>188</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
         <v>188</v>
       </c>
@@ -12896,7 +12896,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
         <v>188</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
         <v>188</v>
       </c>
@@ -12987,7 +12987,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
         <v>188</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
         <v>188</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
         <v>188</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
         <v>188</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
         <v>188</v>
       </c>
@@ -13219,7 +13219,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
         <v>188</v>
       </c>
@@ -13269,7 +13269,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
         <v>188</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
         <v>188</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
         <v>188</v>
       </c>
@@ -13407,7 +13407,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
         <v>188</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
         <v>188</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
         <v>188</v>
       </c>
@@ -13551,7 +13551,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
         <v>188</v>
       </c>
@@ -13598,7 +13598,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A83" t="s">
         <v>188</v>
       </c>
@@ -13645,7 +13645,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
         <v>188</v>
       </c>
@@ -13692,7 +13692,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
         <v>188</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A86" t="s">
         <v>188</v>
       </c>
@@ -13786,7 +13786,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A87" t="s">
         <v>188</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A88" t="s">
         <v>188</v>
       </c>
@@ -13883,7 +13883,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A89" t="s">
         <v>188</v>
       </c>
@@ -13930,7 +13930,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A90" t="s">
         <v>188</v>
       </c>
@@ -13974,7 +13974,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A91" t="s">
         <v>188</v>
       </c>
@@ -14018,7 +14018,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A92" t="s">
         <v>188</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A93" t="s">
         <v>188</v>
       </c>
@@ -14112,7 +14112,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A94" t="s">
         <v>188</v>
       </c>
@@ -14159,7 +14159,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A96" t="s">
         <v>188</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A97" t="s">
         <v>188</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A98" t="s">
         <v>188</v>
       </c>
@@ -14347,7 +14347,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A99" t="s">
         <v>188</v>
       </c>
@@ -14394,7 +14394,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A100" t="s">
         <v>188</v>
       </c>
@@ -14441,7 +14441,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A101" t="s">
         <v>188</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A102" t="s">
         <v>188</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A103" t="s">
         <v>188</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A104" t="s">
         <v>188</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A105" t="s">
         <v>188</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A106" t="s">
         <v>188</v>
       </c>
@@ -14720,7 +14720,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A107" t="s">
         <v>188</v>
       </c>
@@ -14767,7 +14767,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A108" t="s">
         <v>188</v>
       </c>
@@ -14814,7 +14814,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A109" t="s">
         <v>188</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A110" t="s">
         <v>188</v>
       </c>
@@ -14899,7 +14899,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A111" t="s">
         <v>188</v>
       </c>
@@ -14946,7 +14946,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A112" t="s">
         <v>188</v>
       </c>
@@ -14990,7 +14990,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A113" t="s">
         <v>335</v>
       </c>
@@ -15031,7 +15031,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A114" t="s">
         <v>335</v>
       </c>
@@ -15072,7 +15072,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A115" t="s">
         <v>335</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A116" t="s">
         <v>188</v>
       </c>
@@ -15160,7 +15160,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A117" t="s">
         <v>188</v>
       </c>
@@ -15207,7 +15207,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A118" t="s">
         <v>188</v>
       </c>
@@ -15257,7 +15257,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A119" t="s">
         <v>188</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A120" t="s">
         <v>188</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A121" t="s">
         <v>188</v>
       </c>
@@ -15398,7 +15398,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A122" t="s">
         <v>188</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A123" t="s">
         <v>188</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A124" t="s">
         <v>188</v>
       </c>
@@ -15539,7 +15539,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A125" t="s">
         <v>374</v>
       </c>
@@ -15580,7 +15580,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A126" t="s">
         <v>188</v>
       </c>
@@ -15627,7 +15627,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A127" t="s">
         <v>188</v>
       </c>
@@ -15674,7 +15674,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A128" t="s">
         <v>188</v>
       </c>
@@ -15718,7 +15718,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A129" t="s">
         <v>188</v>
       </c>
@@ -15765,7 +15765,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A130" t="s">
         <v>188</v>
       </c>
@@ -15812,7 +15812,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A131" t="s">
         <v>188</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A132" t="s">
         <v>188</v>
       </c>
@@ -15903,7 +15903,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A133" t="s">
         <v>188</v>
       </c>
@@ -15950,7 +15950,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A134" t="s">
         <v>188</v>
       </c>
@@ -15994,7 +15994,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A135" t="s">
         <v>188</v>
       </c>
@@ -16041,7 +16041,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A136" t="s">
         <v>188</v>
       </c>
@@ -16088,7 +16088,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A137" t="s">
         <v>188</v>
       </c>
@@ -16135,7 +16135,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A138" t="s">
         <v>188</v>
       </c>
@@ -16179,7 +16179,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A139" t="s">
         <v>188</v>
       </c>
@@ -16226,7 +16226,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A140" t="s">
         <v>374</v>
       </c>
@@ -16270,7 +16270,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A141" t="s">
         <v>188</v>
       </c>
@@ -16317,7 +16317,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A142" t="s">
         <v>188</v>
       </c>
@@ -16364,7 +16364,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A143" t="s">
         <v>188</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A144" t="s">
         <v>188</v>
       </c>
@@ -16458,7 +16458,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A145" t="s">
         <v>188</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A146" t="s">
         <v>188</v>
       </c>
@@ -16552,7 +16552,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A147" t="s">
         <v>188</v>
       </c>
@@ -16599,7 +16599,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A148" t="s">
         <v>188</v>
       </c>
@@ -16646,7 +16646,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A149" t="s">
         <v>188</v>
       </c>
@@ -16693,7 +16693,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A150" t="s">
         <v>188</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A151" t="s">
         <v>188</v>
       </c>
@@ -16787,7 +16787,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A152" t="s">
         <v>188</v>
       </c>
@@ -16837,7 +16837,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A153" t="s">
         <v>188</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A154" t="s">
         <v>188</v>
       </c>
@@ -16931,7 +16931,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A155" t="s">
         <v>188</v>
       </c>
@@ -16975,7 +16975,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A156" t="s">
         <v>188</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A157" t="s">
         <v>188</v>
       </c>
@@ -17066,7 +17066,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A158" t="s">
         <v>188</v>
       </c>
@@ -17116,7 +17116,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A159" t="s">
         <v>188</v>
       </c>
@@ -17163,7 +17163,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A160" t="s">
         <v>188</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A161" t="s">
         <v>188</v>
       </c>
@@ -17260,7 +17260,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A162" t="s">
         <v>188</v>
       </c>
@@ -17307,7 +17307,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A163" t="s">
         <v>188</v>
       </c>
@@ -17351,7 +17351,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A164" t="s">
         <v>188</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A165" t="s">
         <v>188</v>
       </c>
@@ -17442,7 +17442,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A166" t="s">
         <v>188</v>
       </c>
@@ -17485,8 +17485,11 @@
       <c r="S166" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T166" s="18" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A167" t="s">
         <v>188</v>
       </c>
@@ -17529,8 +17532,11 @@
       <c r="S167" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T167" s="18" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -17573,8 +17579,11 @@
       <c r="S168" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T168" s="18" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A169" t="s">
         <v>188</v>
       </c>
@@ -17617,8 +17626,11 @@
       <c r="S169" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T169" s="18" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A170" t="s">
         <v>188</v>
       </c>
@@ -17661,8 +17673,11 @@
       <c r="S170" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T170" s="18" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A171" t="s">
         <v>188</v>
       </c>
@@ -17702,8 +17717,11 @@
       <c r="S171" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T171" s="18" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A172" t="s">
         <v>188</v>
       </c>
@@ -17746,8 +17764,11 @@
       <c r="S172" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T172" s="18" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A173" t="s">
         <v>188</v>
       </c>
@@ -17790,8 +17811,11 @@
       <c r="S173" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T173" s="18" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -17837,8 +17861,11 @@
       <c r="S174" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T174" s="18" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A175" t="s">
         <v>188</v>
       </c>
@@ -17878,8 +17905,11 @@
       <c r="S175" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T175" s="18" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A176" t="s">
         <v>188</v>
       </c>
@@ -17923,7 +17953,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A177" t="s">
         <v>188</v>
       </c>
@@ -17967,7 +17997,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A178" t="s">
         <v>188</v>
       </c>
@@ -18011,7 +18041,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A179" t="s">
         <v>188</v>
       </c>
@@ -18055,7 +18085,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A180" t="s">
         <v>188</v>
       </c>
@@ -18099,7 +18129,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A181" t="s">
         <v>188</v>
       </c>
@@ -18146,7 +18176,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A182" t="s">
         <v>188</v>
       </c>
@@ -18190,7 +18220,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A183" t="s">
         <v>188</v>
       </c>
@@ -18234,7 +18264,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A184" t="s">
         <v>188</v>
       </c>
@@ -18278,7 +18308,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A185" t="s">
         <v>188</v>
       </c>
@@ -18322,7 +18352,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A186" t="s">
         <v>188</v>
       </c>
@@ -18369,7 +18399,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -18413,7 +18443,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -18454,7 +18484,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -18498,7 +18528,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -18542,7 +18572,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -18586,7 +18616,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A192" t="s">
         <v>188</v>
       </c>
@@ -18630,7 +18660,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A193" t="s">
         <v>188</v>
       </c>
@@ -18674,7 +18704,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A194" t="s">
         <v>188</v>
       </c>
@@ -18715,7 +18745,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A195" t="s">
         <v>188</v>
       </c>
@@ -18753,7 +18783,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A196" t="s">
         <v>188</v>
       </c>
@@ -18797,7 +18827,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A197" t="s">
         <v>188</v>
       </c>
@@ -18841,7 +18871,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A198" t="s">
         <v>188</v>
       </c>
@@ -18885,7 +18915,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A199" t="s">
         <v>188</v>
       </c>
@@ -18929,7 +18959,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A200" t="s">
         <v>188</v>
       </c>
@@ -18973,7 +19003,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A201" t="s">
         <v>188</v>
       </c>
@@ -19017,7 +19047,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A202" t="s">
         <v>188</v>
       </c>
@@ -19061,7 +19091,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A203" t="s">
         <v>188</v>
       </c>
@@ -19105,7 +19135,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A204" t="s">
         <v>188</v>
       </c>
@@ -19149,7 +19179,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A205" t="s">
         <v>188</v>
       </c>
@@ -19193,7 +19223,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A206" t="s">
         <v>188</v>
       </c>
@@ -19237,7 +19267,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A207" t="s">
         <v>188</v>
       </c>
@@ -19281,7 +19311,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A208" t="s">
         <v>188</v>
       </c>
@@ -19325,7 +19355,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A209" t="s">
         <v>188</v>
       </c>
@@ -19369,7 +19399,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A210" t="s">
         <v>188</v>
       </c>
@@ -19407,7 +19437,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A211" t="s">
         <v>374</v>
       </c>
@@ -19448,7 +19478,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A212" t="s">
         <v>188</v>
       </c>
@@ -19492,7 +19522,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A213" t="s">
         <v>188</v>
       </c>
@@ -19536,7 +19566,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A214" t="s">
         <v>188</v>
       </c>
@@ -19577,7 +19607,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A215" t="s">
         <v>188</v>
       </c>
@@ -19621,7 +19651,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A216" t="s">
         <v>188</v>
       </c>
@@ -19665,7 +19695,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A217" t="s">
         <v>188</v>
       </c>
@@ -19709,7 +19739,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A218" t="s">
         <v>188</v>
       </c>
@@ -19750,7 +19780,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A219" t="s">
         <v>188</v>
       </c>
@@ -19794,7 +19824,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A220" t="s">
         <v>188</v>
       </c>
@@ -19838,7 +19868,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A221" t="s">
         <v>374</v>
       </c>
@@ -19879,7 +19909,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A222" t="s">
         <v>188</v>
       </c>
@@ -19923,7 +19953,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A223" t="s">
         <v>376</v>
       </c>
@@ -19961,7 +19991,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A224" t="s">
         <v>376</v>
       </c>
@@ -19999,7 +20029,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A225" t="s">
         <v>376</v>
       </c>
@@ -20040,7 +20070,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A226" t="s">
         <v>376</v>
       </c>
@@ -20078,7 +20108,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A227" t="s">
         <v>188</v>
       </c>
@@ -20122,7 +20152,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A228" t="s">
         <v>188</v>
       </c>
@@ -20166,7 +20196,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A229" t="s">
         <v>188</v>
       </c>
@@ -20210,7 +20240,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A230" t="s">
         <v>188</v>
       </c>
@@ -20254,7 +20284,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A231" t="s">
         <v>188</v>
       </c>
@@ -20298,7 +20328,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A232" t="s">
         <v>188</v>
       </c>
@@ -20342,7 +20372,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A233" t="s">
         <v>188</v>
       </c>
@@ -20386,7 +20416,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A234" t="s">
         <v>188</v>
       </c>
@@ -20430,7 +20460,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A235" t="s">
         <v>188</v>
       </c>
@@ -20474,7 +20504,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A236" t="s">
         <v>188</v>
       </c>
@@ -20518,7 +20548,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A237" t="s">
         <v>188</v>
       </c>
@@ -20562,7 +20592,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A238" t="s">
         <v>188</v>
       </c>
@@ -20606,7 +20636,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A239" t="s">
         <v>188</v>
       </c>
@@ -20650,7 +20680,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A240" t="s">
         <v>188</v>
       </c>
@@ -20694,7 +20724,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A241" t="s">
         <v>188</v>
       </c>
@@ -20735,7 +20765,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A242" t="s">
         <v>188</v>
       </c>
@@ -20779,7 +20809,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A243" t="s">
         <v>188</v>
       </c>
@@ -20823,7 +20853,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A244" t="s">
         <v>188</v>
       </c>
@@ -20867,7 +20897,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A245" t="s">
         <v>188</v>
       </c>
@@ -20911,7 +20941,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A246" t="s">
         <v>188</v>
       </c>
@@ -20955,7 +20985,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A247" t="s">
         <v>188</v>
       </c>
@@ -20999,7 +21029,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A248" t="s">
         <v>188</v>
       </c>
@@ -21043,7 +21073,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A249" t="s">
         <v>188</v>
       </c>
@@ -21087,7 +21117,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A250" t="s">
         <v>188</v>
       </c>
@@ -21131,7 +21161,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A251" t="s">
         <v>188</v>
       </c>
@@ -21175,7 +21205,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A252" t="s">
         <v>188</v>
       </c>
@@ -21219,7 +21249,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A253" t="s">
         <v>188</v>
       </c>
@@ -21260,7 +21290,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A254" t="s">
         <v>374</v>
       </c>
@@ -21301,7 +21331,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A255" t="s">
         <v>188</v>
       </c>
@@ -21345,7 +21375,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A256" t="s">
         <v>188</v>
       </c>
@@ -21386,7 +21416,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A257" t="s">
         <v>188</v>
       </c>
@@ -21430,7 +21460,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A258" t="s">
         <v>188</v>
       </c>
@@ -21474,7 +21504,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A259" t="s">
         <v>188</v>
       </c>
@@ -21518,7 +21548,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A260" t="s">
         <v>188</v>
       </c>
@@ -21562,7 +21592,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A261" t="s">
         <v>188</v>
       </c>
@@ -21603,7 +21633,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A262" t="s">
         <v>188</v>
       </c>
@@ -21647,7 +21677,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A263" t="s">
         <v>376</v>
       </c>
@@ -21685,7 +21715,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A264" t="s">
         <v>188</v>
       </c>
@@ -21726,7 +21756,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A265" t="s">
         <v>188</v>
       </c>
@@ -21770,7 +21800,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A266" t="s">
         <v>188</v>
       </c>
@@ -21811,7 +21841,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A267" t="s">
         <v>188</v>
       </c>
@@ -21855,7 +21885,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A268" t="s">
         <v>188</v>
       </c>
@@ -21899,7 +21929,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A269" t="s">
         <v>188</v>
       </c>
@@ -21943,7 +21973,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A270" t="s">
         <v>188</v>
       </c>
@@ -21987,7 +22017,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A271" t="s">
         <v>188</v>
       </c>
@@ -22031,7 +22061,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A272" t="s">
         <v>376</v>
       </c>
@@ -22069,7 +22099,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A273" t="s">
         <v>188</v>
       </c>
@@ -22113,7 +22143,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A274" t="s">
         <v>188</v>
       </c>
@@ -22157,7 +22187,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A275" t="s">
         <v>188</v>
       </c>
@@ -22201,7 +22231,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A276" t="s">
         <v>188</v>
       </c>
@@ -22245,7 +22275,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A277" t="s">
         <v>188</v>
       </c>
@@ -22289,7 +22319,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A278" t="s">
         <v>188</v>
       </c>
@@ -22333,7 +22363,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A279" t="s">
         <v>188</v>
       </c>
@@ -22377,7 +22407,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A280" t="s">
         <v>188</v>
       </c>
@@ -22415,7 +22445,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A281" t="s">
         <v>188</v>
       </c>
@@ -22453,7 +22483,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A282" t="s">
         <v>188</v>
       </c>
@@ -22497,7 +22527,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A283" t="s">
         <v>188</v>
       </c>
@@ -22541,7 +22571,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A284" t="s">
         <v>188</v>
       </c>
@@ -22582,7 +22612,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A285" t="s">
         <v>188</v>
       </c>
@@ -22626,7 +22656,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A286" t="s">
         <v>188</v>
       </c>
@@ -22670,7 +22700,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A287" t="s">
         <v>188</v>
       </c>
@@ -22714,7 +22744,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A288" t="s">
         <v>188</v>
       </c>
@@ -22758,7 +22788,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A289" t="s">
         <v>188</v>
       </c>
@@ -22802,7 +22832,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A290" t="s">
         <v>188</v>
       </c>
@@ -22846,7 +22876,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A291" t="s">
         <v>188</v>
       </c>
@@ -22887,7 +22917,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A292" t="s">
         <v>188</v>
       </c>
@@ -22928,7 +22958,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A293" t="s">
         <v>188</v>
       </c>
@@ -22972,7 +23002,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A294" t="s">
         <v>188</v>
       </c>
@@ -23013,7 +23043,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A295" t="s">
         <v>188</v>
       </c>
@@ -23057,7 +23087,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A296" t="s">
         <v>188</v>
       </c>
@@ -23101,7 +23131,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A297" t="s">
         <v>188</v>
       </c>
@@ -23145,7 +23175,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A298" t="s">
         <v>188</v>
       </c>
@@ -23189,7 +23219,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A299" t="s">
         <v>188</v>
       </c>
@@ -23233,7 +23263,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A300" t="s">
         <v>374</v>
       </c>
@@ -23274,7 +23304,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A301" t="s">
         <v>374</v>
       </c>
@@ -23315,7 +23345,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A302" t="s">
         <v>188</v>
       </c>
@@ -23359,7 +23389,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A303" t="s">
         <v>188</v>
       </c>
@@ -23403,7 +23433,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A304" t="s">
         <v>188</v>
       </c>
@@ -23444,7 +23474,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A305" t="s">
         <v>188</v>
       </c>
@@ -23488,7 +23518,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A306" t="s">
         <v>188</v>
       </c>
@@ -23532,7 +23562,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A307" t="s">
         <v>188</v>
       </c>
@@ -23576,7 +23606,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A308" t="s">
         <v>188</v>
       </c>
@@ -23620,7 +23650,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A309" t="s">
         <v>188</v>
       </c>
@@ -23664,7 +23694,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A310" t="s">
         <v>188</v>
       </c>
@@ -23705,7 +23735,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A311" t="s">
         <v>188</v>
       </c>
@@ -23749,7 +23779,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A312" t="s">
         <v>188</v>
       </c>
@@ -23793,7 +23823,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A313" t="s">
         <v>188</v>
       </c>
@@ -23837,7 +23867,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A314" t="s">
         <v>188</v>
       </c>
@@ -23878,7 +23908,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A315" t="s">
         <v>188</v>
       </c>
@@ -23922,7 +23952,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A316" t="s">
         <v>188</v>
       </c>
@@ -23966,7 +23996,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A317" t="s">
         <v>188</v>
       </c>
@@ -24010,7 +24040,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A318" t="s">
         <v>188</v>
       </c>
@@ -24051,7 +24081,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A319" t="s">
         <v>188</v>
       </c>
@@ -24092,7 +24122,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A320" t="s">
         <v>188</v>
       </c>
@@ -24133,7 +24163,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A321" t="s">
         <v>188</v>
       </c>
@@ -24177,7 +24207,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A322" t="s">
         <v>188</v>
       </c>
@@ -24221,7 +24251,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A323" t="s">
         <v>188</v>
       </c>
@@ -24265,7 +24295,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A324" t="s">
         <v>188</v>
       </c>
@@ -24309,7 +24339,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A325" t="s">
         <v>188</v>
       </c>
@@ -24353,7 +24383,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A326" t="s">
         <v>188</v>
       </c>
@@ -24397,7 +24427,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A327" t="s">
         <v>188</v>
       </c>
@@ -24441,7 +24471,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A328" t="s">
         <v>188</v>
       </c>
@@ -24485,7 +24515,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A329" t="s">
         <v>188</v>
       </c>
@@ -24529,7 +24559,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A330" t="s">
         <v>188</v>
       </c>
@@ -24573,7 +24603,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A331" t="s">
         <v>188</v>
       </c>
@@ -24617,7 +24647,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A332" t="s">
         <v>188</v>
       </c>
@@ -24661,7 +24691,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A333" t="s">
         <v>188</v>
       </c>
@@ -24702,7 +24732,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A334" t="s">
         <v>188</v>
       </c>
@@ -24746,7 +24776,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A335" t="s">
         <v>188</v>
       </c>
@@ -24790,7 +24820,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A336" t="s">
         <v>188</v>
       </c>
@@ -24834,7 +24864,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A337" t="s">
         <v>188</v>
       </c>
@@ -24878,7 +24908,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A338" t="s">
         <v>188</v>
       </c>
@@ -24922,7 +24952,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A339" t="s">
         <v>188</v>
       </c>
@@ -24966,7 +24996,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A340" t="s">
         <v>188</v>
       </c>
@@ -25010,7 +25040,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A341" t="s">
         <v>188</v>
       </c>
@@ -25051,7 +25081,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A342" t="s">
         <v>188</v>
       </c>
@@ -25095,7 +25125,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A343" t="s">
         <v>188</v>
       </c>
@@ -25139,7 +25169,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A344" t="s">
         <v>188</v>
       </c>
@@ -25183,7 +25213,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A345" t="s">
         <v>188</v>
       </c>
@@ -25227,7 +25257,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A346" t="s">
         <v>374</v>
       </c>
@@ -25268,7 +25298,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A347" t="s">
         <v>324</v>
       </c>
@@ -25309,7 +25339,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A348" t="s">
         <v>188</v>
       </c>
@@ -25353,7 +25383,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A349" t="s">
         <v>188</v>
       </c>
@@ -25397,7 +25427,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A350" t="s">
         <v>188</v>
       </c>
@@ -25441,7 +25471,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A351" t="s">
         <v>188</v>
       </c>
@@ -25485,7 +25515,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A352" t="s">
         <v>188</v>
       </c>
@@ -25529,7 +25559,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A353" t="s">
         <v>188</v>
       </c>
@@ -25573,7 +25603,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A354" t="s">
         <v>188</v>
       </c>
@@ -25614,7 +25644,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A355" t="s">
         <v>188</v>
       </c>
@@ -25655,7 +25685,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A356" t="s">
         <v>188</v>
       </c>
@@ -25696,7 +25726,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A357" t="s">
         <v>188</v>
       </c>
@@ -25740,7 +25770,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A358" t="s">
         <v>188</v>
       </c>
@@ -25781,7 +25811,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A359" t="s">
         <v>188</v>
       </c>
@@ -25819,7 +25849,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A360" t="s">
         <v>188</v>
       </c>
@@ -25857,7 +25887,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A361" t="s">
         <v>188</v>
       </c>
@@ -25895,7 +25925,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A362" t="s">
         <v>188</v>
       </c>
@@ -25933,7 +25963,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A363" t="s">
         <v>188</v>
       </c>
@@ -25971,7 +26001,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A364" t="s">
         <v>188</v>
       </c>
@@ -26012,7 +26042,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A365" t="s">
         <v>188</v>
       </c>
@@ -26053,7 +26083,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A366" t="s">
         <v>188</v>
       </c>
@@ -26094,7 +26124,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A367" t="s">
         <v>188</v>
       </c>
@@ -26135,7 +26165,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A368" t="s">
         <v>188</v>
       </c>
@@ -26176,7 +26206,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A369" t="s">
         <v>188</v>
       </c>
@@ -26214,7 +26244,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A370" t="s">
         <v>188</v>
       </c>
@@ -26252,7 +26282,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A371" t="s">
         <v>188</v>
       </c>
@@ -26293,7 +26323,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A372" t="s">
         <v>188</v>
       </c>
@@ -26334,7 +26364,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A373" t="s">
         <v>188</v>
       </c>
@@ -26375,7 +26405,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A374" t="s">
         <v>188</v>
       </c>
@@ -26416,7 +26446,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A375" t="s">
         <v>188</v>
       </c>
@@ -26460,7 +26490,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A376" t="s">
         <v>188</v>
       </c>
@@ -26504,7 +26534,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A377" t="s">
         <v>188</v>
       </c>
@@ -26548,7 +26578,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A378" t="s">
         <v>188</v>
       </c>
@@ -26592,7 +26622,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A379" t="s">
         <v>188</v>
       </c>
@@ -26636,7 +26666,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A380" t="s">
         <v>188</v>
       </c>
@@ -26680,7 +26710,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A381" t="s">
         <v>188</v>
       </c>
@@ -26724,7 +26754,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A382" t="s">
         <v>188</v>
       </c>
@@ -26768,7 +26798,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A383" t="s">
         <v>188</v>
       </c>
@@ -26812,7 +26842,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A384" t="s">
         <v>188</v>
       </c>
@@ -26856,7 +26886,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A385" t="s">
         <v>188</v>
       </c>
@@ -26900,7 +26930,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A386" t="s">
         <v>188</v>
       </c>
@@ -26944,7 +26974,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A387" t="s">
         <v>188</v>
       </c>
@@ -26991,7 +27021,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A388" t="s">
         <v>188</v>
       </c>
@@ -27035,7 +27065,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A389" t="s">
         <v>188</v>
       </c>
@@ -27079,7 +27109,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A390" t="s">
         <v>188</v>
       </c>
@@ -27123,7 +27153,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A391" t="s">
         <v>188</v>
       </c>
@@ -27164,7 +27194,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A392" t="s">
         <v>188</v>
       </c>
@@ -27208,7 +27238,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A393" t="s">
         <v>324</v>
       </c>
@@ -27249,7 +27279,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A394" t="s">
         <v>188</v>
       </c>
@@ -27290,7 +27320,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A395" t="s">
         <v>188</v>
       </c>
@@ -27331,7 +27361,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A396" t="s">
         <v>188</v>
       </c>
@@ -27372,7 +27402,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A397" t="s">
         <v>188</v>
       </c>
@@ -27416,7 +27446,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A398" t="s">
         <v>188</v>
       </c>
@@ -27460,7 +27490,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A399" t="s">
         <v>188</v>
       </c>
@@ -27501,7 +27531,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A400" t="s">
         <v>374</v>
       </c>
@@ -27542,7 +27572,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A401" t="s">
         <v>188</v>
       </c>
@@ -27580,7 +27610,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A402" t="s">
         <v>188</v>
       </c>
@@ -27624,7 +27654,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A403" t="s">
         <v>188</v>
       </c>
@@ -27668,7 +27698,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A404" t="s">
         <v>188</v>
       </c>
@@ -27712,7 +27742,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A405" t="s">
         <v>188</v>
       </c>
@@ -27756,7 +27786,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A406" t="s">
         <v>188</v>
       </c>
@@ -27800,7 +27830,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A407" t="s">
         <v>188</v>
       </c>
@@ -27847,7 +27877,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A408" t="s">
         <v>188</v>
       </c>
@@ -27891,7 +27921,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A409" t="s">
         <v>188</v>
       </c>
@@ -27935,7 +27965,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A410" t="s">
         <v>188</v>
       </c>
@@ -27979,7 +28009,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A411" t="s">
         <v>188</v>
       </c>
@@ -28023,7 +28053,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A412" t="s">
         <v>188</v>
       </c>
@@ -28061,7 +28091,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A413" t="s">
         <v>188</v>
       </c>
@@ -28105,7 +28135,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A414" t="s">
         <v>188</v>
       </c>
@@ -28149,7 +28179,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A415" t="s">
         <v>188</v>
       </c>
@@ -28190,7 +28220,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A416" t="s">
         <v>188</v>
       </c>
@@ -28231,7 +28261,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A417" t="s">
         <v>188</v>
       </c>
@@ -28272,7 +28302,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A418" t="s">
         <v>188</v>
       </c>
@@ -28313,7 +28343,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A419" t="s">
         <v>188</v>
       </c>
@@ -28354,7 +28384,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A420" t="s">
         <v>188</v>
       </c>
@@ -28395,7 +28425,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A421" t="s">
         <v>188</v>
       </c>
@@ -28436,7 +28466,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A422" t="s">
         <v>188</v>
       </c>
@@ -28468,7 +28498,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A423" t="s">
         <v>188</v>
       </c>
@@ -28509,7 +28539,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A424" t="s">
         <v>188</v>
       </c>
@@ -28556,7 +28586,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A425" t="s">
         <v>188</v>
       </c>
@@ -28600,7 +28630,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A426" t="s">
         <v>188</v>
       </c>
@@ -28641,7 +28671,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A427" t="s">
         <v>188</v>
       </c>
@@ -28682,7 +28712,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A428" t="s">
         <v>188</v>
       </c>
@@ -28723,7 +28753,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A429" t="s">
         <v>188</v>
       </c>
@@ -28758,7 +28788,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A430" t="s">
         <v>188</v>
       </c>
@@ -28799,7 +28829,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A431" t="s">
         <v>188</v>
       </c>
@@ -28840,7 +28870,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A432" t="s">
         <v>188</v>
       </c>
@@ -28881,7 +28911,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A433" t="s">
         <v>2385</v>
       </c>
@@ -28910,7 +28940,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A434" t="s">
         <v>2385</v>
       </c>
@@ -28936,7 +28966,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A435" t="s">
         <v>188</v>
       </c>
@@ -28977,7 +29007,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A436" t="s">
         <v>188</v>
       </c>
@@ -29018,7 +29048,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A437" t="s">
         <v>188</v>
       </c>
@@ -29059,7 +29089,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A438" t="s">
         <v>188</v>
       </c>
@@ -29100,7 +29130,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A439" t="s">
         <v>188</v>
       </c>
@@ -29144,7 +29174,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A440" t="s">
         <v>188</v>
       </c>
@@ -29185,7 +29215,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A441" t="s">
         <v>188</v>
       </c>
@@ -29226,7 +29256,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A442" t="s">
         <v>188</v>
       </c>
@@ -29267,7 +29297,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A443" t="s">
         <v>188</v>
       </c>
@@ -29308,7 +29338,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A444" t="s">
         <v>188</v>
       </c>
@@ -29349,7 +29379,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A445" t="s">
         <v>188</v>
       </c>
@@ -29390,7 +29420,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A446" t="s">
         <v>374</v>
       </c>
@@ -29428,7 +29458,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A447" t="s">
         <v>188</v>
       </c>
@@ -29469,7 +29499,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A448" t="s">
         <v>188</v>
       </c>
@@ -29510,7 +29540,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A449" t="s">
         <v>188</v>
       </c>
@@ -29551,7 +29581,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A450" t="s">
         <v>188</v>
       </c>
@@ -29592,7 +29622,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A451" t="s">
         <v>188</v>
       </c>
@@ -29636,7 +29666,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A452" t="s">
         <v>324</v>
       </c>
@@ -29674,7 +29704,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A453" t="s">
         <v>188</v>
       </c>
@@ -29721,7 +29751,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A454" t="s">
         <v>188</v>
       </c>
@@ -29756,7 +29786,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A455" t="s">
         <v>188</v>
       </c>
@@ -29800,7 +29830,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A456" t="s">
         <v>188</v>
       </c>
@@ -29841,7 +29871,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A457" t="s">
         <v>188</v>
       </c>
@@ -29888,7 +29918,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A458" t="s">
         <v>188</v>
       </c>
@@ -29935,7 +29965,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A459" t="s">
         <v>188</v>
       </c>
@@ -29976,7 +30006,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A460" t="s">
         <v>188</v>
       </c>
@@ -30017,7 +30047,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A461" t="s">
         <v>188</v>
       </c>
@@ -30058,7 +30088,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A462" t="s">
         <v>188</v>
       </c>
@@ -30099,7 +30129,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A463" t="s">
         <v>188</v>
       </c>
@@ -30143,7 +30173,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A464" t="s">
         <v>188</v>
       </c>
@@ -30184,7 +30214,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A465" t="s">
         <v>188</v>
       </c>
@@ -30222,7 +30252,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A466" t="s">
         <v>188</v>
       </c>
@@ -30263,7 +30293,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A467" t="s">
         <v>188</v>
       </c>
@@ -30304,7 +30334,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A468" t="s">
         <v>188</v>
       </c>
@@ -30345,7 +30375,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A469" t="s">
         <v>188</v>
       </c>
@@ -30386,7 +30416,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A470" t="s">
         <v>188</v>
       </c>
@@ -30427,7 +30457,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A471" t="s">
         <v>188</v>
       </c>
@@ -30468,7 +30498,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A472" t="s">
         <v>188</v>
       </c>
@@ -30506,7 +30536,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A473" t="s">
         <v>188</v>
       </c>
@@ -30547,7 +30577,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A474" t="s">
         <v>188</v>
       </c>
@@ -30588,7 +30618,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A475" t="s">
         <v>188</v>
       </c>
@@ -30629,7 +30659,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A476" t="s">
         <v>2385</v>
       </c>
@@ -30661,7 +30691,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A477" t="s">
         <v>188</v>
       </c>
@@ -30702,7 +30732,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A478" t="s">
         <v>188</v>
       </c>
@@ -30743,7 +30773,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A479" t="s">
         <v>188</v>
       </c>
@@ -30784,7 +30814,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A480" t="s">
         <v>188</v>
       </c>
@@ -30828,7 +30858,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A481" t="s">
         <v>188</v>
       </c>
@@ -30869,7 +30899,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A482" t="s">
         <v>188</v>
       </c>
@@ -30901,7 +30931,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A483" t="s">
         <v>188</v>
       </c>
@@ -30942,7 +30972,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A484" t="s">
         <v>188</v>
       </c>
@@ -30983,7 +31013,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A485" t="s">
         <v>2385</v>
       </c>
@@ -31015,7 +31045,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A486" t="s">
         <v>188</v>
       </c>
@@ -31059,7 +31089,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A487" t="s">
         <v>188</v>
       </c>
@@ -31100,7 +31130,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A488" t="s">
         <v>188</v>
       </c>
@@ -31141,7 +31171,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A489" t="s">
         <v>2385</v>
       </c>
@@ -31170,7 +31200,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A490" t="s">
         <v>188</v>
       </c>
@@ -31211,7 +31241,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A491" t="s">
         <v>188</v>
       </c>
@@ -31255,7 +31285,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A492" t="s">
         <v>188</v>
       </c>
@@ -31313,13 +31343,13 @@
       <selection pane="bottomLeft" activeCell="Z251" sqref="Z251"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="22" max="22" width="10.83203125" style="11"/>
+    <col min="22" max="22" width="10.84765625" style="11"/>
     <col min="35" max="35" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -31456,7 +31486,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -31563,7 +31593,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -31670,7 +31700,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -31777,7 +31807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -31884,7 +31914,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -31991,7 +32021,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -32098,7 +32128,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -32205,7 +32235,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -32312,7 +32342,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -32416,7 +32446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -32520,7 +32550,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -32624,7 +32654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -32728,7 +32758,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -32832,7 +32862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -32936,7 +32966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -33040,7 +33070,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -33144,7 +33174,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -33248,7 +33278,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -33352,7 +33382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -33456,7 +33486,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -33560,7 +33590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -33664,7 +33694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -33768,7 +33798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -33872,7 +33902,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -33976,7 +34006,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -34080,7 +34110,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -34184,7 +34214,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -34288,7 +34318,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -34392,7 +34422,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -34496,7 +34526,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -34600,7 +34630,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -34704,7 +34734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -34808,7 +34838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -34915,7 +34945,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -35022,7 +35052,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -35114,7 +35144,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -35209,7 +35239,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -35301,7 +35331,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -35393,7 +35423,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -35482,7 +35512,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -35571,7 +35601,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -35663,7 +35693,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -35755,7 +35785,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -35847,7 +35877,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -35936,7 +35966,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -36025,7 +36055,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -36117,7 +36147,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -36209,7 +36239,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -36301,7 +36331,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -36390,7 +36420,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -36479,7 +36509,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -36571,7 +36601,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -36663,7 +36693,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -36755,7 +36785,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -36844,7 +36874,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -36939,7 +36969,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -37036,7 +37066,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -37133,7 +37163,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -37230,7 +37260,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -37325,7 +37355,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -37420,7 +37450,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -37517,7 +37547,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -37614,7 +37644,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -37711,7 +37741,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
         <v>58</v>
       </c>
@@ -37806,7 +37836,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
         <v>58</v>
       </c>
@@ -37895,7 +37925,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -37987,7 +38017,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
         <v>58</v>
       </c>
@@ -38079,7 +38109,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
         <v>58</v>
       </c>
@@ -38171,7 +38201,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
         <v>58</v>
       </c>
@@ -38260,7 +38290,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
         <v>58</v>
       </c>
@@ -38349,7 +38379,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
         <v>58</v>
       </c>
@@ -38441,7 +38471,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
         <v>58</v>
       </c>
@@ -38533,7 +38563,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
         <v>58</v>
       </c>
@@ -38625,7 +38655,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -38714,7 +38744,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
         <v>58</v>
       </c>
@@ -38803,7 +38833,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
         <v>58</v>
       </c>
@@ -38895,7 +38925,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
         <v>58</v>
       </c>
@@ -38987,7 +39017,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
         <v>58</v>
       </c>
@@ -39079,7 +39109,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
         <v>58</v>
       </c>
@@ -39168,7 +39198,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
         <v>58</v>
       </c>
@@ -39257,7 +39287,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
         <v>58</v>
       </c>
@@ -39349,7 +39379,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A83" t="s">
         <v>58</v>
       </c>
@@ -39441,7 +39471,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
         <v>58</v>
       </c>
@@ -39533,7 +39563,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
         <v>58</v>
       </c>
@@ -39622,7 +39652,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A86" t="s">
         <v>58</v>
       </c>
@@ -39717,7 +39747,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A87" t="s">
         <v>58</v>
       </c>
@@ -39814,7 +39844,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A88" t="s">
         <v>58</v>
       </c>
@@ -39911,7 +39941,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A89" t="s">
         <v>58</v>
       </c>
@@ -40008,7 +40038,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A90" t="s">
         <v>58</v>
       </c>
@@ -40103,7 +40133,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A91" t="s">
         <v>58</v>
       </c>
@@ -40198,7 +40228,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -40294,7 +40324,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A93" t="s">
         <v>58</v>
       </c>
@@ -40391,7 +40421,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A94" t="s">
         <v>58</v>
       </c>
@@ -40487,7 +40517,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A95" t="s">
         <v>58</v>
       </c>
@@ -40581,7 +40611,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A96" t="s">
         <v>58</v>
       </c>
@@ -40671,7 +40701,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A97" t="s">
         <v>58</v>
       </c>
@@ -40764,7 +40794,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A98" t="s">
         <v>58</v>
       </c>
@@ -40856,7 +40886,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A99" t="s">
         <v>58</v>
       </c>
@@ -40949,7 +40979,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A100" t="s">
         <v>58</v>
       </c>
@@ -41039,7 +41069,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A101" t="s">
         <v>58</v>
       </c>
@@ -41129,7 +41159,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A102" t="s">
         <v>58</v>
       </c>
@@ -41222,7 +41252,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A103" t="s">
         <v>58</v>
       </c>
@@ -41314,7 +41344,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A104" t="s">
         <v>58</v>
       </c>
@@ -41407,7 +41437,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A105" t="s">
         <v>58</v>
       </c>
@@ -41497,7 +41527,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A106" t="s">
         <v>58</v>
       </c>
@@ -41586,7 +41616,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A107" t="s">
         <v>58</v>
       </c>
@@ -41678,7 +41708,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A108" t="s">
         <v>58</v>
       </c>
@@ -41770,7 +41800,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A109" t="s">
         <v>58</v>
       </c>
@@ -41862,7 +41892,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A110" t="s">
         <v>58</v>
       </c>
@@ -41951,7 +41981,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A111" t="s">
         <v>58</v>
       </c>
@@ -42040,7 +42070,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A112" t="s">
         <v>58</v>
       </c>
@@ -42132,7 +42162,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A113" t="s">
         <v>58</v>
       </c>
@@ -42224,7 +42254,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A114" t="s">
         <v>58</v>
       </c>
@@ -42316,7 +42346,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A115" t="s">
         <v>58</v>
       </c>
@@ -42405,7 +42435,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="116" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A116" t="s">
         <v>58</v>
       </c>
@@ -42499,7 +42529,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="117" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A117" t="s">
         <v>58</v>
       </c>
@@ -42595,7 +42625,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="118" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A118" t="s">
         <v>58</v>
       </c>
@@ -42692,7 +42722,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A119" t="s">
         <v>58</v>
       </c>
@@ -42788,7 +42818,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A120" t="s">
         <v>58</v>
       </c>
@@ -42882,7 +42912,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A121" t="s">
         <v>58</v>
       </c>
@@ -42976,7 +43006,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="122" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A122" t="s">
         <v>58</v>
       </c>
@@ -43072,7 +43102,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="123" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A123" t="s">
         <v>58</v>
       </c>
@@ -43169,7 +43199,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="124" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A124" t="s">
         <v>58</v>
       </c>
@@ -43265,7 +43295,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="125" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A125" t="s">
         <v>58</v>
       </c>
@@ -43359,7 +43389,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="126" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A126" t="s">
         <v>58</v>
       </c>
@@ -43443,7 +43473,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A127" t="s">
         <v>58</v>
       </c>
@@ -43529,7 +43559,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A128" t="s">
         <v>58</v>
       </c>
@@ -43615,7 +43645,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="129" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A129" t="s">
         <v>58</v>
       </c>
@@ -43701,7 +43731,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="130" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A130" t="s">
         <v>58</v>
       </c>
@@ -43784,7 +43814,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="131" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A131" t="s">
         <v>58</v>
       </c>
@@ -43868,7 +43898,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="132" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A132" t="s">
         <v>58</v>
       </c>
@@ -43955,7 +43985,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="133" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A133" t="s">
         <v>58</v>
       </c>
@@ -44041,7 +44071,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="134" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A134" t="s">
         <v>58</v>
       </c>
@@ -44128,7 +44158,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="135" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A135" t="s">
         <v>58</v>
       </c>
@@ -44212,7 +44242,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="136" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A136" t="s">
         <v>58</v>
       </c>
@@ -44296,7 +44326,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="137" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A137" t="s">
         <v>58</v>
       </c>
@@ -44383,7 +44413,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="138" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A138" t="s">
         <v>58</v>
       </c>
@@ -44469,7 +44499,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="139" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A139" t="s">
         <v>58</v>
       </c>
@@ -44556,7 +44586,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="140" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A140" t="s">
         <v>58</v>
       </c>
@@ -44640,7 +44670,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="141" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A141" t="s">
         <v>58</v>
       </c>
@@ -44723,7 +44753,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="142" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A142" t="s">
         <v>58</v>
       </c>
@@ -44809,7 +44839,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="143" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A143" t="s">
         <v>58</v>
       </c>
@@ -44895,7 +44925,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="144" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A144" t="s">
         <v>58</v>
       </c>
@@ -44981,7 +45011,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="145" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A145" t="s">
         <v>58</v>
       </c>
@@ -45064,7 +45094,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="146" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A146" t="s">
         <v>58</v>
       </c>
@@ -45151,7 +45181,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="147" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A147" t="s">
         <v>58</v>
       </c>
@@ -45240,7 +45270,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="148" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A148" t="s">
         <v>58</v>
       </c>
@@ -45330,7 +45360,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="149" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A149" t="s">
         <v>58</v>
       </c>
@@ -45419,7 +45449,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="150" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A150" t="s">
         <v>58</v>
       </c>
@@ -45506,7 +45536,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="151" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A151" t="s">
         <v>58</v>
       </c>
@@ -45593,7 +45623,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="152" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A152" t="s">
         <v>58</v>
       </c>
@@ -45682,7 +45712,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="153" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A153" t="s">
         <v>58</v>
       </c>
@@ -45772,7 +45802,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="154" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A154" t="s">
         <v>58</v>
       </c>
@@ -45861,7 +45891,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="155" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A155" t="s">
         <v>58</v>
       </c>
@@ -45948,7 +45978,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="156" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A156" t="s">
         <v>58</v>
       </c>
@@ -46035,7 +46065,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="157" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A157" t="s">
         <v>58</v>
       </c>
@@ -46125,7 +46155,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="158" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A158" t="s">
         <v>58</v>
       </c>
@@ -46215,7 +46245,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="159" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A159" t="s">
         <v>58</v>
       </c>
@@ -46305,7 +46335,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="160" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A160" t="s">
         <v>58</v>
       </c>
@@ -46392,7 +46422,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="161" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A161" t="s">
         <v>58</v>
       </c>
@@ -46480,7 +46510,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="162" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A162" t="s">
         <v>58</v>
       </c>
@@ -46570,7 +46600,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="163" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A163" t="s">
         <v>58</v>
       </c>
@@ -46660,7 +46690,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="164" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A164" t="s">
         <v>58</v>
       </c>
@@ -46750,7 +46780,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="165" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A165" t="s">
         <v>58</v>
       </c>
@@ -46837,7 +46867,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="166" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A166" t="s">
         <v>58</v>
       </c>
@@ -46921,7 +46951,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="167" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A167" t="s">
         <v>58</v>
       </c>
@@ -47008,7 +47038,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="168" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A168" t="s">
         <v>58</v>
       </c>
@@ -47094,7 +47124,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A169" t="s">
         <v>58</v>
       </c>
@@ -47181,7 +47211,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="170" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A170" t="s">
         <v>58</v>
       </c>
@@ -47265,7 +47295,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="171" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A171" t="s">
         <v>58</v>
       </c>
@@ -47349,7 +47379,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A172" t="s">
         <v>58</v>
       </c>
@@ -47436,7 +47466,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A173" t="s">
         <v>58</v>
       </c>
@@ -47522,7 +47552,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A174" t="s">
         <v>58</v>
       </c>
@@ -47609,7 +47639,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="175" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A175" t="s">
         <v>58</v>
       </c>
@@ -47693,7 +47723,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="176" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A176" t="s">
         <v>58</v>
       </c>
@@ -47776,7 +47806,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="177" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A177" t="s">
         <v>58</v>
       </c>
@@ -47862,7 +47892,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="178" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A178" t="s">
         <v>58</v>
       </c>
@@ -47948,7 +47978,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="179" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A179" t="s">
         <v>58</v>
       </c>
@@ -48034,7 +48064,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="180" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A180" t="s">
         <v>58</v>
       </c>
@@ -48117,7 +48147,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="181" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A181" t="s">
         <v>58</v>
       </c>
@@ -48200,7 +48230,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="182" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A182" t="s">
         <v>58</v>
       </c>
@@ -48286,7 +48316,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="183" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A183" t="s">
         <v>58</v>
       </c>
@@ -48372,7 +48402,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="184" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A184" t="s">
         <v>58</v>
       </c>
@@ -48458,7 +48488,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="185" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A185" t="s">
         <v>58</v>
       </c>
@@ -48541,7 +48571,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="186" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A186" t="s">
         <v>58</v>
       </c>
@@ -48628,7 +48658,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="187" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A187" t="s">
         <v>58</v>
       </c>
@@ -48717,7 +48747,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="188" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A188" t="s">
         <v>58</v>
       </c>
@@ -48807,7 +48837,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="189" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A189" t="s">
         <v>58</v>
       </c>
@@ -48896,7 +48926,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="190" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A190" t="s">
         <v>58</v>
       </c>
@@ -48983,7 +49013,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="191" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A191" t="s">
         <v>58</v>
       </c>
@@ -49070,7 +49100,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="192" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A192" t="s">
         <v>58</v>
       </c>
@@ -49159,7 +49189,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="193" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A193" t="s">
         <v>58</v>
       </c>
@@ -49249,7 +49279,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="194" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A194" t="s">
         <v>58</v>
       </c>
@@ -49338,7 +49368,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="195" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A195" t="s">
         <v>58</v>
       </c>
@@ -49425,7 +49455,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="196" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A196" t="s">
         <v>58</v>
       </c>
@@ -49513,7 +49543,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="197" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A197" t="s">
         <v>58</v>
       </c>
@@ -49603,7 +49633,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="198" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A198" t="s">
         <v>58</v>
       </c>
@@ -49693,7 +49723,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="199" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A199" t="s">
         <v>58</v>
       </c>
@@ -49783,7 +49813,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="200" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A200" t="s">
         <v>58</v>
       </c>
@@ -49870,7 +49900,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="201" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A201" t="s">
         <v>58</v>
       </c>
@@ -49958,7 +49988,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="202" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A202" t="s">
         <v>58</v>
       </c>
@@ -50049,7 +50079,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="203" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A203" t="s">
         <v>58</v>
       </c>
@@ -50139,7 +50169,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="204" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A204" t="s">
         <v>58</v>
       </c>
@@ -50230,7 +50260,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="205" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A205" t="s">
         <v>58</v>
       </c>
@@ -50318,7 +50348,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="206" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A206" t="s">
         <v>58</v>
       </c>
@@ -50402,7 +50432,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="207" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A207" t="s">
         <v>58</v>
       </c>
@@ -50489,7 +50519,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="208" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A208" t="s">
         <v>58</v>
       </c>
@@ -50575,7 +50605,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="209" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A209" t="s">
         <v>58</v>
       </c>
@@ -50662,7 +50692,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="210" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A210" t="s">
         <v>58</v>
       </c>
@@ -50746,7 +50776,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="211" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A211" t="s">
         <v>58</v>
       </c>
@@ -50829,7 +50859,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="212" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A212" t="s">
         <v>58</v>
       </c>
@@ -50915,7 +50945,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="213" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A213" t="s">
         <v>58</v>
       </c>
@@ -51001,7 +51031,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="214" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A214" t="s">
         <v>58</v>
       </c>
@@ -51087,7 +51117,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="215" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A215" t="s">
         <v>58</v>
       </c>
@@ -51170,7 +51200,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="216" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A216" t="s">
         <v>58</v>
       </c>
@@ -51253,7 +51283,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="217" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A217" t="s">
         <v>58</v>
       </c>
@@ -51339,7 +51369,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="218" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A218" t="s">
         <v>58</v>
       </c>
@@ -51425,7 +51455,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="219" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A219" t="s">
         <v>58</v>
       </c>
@@ -51511,7 +51541,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="220" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A220" t="s">
         <v>58</v>
       </c>
@@ -51594,7 +51624,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="221" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A221" t="s">
         <v>58</v>
       </c>
@@ -51677,7 +51707,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="222" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A222" t="s">
         <v>58</v>
       </c>
@@ -51763,7 +51793,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="223" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A223" t="s">
         <v>58</v>
       </c>
@@ -51849,7 +51879,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="224" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A224" t="s">
         <v>58</v>
       </c>
@@ -51935,7 +51965,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="225" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A225" t="s">
         <v>58</v>
       </c>
@@ -52018,7 +52048,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="226" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A226" t="s">
         <v>58</v>
       </c>
@@ -52105,7 +52135,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="227" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A227" t="s">
         <v>58</v>
       </c>
@@ -52194,7 +52224,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="228" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A228" t="s">
         <v>58</v>
       </c>
@@ -52284,7 +52314,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="229" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A229" t="s">
         <v>58</v>
       </c>
@@ -52373,7 +52403,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="230" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A230" t="s">
         <v>58</v>
       </c>
@@ -52460,7 +52490,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="231" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A231" t="s">
         <v>58</v>
       </c>
@@ -52548,7 +52578,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="232" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A232" t="s">
         <v>58</v>
       </c>
@@ -52637,7 +52667,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="233" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A233" t="s">
         <v>58</v>
       </c>
@@ -52727,7 +52757,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="234" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A234" t="s">
         <v>58</v>
       </c>
@@ -52816,7 +52846,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="235" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A235" t="s">
         <v>58</v>
       </c>
@@ -52903,7 +52933,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="236" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A236" t="s">
         <v>58</v>
       </c>
@@ -52991,7 +53021,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="237" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A237" t="s">
         <v>58</v>
       </c>
@@ -53082,7 +53112,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="238" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A238" t="s">
         <v>58</v>
       </c>
@@ -53172,7 +53202,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="239" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A239" t="s">
         <v>58</v>
       </c>
@@ -53263,7 +53293,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="240" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A240" t="s">
         <v>58</v>
       </c>
@@ -53351,7 +53381,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="241" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A241" t="s">
         <v>58</v>
       </c>
@@ -53439,7 +53469,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="242" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A242" t="s">
         <v>58</v>
       </c>
@@ -53530,7 +53560,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="243" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A243" t="s">
         <v>58</v>
       </c>
@@ -53620,7 +53650,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="244" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A244" t="s">
         <v>58</v>
       </c>
@@ -53711,7 +53741,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="245" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A245" t="s">
         <v>58</v>
       </c>
@@ -53799,7 +53829,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="246" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A246" t="s">
         <v>36</v>
       </c>
@@ -53867,7 +53897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A247" t="s">
         <v>36</v>
       </c>
@@ -53926,7 +53956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A248" t="s">
         <v>36</v>
       </c>
@@ -53985,7 +54015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A249" t="s">
         <v>36</v>
       </c>
@@ -54044,7 +54074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A250" t="s">
         <v>36</v>
       </c>
@@ -54103,7 +54133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:44" x14ac:dyDescent="0.6">
       <c r="V251" s="11" t="s">
         <v>41</v>
       </c>
@@ -54129,25 +54159,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:44" x14ac:dyDescent="0.6">
       <c r="X252">
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:44" x14ac:dyDescent="0.6">
       <c r="X253">
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:44" x14ac:dyDescent="0.6">
       <c r="X254">
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="29:29" x14ac:dyDescent="0.2">
+    <row r="266" spans="29:29" x14ac:dyDescent="0.6">
       <c r="AC266" s="2"/>
     </row>
-    <row r="267" spans="29:29" x14ac:dyDescent="0.2">
+    <row r="267" spans="29:29" x14ac:dyDescent="0.6">
       <c r="AC267" s="2"/>
     </row>
   </sheetData>
@@ -54164,9 +54194,9 @@
       <selection activeCell="I39" sqref="I39:I231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -54183,7 +54213,7 @@
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -54200,7 +54230,7 @@
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -54217,7 +54247,7 @@
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -54234,7 +54264,7 @@
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -54251,7 +54281,7 @@
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -54268,7 +54298,7 @@
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -54285,7 +54315,7 @@
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -54302,7 +54332,7 @@
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -54319,7 +54349,7 @@
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -54336,7 +54366,7 @@
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -54353,7 +54383,7 @@
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -54370,7 +54400,7 @@
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -54387,7 +54417,7 @@
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -54404,7 +54434,7 @@
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -54421,7 +54451,7 @@
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -54438,7 +54468,7 @@
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -54455,7 +54485,7 @@
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -54472,7 +54502,7 @@
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -54489,7 +54519,7 @@
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -54506,7 +54536,7 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -54523,7 +54553,7 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -54540,7 +54570,7 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.6">
       <c r="F79" s="1"/>
     </row>
   </sheetData>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\oegres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C4DF18-3742-401B-B141-D66554CCACDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88673B5-B465-4245-8F83-BFA6F5B9DAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9491,7 +9491,7 @@
   <dimension ref="A1:T492"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H158" workbookViewId="0">
-      <selection activeCell="T176" sqref="T176"/>
+      <selection activeCell="T172" sqref="T172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9399A0C2-4361-D94D-9837-45836272B2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C66BA2-751E-D542-8302-E561697FD227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35820" yWindow="2260" windowWidth="35340" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35540" yWindow="800" windowWidth="35340" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9859" uniqueCount="2648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9879" uniqueCount="2648">
   <si>
     <t>datasetID</t>
   </si>
@@ -9479,8 +9479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="T175" sqref="T175:T185"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="T205" sqref="T205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18417,6 +18417,9 @@
       <c r="S186" t="s">
         <v>1217</v>
       </c>
+      <c r="T186" s="18" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
@@ -18461,6 +18464,9 @@
       <c r="S187" t="s">
         <v>1222</v>
       </c>
+      <c r="T187" s="18" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
@@ -18502,6 +18508,9 @@
       <c r="S188" t="s">
         <v>1227</v>
       </c>
+      <c r="T188" s="18" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
@@ -18546,6 +18555,9 @@
       <c r="S189" t="s">
         <v>1231</v>
       </c>
+      <c r="T189" s="18" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
@@ -18590,6 +18602,9 @@
       <c r="S190" t="s">
         <v>1237</v>
       </c>
+      <c r="T190" s="18" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
@@ -18634,6 +18649,9 @@
       <c r="S191" t="s">
         <v>1243</v>
       </c>
+      <c r="T191" s="18" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
@@ -18678,8 +18696,11 @@
       <c r="S192" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T192" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>187</v>
       </c>
@@ -18722,8 +18743,11 @@
       <c r="S193" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T193" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>187</v>
       </c>
@@ -18763,8 +18787,11 @@
       <c r="S194" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T194" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>187</v>
       </c>
@@ -18801,8 +18828,11 @@
       <c r="S195" t="s">
         <v>1263</v>
       </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T195" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>187</v>
       </c>
@@ -18845,8 +18875,11 @@
       <c r="S196" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T196" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>187</v>
       </c>
@@ -18889,8 +18922,11 @@
       <c r="S197" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T197" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -18933,8 +18969,11 @@
       <c r="S198" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T198" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>187</v>
       </c>
@@ -18977,8 +19016,11 @@
       <c r="S199" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T199" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>187</v>
       </c>
@@ -19021,8 +19063,11 @@
       <c r="S200" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T200" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>187</v>
       </c>
@@ -19065,8 +19110,11 @@
       <c r="S201" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T201" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>187</v>
       </c>
@@ -19109,8 +19157,11 @@
       <c r="S202" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T202" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>187</v>
       </c>
@@ -19153,8 +19204,11 @@
       <c r="S203" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T203" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>187</v>
       </c>
@@ -19197,8 +19251,11 @@
       <c r="S204" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T204" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>187</v>
       </c>
@@ -19241,8 +19298,11 @@
       <c r="S205" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T205" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>187</v>
       </c>
@@ -19286,7 +19346,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>187</v>
       </c>
@@ -19330,7 +19390,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>187</v>
       </c>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\oegres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C66BA2-751E-D542-8302-E561697FD227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E92D09-B734-41C1-9EF6-0B3614163E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35540" yWindow="800" windowWidth="35340" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,24 @@
     <sheet name="data_detailed" sheetId="1" r:id="rId3"/>
     <sheet name="scratch" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9879" uniqueCount="2648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9883" uniqueCount="2649">
   <si>
     <t>datasetID</t>
   </si>
@@ -7967,6 +7979,9 @@
   </si>
   <si>
     <t xml:space="preserve">number of days germination monitored -- negative values should be used if germination occurs prior to the start of the experiment </t>
+  </si>
+  <si>
+    <t>Too complicated… need to double check</t>
   </si>
 </sst>
 </file>
@@ -8503,7 +8518,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8531,6 +8546,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8912,18 +8928,18 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="2" max="2" width="70.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" s="5" t="s">
         <v>72</v>
       </c>
@@ -8934,10 +8950,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -8945,7 +8961,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
         <v>75</v>
       </c>
@@ -8953,7 +8969,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
         <v>77</v>
       </c>
@@ -8961,7 +8977,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
         <v>79</v>
       </c>
@@ -8969,7 +8985,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
         <v>81</v>
       </c>
@@ -8977,7 +8993,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10" s="6" t="s">
         <v>83</v>
       </c>
@@ -8985,7 +9001,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
         <v>85</v>
       </c>
@@ -8993,7 +9009,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
         <v>87</v>
       </c>
@@ -9001,7 +9017,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A13" s="6" t="s">
         <v>89</v>
       </c>
@@ -9009,7 +9025,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14" s="6" t="s">
         <v>91</v>
       </c>
@@ -9017,7 +9033,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A15" s="6" t="s">
         <v>93</v>
       </c>
@@ -9025,7 +9041,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A16" s="6" t="s">
         <v>95</v>
       </c>
@@ -9033,7 +9049,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17" s="6" t="s">
         <v>97</v>
       </c>
@@ -9041,7 +9057,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A18" s="6" t="s">
         <v>99</v>
       </c>
@@ -9052,7 +9068,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A19" s="6"/>
       <c r="B19" s="2" t="s">
         <v>102</v>
@@ -9061,7 +9077,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A20" s="6"/>
       <c r="B20" s="2" t="s">
         <v>104</v>
@@ -9070,7 +9086,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A21" s="6"/>
       <c r="B21" s="2" t="s">
         <v>106</v>
@@ -9079,7 +9095,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
         <v>110</v>
       </c>
@@ -9087,12 +9103,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
         <v>113</v>
       </c>
@@ -9100,7 +9116,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
@@ -9108,7 +9124,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
@@ -9116,7 +9132,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A30" s="7" t="s">
         <v>2</v>
       </c>
@@ -9124,7 +9140,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A31" s="6" t="s">
         <v>3</v>
       </c>
@@ -9132,7 +9148,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
@@ -9140,7 +9156,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
@@ -9148,7 +9164,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A34" s="6" t="s">
         <v>779</v>
       </c>
@@ -9156,7 +9172,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -9164,7 +9180,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A36" s="6" t="s">
         <v>7</v>
       </c>
@@ -9172,7 +9188,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A37" s="7" t="s">
         <v>128</v>
       </c>
@@ -9180,7 +9196,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A38" s="7" t="s">
         <v>129</v>
       </c>
@@ -9188,7 +9204,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A39" s="7" t="s">
         <v>126</v>
       </c>
@@ -9196,7 +9212,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A40" s="7" t="s">
         <v>11</v>
       </c>
@@ -9204,7 +9220,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A41" s="7" t="s">
         <v>12</v>
       </c>
@@ -9212,7 +9228,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A42" s="7" t="s">
         <v>13</v>
       </c>
@@ -9220,7 +9236,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A43" s="7" t="s">
         <v>156</v>
       </c>
@@ -9228,7 +9244,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A44" s="7" t="s">
         <v>157</v>
       </c>
@@ -9236,7 +9252,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A45" s="7" t="s">
         <v>154</v>
       </c>
@@ -9244,7 +9260,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A46" s="7" t="s">
         <v>153</v>
       </c>
@@ -9252,7 +9268,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A47" s="7" t="s">
         <v>14</v>
       </c>
@@ -9260,7 +9276,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A48" s="7" t="s">
         <v>15</v>
       </c>
@@ -9268,7 +9284,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A49" s="7" t="s">
         <v>16</v>
       </c>
@@ -9276,7 +9292,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A50" s="7" t="s">
         <v>17</v>
       </c>
@@ -9284,7 +9300,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A51" s="7" t="s">
         <v>18</v>
       </c>
@@ -9292,7 +9308,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A52" s="7" t="s">
         <v>19</v>
       </c>
@@ -9300,7 +9316,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A53" s="7" t="s">
         <v>20</v>
       </c>
@@ -9308,7 +9324,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A54" s="7" t="s">
         <v>21</v>
       </c>
@@ -9316,7 +9332,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A55" s="7" t="s">
         <v>140</v>
       </c>
@@ -9324,7 +9340,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A56" s="7" t="s">
         <v>23</v>
       </c>
@@ -9332,7 +9348,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A57" s="7" t="s">
         <v>24</v>
       </c>
@@ -9340,7 +9356,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A58" s="7" t="s">
         <v>25</v>
       </c>
@@ -9348,7 +9364,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A59" s="7" t="s">
         <v>26</v>
       </c>
@@ -9356,7 +9372,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A60" s="7" t="s">
         <v>27</v>
       </c>
@@ -9364,7 +9380,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A61" s="7" t="s">
         <v>28</v>
       </c>
@@ -9372,7 +9388,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A62" s="7" t="s">
         <v>790</v>
       </c>
@@ -9380,7 +9396,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A63" s="7" t="s">
         <v>29</v>
       </c>
@@ -9388,7 +9404,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A64" s="7" t="s">
         <v>30</v>
       </c>
@@ -9396,7 +9412,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A65" s="7" t="s">
         <v>149</v>
       </c>
@@ -9404,7 +9420,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A66" s="7" t="s">
         <v>31</v>
       </c>
@@ -9412,7 +9428,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A67" s="7" t="s">
         <v>32</v>
       </c>
@@ -9420,7 +9436,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A68" s="7" t="s">
         <v>33</v>
       </c>
@@ -9428,7 +9444,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A69" s="7" t="s">
         <v>34</v>
       </c>
@@ -9436,7 +9452,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A70" s="2" t="s">
         <v>784</v>
       </c>
@@ -9444,7 +9460,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A71" s="7" t="s">
         <v>35</v>
       </c>
@@ -9452,7 +9468,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A72" s="7" t="s">
         <v>93</v>
       </c>
@@ -9479,18 +9495,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="T205" sqref="T205"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M161" sqref="M161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="18" max="18" width="15.1640625" customWidth="1"/>
+    <col min="18" max="18" width="15.1484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A1" s="16" t="s">
         <v>172</v>
       </c>
@@ -9552,7 +9568,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A2" s="16" t="s">
         <v>187</v>
       </c>
@@ -9600,7 +9616,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A3" s="16" t="s">
         <v>187</v>
       </c>
@@ -9646,7 +9662,7 @@
       </c>
       <c r="T3" s="16"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A4" s="16" t="s">
         <v>187</v>
       </c>
@@ -9698,7 +9714,7 @@
       </c>
       <c r="T4" s="16"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A5" s="16" t="s">
         <v>187</v>
       </c>
@@ -9752,7 +9768,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
         <v>187</v>
       </c>
@@ -9806,7 +9822,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
         <v>187</v>
       </c>
@@ -9860,7 +9876,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
         <v>187</v>
       </c>
@@ -9912,7 +9928,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
         <v>187</v>
       </c>
@@ -9966,7 +9982,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A10" s="16" t="s">
         <v>187</v>
       </c>
@@ -10022,7 +10038,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A11" s="16" t="s">
         <v>187</v>
       </c>
@@ -10072,7 +10088,7 @@
       </c>
       <c r="T11" s="16"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A12" s="16" t="s">
         <v>187</v>
       </c>
@@ -10124,7 +10140,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A13" s="16" t="s">
         <v>187</v>
       </c>
@@ -10174,7 +10190,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A14" s="16" t="s">
         <v>187</v>
       </c>
@@ -10228,7 +10244,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A15" s="16" t="s">
         <v>187</v>
       </c>
@@ -10282,7 +10298,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A16" s="16" t="s">
         <v>187</v>
       </c>
@@ -10332,7 +10348,7 @@
       </c>
       <c r="T16" s="16"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A17" s="16" t="s">
         <v>187</v>
       </c>
@@ -10384,7 +10400,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A18" s="16" t="s">
         <v>187</v>
       </c>
@@ -10438,7 +10454,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A19" s="16" t="s">
         <v>187</v>
       </c>
@@ -10490,7 +10506,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A20" s="16" t="s">
         <v>187</v>
       </c>
@@ -10540,7 +10556,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A21" s="16" t="s">
         <v>187</v>
       </c>
@@ -10594,7 +10610,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
         <v>187</v>
       </c>
@@ -10646,7 +10662,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
         <v>187</v>
       </c>
@@ -10698,7 +10714,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A24" s="16" t="s">
         <v>187</v>
       </c>
@@ -10748,7 +10764,7 @@
       </c>
       <c r="T24" s="16"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A25" s="16" t="s">
         <v>187</v>
       </c>
@@ -10800,7 +10816,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A26" s="16" t="s">
         <v>187</v>
       </c>
@@ -10852,7 +10868,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A27" s="16" t="s">
         <v>187</v>
       </c>
@@ -10902,7 +10918,7 @@
       </c>
       <c r="T27" s="16"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A28" s="16" t="s">
         <v>187</v>
       </c>
@@ -10952,7 +10968,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A29" s="16" t="s">
         <v>187</v>
       </c>
@@ -11004,7 +11020,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A30" s="16" t="s">
         <v>187</v>
       </c>
@@ -11054,7 +11070,7 @@
       </c>
       <c r="T30" s="16"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A31" s="16" t="s">
         <v>187</v>
       </c>
@@ -11110,7 +11126,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A32" s="16" t="s">
         <v>187</v>
       </c>
@@ -11164,7 +11180,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A33" s="16" t="s">
         <v>187</v>
       </c>
@@ -11218,7 +11234,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A34" s="16" t="s">
         <v>187</v>
       </c>
@@ -11272,7 +11288,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A35" s="16" t="s">
         <v>187</v>
       </c>
@@ -11326,7 +11342,7 @@
       </c>
       <c r="T35" s="16"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A36" s="16" t="s">
         <v>187</v>
       </c>
@@ -11380,7 +11396,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A37" s="16" t="s">
         <v>187</v>
       </c>
@@ -11434,7 +11450,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A38" s="16" t="s">
         <v>187</v>
       </c>
@@ -11484,7 +11500,7 @@
       </c>
       <c r="T38" s="16"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A39" s="16" t="s">
         <v>375</v>
       </c>
@@ -11530,7 +11546,7 @@
       </c>
       <c r="T39" s="16"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A40" s="16" t="s">
         <v>187</v>
       </c>
@@ -11578,7 +11594,7 @@
       </c>
       <c r="T40" s="16"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A41" s="16" t="s">
         <v>187</v>
       </c>
@@ -11626,7 +11642,7 @@
       </c>
       <c r="T41" s="16"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A42" s="16" t="s">
         <v>187</v>
       </c>
@@ -11676,7 +11692,7 @@
       </c>
       <c r="T42" s="16"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A43" s="16" t="s">
         <v>187</v>
       </c>
@@ -11730,7 +11746,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A44" s="16" t="s">
         <v>187</v>
       </c>
@@ -11782,7 +11798,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
         <v>187</v>
       </c>
@@ -11832,7 +11848,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
         <v>187</v>
       </c>
@@ -11880,7 +11896,7 @@
       </c>
       <c r="T46" s="16"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
         <v>187</v>
       </c>
@@ -11932,7 +11948,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
         <v>187</v>
       </c>
@@ -11982,7 +11998,7 @@
       </c>
       <c r="T48" s="16"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A49" s="16" t="s">
         <v>187</v>
       </c>
@@ -12034,7 +12050,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A50" s="16" t="s">
         <v>187</v>
       </c>
@@ -12084,7 +12100,7 @@
       </c>
       <c r="T50" s="16"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A51" s="16" t="s">
         <v>187</v>
       </c>
@@ -12136,7 +12152,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A52" s="16" t="s">
         <v>334</v>
       </c>
@@ -12182,7 +12198,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A53" s="16" t="s">
         <v>187</v>
       </c>
@@ -12232,7 +12248,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A54" s="16" t="s">
         <v>187</v>
       </c>
@@ -12284,7 +12300,7 @@
       </c>
       <c r="T54" s="16"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A55" s="16" t="s">
         <v>187</v>
       </c>
@@ -12336,7 +12352,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
         <v>334</v>
       </c>
@@ -12374,7 +12390,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
         <v>187</v>
       </c>
@@ -12421,7 +12437,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
         <v>187</v>
       </c>
@@ -12468,7 +12484,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
         <v>187</v>
       </c>
@@ -12515,7 +12531,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
         <v>187</v>
       </c>
@@ -12559,7 +12575,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
         <v>187</v>
       </c>
@@ -12603,7 +12619,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
         <v>187</v>
       </c>
@@ -12650,7 +12666,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -12697,7 +12713,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
         <v>187</v>
       </c>
@@ -12744,7 +12760,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
         <v>187</v>
       </c>
@@ -12791,7 +12807,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
         <v>187</v>
       </c>
@@ -12838,7 +12854,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
         <v>187</v>
       </c>
@@ -12885,7 +12901,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
         <v>187</v>
       </c>
@@ -12932,7 +12948,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
         <v>187</v>
       </c>
@@ -12976,7 +12992,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
         <v>187</v>
       </c>
@@ -13023,7 +13039,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
         <v>187</v>
       </c>
@@ -13070,7 +13086,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
         <v>187</v>
       </c>
@@ -13117,7 +13133,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
         <v>187</v>
       </c>
@@ -13164,7 +13180,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
         <v>187</v>
       </c>
@@ -13208,7 +13224,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
         <v>187</v>
       </c>
@@ -13258,7 +13274,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
         <v>187</v>
       </c>
@@ -13305,7 +13321,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
         <v>187</v>
       </c>
@@ -13349,7 +13365,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
         <v>187</v>
       </c>
@@ -13396,7 +13412,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
         <v>187</v>
       </c>
@@ -13443,7 +13459,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
         <v>187</v>
       </c>
@@ -13490,7 +13506,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
         <v>187</v>
       </c>
@@ -13540,7 +13556,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -13587,7 +13603,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A83" t="s">
         <v>187</v>
       </c>
@@ -13634,7 +13650,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
         <v>187</v>
       </c>
@@ -13681,7 +13697,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
         <v>187</v>
       </c>
@@ -13728,7 +13744,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A86" t="s">
         <v>187</v>
       </c>
@@ -13775,7 +13791,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A87" t="s">
         <v>187</v>
       </c>
@@ -13822,7 +13838,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A88" t="s">
         <v>187</v>
       </c>
@@ -13872,7 +13888,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A89" t="s">
         <v>187</v>
       </c>
@@ -13919,7 +13935,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A90" t="s">
         <v>187</v>
       </c>
@@ -13963,7 +13979,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A91" t="s">
         <v>187</v>
       </c>
@@ -14007,7 +14023,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A92" t="s">
         <v>187</v>
       </c>
@@ -14054,7 +14070,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A93" t="s">
         <v>187</v>
       </c>
@@ -14101,7 +14117,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -14148,7 +14164,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -14195,7 +14211,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A96" t="s">
         <v>187</v>
       </c>
@@ -14242,7 +14258,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A97" t="s">
         <v>187</v>
       </c>
@@ -14289,7 +14305,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -14336,7 +14352,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A99" t="s">
         <v>187</v>
       </c>
@@ -14383,7 +14399,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A100" t="s">
         <v>187</v>
       </c>
@@ -14430,7 +14446,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A101" t="s">
         <v>187</v>
       </c>
@@ -14477,7 +14493,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A102" t="s">
         <v>187</v>
       </c>
@@ -14524,7 +14540,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A103" t="s">
         <v>187</v>
       </c>
@@ -14571,7 +14587,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A104" t="s">
         <v>187</v>
       </c>
@@ -14618,7 +14634,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A105" t="s">
         <v>187</v>
       </c>
@@ -14662,7 +14678,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A106" t="s">
         <v>187</v>
       </c>
@@ -14709,7 +14725,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A107" t="s">
         <v>187</v>
       </c>
@@ -14756,7 +14772,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A108" t="s">
         <v>187</v>
       </c>
@@ -14803,7 +14819,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A109" t="s">
         <v>187</v>
       </c>
@@ -14844,7 +14860,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A110" t="s">
         <v>187</v>
       </c>
@@ -14888,7 +14904,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A111" t="s">
         <v>187</v>
       </c>
@@ -14935,7 +14951,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A112" t="s">
         <v>187</v>
       </c>
@@ -14979,7 +14995,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A113" t="s">
         <v>334</v>
       </c>
@@ -15020,7 +15036,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A114" t="s">
         <v>334</v>
       </c>
@@ -15061,7 +15077,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A115" t="s">
         <v>334</v>
       </c>
@@ -15102,7 +15118,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A116" t="s">
         <v>187</v>
       </c>
@@ -15149,7 +15165,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A117" t="s">
         <v>187</v>
       </c>
@@ -15196,7 +15212,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A118" t="s">
         <v>187</v>
       </c>
@@ -15246,7 +15262,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A119" t="s">
         <v>187</v>
       </c>
@@ -15293,7 +15309,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A120" t="s">
         <v>187</v>
       </c>
@@ -15343,7 +15359,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A121" t="s">
         <v>187</v>
       </c>
@@ -15387,7 +15403,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A122" t="s">
         <v>187</v>
       </c>
@@ -15434,7 +15450,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A123" t="s">
         <v>187</v>
       </c>
@@ -15481,7 +15497,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A124" t="s">
         <v>187</v>
       </c>
@@ -15528,7 +15544,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A125" t="s">
         <v>373</v>
       </c>
@@ -15569,7 +15585,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A126" t="s">
         <v>187</v>
       </c>
@@ -15616,7 +15632,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A127" t="s">
         <v>187</v>
       </c>
@@ -15663,7 +15679,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A128" t="s">
         <v>187</v>
       </c>
@@ -15707,7 +15723,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A129" t="s">
         <v>187</v>
       </c>
@@ -15754,7 +15770,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A130" t="s">
         <v>187</v>
       </c>
@@ -15801,7 +15817,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A131" t="s">
         <v>187</v>
       </c>
@@ -15845,7 +15861,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A132" t="s">
         <v>187</v>
       </c>
@@ -15892,7 +15908,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A133" t="s">
         <v>187</v>
       </c>
@@ -15939,7 +15955,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A134" t="s">
         <v>187</v>
       </c>
@@ -15983,7 +15999,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A135" t="s">
         <v>187</v>
       </c>
@@ -16030,7 +16046,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A136" t="s">
         <v>187</v>
       </c>
@@ -16077,7 +16093,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A137" t="s">
         <v>187</v>
       </c>
@@ -16124,7 +16140,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A138" t="s">
         <v>187</v>
       </c>
@@ -16168,7 +16184,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A139" t="s">
         <v>187</v>
       </c>
@@ -16215,7 +16231,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A140" t="s">
         <v>373</v>
       </c>
@@ -16259,7 +16275,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A141" t="s">
         <v>187</v>
       </c>
@@ -16306,7 +16322,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A142" t="s">
         <v>187</v>
       </c>
@@ -16353,7 +16369,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A143" t="s">
         <v>187</v>
       </c>
@@ -16400,7 +16416,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A144" t="s">
         <v>187</v>
       </c>
@@ -16447,7 +16463,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A145" t="s">
         <v>187</v>
       </c>
@@ -16494,7 +16510,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A146" t="s">
         <v>187</v>
       </c>
@@ -16541,7 +16557,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A147" t="s">
         <v>187</v>
       </c>
@@ -16588,7 +16604,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A148" t="s">
         <v>187</v>
       </c>
@@ -16635,7 +16651,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A149" t="s">
         <v>187</v>
       </c>
@@ -16682,7 +16698,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A150" t="s">
         <v>187</v>
       </c>
@@ -16729,7 +16745,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A151" t="s">
         <v>187</v>
       </c>
@@ -16776,7 +16792,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A152" t="s">
         <v>187</v>
       </c>
@@ -16826,7 +16842,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A153" t="s">
         <v>187</v>
       </c>
@@ -16873,7 +16889,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A154" t="s">
         <v>187</v>
       </c>
@@ -16920,7 +16936,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A155" t="s">
         <v>187</v>
       </c>
@@ -16964,7 +16980,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A156" t="s">
         <v>187</v>
       </c>
@@ -17008,7 +17024,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A157" t="s">
         <v>187</v>
       </c>
@@ -17040,7 +17056,10 @@
         <v>1071</v>
       </c>
       <c r="K157" t="s">
-        <v>188</v>
+        <v>935</v>
+      </c>
+      <c r="L157" t="s">
+        <v>2648</v>
       </c>
       <c r="P157" t="s">
         <v>795</v>
@@ -17055,7 +17074,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A158" t="s">
         <v>187</v>
       </c>
@@ -17105,7 +17124,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A159" t="s">
         <v>187</v>
       </c>
@@ -17152,7 +17171,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A160" t="s">
         <v>187</v>
       </c>
@@ -17189,6 +17208,9 @@
       <c r="L160" t="s">
         <v>1088</v>
       </c>
+      <c r="N160" s="19" t="s">
+        <v>189</v>
+      </c>
       <c r="Q160" t="s">
         <v>1089</v>
       </c>
@@ -17202,7 +17224,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A161" t="s">
         <v>187</v>
       </c>
@@ -17249,7 +17271,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A162" t="s">
         <v>187</v>
       </c>
@@ -17296,7 +17318,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A163" t="s">
         <v>187</v>
       </c>
@@ -17340,7 +17362,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A164" t="s">
         <v>187</v>
       </c>
@@ -17371,6 +17393,9 @@
       <c r="K164" t="s">
         <v>188</v>
       </c>
+      <c r="N164" s="19" t="s">
+        <v>189</v>
+      </c>
       <c r="P164" t="s">
         <v>795</v>
       </c>
@@ -17384,7 +17409,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A165" t="s">
         <v>187</v>
       </c>
@@ -17418,6 +17443,9 @@
       <c r="K165" t="s">
         <v>188</v>
       </c>
+      <c r="N165" s="19" t="s">
+        <v>189</v>
+      </c>
       <c r="P165" t="s">
         <v>795</v>
       </c>
@@ -17431,7 +17459,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A166" t="s">
         <v>187</v>
       </c>
@@ -17478,7 +17506,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A167" t="s">
         <v>187</v>
       </c>
@@ -17525,7 +17553,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A168" t="s">
         <v>187</v>
       </c>
@@ -17572,7 +17600,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A169" t="s">
         <v>187</v>
       </c>
@@ -17619,7 +17647,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A170" t="s">
         <v>187</v>
       </c>
@@ -17666,7 +17694,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A171" t="s">
         <v>187</v>
       </c>
@@ -17710,7 +17738,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A172" t="s">
         <v>187</v>
       </c>
@@ -17757,7 +17785,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -17804,7 +17832,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A174" t="s">
         <v>187</v>
       </c>
@@ -17854,7 +17882,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A175" t="s">
         <v>187</v>
       </c>
@@ -17898,7 +17926,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A176" t="s">
         <v>187</v>
       </c>
@@ -17945,7 +17973,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A177" t="s">
         <v>187</v>
       </c>
@@ -17992,7 +18020,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A178" t="s">
         <v>187</v>
       </c>
@@ -18039,7 +18067,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A179" t="s">
         <v>187</v>
       </c>
@@ -18086,7 +18114,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A180" t="s">
         <v>187</v>
       </c>
@@ -18133,7 +18161,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A181" t="s">
         <v>187</v>
       </c>
@@ -18183,7 +18211,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A182" t="s">
         <v>187</v>
       </c>
@@ -18230,7 +18258,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A183" t="s">
         <v>187</v>
       </c>
@@ -18277,7 +18305,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A184" t="s">
         <v>187</v>
       </c>
@@ -18324,7 +18352,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A185" t="s">
         <v>187</v>
       </c>
@@ -18371,7 +18399,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A186" t="s">
         <v>187</v>
       </c>
@@ -18421,7 +18449,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -18468,7 +18496,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -18512,7 +18540,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -18559,7 +18587,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -18606,7 +18634,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A191" t="s">
         <v>187</v>
       </c>
@@ -18653,7 +18681,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A192" t="s">
         <v>187</v>
       </c>
@@ -18700,7 +18728,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A193" t="s">
         <v>187</v>
       </c>
@@ -18747,7 +18775,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A194" t="s">
         <v>187</v>
       </c>
@@ -18791,7 +18819,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A195" t="s">
         <v>187</v>
       </c>
@@ -18832,7 +18860,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A196" t="s">
         <v>187</v>
       </c>
@@ -18879,7 +18907,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A197" t="s">
         <v>187</v>
       </c>
@@ -18926,7 +18954,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -18973,7 +19001,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A199" t="s">
         <v>187</v>
       </c>
@@ -19020,7 +19048,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A200" t="s">
         <v>187</v>
       </c>
@@ -19067,7 +19095,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A201" t="s">
         <v>187</v>
       </c>
@@ -19114,7 +19142,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A202" t="s">
         <v>187</v>
       </c>
@@ -19161,7 +19189,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A203" t="s">
         <v>187</v>
       </c>
@@ -19208,7 +19236,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A204" t="s">
         <v>187</v>
       </c>
@@ -19255,7 +19283,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A205" t="s">
         <v>187</v>
       </c>
@@ -19302,7 +19330,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A206" t="s">
         <v>187</v>
       </c>
@@ -19346,7 +19374,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A207" t="s">
         <v>187</v>
       </c>
@@ -19390,7 +19418,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A208" t="s">
         <v>187</v>
       </c>
@@ -19434,7 +19462,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A209" t="s">
         <v>187</v>
       </c>
@@ -19478,7 +19506,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A210" t="s">
         <v>187</v>
       </c>
@@ -19516,7 +19544,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A211" t="s">
         <v>373</v>
       </c>
@@ -19557,7 +19585,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A212" t="s">
         <v>187</v>
       </c>
@@ -19601,7 +19629,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A213" t="s">
         <v>187</v>
       </c>
@@ -19645,7 +19673,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A214" t="s">
         <v>187</v>
       </c>
@@ -19686,7 +19714,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A215" t="s">
         <v>187</v>
       </c>
@@ -19730,7 +19758,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A216" t="s">
         <v>187</v>
       </c>
@@ -19774,7 +19802,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A217" t="s">
         <v>187</v>
       </c>
@@ -19818,7 +19846,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A218" t="s">
         <v>187</v>
       </c>
@@ -19859,7 +19887,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A219" t="s">
         <v>187</v>
       </c>
@@ -19903,7 +19931,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A220" t="s">
         <v>187</v>
       </c>
@@ -19947,7 +19975,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A221" t="s">
         <v>373</v>
       </c>
@@ -19988,7 +20016,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A222" t="s">
         <v>187</v>
       </c>
@@ -20032,7 +20060,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A223" t="s">
         <v>375</v>
       </c>
@@ -20070,7 +20098,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A224" t="s">
         <v>375</v>
       </c>
@@ -20108,7 +20136,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A225" t="s">
         <v>375</v>
       </c>
@@ -20149,7 +20177,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A226" t="s">
         <v>375</v>
       </c>
@@ -20187,7 +20215,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A227" t="s">
         <v>187</v>
       </c>
@@ -20231,7 +20259,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A228" t="s">
         <v>187</v>
       </c>
@@ -20275,7 +20303,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A229" t="s">
         <v>187</v>
       </c>
@@ -20319,7 +20347,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A230" t="s">
         <v>187</v>
       </c>
@@ -20363,7 +20391,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A231" t="s">
         <v>187</v>
       </c>
@@ -20407,7 +20435,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A232" t="s">
         <v>187</v>
       </c>
@@ -20451,7 +20479,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A233" t="s">
         <v>187</v>
       </c>
@@ -20495,7 +20523,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A234" t="s">
         <v>187</v>
       </c>
@@ -20539,7 +20567,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A235" t="s">
         <v>187</v>
       </c>
@@ -20583,7 +20611,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A236" t="s">
         <v>187</v>
       </c>
@@ -20627,7 +20655,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A237" t="s">
         <v>187</v>
       </c>
@@ -20671,7 +20699,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A238" t="s">
         <v>187</v>
       </c>
@@ -20715,7 +20743,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A239" t="s">
         <v>187</v>
       </c>
@@ -20759,7 +20787,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A240" t="s">
         <v>187</v>
       </c>
@@ -20803,7 +20831,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A241" t="s">
         <v>187</v>
       </c>
@@ -20844,7 +20872,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A242" t="s">
         <v>187</v>
       </c>
@@ -20888,7 +20916,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A243" t="s">
         <v>187</v>
       </c>
@@ -20932,7 +20960,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A244" t="s">
         <v>187</v>
       </c>
@@ -20976,7 +21004,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A245" t="s">
         <v>187</v>
       </c>
@@ -21020,7 +21048,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A246" t="s">
         <v>187</v>
       </c>
@@ -21064,7 +21092,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A247" t="s">
         <v>187</v>
       </c>
@@ -21108,7 +21136,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A248" t="s">
         <v>187</v>
       </c>
@@ -21152,7 +21180,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A249" t="s">
         <v>187</v>
       </c>
@@ -21196,7 +21224,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A250" t="s">
         <v>187</v>
       </c>
@@ -21240,7 +21268,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A251" t="s">
         <v>187</v>
       </c>
@@ -21284,7 +21312,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A252" t="s">
         <v>187</v>
       </c>
@@ -21328,7 +21356,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A253" t="s">
         <v>187</v>
       </c>
@@ -21369,7 +21397,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A254" t="s">
         <v>373</v>
       </c>
@@ -21410,7 +21438,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A255" t="s">
         <v>187</v>
       </c>
@@ -21454,7 +21482,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A256" t="s">
         <v>187</v>
       </c>
@@ -21495,7 +21523,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A257" t="s">
         <v>187</v>
       </c>
@@ -21539,7 +21567,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A258" t="s">
         <v>187</v>
       </c>
@@ -21583,7 +21611,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A259" t="s">
         <v>187</v>
       </c>
@@ -21627,7 +21655,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A260" t="s">
         <v>187</v>
       </c>
@@ -21671,7 +21699,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A261" t="s">
         <v>187</v>
       </c>
@@ -21712,7 +21740,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A262" t="s">
         <v>187</v>
       </c>
@@ -21756,7 +21784,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A263" t="s">
         <v>375</v>
       </c>
@@ -21794,7 +21822,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A264" t="s">
         <v>187</v>
       </c>
@@ -21835,7 +21863,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A265" t="s">
         <v>187</v>
       </c>
@@ -21879,7 +21907,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A266" t="s">
         <v>187</v>
       </c>
@@ -21920,7 +21948,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A267" t="s">
         <v>187</v>
       </c>
@@ -21964,7 +21992,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A268" t="s">
         <v>187</v>
       </c>
@@ -22008,7 +22036,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A269" t="s">
         <v>187</v>
       </c>
@@ -22052,7 +22080,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A270" t="s">
         <v>187</v>
       </c>
@@ -22096,7 +22124,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A271" t="s">
         <v>187</v>
       </c>
@@ -22140,7 +22168,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A272" t="s">
         <v>375</v>
       </c>
@@ -22178,7 +22206,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A273" t="s">
         <v>187</v>
       </c>
@@ -22222,7 +22250,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A274" t="s">
         <v>187</v>
       </c>
@@ -22266,7 +22294,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A275" t="s">
         <v>187</v>
       </c>
@@ -22310,7 +22338,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A276" t="s">
         <v>187</v>
       </c>
@@ -22354,7 +22382,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A277" t="s">
         <v>187</v>
       </c>
@@ -22398,7 +22426,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A278" t="s">
         <v>187</v>
       </c>
@@ -22442,7 +22470,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A279" t="s">
         <v>187</v>
       </c>
@@ -22486,7 +22514,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A280" t="s">
         <v>187</v>
       </c>
@@ -22524,7 +22552,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A281" t="s">
         <v>187</v>
       </c>
@@ -22562,7 +22590,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A282" t="s">
         <v>187</v>
       </c>
@@ -22606,7 +22634,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A283" t="s">
         <v>187</v>
       </c>
@@ -22650,7 +22678,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A284" t="s">
         <v>187</v>
       </c>
@@ -22691,7 +22719,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A285" t="s">
         <v>187</v>
       </c>
@@ -22735,7 +22763,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A286" t="s">
         <v>187</v>
       </c>
@@ -22779,7 +22807,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A287" t="s">
         <v>187</v>
       </c>
@@ -22823,7 +22851,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A288" t="s">
         <v>187</v>
       </c>
@@ -22867,7 +22895,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A289" t="s">
         <v>187</v>
       </c>
@@ -22911,7 +22939,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A290" t="s">
         <v>187</v>
       </c>
@@ -22955,7 +22983,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A291" t="s">
         <v>187</v>
       </c>
@@ -22996,7 +23024,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A292" t="s">
         <v>187</v>
       </c>
@@ -23037,7 +23065,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A293" t="s">
         <v>187</v>
       </c>
@@ -23081,7 +23109,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A294" t="s">
         <v>187</v>
       </c>
@@ -23122,7 +23150,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A295" t="s">
         <v>187</v>
       </c>
@@ -23166,7 +23194,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A296" t="s">
         <v>187</v>
       </c>
@@ -23210,7 +23238,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A297" t="s">
         <v>187</v>
       </c>
@@ -23254,7 +23282,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A298" t="s">
         <v>187</v>
       </c>
@@ -23298,7 +23326,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A299" t="s">
         <v>187</v>
       </c>
@@ -23342,7 +23370,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A300" t="s">
         <v>373</v>
       </c>
@@ -23383,7 +23411,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A301" t="s">
         <v>373</v>
       </c>
@@ -23424,7 +23452,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A302" t="s">
         <v>187</v>
       </c>
@@ -23468,7 +23496,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A303" t="s">
         <v>187</v>
       </c>
@@ -23512,7 +23540,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A304" t="s">
         <v>187</v>
       </c>
@@ -23553,7 +23581,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A305" t="s">
         <v>187</v>
       </c>
@@ -23597,7 +23625,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A306" t="s">
         <v>187</v>
       </c>
@@ -23641,7 +23669,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A307" t="s">
         <v>187</v>
       </c>
@@ -23685,7 +23713,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A308" t="s">
         <v>187</v>
       </c>
@@ -23729,7 +23757,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A309" t="s">
         <v>187</v>
       </c>
@@ -23773,7 +23801,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A310" t="s">
         <v>187</v>
       </c>
@@ -23814,7 +23842,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A311" t="s">
         <v>187</v>
       </c>
@@ -23858,7 +23886,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A312" t="s">
         <v>187</v>
       </c>
@@ -23902,7 +23930,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A313" t="s">
         <v>187</v>
       </c>
@@ -23946,7 +23974,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A314" t="s">
         <v>187</v>
       </c>
@@ -23987,7 +24015,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A315" t="s">
         <v>187</v>
       </c>
@@ -24031,7 +24059,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A316" t="s">
         <v>187</v>
       </c>
@@ -24075,7 +24103,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A317" t="s">
         <v>187</v>
       </c>
@@ -24119,7 +24147,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A318" t="s">
         <v>187</v>
       </c>
@@ -24160,7 +24188,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A319" t="s">
         <v>187</v>
       </c>
@@ -24201,7 +24229,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A320" t="s">
         <v>187</v>
       </c>
@@ -24242,7 +24270,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A321" t="s">
         <v>187</v>
       </c>
@@ -24286,7 +24314,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A322" t="s">
         <v>187</v>
       </c>
@@ -24330,7 +24358,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A323" t="s">
         <v>187</v>
       </c>
@@ -24374,7 +24402,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A324" t="s">
         <v>187</v>
       </c>
@@ -24418,7 +24446,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A325" t="s">
         <v>187</v>
       </c>
@@ -24462,7 +24490,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A326" t="s">
         <v>187</v>
       </c>
@@ -24506,7 +24534,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A327" t="s">
         <v>187</v>
       </c>
@@ -24550,7 +24578,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A328" t="s">
         <v>187</v>
       </c>
@@ -24594,7 +24622,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A329" t="s">
         <v>187</v>
       </c>
@@ -24638,7 +24666,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A330" t="s">
         <v>187</v>
       </c>
@@ -24682,7 +24710,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A331" t="s">
         <v>187</v>
       </c>
@@ -24726,7 +24754,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A332" t="s">
         <v>187</v>
       </c>
@@ -24770,7 +24798,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A333" t="s">
         <v>187</v>
       </c>
@@ -24811,7 +24839,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A334" t="s">
         <v>187</v>
       </c>
@@ -24855,7 +24883,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A335" t="s">
         <v>187</v>
       </c>
@@ -24899,7 +24927,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A336" t="s">
         <v>187</v>
       </c>
@@ -24943,7 +24971,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A337" t="s">
         <v>187</v>
       </c>
@@ -24987,7 +25015,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A338" t="s">
         <v>187</v>
       </c>
@@ -25031,7 +25059,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A339" t="s">
         <v>187</v>
       </c>
@@ -25075,7 +25103,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A340" t="s">
         <v>187</v>
       </c>
@@ -25119,7 +25147,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A341" t="s">
         <v>187</v>
       </c>
@@ -25160,7 +25188,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A342" t="s">
         <v>187</v>
       </c>
@@ -25204,7 +25232,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A343" t="s">
         <v>187</v>
       </c>
@@ -25248,7 +25276,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A344" t="s">
         <v>187</v>
       </c>
@@ -25292,7 +25320,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A345" t="s">
         <v>187</v>
       </c>
@@ -25336,7 +25364,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A346" t="s">
         <v>373</v>
       </c>
@@ -25377,7 +25405,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A347" t="s">
         <v>323</v>
       </c>
@@ -25418,7 +25446,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A348" t="s">
         <v>187</v>
       </c>
@@ -25462,7 +25490,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A349" t="s">
         <v>187</v>
       </c>
@@ -25506,7 +25534,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A350" t="s">
         <v>187</v>
       </c>
@@ -25550,7 +25578,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A351" t="s">
         <v>187</v>
       </c>
@@ -25594,7 +25622,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A352" t="s">
         <v>187</v>
       </c>
@@ -25638,7 +25666,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A353" t="s">
         <v>187</v>
       </c>
@@ -25682,7 +25710,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A354" t="s">
         <v>187</v>
       </c>
@@ -25723,7 +25751,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A355" t="s">
         <v>187</v>
       </c>
@@ -25764,7 +25792,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A356" t="s">
         <v>187</v>
       </c>
@@ -25805,7 +25833,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A357" t="s">
         <v>187</v>
       </c>
@@ -25849,7 +25877,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A358" t="s">
         <v>187</v>
       </c>
@@ -25890,7 +25918,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A359" t="s">
         <v>187</v>
       </c>
@@ -25928,7 +25956,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A360" t="s">
         <v>187</v>
       </c>
@@ -25966,7 +25994,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A361" t="s">
         <v>187</v>
       </c>
@@ -26004,7 +26032,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A362" t="s">
         <v>187</v>
       </c>
@@ -26042,7 +26070,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A363" t="s">
         <v>187</v>
       </c>
@@ -26080,7 +26108,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A364" t="s">
         <v>187</v>
       </c>
@@ -26121,7 +26149,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A365" t="s">
         <v>187</v>
       </c>
@@ -26162,7 +26190,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A366" t="s">
         <v>187</v>
       </c>
@@ -26203,7 +26231,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A367" t="s">
         <v>187</v>
       </c>
@@ -26244,7 +26272,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A368" t="s">
         <v>187</v>
       </c>
@@ -26285,7 +26313,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A369" t="s">
         <v>187</v>
       </c>
@@ -26323,7 +26351,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A370" t="s">
         <v>187</v>
       </c>
@@ -26361,7 +26389,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A371" t="s">
         <v>187</v>
       </c>
@@ -26402,7 +26430,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A372" t="s">
         <v>187</v>
       </c>
@@ -26443,7 +26471,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A373" t="s">
         <v>187</v>
       </c>
@@ -26484,7 +26512,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A374" t="s">
         <v>187</v>
       </c>
@@ -26525,7 +26553,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A375" t="s">
         <v>187</v>
       </c>
@@ -26569,7 +26597,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A376" t="s">
         <v>187</v>
       </c>
@@ -26613,7 +26641,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A377" t="s">
         <v>187</v>
       </c>
@@ -26657,7 +26685,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A378" t="s">
         <v>187</v>
       </c>
@@ -26701,7 +26729,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A379" t="s">
         <v>187</v>
       </c>
@@ -26745,7 +26773,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A380" t="s">
         <v>187</v>
       </c>
@@ -26789,7 +26817,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A381" t="s">
         <v>187</v>
       </c>
@@ -26833,7 +26861,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A382" t="s">
         <v>187</v>
       </c>
@@ -26877,7 +26905,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A383" t="s">
         <v>187</v>
       </c>
@@ -26921,7 +26949,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A384" t="s">
         <v>187</v>
       </c>
@@ -26965,7 +26993,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A385" t="s">
         <v>187</v>
       </c>
@@ -27009,7 +27037,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A386" t="s">
         <v>187</v>
       </c>
@@ -27053,7 +27081,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A387" t="s">
         <v>187</v>
       </c>
@@ -27100,7 +27128,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A388" t="s">
         <v>187</v>
       </c>
@@ -27144,7 +27172,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A389" t="s">
         <v>187</v>
       </c>
@@ -27188,7 +27216,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A390" t="s">
         <v>187</v>
       </c>
@@ -27232,7 +27260,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A391" t="s">
         <v>187</v>
       </c>
@@ -27273,7 +27301,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A392" t="s">
         <v>187</v>
       </c>
@@ -27317,7 +27345,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A393" t="s">
         <v>323</v>
       </c>
@@ -27358,7 +27386,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A394" t="s">
         <v>187</v>
       </c>
@@ -27399,7 +27427,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A395" t="s">
         <v>187</v>
       </c>
@@ -27440,7 +27468,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A396" t="s">
         <v>187</v>
       </c>
@@ -27481,7 +27509,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A397" t="s">
         <v>187</v>
       </c>
@@ -27525,7 +27553,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A398" t="s">
         <v>187</v>
       </c>
@@ -27569,7 +27597,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A399" t="s">
         <v>187</v>
       </c>
@@ -27610,7 +27638,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A400" t="s">
         <v>373</v>
       </c>
@@ -27651,7 +27679,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A401" t="s">
         <v>187</v>
       </c>
@@ -27689,7 +27717,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A402" t="s">
         <v>187</v>
       </c>
@@ -27733,7 +27761,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A403" t="s">
         <v>187</v>
       </c>
@@ -27777,7 +27805,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A404" t="s">
         <v>187</v>
       </c>
@@ -27821,7 +27849,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A405" t="s">
         <v>187</v>
       </c>
@@ -27865,7 +27893,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A406" t="s">
         <v>187</v>
       </c>
@@ -27909,7 +27937,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A407" t="s">
         <v>187</v>
       </c>
@@ -27956,7 +27984,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A408" t="s">
         <v>187</v>
       </c>
@@ -28000,7 +28028,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A409" t="s">
         <v>187</v>
       </c>
@@ -28044,7 +28072,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A410" t="s">
         <v>187</v>
       </c>
@@ -28088,7 +28116,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A411" t="s">
         <v>187</v>
       </c>
@@ -28132,7 +28160,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A412" t="s">
         <v>187</v>
       </c>
@@ -28170,7 +28198,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A413" t="s">
         <v>187</v>
       </c>
@@ -28214,7 +28242,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A414" t="s">
         <v>187</v>
       </c>
@@ -28258,7 +28286,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A415" t="s">
         <v>187</v>
       </c>
@@ -28299,7 +28327,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A416" t="s">
         <v>187</v>
       </c>
@@ -28340,7 +28368,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A417" t="s">
         <v>187</v>
       </c>
@@ -28381,7 +28409,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A418" t="s">
         <v>187</v>
       </c>
@@ -28422,7 +28450,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A419" t="s">
         <v>187</v>
       </c>
@@ -28463,7 +28491,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A420" t="s">
         <v>187</v>
       </c>
@@ -28504,7 +28532,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A421" t="s">
         <v>187</v>
       </c>
@@ -28545,7 +28573,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A422" t="s">
         <v>187</v>
       </c>
@@ -28577,7 +28605,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A423" t="s">
         <v>187</v>
       </c>
@@ -28618,7 +28646,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A424" t="s">
         <v>187</v>
       </c>
@@ -28665,7 +28693,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A425" t="s">
         <v>187</v>
       </c>
@@ -28709,7 +28737,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A426" t="s">
         <v>187</v>
       </c>
@@ -28750,7 +28778,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A427" t="s">
         <v>187</v>
       </c>
@@ -28791,7 +28819,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A428" t="s">
         <v>187</v>
       </c>
@@ -28832,7 +28860,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A429" t="s">
         <v>187</v>
       </c>
@@ -28867,7 +28895,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A430" t="s">
         <v>187</v>
       </c>
@@ -28908,7 +28936,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A431" t="s">
         <v>187</v>
       </c>
@@ -28949,7 +28977,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A432" t="s">
         <v>187</v>
       </c>
@@ -28990,7 +29018,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A433" t="s">
         <v>2384</v>
       </c>
@@ -29019,7 +29047,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A434" t="s">
         <v>2384</v>
       </c>
@@ -29045,7 +29073,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A435" t="s">
         <v>187</v>
       </c>
@@ -29086,7 +29114,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A436" t="s">
         <v>187</v>
       </c>
@@ -29127,7 +29155,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A437" t="s">
         <v>187</v>
       </c>
@@ -29168,7 +29196,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A438" t="s">
         <v>187</v>
       </c>
@@ -29209,7 +29237,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A439" t="s">
         <v>187</v>
       </c>
@@ -29253,7 +29281,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A440" t="s">
         <v>187</v>
       </c>
@@ -29294,7 +29322,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A441" t="s">
         <v>187</v>
       </c>
@@ -29335,7 +29363,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A442" t="s">
         <v>187</v>
       </c>
@@ -29376,7 +29404,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A443" t="s">
         <v>187</v>
       </c>
@@ -29417,7 +29445,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A444" t="s">
         <v>187</v>
       </c>
@@ -29458,7 +29486,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A445" t="s">
         <v>187</v>
       </c>
@@ -29499,7 +29527,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A446" t="s">
         <v>373</v>
       </c>
@@ -29537,7 +29565,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A447" t="s">
         <v>187</v>
       </c>
@@ -29578,7 +29606,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A448" t="s">
         <v>187</v>
       </c>
@@ -29619,7 +29647,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A449" t="s">
         <v>187</v>
       </c>
@@ -29660,7 +29688,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A450" t="s">
         <v>187</v>
       </c>
@@ -29701,7 +29729,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A451" t="s">
         <v>187</v>
       </c>
@@ -29745,7 +29773,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A452" t="s">
         <v>323</v>
       </c>
@@ -29783,7 +29811,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A453" t="s">
         <v>187</v>
       </c>
@@ -29830,7 +29858,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A454" t="s">
         <v>187</v>
       </c>
@@ -29865,7 +29893,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A455" t="s">
         <v>187</v>
       </c>
@@ -29909,7 +29937,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A456" t="s">
         <v>187</v>
       </c>
@@ -29950,7 +29978,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A457" t="s">
         <v>187</v>
       </c>
@@ -29997,7 +30025,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A458" t="s">
         <v>187</v>
       </c>
@@ -30044,7 +30072,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A459" t="s">
         <v>187</v>
       </c>
@@ -30085,7 +30113,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A460" t="s">
         <v>187</v>
       </c>
@@ -30126,7 +30154,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A461" t="s">
         <v>187</v>
       </c>
@@ -30167,7 +30195,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A462" t="s">
         <v>187</v>
       </c>
@@ -30208,7 +30236,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A463" t="s">
         <v>187</v>
       </c>
@@ -30252,7 +30280,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A464" t="s">
         <v>187</v>
       </c>
@@ -30293,7 +30321,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A465" t="s">
         <v>187</v>
       </c>
@@ -30331,7 +30359,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A466" t="s">
         <v>187</v>
       </c>
@@ -30372,7 +30400,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A467" t="s">
         <v>187</v>
       </c>
@@ -30413,7 +30441,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A468" t="s">
         <v>187</v>
       </c>
@@ -30454,7 +30482,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A469" t="s">
         <v>187</v>
       </c>
@@ -30495,7 +30523,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A470" t="s">
         <v>187</v>
       </c>
@@ -30536,7 +30564,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A471" t="s">
         <v>187</v>
       </c>
@@ -30577,7 +30605,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A472" t="s">
         <v>187</v>
       </c>
@@ -30615,7 +30643,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A473" t="s">
         <v>187</v>
       </c>
@@ -30656,7 +30684,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A474" t="s">
         <v>187</v>
       </c>
@@ -30697,7 +30725,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A475" t="s">
         <v>187</v>
       </c>
@@ -30738,7 +30766,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A476" t="s">
         <v>2384</v>
       </c>
@@ -30770,7 +30798,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A477" t="s">
         <v>187</v>
       </c>
@@ -30811,7 +30839,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A478" t="s">
         <v>187</v>
       </c>
@@ -30852,7 +30880,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A479" t="s">
         <v>187</v>
       </c>
@@ -30893,7 +30921,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A480" t="s">
         <v>187</v>
       </c>
@@ -30937,7 +30965,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A481" t="s">
         <v>187</v>
       </c>
@@ -30978,7 +31006,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A482" t="s">
         <v>187</v>
       </c>
@@ -31010,7 +31038,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A483" t="s">
         <v>187</v>
       </c>
@@ -31051,7 +31079,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A484" t="s">
         <v>187</v>
       </c>
@@ -31092,7 +31120,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A485" t="s">
         <v>2384</v>
       </c>
@@ -31124,7 +31152,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A486" t="s">
         <v>187</v>
       </c>
@@ -31168,7 +31196,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A487" t="s">
         <v>187</v>
       </c>
@@ -31209,7 +31237,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A488" t="s">
         <v>187</v>
       </c>
@@ -31250,7 +31278,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A489" t="s">
         <v>2384</v>
       </c>
@@ -31279,7 +31307,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A490" t="s">
         <v>187</v>
       </c>
@@ -31320,7 +31348,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A491" t="s">
         <v>187</v>
       </c>
@@ -31364,7 +31392,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A492" t="s">
         <v>187</v>
       </c>
@@ -31422,13 +31450,13 @@
       <selection pane="bottomLeft" activeCell="Z251" sqref="Z251"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="22" max="22" width="10.83203125" style="11"/>
+    <col min="22" max="22" width="10.84765625" style="11"/>
     <col min="35" max="35" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -31565,7 +31593,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -31672,7 +31700,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -31779,7 +31807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -31886,7 +31914,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -31993,7 +32021,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -32100,7 +32128,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -32207,7 +32235,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -32314,7 +32342,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -32421,7 +32449,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -32525,7 +32553,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -32629,7 +32657,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -32733,7 +32761,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -32837,7 +32865,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -32941,7 +32969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -33045,7 +33073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -33149,7 +33177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -33253,7 +33281,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -33357,7 +33385,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -33461,7 +33489,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -33565,7 +33593,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -33669,7 +33697,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -33773,7 +33801,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -33877,7 +33905,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -33981,7 +34009,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -34085,7 +34113,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -34189,7 +34217,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -34293,7 +34321,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -34397,7 +34425,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -34501,7 +34529,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -34605,7 +34633,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -34709,7 +34737,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -34813,7 +34841,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -34917,7 +34945,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -35024,7 +35052,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -35131,7 +35159,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -35223,7 +35251,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -35318,7 +35346,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -35410,7 +35438,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -35502,7 +35530,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -35591,7 +35619,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -35680,7 +35708,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -35772,7 +35800,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -35864,7 +35892,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -35956,7 +35984,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -36045,7 +36073,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -36134,7 +36162,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -36226,7 +36254,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -36318,7 +36346,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -36410,7 +36438,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -36499,7 +36527,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -36588,7 +36616,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -36680,7 +36708,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -36772,7 +36800,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -36864,7 +36892,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -36953,7 +36981,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -37048,7 +37076,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -37145,7 +37173,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -37242,7 +37270,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -37339,7 +37367,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -37434,7 +37462,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -37529,7 +37557,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -37626,7 +37654,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -37723,7 +37751,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -37820,7 +37848,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
         <v>58</v>
       </c>
@@ -37915,7 +37943,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
         <v>58</v>
       </c>
@@ -38004,7 +38032,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -38096,7 +38124,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
         <v>58</v>
       </c>
@@ -38188,7 +38216,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
         <v>58</v>
       </c>
@@ -38280,7 +38308,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
         <v>58</v>
       </c>
@@ -38369,7 +38397,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
         <v>58</v>
       </c>
@@ -38458,7 +38486,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
         <v>58</v>
       </c>
@@ -38550,7 +38578,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
         <v>58</v>
       </c>
@@ -38642,7 +38670,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
         <v>58</v>
       </c>
@@ -38734,7 +38762,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -38823,7 +38851,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
         <v>58</v>
       </c>
@@ -38912,7 +38940,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
         <v>58</v>
       </c>
@@ -39004,7 +39032,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
         <v>58</v>
       </c>
@@ -39096,7 +39124,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
         <v>58</v>
       </c>
@@ -39188,7 +39216,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
         <v>58</v>
       </c>
@@ -39277,7 +39305,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
         <v>58</v>
       </c>
@@ -39366,7 +39394,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
         <v>58</v>
       </c>
@@ -39458,7 +39486,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A83" t="s">
         <v>58</v>
       </c>
@@ -39550,7 +39578,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
         <v>58</v>
       </c>
@@ -39642,7 +39670,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
         <v>58</v>
       </c>
@@ -39731,7 +39759,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A86" t="s">
         <v>58</v>
       </c>
@@ -39826,7 +39854,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A87" t="s">
         <v>58</v>
       </c>
@@ -39923,7 +39951,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A88" t="s">
         <v>58</v>
       </c>
@@ -40020,7 +40048,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A89" t="s">
         <v>58</v>
       </c>
@@ -40117,7 +40145,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A90" t="s">
         <v>58</v>
       </c>
@@ -40212,7 +40240,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A91" t="s">
         <v>58</v>
       </c>
@@ -40307,7 +40335,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -40403,7 +40431,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A93" t="s">
         <v>58</v>
       </c>
@@ -40500,7 +40528,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A94" t="s">
         <v>58</v>
       </c>
@@ -40596,7 +40624,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A95" t="s">
         <v>58</v>
       </c>
@@ -40690,7 +40718,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A96" t="s">
         <v>58</v>
       </c>
@@ -40780,7 +40808,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A97" t="s">
         <v>58</v>
       </c>
@@ -40873,7 +40901,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A98" t="s">
         <v>58</v>
       </c>
@@ -40965,7 +40993,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A99" t="s">
         <v>58</v>
       </c>
@@ -41058,7 +41086,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A100" t="s">
         <v>58</v>
       </c>
@@ -41148,7 +41176,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A101" t="s">
         <v>58</v>
       </c>
@@ -41238,7 +41266,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A102" t="s">
         <v>58</v>
       </c>
@@ -41331,7 +41359,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A103" t="s">
         <v>58</v>
       </c>
@@ -41423,7 +41451,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A104" t="s">
         <v>58</v>
       </c>
@@ -41516,7 +41544,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A105" t="s">
         <v>58</v>
       </c>
@@ -41606,7 +41634,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A106" t="s">
         <v>58</v>
       </c>
@@ -41695,7 +41723,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A107" t="s">
         <v>58</v>
       </c>
@@ -41787,7 +41815,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A108" t="s">
         <v>58</v>
       </c>
@@ -41879,7 +41907,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A109" t="s">
         <v>58</v>
       </c>
@@ -41971,7 +41999,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A110" t="s">
         <v>58</v>
       </c>
@@ -42060,7 +42088,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A111" t="s">
         <v>58</v>
       </c>
@@ -42149,7 +42177,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A112" t="s">
         <v>58</v>
       </c>
@@ -42241,7 +42269,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A113" t="s">
         <v>58</v>
       </c>
@@ -42333,7 +42361,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A114" t="s">
         <v>58</v>
       </c>
@@ -42425,7 +42453,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A115" t="s">
         <v>58</v>
       </c>
@@ -42514,7 +42542,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="116" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A116" t="s">
         <v>58</v>
       </c>
@@ -42608,7 +42636,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="117" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A117" t="s">
         <v>58</v>
       </c>
@@ -42704,7 +42732,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="118" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A118" t="s">
         <v>58</v>
       </c>
@@ -42801,7 +42829,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A119" t="s">
         <v>58</v>
       </c>
@@ -42897,7 +42925,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A120" t="s">
         <v>58</v>
       </c>
@@ -42991,7 +43019,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A121" t="s">
         <v>58</v>
       </c>
@@ -43085,7 +43113,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="122" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A122" t="s">
         <v>58</v>
       </c>
@@ -43181,7 +43209,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="123" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A123" t="s">
         <v>58</v>
       </c>
@@ -43278,7 +43306,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="124" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A124" t="s">
         <v>58</v>
       </c>
@@ -43374,7 +43402,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="125" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A125" t="s">
         <v>58</v>
       </c>
@@ -43468,7 +43496,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="126" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A126" t="s">
         <v>58</v>
       </c>
@@ -43552,7 +43580,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A127" t="s">
         <v>58</v>
       </c>
@@ -43638,7 +43666,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="128" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A128" t="s">
         <v>58</v>
       </c>
@@ -43724,7 +43752,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="129" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A129" t="s">
         <v>58</v>
       </c>
@@ -43810,7 +43838,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="130" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A130" t="s">
         <v>58</v>
       </c>
@@ -43893,7 +43921,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="131" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A131" t="s">
         <v>58</v>
       </c>
@@ -43977,7 +44005,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="132" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A132" t="s">
         <v>58</v>
       </c>
@@ -44064,7 +44092,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="133" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A133" t="s">
         <v>58</v>
       </c>
@@ -44150,7 +44178,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="134" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A134" t="s">
         <v>58</v>
       </c>
@@ -44237,7 +44265,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="135" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A135" t="s">
         <v>58</v>
       </c>
@@ -44321,7 +44349,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="136" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A136" t="s">
         <v>58</v>
       </c>
@@ -44405,7 +44433,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="137" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A137" t="s">
         <v>58</v>
       </c>
@@ -44492,7 +44520,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="138" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A138" t="s">
         <v>58</v>
       </c>
@@ -44578,7 +44606,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="139" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A139" t="s">
         <v>58</v>
       </c>
@@ -44665,7 +44693,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="140" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A140" t="s">
         <v>58</v>
       </c>
@@ -44749,7 +44777,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="141" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A141" t="s">
         <v>58</v>
       </c>
@@ -44832,7 +44860,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="142" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A142" t="s">
         <v>58</v>
       </c>
@@ -44918,7 +44946,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A143" t="s">
         <v>58</v>
       </c>
@@ -45004,7 +45032,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="144" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A144" t="s">
         <v>58</v>
       </c>
@@ -45090,7 +45118,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="145" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A145" t="s">
         <v>58</v>
       </c>
@@ -45173,7 +45201,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="146" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A146" t="s">
         <v>58</v>
       </c>
@@ -45260,7 +45288,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="147" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A147" t="s">
         <v>58</v>
       </c>
@@ -45349,7 +45377,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="148" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A148" t="s">
         <v>58</v>
       </c>
@@ -45439,7 +45467,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="149" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A149" t="s">
         <v>58</v>
       </c>
@@ -45528,7 +45556,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="150" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A150" t="s">
         <v>58</v>
       </c>
@@ -45615,7 +45643,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="151" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A151" t="s">
         <v>58</v>
       </c>
@@ -45702,7 +45730,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="152" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A152" t="s">
         <v>58</v>
       </c>
@@ -45791,7 +45819,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="153" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A153" t="s">
         <v>58</v>
       </c>
@@ -45881,7 +45909,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="154" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A154" t="s">
         <v>58</v>
       </c>
@@ -45970,7 +45998,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="155" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A155" t="s">
         <v>58</v>
       </c>
@@ -46057,7 +46085,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="156" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A156" t="s">
         <v>58</v>
       </c>
@@ -46144,7 +46172,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="157" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A157" t="s">
         <v>58</v>
       </c>
@@ -46234,7 +46262,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="158" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A158" t="s">
         <v>58</v>
       </c>
@@ -46324,7 +46352,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="159" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A159" t="s">
         <v>58</v>
       </c>
@@ -46414,7 +46442,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="160" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A160" t="s">
         <v>58</v>
       </c>
@@ -46501,7 +46529,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="161" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A161" t="s">
         <v>58</v>
       </c>
@@ -46589,7 +46617,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="162" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A162" t="s">
         <v>58</v>
       </c>
@@ -46679,7 +46707,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="163" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A163" t="s">
         <v>58</v>
       </c>
@@ -46769,7 +46797,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="164" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A164" t="s">
         <v>58</v>
       </c>
@@ -46859,7 +46887,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="165" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A165" t="s">
         <v>58</v>
       </c>
@@ -46946,7 +46974,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="166" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A166" t="s">
         <v>58</v>
       </c>
@@ -47030,7 +47058,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="167" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A167" t="s">
         <v>58</v>
       </c>
@@ -47117,7 +47145,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A168" t="s">
         <v>58</v>
       </c>
@@ -47203,7 +47231,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="169" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A169" t="s">
         <v>58</v>
       </c>
@@ -47290,7 +47318,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="170" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A170" t="s">
         <v>58</v>
       </c>
@@ -47374,7 +47402,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A171" t="s">
         <v>58</v>
       </c>
@@ -47458,7 +47486,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A172" t="s">
         <v>58</v>
       </c>
@@ -47545,7 +47573,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A173" t="s">
         <v>58</v>
       </c>
@@ -47631,7 +47659,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="174" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A174" t="s">
         <v>58</v>
       </c>
@@ -47718,7 +47746,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="175" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A175" t="s">
         <v>58</v>
       </c>
@@ -47802,7 +47830,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="176" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A176" t="s">
         <v>58</v>
       </c>
@@ -47885,7 +47913,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="177" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A177" t="s">
         <v>58</v>
       </c>
@@ -47971,7 +47999,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="178" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A178" t="s">
         <v>58</v>
       </c>
@@ -48057,7 +48085,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="179" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A179" t="s">
         <v>58</v>
       </c>
@@ -48143,7 +48171,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="180" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A180" t="s">
         <v>58</v>
       </c>
@@ -48226,7 +48254,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="181" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A181" t="s">
         <v>58</v>
       </c>
@@ -48309,7 +48337,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="182" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A182" t="s">
         <v>58</v>
       </c>
@@ -48395,7 +48423,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="183" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A183" t="s">
         <v>58</v>
       </c>
@@ -48481,7 +48509,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="184" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A184" t="s">
         <v>58</v>
       </c>
@@ -48567,7 +48595,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="185" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A185" t="s">
         <v>58</v>
       </c>
@@ -48650,7 +48678,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A186" t="s">
         <v>58</v>
       </c>
@@ -48737,7 +48765,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="187" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A187" t="s">
         <v>58</v>
       </c>
@@ -48826,7 +48854,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="188" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A188" t="s">
         <v>58</v>
       </c>
@@ -48916,7 +48944,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="189" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A189" t="s">
         <v>58</v>
       </c>
@@ -49005,7 +49033,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="190" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A190" t="s">
         <v>58</v>
       </c>
@@ -49092,7 +49120,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="191" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A191" t="s">
         <v>58</v>
       </c>
@@ -49179,7 +49207,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="192" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A192" t="s">
         <v>58</v>
       </c>
@@ -49268,7 +49296,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="193" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A193" t="s">
         <v>58</v>
       </c>
@@ -49358,7 +49386,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="194" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A194" t="s">
         <v>58</v>
       </c>
@@ -49447,7 +49475,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="195" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A195" t="s">
         <v>58</v>
       </c>
@@ -49534,7 +49562,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="196" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A196" t="s">
         <v>58</v>
       </c>
@@ -49622,7 +49650,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="197" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A197" t="s">
         <v>58</v>
       </c>
@@ -49712,7 +49740,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="198" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A198" t="s">
         <v>58</v>
       </c>
@@ -49802,7 +49830,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="199" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A199" t="s">
         <v>58</v>
       </c>
@@ -49892,7 +49920,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="200" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A200" t="s">
         <v>58</v>
       </c>
@@ -49979,7 +50007,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="201" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A201" t="s">
         <v>58</v>
       </c>
@@ -50067,7 +50095,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="202" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A202" t="s">
         <v>58</v>
       </c>
@@ -50158,7 +50186,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="203" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A203" t="s">
         <v>58</v>
       </c>
@@ -50248,7 +50276,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="204" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A204" t="s">
         <v>58</v>
       </c>
@@ -50339,7 +50367,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="205" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A205" t="s">
         <v>58</v>
       </c>
@@ -50427,7 +50455,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="206" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A206" t="s">
         <v>58</v>
       </c>
@@ -50511,7 +50539,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="207" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A207" t="s">
         <v>58</v>
       </c>
@@ -50598,7 +50626,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="208" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A208" t="s">
         <v>58</v>
       </c>
@@ -50684,7 +50712,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="209" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A209" t="s">
         <v>58</v>
       </c>
@@ -50771,7 +50799,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="210" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A210" t="s">
         <v>58</v>
       </c>
@@ -50855,7 +50883,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="211" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A211" t="s">
         <v>58</v>
       </c>
@@ -50938,7 +50966,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="212" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A212" t="s">
         <v>58</v>
       </c>
@@ -51024,7 +51052,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="213" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A213" t="s">
         <v>58</v>
       </c>
@@ -51110,7 +51138,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="214" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A214" t="s">
         <v>58</v>
       </c>
@@ -51196,7 +51224,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="215" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A215" t="s">
         <v>58</v>
       </c>
@@ -51279,7 +51307,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="216" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A216" t="s">
         <v>58</v>
       </c>
@@ -51362,7 +51390,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="217" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A217" t="s">
         <v>58</v>
       </c>
@@ -51448,7 +51476,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="218" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A218" t="s">
         <v>58</v>
       </c>
@@ -51534,7 +51562,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="219" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A219" t="s">
         <v>58</v>
       </c>
@@ -51620,7 +51648,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="220" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A220" t="s">
         <v>58</v>
       </c>
@@ -51703,7 +51731,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="221" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A221" t="s">
         <v>58</v>
       </c>
@@ -51786,7 +51814,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="222" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A222" t="s">
         <v>58</v>
       </c>
@@ -51872,7 +51900,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="223" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A223" t="s">
         <v>58</v>
       </c>
@@ -51958,7 +51986,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="224" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A224" t="s">
         <v>58</v>
       </c>
@@ -52044,7 +52072,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="225" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A225" t="s">
         <v>58</v>
       </c>
@@ -52127,7 +52155,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="226" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A226" t="s">
         <v>58</v>
       </c>
@@ -52214,7 +52242,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="227" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A227" t="s">
         <v>58</v>
       </c>
@@ -52303,7 +52331,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="228" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A228" t="s">
         <v>58</v>
       </c>
@@ -52393,7 +52421,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="229" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A229" t="s">
         <v>58</v>
       </c>
@@ -52482,7 +52510,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="230" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A230" t="s">
         <v>58</v>
       </c>
@@ -52569,7 +52597,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="231" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A231" t="s">
         <v>58</v>
       </c>
@@ -52657,7 +52685,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="232" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A232" t="s">
         <v>58</v>
       </c>
@@ -52746,7 +52774,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="233" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A233" t="s">
         <v>58</v>
       </c>
@@ -52836,7 +52864,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="234" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A234" t="s">
         <v>58</v>
       </c>
@@ -52925,7 +52953,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="235" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A235" t="s">
         <v>58</v>
       </c>
@@ -53012,7 +53040,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="236" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A236" t="s">
         <v>58</v>
       </c>
@@ -53100,7 +53128,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="237" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A237" t="s">
         <v>58</v>
       </c>
@@ -53191,7 +53219,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="238" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A238" t="s">
         <v>58</v>
       </c>
@@ -53281,7 +53309,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="239" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A239" t="s">
         <v>58</v>
       </c>
@@ -53372,7 +53400,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="240" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A240" t="s">
         <v>58</v>
       </c>
@@ -53460,7 +53488,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="241" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A241" t="s">
         <v>58</v>
       </c>
@@ -53548,7 +53576,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="242" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A242" t="s">
         <v>58</v>
       </c>
@@ -53639,7 +53667,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="243" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A243" t="s">
         <v>58</v>
       </c>
@@ -53729,7 +53757,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="244" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A244" t="s">
         <v>58</v>
       </c>
@@ -53820,7 +53848,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="245" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A245" t="s">
         <v>58</v>
       </c>
@@ -53908,7 +53936,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="246" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A246" t="s">
         <v>36</v>
       </c>
@@ -53976,7 +54004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A247" t="s">
         <v>36</v>
       </c>
@@ -54035,7 +54063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A248" t="s">
         <v>36</v>
       </c>
@@ -54094,7 +54122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A249" t="s">
         <v>36</v>
       </c>
@@ -54153,7 +54181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:44" x14ac:dyDescent="0.6">
       <c r="A250" t="s">
         <v>36</v>
       </c>
@@ -54212,7 +54240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:44" x14ac:dyDescent="0.6">
       <c r="V251" s="11" t="s">
         <v>41</v>
       </c>
@@ -54238,25 +54266,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:44" x14ac:dyDescent="0.6">
       <c r="X252">
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:44" x14ac:dyDescent="0.6">
       <c r="X253">
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:44" x14ac:dyDescent="0.6">
       <c r="X254">
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="29:29" x14ac:dyDescent="0.2">
+    <row r="266" spans="29:29" x14ac:dyDescent="0.6">
       <c r="AC266" s="2"/>
     </row>
-    <row r="267" spans="29:29" x14ac:dyDescent="0.2">
+    <row r="267" spans="29:29" x14ac:dyDescent="0.6">
       <c r="AC267" s="2"/>
     </row>
   </sheetData>
@@ -54273,9 +54301,9 @@
       <selection activeCell="I39" sqref="I39:I231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -54292,7 +54320,7 @@
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -54309,7 +54337,7 @@
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -54326,7 +54354,7 @@
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -54343,7 +54371,7 @@
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -54360,7 +54388,7 @@
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -54377,7 +54405,7 @@
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -54394,7 +54422,7 @@
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -54411,7 +54439,7 @@
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -54428,7 +54456,7 @@
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -54445,7 +54473,7 @@
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -54462,7 +54490,7 @@
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -54479,7 +54507,7 @@
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -54496,7 +54524,7 @@
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -54513,7 +54541,7 @@
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -54530,7 +54558,7 @@
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -54547,7 +54575,7 @@
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -54564,7 +54592,7 @@
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -54581,7 +54609,7 @@
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -54598,7 +54626,7 @@
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -54615,7 +54643,7 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -54632,7 +54660,7 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -54649,7 +54677,7 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.6">
       <c r="F79" s="1"/>
     </row>
   </sheetData>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C66BA2-751E-D542-8302-E561697FD227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E771D3AD-A60B-8C4E-864A-0D49CA29AAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35540" yWindow="800" windowWidth="35340" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9879" uniqueCount="2648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9895" uniqueCount="2648">
   <si>
     <t>datasetID</t>
   </si>
@@ -9479,8 +9479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="T205" sqref="T205"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="U51" sqref="U51:U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9696,7 +9696,9 @@
       <c r="S4" s="16" t="s">
         <v>805</v>
       </c>
-      <c r="T4" s="16"/>
+      <c r="T4" s="16" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
@@ -10070,7 +10072,9 @@
       <c r="S11" s="16" t="s">
         <v>816</v>
       </c>
-      <c r="T11" s="16"/>
+      <c r="T11" s="16" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
@@ -10330,7 +10334,9 @@
       <c r="S16" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="T16" s="16"/>
+      <c r="T16" s="16" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -10746,7 +10752,9 @@
       <c r="S24" s="16" t="s">
         <v>824</v>
       </c>
-      <c r="T24" s="16"/>
+      <c r="T24" s="16" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
@@ -10900,7 +10908,9 @@
       <c r="S27" s="16" t="s">
         <v>830</v>
       </c>
-      <c r="T27" s="16"/>
+      <c r="T27" s="16" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
@@ -11052,7 +11062,9 @@
       <c r="S30" s="16" t="s">
         <v>834</v>
       </c>
-      <c r="T30" s="16"/>
+      <c r="T30" s="16" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
@@ -11324,7 +11336,9 @@
       <c r="S35" s="16" t="s">
         <v>837</v>
       </c>
-      <c r="T35" s="16"/>
+      <c r="T35" s="16" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
@@ -11482,7 +11496,9 @@
       <c r="S38" s="16" t="s">
         <v>843</v>
       </c>
-      <c r="T38" s="16"/>
+      <c r="T38" s="16" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
@@ -11528,7 +11544,9 @@
       <c r="S39" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="T39" s="16"/>
+      <c r="T39" s="16" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
@@ -11576,7 +11594,9 @@
       <c r="S40" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="T40" s="16"/>
+      <c r="T40" s="16" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
@@ -11624,7 +11644,9 @@
       <c r="S41" s="16" t="s">
         <v>847</v>
       </c>
-      <c r="T41" s="16"/>
+      <c r="T41" s="16" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
@@ -11674,7 +11696,9 @@
       <c r="S42" s="16" t="s">
         <v>853</v>
       </c>
-      <c r="T42" s="16"/>
+      <c r="T42" s="16" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
@@ -11878,7 +11902,9 @@
       <c r="S46" s="16" t="s">
         <v>856</v>
       </c>
-      <c r="T46" s="16"/>
+      <c r="T46" s="16" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
@@ -11980,7 +12006,9 @@
       <c r="S48" s="16" t="s">
         <v>862</v>
       </c>
-      <c r="T48" s="16"/>
+      <c r="T48" s="16" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
@@ -12082,7 +12110,9 @@
       <c r="S50" s="16" t="s">
         <v>868</v>
       </c>
-      <c r="T50" s="16"/>
+      <c r="T50" s="16" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
@@ -12282,7 +12312,9 @@
       <c r="S54" s="16" t="s">
         <v>874</v>
       </c>
-      <c r="T54" s="16"/>
+      <c r="T54" s="16" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E771D3AD-A60B-8C4E-864A-0D49CA29AAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897273DA-DB77-7F4A-9D1A-24B1E9ADC871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35540" yWindow="800" windowWidth="35340" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35580" yWindow="760" windowWidth="35340" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -9479,8 +9479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="U51" sqref="U51:U52"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166:S185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17036,7 +17036,7 @@
       <c r="S156" t="s">
         <v>1066</v>
       </c>
-      <c r="T156" s="18" t="s">
+      <c r="T156" t="s">
         <v>793</v>
       </c>
     </row>
@@ -17083,7 +17083,7 @@
       <c r="S157" t="s">
         <v>1072</v>
       </c>
-      <c r="T157" s="18" t="s">
+      <c r="T157" t="s">
         <v>793</v>
       </c>
     </row>
@@ -17133,7 +17133,7 @@
       <c r="S158" t="s">
         <v>1079</v>
       </c>
-      <c r="T158" s="18" t="s">
+      <c r="T158" t="s">
         <v>793</v>
       </c>
     </row>
@@ -17180,7 +17180,7 @@
       <c r="S159" t="s">
         <v>1079</v>
       </c>
-      <c r="T159" s="18" t="s">
+      <c r="T159" t="s">
         <v>793</v>
       </c>
     </row>
@@ -17230,7 +17230,7 @@
       <c r="S160" t="s">
         <v>1090</v>
       </c>
-      <c r="T160" s="18" t="s">
+      <c r="T160" t="s">
         <v>793</v>
       </c>
     </row>
@@ -17277,7 +17277,7 @@
       <c r="S161" t="s">
         <v>1094</v>
       </c>
-      <c r="T161" s="18" t="s">
+      <c r="T161" t="s">
         <v>793</v>
       </c>
     </row>
@@ -17324,7 +17324,7 @@
       <c r="S162" t="s">
         <v>1098</v>
       </c>
-      <c r="T162" s="18" t="s">
+      <c r="T162" t="s">
         <v>793</v>
       </c>
     </row>
@@ -17368,7 +17368,7 @@
       <c r="S163" t="s">
         <v>1104</v>
       </c>
-      <c r="T163" s="18" t="s">
+      <c r="T163" t="s">
         <v>793</v>
       </c>
     </row>
@@ -17412,7 +17412,7 @@
       <c r="S164" t="s">
         <v>1110</v>
       </c>
-      <c r="T164" s="18" t="s">
+      <c r="T164" t="s">
         <v>793</v>
       </c>
     </row>
@@ -17459,7 +17459,7 @@
       <c r="S165" t="s">
         <v>1115</v>
       </c>
-      <c r="T165" s="18" t="s">
+      <c r="T165" t="s">
         <v>793</v>
       </c>
     </row>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897273DA-DB77-7F4A-9D1A-24B1E9ADC871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C3D3AC-F8E3-934E-8698-DBA3B81D4CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35580" yWindow="760" windowWidth="35340" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -9479,8 +9479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166:S185"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11445,7 +11445,7 @@
         <v>372</v>
       </c>
       <c r="T37" s="16" t="s">
-        <v>38</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C3D3AC-F8E3-934E-8698-DBA3B81D4CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F3CEC0-D2AE-7E41-B851-555A1590B1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,23 @@
     <sheet name="data_detailed" sheetId="1" r:id="rId3"/>
     <sheet name="scratch" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9895" uniqueCount="2648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9858" uniqueCount="2627">
   <si>
     <t>datasetID</t>
   </si>
@@ -7450,21 +7461,6 @@
     <t>yeh90</t>
   </si>
   <si>
-    <t>Yeom, Moon-Sun; Nguyen Thi Kim Loan; Oh, Myung-Min</t>
-  </si>
-  <si>
-    <t>Cold Stratification and Removal of Pericarps for Breaking Dormancy and Improving Germination Rate of Coastal Glehnia</t>
-  </si>
-  <si>
-    <t>S116</t>
-  </si>
-  <si>
-    <t>seems to be duplicate</t>
-  </si>
-  <si>
-    <t>yeom19</t>
-  </si>
-  <si>
     <t>Yeom, Moon-Sun; Nguyen, Thi Kim Loan; Cho, Ju-Sung; Oh, Myung-Min</t>
   </si>
   <si>
@@ -7480,42 +7476,6 @@
     <t>yeom21</t>
   </si>
   <si>
-    <t>Yergin-Ozkan, Reyyan; Tepe, Isik</t>
-  </si>
-  <si>
-    <t>EMERGENCE CHARACTERISTICS AND GERMINATION PHYSIOLOGY OF SMOOTHSEED ALFALFA DODDER (CUSCUTA APPROXIMATA BAB.)</t>
-  </si>
-  <si>
-    <t>Cuscuta</t>
-  </si>
-  <si>
-    <t>approximata</t>
-  </si>
-  <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>check whether field or not</t>
-  </si>
-  <si>
-    <t>yergin-ozkan18</t>
-  </si>
-  <si>
-    <t>Yergin, R.; Tepe, I.</t>
-  </si>
-  <si>
-    <t>Determination of some emergence characteristics and germination physiology of great bur parsley (Turgenia latifolia (L.) Hoffm.).</t>
-  </si>
-  <si>
-    <t>Turkiye Herboloji Dergisi</t>
-  </si>
-  <si>
-    <t>Turgenia</t>
-  </si>
-  <si>
-    <t>yergin07</t>
-  </si>
-  <si>
     <t>Yin LiYan; Wang CaiYun; Chen YuanYuan; Yu Cao; Cheng Yu; Li Wei</t>
   </si>
   <si>
@@ -7913,18 +7873,6 @@
   </si>
   <si>
     <t>zhu11</t>
-  </si>
-  <si>
-    <t>ZHU K; DONG J; MU N; DONG H</t>
-  </si>
-  <si>
-    <t>Stratifying germination of white Magnolia seeds involves sterilizing white Magnolia seeds and fine river sand, rinsing with water, Magnolia seeds are buried in fine river sand for stratification and germination, fine river sand is replaced</t>
-  </si>
-  <si>
-    <t>noenv</t>
-  </si>
-  <si>
-    <t>zhuNA</t>
   </si>
   <si>
     <t>Ziaf, Khurram; Batool, Asmat; Amjad, Muhammad; Jahangir, Muhammad Muzammil</t>
@@ -8122,7 +8070,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8311,6 +8259,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8503,7 +8457,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8531,6 +8485,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9433,7 +9388,7 @@
         <v>34</v>
       </c>
       <c r="B69" t="s">
-        <v>2647</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -9477,14 +9432,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T492"/>
+  <dimension ref="A1:T488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" topLeftCell="I204" workbookViewId="0">
+      <selection activeCell="U213" sqref="U213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="18" max="18" width="15.1640625" customWidth="1"/>
@@ -18400,7 +18356,7 @@
         <v>1211</v>
       </c>
       <c r="T185" s="18" t="s">
-        <v>793</v>
+        <v>38</v>
       </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.2">
@@ -21517,6 +21473,9 @@
       <c r="J256" t="s">
         <v>1564</v>
       </c>
+      <c r="K256" t="s">
+        <v>188</v>
+      </c>
       <c r="P256" t="s">
         <v>795</v>
       </c>
@@ -25670,7 +25629,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>187</v>
       </c>
@@ -25714,7 +25673,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>187</v>
       </c>
@@ -25755,7 +25714,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>187</v>
       </c>
@@ -25796,7 +25755,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>187</v>
       </c>
@@ -25836,8 +25795,11 @@
       <c r="S356" t="s">
         <v>2038</v>
       </c>
-    </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T356" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="357" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>187</v>
       </c>
@@ -25881,7 +25843,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>187</v>
       </c>
@@ -25922,7 +25884,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>187</v>
       </c>
@@ -25960,7 +25922,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>187</v>
       </c>
@@ -25998,7 +25960,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>187</v>
       </c>
@@ -26036,7 +25998,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>187</v>
       </c>
@@ -26074,7 +26036,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>187</v>
       </c>
@@ -26112,7 +26074,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>187</v>
       </c>
@@ -26153,7 +26115,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>187</v>
       </c>
@@ -26194,7 +26156,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>187</v>
       </c>
@@ -26235,7 +26197,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>187</v>
       </c>
@@ -26276,7 +26238,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>187</v>
       </c>
@@ -28650,50 +28612,50 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A424" t="s">
+    <row r="424" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="19" t="s">
         <v>2335</v>
       </c>
-      <c r="C424" t="s">
+      <c r="C424" s="19" t="s">
         <v>2336</v>
       </c>
-      <c r="D424" t="s">
+      <c r="D424" s="19" t="s">
         <v>2337</v>
       </c>
-      <c r="E424">
+      <c r="E424" s="19">
         <v>47</v>
       </c>
-      <c r="F424">
+      <c r="F424" s="19">
         <v>4</v>
       </c>
-      <c r="G424">
+      <c r="G424" s="19">
         <v>218</v>
       </c>
-      <c r="H424">
+      <c r="H424" s="19">
         <v>1981</v>
       </c>
-      <c r="I424" t="s">
+      <c r="I424" s="19" t="s">
         <v>2010</v>
       </c>
-      <c r="J424" t="s">
+      <c r="J424" s="19" t="s">
         <v>2338</v>
       </c>
-      <c r="K424" t="s">
+      <c r="K424" s="19" t="s">
         <v>2339</v>
       </c>
-      <c r="P424" t="s">
+      <c r="P424" s="19" t="s">
         <v>795</v>
       </c>
-      <c r="Q424" t="s">
+      <c r="Q424" s="19" t="s">
         <v>2340</v>
       </c>
-      <c r="R424" t="s">
+      <c r="R424" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="S424" t="s">
+      <c r="S424" s="19" t="s">
         <v>2341</v>
       </c>
     </row>
@@ -28895,6 +28857,9 @@
       <c r="J429" t="s">
         <v>2366</v>
       </c>
+      <c r="K429" t="s">
+        <v>188</v>
+      </c>
       <c r="S429" t="s">
         <v>2367</v>
       </c>
@@ -29651,7 +29616,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>187</v>
       </c>
@@ -29692,7 +29657,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>187</v>
       </c>
@@ -29733,7 +29698,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>187</v>
       </c>
@@ -29776,8 +29741,11 @@
       <c r="S451" t="s">
         <v>2463</v>
       </c>
-    </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T451" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="452" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>323</v>
       </c>
@@ -29815,7 +29783,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>187</v>
       </c>
@@ -29847,7 +29815,7 @@
         <v>2469</v>
       </c>
       <c r="K453" t="s">
-        <v>935</v>
+        <v>188</v>
       </c>
       <c r="P453" t="s">
         <v>795</v>
@@ -29862,7 +29830,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>187</v>
       </c>
@@ -29897,7 +29865,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>187</v>
       </c>
@@ -29908,19 +29876,16 @@
         <v>2476</v>
       </c>
       <c r="D455" t="s">
-        <v>295</v>
+        <v>2477</v>
       </c>
       <c r="E455">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F455">
-        <v>9</v>
-      </c>
-      <c r="G455" t="s">
-        <v>2477</v>
+        <v>5</v>
       </c>
       <c r="H455">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="I455" t="s">
         <v>1310</v>
@@ -29941,7 +29906,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>187</v>
       </c>
@@ -29955,157 +29920,145 @@
         <v>2482</v>
       </c>
       <c r="E456">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="F456">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="G456">
+        <v>85</v>
       </c>
       <c r="H456">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="I456" t="s">
-        <v>1310</v>
+        <v>2483</v>
       </c>
       <c r="J456" t="s">
-        <v>1311</v>
+        <v>2484</v>
       </c>
       <c r="K456" t="s">
-        <v>1004</v>
-      </c>
-      <c r="Q456" t="s">
-        <v>2483</v>
+        <v>188</v>
       </c>
       <c r="R456" t="s">
         <v>276</v>
       </c>
       <c r="S456" t="s">
-        <v>2484</v>
-      </c>
-    </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="457" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>187</v>
       </c>
       <c r="B457" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="C457" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="D457" t="s">
-        <v>1655</v>
+        <v>1731</v>
       </c>
       <c r="E457">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F457">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G457">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="H457">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="I457" t="s">
-        <v>2487</v>
+        <v>245</v>
       </c>
       <c r="J457" t="s">
-        <v>2488</v>
+        <v>290</v>
       </c>
       <c r="K457" t="s">
-        <v>1087</v>
-      </c>
-      <c r="L457" t="s">
-        <v>2489</v>
-      </c>
-      <c r="Q457" t="s">
-        <v>2490</v>
+        <v>188</v>
       </c>
       <c r="R457" t="s">
         <v>276</v>
       </c>
       <c r="S457" t="s">
-        <v>2491</v>
-      </c>
-    </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="458" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>187</v>
       </c>
       <c r="B458" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C458" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D458" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E458">
+        <v>24</v>
+      </c>
+      <c r="F458">
+        <v>7</v>
+      </c>
+      <c r="G458">
+        <v>106</v>
+      </c>
+      <c r="H458">
+        <v>2015</v>
+      </c>
+      <c r="I458" t="s">
         <v>2492</v>
       </c>
-      <c r="C458" t="s">
+      <c r="J458" t="s">
         <v>2493</v>
       </c>
-      <c r="D458" t="s">
-        <v>2494</v>
-      </c>
-      <c r="E458">
-        <v>10</v>
-      </c>
-      <c r="F458">
-        <v>2</v>
-      </c>
-      <c r="G458">
-        <v>18</v>
-      </c>
-      <c r="H458">
-        <v>2007</v>
-      </c>
-      <c r="I458" t="s">
-        <v>2495</v>
-      </c>
-      <c r="J458" t="s">
-        <v>681</v>
-      </c>
       <c r="K458" t="s">
-        <v>1087</v>
-      </c>
-      <c r="L458" t="s">
-        <v>2489</v>
-      </c>
-      <c r="Q458" t="s">
-        <v>2490</v>
+        <v>188</v>
       </c>
       <c r="R458" t="s">
         <v>276</v>
       </c>
       <c r="S458" t="s">
-        <v>2496</v>
-      </c>
-    </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="459" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>187</v>
       </c>
       <c r="B459" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C459" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D459" t="s">
+        <v>737</v>
+      </c>
+      <c r="E459">
+        <v>11</v>
+      </c>
+      <c r="F459">
+        <v>2</v>
+      </c>
+      <c r="G459">
+        <v>135</v>
+      </c>
+      <c r="H459">
+        <v>2003</v>
+      </c>
+      <c r="I459" t="s">
+        <v>866</v>
+      </c>
+      <c r="J459" t="s">
         <v>2497</v>
-      </c>
-      <c r="C459" t="s">
-        <v>2498</v>
-      </c>
-      <c r="D459" t="s">
-        <v>2499</v>
-      </c>
-      <c r="E459">
-        <v>90</v>
-      </c>
-      <c r="F459">
-        <v>1</v>
-      </c>
-      <c r="G459">
-        <v>85</v>
-      </c>
-      <c r="H459">
-        <v>2009</v>
-      </c>
-      <c r="I459" t="s">
-        <v>2500</v>
-      </c>
-      <c r="J459" t="s">
-        <v>2501</v>
       </c>
       <c r="K459" t="s">
         <v>188</v>
@@ -30114,80 +30067,83 @@
         <v>276</v>
       </c>
       <c r="S459" t="s">
-        <v>2502</v>
-      </c>
-    </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="460" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>187</v>
       </c>
       <c r="B460" t="s">
-        <v>2503</v>
+        <v>2499</v>
       </c>
       <c r="C460" t="s">
-        <v>2504</v>
+        <v>2500</v>
       </c>
       <c r="D460" t="s">
-        <v>1731</v>
+        <v>295</v>
       </c>
       <c r="E460">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F460">
         <v>4</v>
       </c>
       <c r="G460">
-        <v>161</v>
+        <v>506</v>
       </c>
       <c r="H460">
-        <v>2008</v>
+        <v>2021</v>
       </c>
       <c r="I460" t="s">
-        <v>245</v>
+        <v>2501</v>
       </c>
       <c r="J460" t="s">
-        <v>290</v>
+        <v>2502</v>
       </c>
       <c r="K460" t="s">
         <v>188</v>
       </c>
+      <c r="P460" t="s">
+        <v>795</v>
+      </c>
       <c r="R460" t="s">
         <v>276</v>
       </c>
       <c r="S460" t="s">
-        <v>2505</v>
-      </c>
-    </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="461" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>187</v>
       </c>
       <c r="B461" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C461" t="s">
+        <v>2505</v>
+      </c>
+      <c r="D461" t="s">
         <v>2506</v>
       </c>
-      <c r="C461" t="s">
-        <v>2507</v>
-      </c>
-      <c r="D461" t="s">
-        <v>2508</v>
-      </c>
       <c r="E461">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F461">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G461">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="H461">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="I461" t="s">
-        <v>2509</v>
+        <v>223</v>
       </c>
       <c r="J461" t="s">
-        <v>2510</v>
+        <v>325</v>
       </c>
       <c r="K461" t="s">
         <v>188</v>
@@ -30196,39 +30152,36 @@
         <v>276</v>
       </c>
       <c r="S461" t="s">
-        <v>2511</v>
-      </c>
-    </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="462" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>187</v>
       </c>
       <c r="B462" t="s">
-        <v>2512</v>
+        <v>2508</v>
       </c>
       <c r="C462" t="s">
-        <v>2513</v>
+        <v>2509</v>
       </c>
       <c r="D462" t="s">
-        <v>737</v>
-      </c>
-      <c r="E462">
-        <v>11</v>
+        <v>383</v>
       </c>
       <c r="F462">
         <v>2</v>
       </c>
       <c r="G462">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="H462">
-        <v>2003</v>
+        <v>1983</v>
       </c>
       <c r="I462" t="s">
-        <v>866</v>
+        <v>2010</v>
       </c>
       <c r="J462" t="s">
-        <v>2514</v>
+        <v>199</v>
       </c>
       <c r="K462" t="s">
         <v>188</v>
@@ -30237,83 +30190,80 @@
         <v>276</v>
       </c>
       <c r="S462" t="s">
-        <v>2515</v>
-      </c>
-    </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="463" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>187</v>
       </c>
       <c r="B463" t="s">
-        <v>2516</v>
+        <v>2511</v>
       </c>
       <c r="C463" t="s">
-        <v>2517</v>
+        <v>2512</v>
       </c>
       <c r="D463" t="s">
-        <v>295</v>
+        <v>1655</v>
       </c>
       <c r="E463">
-        <v>56</v>
-      </c>
-      <c r="F463">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="F463" t="s">
+        <v>2513</v>
       </c>
       <c r="G463">
-        <v>506</v>
+        <v>1661</v>
       </c>
       <c r="H463">
         <v>2021</v>
       </c>
       <c r="I463" t="s">
-        <v>2518</v>
+        <v>463</v>
       </c>
       <c r="J463" t="s">
-        <v>2519</v>
+        <v>199</v>
       </c>
       <c r="K463" t="s">
-        <v>935</v>
-      </c>
-      <c r="P463" t="s">
-        <v>795</v>
+        <v>188</v>
       </c>
       <c r="R463" t="s">
         <v>276</v>
       </c>
       <c r="S463" t="s">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="464" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>187</v>
       </c>
       <c r="B464" t="s">
-        <v>2521</v>
+        <v>2515</v>
       </c>
       <c r="C464" t="s">
-        <v>2522</v>
+        <v>2516</v>
       </c>
       <c r="D464" t="s">
-        <v>2523</v>
+        <v>2015</v>
       </c>
       <c r="E464">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F464">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G464">
-        <v>156</v>
+        <v>428</v>
       </c>
       <c r="H464">
-        <v>2007</v>
+        <v>2019</v>
       </c>
       <c r="I464" t="s">
-        <v>223</v>
+        <v>1926</v>
       </c>
       <c r="J464" t="s">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="K464" t="s">
         <v>188</v>
@@ -30322,7 +30272,7 @@
         <v>276</v>
       </c>
       <c r="S464" t="s">
-        <v>2524</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="465" spans="1:19" x14ac:dyDescent="0.2">
@@ -30330,28 +30280,31 @@
         <v>187</v>
       </c>
       <c r="B465" t="s">
-        <v>2525</v>
+        <v>2518</v>
       </c>
       <c r="C465" t="s">
-        <v>2526</v>
+        <v>2519</v>
       </c>
       <c r="D465" t="s">
-        <v>383</v>
+        <v>527</v>
+      </c>
+      <c r="E465">
+        <v>61</v>
       </c>
       <c r="F465">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G465">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H465">
-        <v>1983</v>
+        <v>2015</v>
       </c>
       <c r="I465" t="s">
-        <v>2010</v>
+        <v>463</v>
       </c>
       <c r="J465" t="s">
-        <v>199</v>
+        <v>1382</v>
       </c>
       <c r="K465" t="s">
         <v>188</v>
@@ -30360,7 +30313,7 @@
         <v>276</v>
       </c>
       <c r="S465" t="s">
-        <v>2527</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="466" spans="1:19" x14ac:dyDescent="0.2">
@@ -30368,31 +30321,31 @@
         <v>187</v>
       </c>
       <c r="B466" t="s">
-        <v>2528</v>
+        <v>2521</v>
       </c>
       <c r="C466" t="s">
-        <v>2529</v>
+        <v>2522</v>
       </c>
       <c r="D466" t="s">
-        <v>1655</v>
+        <v>2523</v>
       </c>
       <c r="E466">
-        <v>30</v>
-      </c>
-      <c r="F466" t="s">
-        <v>2530</v>
+        <v>24</v>
+      </c>
+      <c r="F466" s="1">
+        <v>44563</v>
       </c>
       <c r="G466">
-        <v>1661</v>
+        <v>41</v>
       </c>
       <c r="H466">
-        <v>2021</v>
+        <v>2008</v>
       </c>
       <c r="I466" t="s">
-        <v>463</v>
+        <v>1598</v>
       </c>
       <c r="J466" t="s">
-        <v>199</v>
+        <v>2524</v>
       </c>
       <c r="K466" t="s">
         <v>188</v>
@@ -30401,7 +30354,7 @@
         <v>276</v>
       </c>
       <c r="S466" t="s">
-        <v>2531</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="467" spans="1:19" x14ac:dyDescent="0.2">
@@ -30409,31 +30362,31 @@
         <v>187</v>
       </c>
       <c r="B467" t="s">
-        <v>2532</v>
+        <v>2526</v>
       </c>
       <c r="C467" t="s">
-        <v>2533</v>
+        <v>2527</v>
       </c>
       <c r="D467" t="s">
-        <v>2015</v>
+        <v>572</v>
       </c>
       <c r="E467">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F467">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G467">
-        <v>428</v>
+        <v>85</v>
       </c>
       <c r="H467">
         <v>2019</v>
       </c>
       <c r="I467" t="s">
-        <v>1926</v>
+        <v>253</v>
       </c>
       <c r="J467" t="s">
-        <v>40</v>
+        <v>1829</v>
       </c>
       <c r="K467" t="s">
         <v>188</v>
@@ -30442,7 +30395,7 @@
         <v>276</v>
       </c>
       <c r="S467" t="s">
-        <v>2534</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="468" spans="1:19" x14ac:dyDescent="0.2">
@@ -30450,31 +30403,31 @@
         <v>187</v>
       </c>
       <c r="B468" t="s">
-        <v>2535</v>
+        <v>2529</v>
       </c>
       <c r="C468" t="s">
-        <v>2536</v>
+        <v>2530</v>
       </c>
       <c r="D468" t="s">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="E468">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="F468">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G468">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="H468">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="I468" t="s">
-        <v>463</v>
+        <v>253</v>
       </c>
       <c r="J468" t="s">
-        <v>1382</v>
+        <v>2531</v>
       </c>
       <c r="K468" t="s">
         <v>188</v>
@@ -30483,7 +30436,7 @@
         <v>276</v>
       </c>
       <c r="S468" t="s">
-        <v>2537</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="469" spans="1:19" x14ac:dyDescent="0.2">
@@ -30491,31 +30444,28 @@
         <v>187</v>
       </c>
       <c r="B469" t="s">
-        <v>2538</v>
+        <v>2533</v>
       </c>
       <c r="C469" t="s">
-        <v>2539</v>
+        <v>2534</v>
       </c>
       <c r="D469" t="s">
-        <v>2540</v>
+        <v>2535</v>
       </c>
       <c r="E469">
         <v>24</v>
       </c>
-      <c r="F469" s="1">
-        <v>44563</v>
+      <c r="F469">
+        <v>3</v>
       </c>
       <c r="G469">
-        <v>41</v>
+        <v>425</v>
       </c>
       <c r="H469">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="I469" t="s">
-        <v>1598</v>
-      </c>
-      <c r="J469" t="s">
-        <v>2541</v>
+        <v>326</v>
       </c>
       <c r="K469" t="s">
         <v>188</v>
@@ -30524,7 +30474,7 @@
         <v>276</v>
       </c>
       <c r="S469" t="s">
-        <v>2542</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="470" spans="1:19" x14ac:dyDescent="0.2">
@@ -30532,31 +30482,31 @@
         <v>187</v>
       </c>
       <c r="B470" t="s">
-        <v>2543</v>
+        <v>2537</v>
       </c>
       <c r="C470" t="s">
-        <v>2544</v>
+        <v>2538</v>
       </c>
       <c r="D470" t="s">
-        <v>572</v>
+        <v>2539</v>
       </c>
       <c r="E470">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F470">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G470">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H470">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="I470" t="s">
-        <v>253</v>
+        <v>541</v>
       </c>
       <c r="J470" t="s">
-        <v>1829</v>
+        <v>199</v>
       </c>
       <c r="K470" t="s">
         <v>188</v>
@@ -30565,7 +30515,7 @@
         <v>276</v>
       </c>
       <c r="S470" t="s">
-        <v>2545</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="471" spans="1:19" x14ac:dyDescent="0.2">
@@ -30573,31 +30523,31 @@
         <v>187</v>
       </c>
       <c r="B471" t="s">
-        <v>2546</v>
+        <v>2541</v>
       </c>
       <c r="C471" t="s">
-        <v>2547</v>
+        <v>2542</v>
       </c>
       <c r="D471" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="E471">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F471">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G471">
-        <v>57</v>
+        <v>1205</v>
       </c>
       <c r="H471">
-        <v>2011</v>
+        <v>1997</v>
       </c>
       <c r="I471" t="s">
-        <v>253</v>
+        <v>2543</v>
       </c>
       <c r="J471" t="s">
-        <v>2548</v>
+        <v>2544</v>
       </c>
       <c r="K471" t="s">
         <v>188</v>
@@ -30606,7 +30556,7 @@
         <v>276</v>
       </c>
       <c r="S471" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="472" spans="1:19" x14ac:dyDescent="0.2">
@@ -30614,28 +30564,31 @@
         <v>187</v>
       </c>
       <c r="B472" t="s">
-        <v>2550</v>
+        <v>2546</v>
       </c>
       <c r="C472" t="s">
-        <v>2551</v>
+        <v>2547</v>
       </c>
       <c r="D472" t="s">
-        <v>2552</v>
+        <v>2506</v>
       </c>
       <c r="E472">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F472">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G472">
-        <v>425</v>
+        <v>205</v>
       </c>
       <c r="H472">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="I472" t="s">
-        <v>326</v>
+        <v>2548</v>
+      </c>
+      <c r="J472" t="s">
+        <v>2549</v>
       </c>
       <c r="K472" t="s">
         <v>188</v>
@@ -30644,48 +30597,39 @@
         <v>276</v>
       </c>
       <c r="S472" t="s">
-        <v>2553</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="473" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>187</v>
+        <v>2384</v>
       </c>
       <c r="B473" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C473" t="s">
+        <v>2552</v>
+      </c>
+      <c r="H473" t="s">
+        <v>41</v>
+      </c>
+      <c r="I473" t="s">
+        <v>2553</v>
+      </c>
+      <c r="J473" t="s">
         <v>2554</v>
-      </c>
-      <c r="C473" t="s">
-        <v>2555</v>
-      </c>
-      <c r="D473" t="s">
-        <v>2556</v>
-      </c>
-      <c r="E473">
-        <v>20</v>
-      </c>
-      <c r="F473">
-        <v>1</v>
-      </c>
-      <c r="G473">
-        <v>88</v>
-      </c>
-      <c r="H473">
-        <v>2013</v>
-      </c>
-      <c r="I473" t="s">
-        <v>541</v>
-      </c>
-      <c r="J473" t="s">
-        <v>199</v>
       </c>
       <c r="K473" t="s">
         <v>188</v>
       </c>
+      <c r="P473" t="s">
+        <v>795</v>
+      </c>
       <c r="R473" t="s">
         <v>276</v>
       </c>
       <c r="S473" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="474" spans="1:19" x14ac:dyDescent="0.2">
@@ -30693,40 +30637,40 @@
         <v>187</v>
       </c>
       <c r="B474" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C474" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D474" t="s">
+        <v>256</v>
+      </c>
+      <c r="E474">
+        <v>54</v>
+      </c>
+      <c r="F474">
+        <v>1</v>
+      </c>
+      <c r="G474">
+        <v>19</v>
+      </c>
+      <c r="H474">
+        <v>2021</v>
+      </c>
+      <c r="I474" t="s">
         <v>2558</v>
       </c>
-      <c r="C474" t="s">
+      <c r="J474" t="s">
         <v>2559</v>
       </c>
-      <c r="D474" t="s">
-        <v>555</v>
-      </c>
-      <c r="E474">
-        <v>32</v>
-      </c>
-      <c r="F474">
-        <v>11</v>
-      </c>
-      <c r="G474">
-        <v>1205</v>
-      </c>
-      <c r="H474">
-        <v>1997</v>
-      </c>
-      <c r="I474" t="s">
-        <v>2560</v>
-      </c>
-      <c r="J474" t="s">
-        <v>2561</v>
-      </c>
       <c r="K474" t="s">
-        <v>188</v>
+        <v>1004</v>
       </c>
       <c r="R474" t="s">
         <v>276</v>
       </c>
       <c r="S474" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="475" spans="1:19" x14ac:dyDescent="0.2">
@@ -30734,31 +30678,31 @@
         <v>187</v>
       </c>
       <c r="B475" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C475" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D475" t="s">
         <v>2563</v>
       </c>
-      <c r="C475" t="s">
-        <v>2564</v>
-      </c>
-      <c r="D475" t="s">
-        <v>2523</v>
-      </c>
       <c r="E475">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F475">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G475">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="H475">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="I475" t="s">
-        <v>2565</v>
+        <v>253</v>
       </c>
       <c r="J475" t="s">
-        <v>2566</v>
+        <v>199</v>
       </c>
       <c r="K475" t="s">
         <v>188</v>
@@ -30767,39 +30711,48 @@
         <v>276</v>
       </c>
       <c r="S475" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="476" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>2384</v>
+        <v>187</v>
       </c>
       <c r="B476" t="s">
+        <v>2565</v>
+      </c>
+      <c r="C476" t="s">
+        <v>2566</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E476">
+        <v>44</v>
+      </c>
+      <c r="F476">
+        <v>9</v>
+      </c>
+      <c r="G476">
+        <v>170</v>
+      </c>
+      <c r="H476">
+        <v>2008</v>
+      </c>
+      <c r="I476" t="s">
+        <v>2567</v>
+      </c>
+      <c r="J476" t="s">
         <v>2568</v>
       </c>
-      <c r="C476" t="s">
-        <v>2569</v>
-      </c>
-      <c r="H476" t="s">
-        <v>41</v>
-      </c>
-      <c r="I476" t="s">
-        <v>2570</v>
-      </c>
-      <c r="J476" t="s">
-        <v>2571</v>
-      </c>
       <c r="K476" t="s">
-        <v>935</v>
-      </c>
-      <c r="P476" t="s">
-        <v>795</v>
+        <v>188</v>
       </c>
       <c r="R476" t="s">
         <v>276</v>
       </c>
       <c r="S476" t="s">
-        <v>2572</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="477" spans="1:19" x14ac:dyDescent="0.2">
@@ -30807,40 +30760,43 @@
         <v>187</v>
       </c>
       <c r="B477" t="s">
-        <v>2573</v>
+        <v>2570</v>
       </c>
       <c r="C477" t="s">
-        <v>2574</v>
+        <v>2571</v>
       </c>
       <c r="D477" t="s">
-        <v>256</v>
+        <v>1319</v>
       </c>
       <c r="E477">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F477">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G477">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="H477">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="I477" t="s">
-        <v>2575</v>
+        <v>1277</v>
       </c>
       <c r="J477" t="s">
-        <v>2576</v>
+        <v>467</v>
       </c>
       <c r="K477" t="s">
         <v>1004</v>
       </c>
+      <c r="M477" t="s">
+        <v>2572</v>
+      </c>
       <c r="R477" t="s">
         <v>276</v>
       </c>
       <c r="S477" t="s">
-        <v>2577</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="478" spans="1:19" x14ac:dyDescent="0.2">
@@ -30848,31 +30804,31 @@
         <v>187</v>
       </c>
       <c r="B478" t="s">
-        <v>2578</v>
+        <v>2573</v>
       </c>
       <c r="C478" t="s">
-        <v>2579</v>
+        <v>2574</v>
       </c>
       <c r="D478" t="s">
-        <v>2580</v>
+        <v>651</v>
       </c>
       <c r="E478">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F478">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G478">
-        <v>49</v>
+        <v>280</v>
       </c>
       <c r="H478">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="I478" t="s">
-        <v>253</v>
+        <v>1277</v>
       </c>
       <c r="J478" t="s">
-        <v>199</v>
+        <v>2575</v>
       </c>
       <c r="K478" t="s">
         <v>188</v>
@@ -30881,7 +30837,7 @@
         <v>276</v>
       </c>
       <c r="S478" t="s">
-        <v>2581</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="479" spans="1:19" x14ac:dyDescent="0.2">
@@ -30889,31 +30845,22 @@
         <v>187</v>
       </c>
       <c r="B479" t="s">
-        <v>2582</v>
+        <v>2577</v>
       </c>
       <c r="C479" t="s">
-        <v>2583</v>
+        <v>2578</v>
       </c>
       <c r="D479" t="s">
-        <v>1731</v>
-      </c>
-      <c r="E479">
-        <v>44</v>
-      </c>
-      <c r="F479">
-        <v>9</v>
-      </c>
-      <c r="G479">
-        <v>170</v>
+        <v>534</v>
       </c>
       <c r="H479">
-        <v>2008</v>
+        <v>2021</v>
       </c>
       <c r="I479" t="s">
-        <v>2584</v>
+        <v>339</v>
       </c>
       <c r="J479" t="s">
-        <v>2585</v>
+        <v>2579</v>
       </c>
       <c r="K479" t="s">
         <v>188</v>
@@ -30922,7 +30869,7 @@
         <v>276</v>
       </c>
       <c r="S479" t="s">
-        <v>2586</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="480" spans="1:19" x14ac:dyDescent="0.2">
@@ -30930,13 +30877,13 @@
         <v>187</v>
       </c>
       <c r="B480" t="s">
-        <v>2587</v>
+        <v>2580</v>
       </c>
       <c r="C480" t="s">
-        <v>2588</v>
+        <v>2581</v>
       </c>
       <c r="D480" t="s">
-        <v>1319</v>
+        <v>2582</v>
       </c>
       <c r="E480">
         <v>32</v>
@@ -30945,60 +30892,57 @@
         <v>5</v>
       </c>
       <c r="G480">
-        <v>92</v>
+        <v>448</v>
       </c>
       <c r="H480">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I480" t="s">
-        <v>1277</v>
+        <v>2583</v>
       </c>
       <c r="J480" t="s">
-        <v>467</v>
+        <v>2584</v>
       </c>
       <c r="K480" t="s">
-        <v>1004</v>
-      </c>
-      <c r="M480" t="s">
-        <v>2589</v>
+        <v>188</v>
       </c>
       <c r="R480" t="s">
         <v>276</v>
       </c>
       <c r="S480" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>187</v>
       </c>
       <c r="B481" t="s">
-        <v>2590</v>
+        <v>2586</v>
       </c>
       <c r="C481" t="s">
-        <v>2591</v>
+        <v>2587</v>
       </c>
       <c r="D481" t="s">
-        <v>651</v>
+        <v>2491</v>
       </c>
       <c r="E481">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F481">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G481">
-        <v>280</v>
+        <v>56</v>
       </c>
       <c r="H481">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="I481" t="s">
-        <v>1277</v>
+        <v>2588</v>
       </c>
       <c r="J481" t="s">
-        <v>2592</v>
+        <v>2589</v>
       </c>
       <c r="K481" t="s">
         <v>188</v>
@@ -31007,42 +30951,42 @@
         <v>276</v>
       </c>
       <c r="S481" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B482" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C482" t="s">
+        <v>2592</v>
+      </c>
+      <c r="H482" t="s">
+        <v>41</v>
+      </c>
+      <c r="I482" t="s">
         <v>2593</v>
       </c>
-    </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A482" t="s">
-        <v>187</v>
-      </c>
-      <c r="B482" t="s">
+      <c r="J482" t="s">
         <v>2594</v>
       </c>
-      <c r="C482" t="s">
+      <c r="K482" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M482" t="s">
         <v>2595</v>
-      </c>
-      <c r="D482" t="s">
-        <v>534</v>
-      </c>
-      <c r="H482">
-        <v>2021</v>
-      </c>
-      <c r="I482" t="s">
-        <v>339</v>
-      </c>
-      <c r="J482" t="s">
-        <v>2596</v>
-      </c>
-      <c r="K482" t="s">
-        <v>188</v>
       </c>
       <c r="R482" t="s">
         <v>276</v>
       </c>
       <c r="S482" t="s">
-        <v>2577</v>
-      </c>
-    </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>187</v>
       </c>
@@ -31056,16 +31000,16 @@
         <v>2599</v>
       </c>
       <c r="E483">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F483">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G483">
-        <v>448</v>
+        <v>179</v>
       </c>
       <c r="H483">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="I483" t="s">
         <v>2600</v>
@@ -31074,45 +31018,48 @@
         <v>2601</v>
       </c>
       <c r="K483" t="s">
-        <v>188</v>
+        <v>1004</v>
+      </c>
+      <c r="M483" t="s">
+        <v>2602</v>
       </c>
       <c r="R483" t="s">
         <v>276</v>
       </c>
       <c r="S483" t="s">
-        <v>2602</v>
-      </c>
-    </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>187</v>
       </c>
       <c r="B484" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="C484" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="D484" t="s">
-        <v>2508</v>
+        <v>2606</v>
       </c>
       <c r="E484">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="F484">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G484">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="H484">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="I484" t="s">
-        <v>2605</v>
+        <v>352</v>
       </c>
       <c r="J484" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="K484" t="s">
         <v>188</v>
@@ -31121,323 +31068,180 @@
         <v>276</v>
       </c>
       <c r="S484" t="s">
-        <v>2607</v>
-      </c>
-    </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>2384</v>
+        <v>187</v>
       </c>
       <c r="B485" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="C485" t="s">
-        <v>2609</v>
-      </c>
-      <c r="H485" t="s">
-        <v>41</v>
+        <v>2610</v>
+      </c>
+      <c r="D485" t="s">
+        <v>457</v>
+      </c>
+      <c r="E485">
+        <v>30</v>
+      </c>
+      <c r="F485">
+        <v>1</v>
+      </c>
+      <c r="G485">
+        <v>11</v>
+      </c>
+      <c r="H485">
+        <v>2011</v>
       </c>
       <c r="I485" t="s">
-        <v>2610</v>
+        <v>253</v>
       </c>
       <c r="J485" t="s">
         <v>2611</v>
       </c>
       <c r="K485" t="s">
-        <v>1004</v>
-      </c>
-      <c r="M485" t="s">
-        <v>2612</v>
+        <v>188</v>
       </c>
       <c r="R485" t="s">
         <v>276</v>
       </c>
       <c r="S485" t="s">
-        <v>2613</v>
-      </c>
-    </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>187</v>
       </c>
       <c r="B486" t="s">
+        <v>2613</v>
+      </c>
+      <c r="C486" t="s">
         <v>2614</v>
       </c>
-      <c r="C486" t="s">
+      <c r="D486" t="s">
         <v>2615</v>
       </c>
-      <c r="D486" t="s">
-        <v>2616</v>
-      </c>
       <c r="E486">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F486">
         <v>2</v>
       </c>
       <c r="G486">
-        <v>179</v>
+        <v>469</v>
       </c>
       <c r="H486">
-        <v>2003</v>
+        <v>2014</v>
       </c>
       <c r="I486" t="s">
-        <v>2617</v>
-      </c>
-      <c r="J486" t="s">
-        <v>2618</v>
+        <v>556</v>
       </c>
       <c r="K486" t="s">
-        <v>1004</v>
-      </c>
-      <c r="M486" t="s">
-        <v>2619</v>
+        <v>188</v>
+      </c>
+      <c r="P486" t="s">
+        <v>47</v>
       </c>
       <c r="R486" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="S486" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2616</v>
+      </c>
+      <c r="T486" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>187</v>
       </c>
       <c r="B487" t="s">
-        <v>2621</v>
+        <v>2617</v>
       </c>
       <c r="C487" t="s">
-        <v>2622</v>
+        <v>2618</v>
       </c>
       <c r="D487" t="s">
-        <v>2623</v>
+        <v>198</v>
       </c>
       <c r="E487">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="F487">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G487">
-        <v>103</v>
+        <v>577</v>
       </c>
       <c r="H487">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I487" t="s">
-        <v>352</v>
+        <v>2619</v>
       </c>
       <c r="J487" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="K487" t="s">
         <v>188</v>
       </c>
+      <c r="P487" t="s">
+        <v>42</v>
+      </c>
       <c r="R487" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="S487" t="s">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>187</v>
       </c>
       <c r="B488" t="s">
-        <v>2626</v>
+        <v>2622</v>
       </c>
       <c r="C488" t="s">
-        <v>2627</v>
+        <v>2623</v>
       </c>
       <c r="D488" t="s">
-        <v>457</v>
+        <v>2624</v>
       </c>
       <c r="E488">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F488">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G488">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H488">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="I488" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="J488" t="s">
-        <v>2628</v>
+        <v>950</v>
       </c>
       <c r="K488" t="s">
         <v>188</v>
       </c>
+      <c r="P488" t="s">
+        <v>42</v>
+      </c>
       <c r="R488" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="S488" t="s">
-        <v>2629</v>
-      </c>
-    </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A489" t="s">
-        <v>2384</v>
-      </c>
-      <c r="B489" t="s">
-        <v>2630</v>
-      </c>
-      <c r="C489" t="s">
-        <v>2631</v>
-      </c>
-      <c r="H489" t="s">
-        <v>41</v>
-      </c>
-      <c r="I489" t="s">
-        <v>560</v>
-      </c>
-      <c r="K489" t="s">
-        <v>1087</v>
-      </c>
-      <c r="P489" t="s">
-        <v>2632</v>
-      </c>
-      <c r="R489" t="s">
-        <v>276</v>
-      </c>
-      <c r="S489" t="s">
-        <v>2633</v>
-      </c>
-    </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A490" t="s">
-        <v>187</v>
-      </c>
-      <c r="B490" t="s">
-        <v>2634</v>
-      </c>
-      <c r="C490" t="s">
-        <v>2635</v>
-      </c>
-      <c r="D490" t="s">
-        <v>2636</v>
-      </c>
-      <c r="E490">
-        <v>51</v>
-      </c>
-      <c r="F490">
-        <v>2</v>
-      </c>
-      <c r="G490">
-        <v>469</v>
-      </c>
-      <c r="H490">
-        <v>2014</v>
-      </c>
-      <c r="I490" t="s">
-        <v>556</v>
-      </c>
-      <c r="K490" t="s">
-        <v>188</v>
-      </c>
-      <c r="P490" t="s">
-        <v>47</v>
-      </c>
-      <c r="R490" t="s">
-        <v>227</v>
-      </c>
-      <c r="S490" t="s">
-        <v>2637</v>
-      </c>
-    </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A491" t="s">
-        <v>187</v>
-      </c>
-      <c r="B491" t="s">
-        <v>2638</v>
-      </c>
-      <c r="C491" t="s">
-        <v>2639</v>
-      </c>
-      <c r="D491" t="s">
-        <v>198</v>
-      </c>
-      <c r="E491">
-        <v>35</v>
-      </c>
-      <c r="F491">
-        <v>3</v>
-      </c>
-      <c r="G491">
-        <v>577</v>
-      </c>
-      <c r="H491">
-        <v>2007</v>
-      </c>
-      <c r="I491" t="s">
-        <v>2640</v>
-      </c>
-      <c r="J491" t="s">
-        <v>2641</v>
-      </c>
-      <c r="K491" t="s">
-        <v>188</v>
-      </c>
-      <c r="P491" t="s">
-        <v>42</v>
-      </c>
-      <c r="R491" t="s">
-        <v>227</v>
-      </c>
-      <c r="S491" t="s">
-        <v>2642</v>
-      </c>
-    </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A492" t="s">
-        <v>187</v>
-      </c>
-      <c r="B492" t="s">
-        <v>2643</v>
-      </c>
-      <c r="C492" t="s">
-        <v>2644</v>
-      </c>
-      <c r="D492" t="s">
-        <v>2645</v>
-      </c>
-      <c r="E492">
-        <v>6</v>
-      </c>
-      <c r="F492">
-        <v>11</v>
-      </c>
-      <c r="G492">
-        <v>42</v>
-      </c>
-      <c r="H492">
-        <v>2015</v>
-      </c>
-      <c r="I492" t="s">
-        <v>239</v>
-      </c>
-      <c r="J492" t="s">
-        <v>950</v>
-      </c>
-      <c r="K492" t="s">
-        <v>188</v>
-      </c>
-      <c r="P492" t="s">
-        <v>42</v>
-      </c>
-      <c r="R492" t="s">
-        <v>227</v>
-      </c>
-      <c r="S492" t="s">
-        <v>2646</v>
+        <v>2625</v>
       </c>
     </row>
   </sheetData>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiacollins/Documents/git/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F3CEC0-D2AE-7E41-B851-555A1590B1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFD80E7-83E9-7140-AD25-109FB91D7607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9858" uniqueCount="2627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9859" uniqueCount="2627">
   <si>
     <t>datasetID</t>
   </si>
@@ -9434,8 +9434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I204" workbookViewId="0">
-      <selection activeCell="U213" sqref="U213"/>
+    <sheetView tabSelected="1" topLeftCell="C128" workbookViewId="0">
+      <selection activeCell="N154" sqref="N154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16847,6 +16847,9 @@
       </c>
       <c r="K153" t="s">
         <v>188</v>
+      </c>
+      <c r="N153" t="s">
+        <v>189</v>
       </c>
       <c r="P153" t="s">
         <v>795</v>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiacollins/Documents/git/oegres/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFD80E7-83E9-7140-AD25-109FB91D7607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AC89BA-352F-F24D-AE7F-9A8E7D749EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9859" uniqueCount="2627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9879" uniqueCount="2627">
   <si>
     <t>datasetID</t>
   </si>
@@ -9434,8 +9434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C128" workbookViewId="0">
-      <selection activeCell="N154" sqref="N154"/>
+    <sheetView tabSelected="1" topLeftCell="D208" workbookViewId="0">
+      <selection activeCell="T225" sqref="T225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19336,6 +19336,9 @@
       <c r="S206" t="s">
         <v>1316</v>
       </c>
+      <c r="T206" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
@@ -19380,6 +19383,9 @@
       <c r="S207" t="s">
         <v>1322</v>
       </c>
+      <c r="T207" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
@@ -19424,8 +19430,11 @@
       <c r="S208" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T208" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>187</v>
       </c>
@@ -19468,8 +19477,11 @@
       <c r="S209" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T209" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>187</v>
       </c>
@@ -19506,8 +19518,11 @@
       <c r="S210" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T210" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>373</v>
       </c>
@@ -19547,8 +19562,11 @@
       <c r="S211" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T211" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>187</v>
       </c>
@@ -19591,8 +19609,11 @@
       <c r="S212" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T212" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>187</v>
       </c>
@@ -19635,8 +19656,11 @@
       <c r="S213" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T213" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>187</v>
       </c>
@@ -19676,8 +19700,11 @@
       <c r="S214" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T214" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>187</v>
       </c>
@@ -19720,8 +19747,11 @@
       <c r="S215" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T215" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>187</v>
       </c>
@@ -19764,8 +19794,11 @@
       <c r="S216" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T216" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>187</v>
       </c>
@@ -19808,8 +19841,11 @@
       <c r="S217" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T217" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>187</v>
       </c>
@@ -19849,8 +19885,11 @@
       <c r="S218" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T218" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>187</v>
       </c>
@@ -19893,8 +19932,11 @@
       <c r="S219" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T219" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>187</v>
       </c>
@@ -19937,8 +19979,11 @@
       <c r="S220" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T220" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>373</v>
       </c>
@@ -19978,8 +20023,11 @@
       <c r="S221" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T221" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>187</v>
       </c>
@@ -20022,8 +20070,11 @@
       <c r="S222" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T222" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>375</v>
       </c>
@@ -20060,8 +20111,11 @@
       <c r="S223" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T223" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>375</v>
       </c>
@@ -20098,8 +20152,11 @@
       <c r="S224" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T224" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>375</v>
       </c>
@@ -20139,8 +20196,11 @@
       <c r="S225" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T225" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>375</v>
       </c>
@@ -20178,7 +20238,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>187</v>
       </c>
@@ -20222,7 +20282,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>187</v>
       </c>
@@ -20266,7 +20326,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>187</v>
       </c>
@@ -20310,7 +20370,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>187</v>
       </c>
@@ -20354,7 +20414,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>187</v>
       </c>
@@ -20398,7 +20458,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>187</v>
       </c>
@@ -20442,7 +20502,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>187</v>
       </c>
@@ -20486,7 +20546,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>187</v>
       </c>
@@ -20530,7 +20590,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>187</v>
       </c>
@@ -20574,7 +20634,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>187</v>
       </c>
@@ -20618,7 +20678,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>187</v>
       </c>
@@ -20662,7 +20722,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>187</v>
       </c>
@@ -20706,7 +20766,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>187</v>
       </c>
@@ -20750,7 +20810,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>187</v>
       </c>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AC89BA-352F-F24D-AE7F-9A8E7D749EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D6CE58-241C-F042-851F-34AC14EB2A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9879" uniqueCount="2627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9889" uniqueCount="2627">
   <si>
     <t>datasetID</t>
   </si>
@@ -9434,8 +9434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D208" workbookViewId="0">
-      <selection activeCell="T225" sqref="T225"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="T235" sqref="T235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20237,6 +20237,9 @@
       <c r="S226" t="s">
         <v>1411</v>
       </c>
+      <c r="T226" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
@@ -20281,6 +20284,9 @@
       <c r="S227" t="s">
         <v>1415</v>
       </c>
+      <c r="T227" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
@@ -20325,6 +20331,9 @@
       <c r="S228" t="s">
         <v>1420</v>
       </c>
+      <c r="T228" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
@@ -20369,6 +20378,9 @@
       <c r="S229" t="s">
         <v>1425</v>
       </c>
+      <c r="T229" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
@@ -20413,6 +20425,9 @@
       <c r="S230" t="s">
         <v>1430</v>
       </c>
+      <c r="T230" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
@@ -20457,6 +20472,9 @@
       <c r="S231" t="s">
         <v>1435</v>
       </c>
+      <c r="T231" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
@@ -20501,6 +20519,9 @@
       <c r="S232" t="s">
         <v>1440</v>
       </c>
+      <c r="T232" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
@@ -20545,6 +20566,9 @@
       <c r="S233" t="s">
         <v>1445</v>
       </c>
+      <c r="T233" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
@@ -20589,6 +20613,9 @@
       <c r="S234" t="s">
         <v>1448</v>
       </c>
+      <c r="T234" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
@@ -20632,6 +20659,9 @@
       </c>
       <c r="S235" t="s">
         <v>1454</v>
+      </c>
+      <c r="T235" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.2">

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D6CE58-241C-F042-851F-34AC14EB2A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B19EDFB-B1AB-474E-8142-92E27F0720FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35700" yWindow="-760" windowWidth="33740" windowHeight="20720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9889" uniqueCount="2627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9830" uniqueCount="2628">
   <si>
     <t>datasetID</t>
   </si>
@@ -7915,6 +7915,9 @@
   </si>
   <si>
     <t xml:space="preserve">number of days germination monitored -- negative values should be used if germination occurs prior to the start of the experiment </t>
+  </si>
+  <si>
+    <t>MN</t>
   </si>
 </sst>
 </file>
@@ -8070,7 +8073,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8268,6 +8271,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -8457,7 +8466,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8486,6 +8495,8 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8863,8 +8874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9434,8 +9445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="T235" sqref="T235"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="T246" sqref="T246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15789,47 +15800,47 @@
         <v>227</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="131" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="20" t="s">
         <v>1011</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="20" t="s">
         <v>1012</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="20" t="s">
         <v>1013</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="20">
         <v>28</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="20">
         <v>4</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="20">
         <v>352</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="20">
         <v>2019</v>
       </c>
-      <c r="I131" t="s">
+      <c r="I131" s="20" t="s">
         <v>458</v>
       </c>
-      <c r="K131" t="s">
+      <c r="K131" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="P131" t="s">
+      <c r="P131" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="R131" t="s">
+      <c r="R131" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="S131" t="s">
+      <c r="S131" s="20" t="s">
         <v>1014</v>
       </c>
-      <c r="T131" s="18" t="s">
+      <c r="T131" s="21" t="s">
         <v>227</v>
       </c>
     </row>
@@ -20707,6 +20718,9 @@
       <c r="S236" t="s">
         <v>1460</v>
       </c>
+      <c r="T236" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
@@ -20751,6 +20765,9 @@
       <c r="S237" t="s">
         <v>1466</v>
       </c>
+      <c r="T237" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
@@ -20795,6 +20812,9 @@
       <c r="S238" t="s">
         <v>1470</v>
       </c>
+      <c r="T238" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
@@ -20839,6 +20859,9 @@
       <c r="S239" t="s">
         <v>1476</v>
       </c>
+      <c r="T239" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
@@ -20883,8 +20906,11 @@
       <c r="S240" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T240" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>187</v>
       </c>
@@ -20924,8 +20950,11 @@
       <c r="S241" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T241" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>187</v>
       </c>
@@ -20968,8 +20997,11 @@
       <c r="S242" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T242" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>187</v>
       </c>
@@ -21012,8 +21044,11 @@
       <c r="S243" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T243" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>187</v>
       </c>
@@ -21056,8 +21091,11 @@
       <c r="S244" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T244" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>187</v>
       </c>
@@ -21100,8 +21138,11 @@
       <c r="S245" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T245" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>187</v>
       </c>
@@ -21145,7 +21186,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>187</v>
       </c>
@@ -21189,7 +21230,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>187</v>
       </c>
@@ -21233,7 +21274,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>187</v>
       </c>
@@ -21277,7 +21318,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>187</v>
       </c>
@@ -21321,7 +21362,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>187</v>
       </c>
@@ -21365,7 +21406,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>187</v>
       </c>
@@ -21409,7 +21450,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>187</v>
       </c>
@@ -21450,7 +21491,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>373</v>
       </c>
@@ -21491,7 +21532,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>187</v>
       </c>
@@ -21535,7 +21576,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>187</v>
       </c>
@@ -31346,9 +31387,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS267"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z251" sqref="Z251"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M247" sqref="M247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53841,346 +53882,46 @@
       <c r="A246" t="s">
         <v>36</v>
       </c>
-      <c r="B246" t="s">
-        <v>37</v>
-      </c>
-      <c r="C246" t="s">
-        <v>38</v>
-      </c>
-      <c r="D246" t="s">
-        <v>39</v>
-      </c>
-      <c r="E246" t="s">
-        <v>40</v>
-      </c>
-      <c r="F246" t="s">
-        <v>41</v>
-      </c>
-      <c r="G246" t="s">
-        <v>42</v>
-      </c>
-      <c r="I246" t="s">
-        <v>43</v>
-      </c>
-      <c r="L246">
-        <v>2203</v>
-      </c>
-      <c r="M246" t="s">
-        <v>44</v>
-      </c>
-      <c r="N246">
-        <v>50</v>
-      </c>
-      <c r="O246">
-        <v>2009</v>
-      </c>
-      <c r="Q246" t="s">
-        <v>155</v>
-      </c>
-      <c r="R246">
-        <v>30</v>
-      </c>
-      <c r="T246" t="s">
-        <v>786</v>
-      </c>
-      <c r="U246" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V246" s="11" t="s">
-        <v>792</v>
-      </c>
-      <c r="AA246" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB246">
-        <v>0</v>
-      </c>
-      <c r="AJ246" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK246">
-        <v>0</v>
-      </c>
-      <c r="AP246">
-        <v>0</v>
-      </c>
+      <c r="V246"/>
     </row>
     <row r="247" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>36</v>
       </c>
-      <c r="B247" t="s">
-        <v>37</v>
-      </c>
-      <c r="C247" t="s">
-        <v>38</v>
-      </c>
-      <c r="D247" t="s">
-        <v>39</v>
-      </c>
-      <c r="E247" t="s">
-        <v>40</v>
-      </c>
-      <c r="F247" t="s">
-        <v>41</v>
-      </c>
-      <c r="G247" t="s">
-        <v>42</v>
-      </c>
-      <c r="I247" t="s">
-        <v>43</v>
-      </c>
-      <c r="L247">
-        <v>2203</v>
-      </c>
-      <c r="M247" t="s">
-        <v>44</v>
-      </c>
-      <c r="N247">
-        <v>50</v>
-      </c>
-      <c r="O247">
-        <v>2009</v>
-      </c>
-      <c r="Q247" t="s">
-        <v>155</v>
-      </c>
-      <c r="R247">
-        <v>30</v>
-      </c>
-      <c r="T247" t="s">
-        <v>786</v>
-      </c>
-      <c r="U247" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V247" s="11" t="s">
-        <v>792</v>
-      </c>
-      <c r="AA247" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB247">
-        <v>0</v>
-      </c>
+      <c r="V247"/>
     </row>
     <row r="248" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>36</v>
       </c>
-      <c r="B248" t="s">
-        <v>37</v>
-      </c>
-      <c r="C248" t="s">
-        <v>38</v>
-      </c>
-      <c r="D248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E248" t="s">
-        <v>40</v>
-      </c>
-      <c r="F248" t="s">
-        <v>41</v>
-      </c>
-      <c r="G248" t="s">
-        <v>42</v>
-      </c>
-      <c r="I248" t="s">
-        <v>43</v>
-      </c>
-      <c r="L248">
-        <v>2203</v>
-      </c>
-      <c r="M248" t="s">
-        <v>44</v>
-      </c>
-      <c r="N248">
-        <v>50</v>
-      </c>
-      <c r="O248">
-        <v>2009</v>
-      </c>
-      <c r="Q248" t="s">
-        <v>155</v>
-      </c>
-      <c r="R248">
-        <v>30</v>
-      </c>
-      <c r="T248" t="s">
-        <v>786</v>
-      </c>
-      <c r="U248" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V248" s="11" t="s">
-        <v>792</v>
-      </c>
-      <c r="AA248" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB248">
-        <v>0</v>
-      </c>
+      <c r="V248"/>
     </row>
     <row r="249" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>36</v>
       </c>
-      <c r="B249" t="s">
-        <v>37</v>
-      </c>
-      <c r="C249" t="s">
-        <v>38</v>
-      </c>
-      <c r="D249" t="s">
-        <v>39</v>
-      </c>
-      <c r="E249" t="s">
-        <v>40</v>
-      </c>
-      <c r="F249" t="s">
-        <v>41</v>
-      </c>
-      <c r="G249" t="s">
-        <v>42</v>
-      </c>
-      <c r="I249" t="s">
-        <v>43</v>
-      </c>
-      <c r="L249">
-        <v>2203</v>
-      </c>
-      <c r="M249" t="s">
-        <v>44</v>
-      </c>
-      <c r="N249">
-        <v>50</v>
-      </c>
-      <c r="O249">
-        <v>2009</v>
-      </c>
-      <c r="Q249" t="s">
-        <v>155</v>
-      </c>
-      <c r="R249">
-        <v>30</v>
-      </c>
-      <c r="T249" t="s">
-        <v>786</v>
-      </c>
-      <c r="U249" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V249" s="11" t="s">
-        <v>792</v>
-      </c>
-      <c r="AA249" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB249">
-        <v>0</v>
-      </c>
+      <c r="V249"/>
     </row>
     <row r="250" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>36</v>
       </c>
-      <c r="B250" t="s">
-        <v>37</v>
-      </c>
-      <c r="C250" t="s">
-        <v>38</v>
-      </c>
-      <c r="D250" t="s">
-        <v>39</v>
-      </c>
-      <c r="E250" t="s">
-        <v>40</v>
-      </c>
-      <c r="F250" t="s">
-        <v>41</v>
-      </c>
-      <c r="G250" t="s">
-        <v>42</v>
-      </c>
-      <c r="I250" t="s">
-        <v>43</v>
-      </c>
-      <c r="L250">
-        <v>2203</v>
-      </c>
-      <c r="M250" t="s">
-        <v>44</v>
-      </c>
-      <c r="N250">
-        <v>50</v>
-      </c>
-      <c r="O250">
-        <v>2009</v>
-      </c>
-      <c r="Q250" t="s">
-        <v>155</v>
-      </c>
-      <c r="R250">
-        <v>30</v>
-      </c>
-      <c r="T250" t="s">
-        <v>786</v>
-      </c>
-      <c r="U250" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V250" s="11" t="s">
-        <v>792</v>
-      </c>
-      <c r="AA250" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB250">
-        <v>0</v>
-      </c>
+      <c r="V250"/>
     </row>
     <row r="251" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="V251" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="W251">
-        <v>0</v>
-      </c>
-      <c r="X251">
-        <v>5</v>
-      </c>
-      <c r="Z251">
-        <v>0</v>
-      </c>
-      <c r="AF251" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG251" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN251">
-        <v>4</v>
-      </c>
-      <c r="AO251">
-        <v>25</v>
-      </c>
+      <c r="V251"/>
     </row>
     <row r="252" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="X252">
-        <v>10</v>
-      </c>
+      <c r="V252"/>
     </row>
     <row r="253" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="X253">
-        <v>15</v>
-      </c>
+      <c r="V253"/>
     </row>
     <row r="254" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="X254">
-        <v>20</v>
-      </c>
+      <c r="V254"/>
+    </row>
+    <row r="255" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="V255"/>
     </row>
     <row r="266" spans="29:29" x14ac:dyDescent="0.2">
       <c r="AC266" s="2"/>
@@ -54196,14 +53937,156 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A19:O79"/>
+  <dimension ref="A5:O79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39:I231"/>
+      <selection activeCell="J5" sqref="J5:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="5" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>76.903000000000006</v>
+      </c>
+      <c r="I7" s="10">
+        <v>82.94</v>
+      </c>
+      <c r="J7">
+        <f>I7-H7</f>
+        <v>6.0369999999999919</v>
+      </c>
+    </row>
+    <row r="8" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>87.664000000000001</v>
+      </c>
+      <c r="I8" s="10">
+        <v>90.289000000000001</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J16" si="0">I8-H8</f>
+        <v>2.625</v>
+      </c>
+    </row>
+    <row r="9" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>90.551000000000002</v>
+      </c>
+      <c r="I9" s="10">
+        <v>98.162999999999997</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>7.6119999999999948</v>
+      </c>
+    </row>
+    <row r="10" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>81.102000000000004</v>
+      </c>
+      <c r="I10" s="10">
+        <v>85.563999999999993</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>4.4619999999999891</v>
+      </c>
+    </row>
+    <row r="11" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>89.501000000000005</v>
+      </c>
+      <c r="I11" s="10">
+        <v>95.013000000000005</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>5.5120000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>88.713999999999999</v>
+      </c>
+      <c r="I12" s="10">
+        <v>93.438000000000002</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>4.7240000000000038</v>
+      </c>
+    </row>
+    <row r="13" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>54.856000000000002</v>
+      </c>
+      <c r="I13" s="10">
+        <v>64.828999999999994</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>9.9729999999999919</v>
+      </c>
+    </row>
+    <row r="14" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>43.045000000000002</v>
+      </c>
+      <c r="I14" s="10">
+        <v>45.932000000000002</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>2.8870000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>42.781999999999996</v>
+      </c>
+      <c r="I15" s="10">
+        <v>46.194000000000003</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>3.4120000000000061</v>
+      </c>
+    </row>
+    <row r="16" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="I16" s="10">
+        <v>42.781999999999996</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>5.5119999999999933</v>
+      </c>
+    </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
@@ -54231,7 +54114,9 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="J20" s="10">
+        <v>0</v>
+      </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
@@ -54248,7 +54133,9 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="J21" s="10">
+        <v>0.78700000000000003</v>
+      </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
@@ -54265,7 +54152,9 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="J22" s="10">
+        <v>82.94</v>
+      </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -54282,7 +54171,9 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="J23" s="10">
+        <v>90.289000000000001</v>
+      </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
@@ -54299,7 +54190,9 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="J24" s="10">
+        <v>98.162999999999997</v>
+      </c>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
@@ -54316,7 +54209,9 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="J25" s="10">
+        <v>85.563999999999993</v>
+      </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
@@ -54333,7 +54228,9 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="J26" s="10">
+        <v>95.013000000000005</v>
+      </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
@@ -54350,7 +54247,9 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="J27" s="10">
+        <v>93.438000000000002</v>
+      </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -54367,7 +54266,9 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="J28" s="10">
+        <v>64.828999999999994</v>
+      </c>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -54384,7 +54285,9 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="J29" s="10">
+        <v>45.932000000000002</v>
+      </c>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
@@ -54401,7 +54304,9 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
+      <c r="J30" s="10">
+        <v>46.194000000000003</v>
+      </c>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
@@ -54418,7 +54323,9 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="J31" s="10">
+        <v>42.781999999999996</v>
+      </c>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B19EDFB-B1AB-474E-8142-92E27F0720FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68801CD7-F322-9E4E-88BB-50CF23557DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35700" yWindow="-760" windowWidth="33740" windowHeight="20720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9830" uniqueCount="2628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9840" uniqueCount="2628">
   <si>
     <t>datasetID</t>
   </si>
@@ -9445,8 +9445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="T246" sqref="T246"/>
+    <sheetView tabSelected="1" topLeftCell="D245" workbookViewId="0">
+      <selection activeCell="T256" sqref="T256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9454,6 +9454,7 @@
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="80.1640625" customWidth="1"/>
     <col min="18" max="18" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21185,6 +21186,9 @@
       <c r="S246" t="s">
         <v>1515</v>
       </c>
+      <c r="T246" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
@@ -21229,6 +21233,9 @@
       <c r="S247" t="s">
         <v>1520</v>
       </c>
+      <c r="T247" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
@@ -21273,6 +21280,9 @@
       <c r="S248" t="s">
         <v>1527</v>
       </c>
+      <c r="T248" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
@@ -21317,6 +21327,9 @@
       <c r="S249" t="s">
         <v>1532</v>
       </c>
+      <c r="T249" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
@@ -21361,6 +21374,9 @@
       <c r="S250" t="s">
         <v>1536</v>
       </c>
+      <c r="T250" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
@@ -21405,6 +21421,9 @@
       <c r="S251" t="s">
         <v>1540</v>
       </c>
+      <c r="T251" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
@@ -21449,6 +21468,9 @@
       <c r="S252" t="s">
         <v>1544</v>
       </c>
+      <c r="T252" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
@@ -21490,6 +21512,9 @@
       <c r="S253" t="s">
         <v>1549</v>
       </c>
+      <c r="T253" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
@@ -21531,6 +21556,9 @@
       <c r="S254" t="s">
         <v>1555</v>
       </c>
+      <c r="T254" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
@@ -21574,6 +21602,9 @@
       </c>
       <c r="S255" t="s">
         <v>1561</v>
+      </c>
+      <c r="T255" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.2">

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68801CD7-F322-9E4E-88BB-50CF23557DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77EA9DE-35DA-B74C-B2C5-FD0D4ED1D5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9840" uniqueCount="2628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9870" uniqueCount="2628">
   <si>
     <t>datasetID</t>
   </si>
@@ -9445,8 +9445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D245" workbookViewId="0">
-      <selection activeCell="T256" sqref="T256"/>
+    <sheetView tabSelected="1" topLeftCell="P281" workbookViewId="0">
+      <selection activeCell="V295" sqref="V295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21650,8 +21650,11 @@
       <c r="S256" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T256" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>187</v>
       </c>
@@ -21694,8 +21697,11 @@
       <c r="S257" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T257" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>187</v>
       </c>
@@ -21738,8 +21744,11 @@
       <c r="S258" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T258" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>187</v>
       </c>
@@ -21782,8 +21791,11 @@
       <c r="S259" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T259" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>187</v>
       </c>
@@ -21826,8 +21838,11 @@
       <c r="S260" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T260" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>187</v>
       </c>
@@ -21867,8 +21882,11 @@
       <c r="S261" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T261" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>187</v>
       </c>
@@ -21911,8 +21929,11 @@
       <c r="S262" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T262" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>375</v>
       </c>
@@ -21949,8 +21970,11 @@
       <c r="S263" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T263" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>187</v>
       </c>
@@ -21990,8 +22014,11 @@
       <c r="S264" t="s">
         <v>1605</v>
       </c>
-    </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T264" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>187</v>
       </c>
@@ -22034,8 +22061,11 @@
       <c r="S265" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T265" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>187</v>
       </c>
@@ -22075,8 +22105,11 @@
       <c r="S266" t="s">
         <v>1614</v>
       </c>
-    </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T266" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>187</v>
       </c>
@@ -22119,8 +22152,11 @@
       <c r="S267" t="s">
         <v>1619</v>
       </c>
-    </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T267" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>187</v>
       </c>
@@ -22163,8 +22199,11 @@
       <c r="S268" t="s">
         <v>1625</v>
       </c>
-    </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T268" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>187</v>
       </c>
@@ -22207,8 +22246,11 @@
       <c r="S269" t="s">
         <v>1629</v>
       </c>
-    </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T269" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>187</v>
       </c>
@@ -22251,8 +22293,11 @@
       <c r="S270" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T270" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>187</v>
       </c>
@@ -22295,8 +22340,11 @@
       <c r="S271" t="s">
         <v>1639</v>
       </c>
-    </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T271" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>375</v>
       </c>
@@ -22333,8 +22381,11 @@
       <c r="S272" t="s">
         <v>1645</v>
       </c>
-    </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T272" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>187</v>
       </c>
@@ -22377,8 +22428,11 @@
       <c r="S273" t="s">
         <v>1649</v>
       </c>
-    </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T273" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>187</v>
       </c>
@@ -22421,8 +22475,11 @@
       <c r="S274" t="s">
         <v>1652</v>
       </c>
-    </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T274" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>187</v>
       </c>
@@ -22465,8 +22522,11 @@
       <c r="S275" t="s">
         <v>1656</v>
       </c>
-    </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T275" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>187</v>
       </c>
@@ -22509,8 +22569,11 @@
       <c r="S276" t="s">
         <v>1659</v>
       </c>
-    </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T276" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>187</v>
       </c>
@@ -22553,8 +22616,11 @@
       <c r="S277" t="s">
         <v>1665</v>
       </c>
-    </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T277" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>187</v>
       </c>
@@ -22597,8 +22663,11 @@
       <c r="S278" t="s">
         <v>1671</v>
       </c>
-    </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T278" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>187</v>
       </c>
@@ -22641,8 +22710,11 @@
       <c r="S279" t="s">
         <v>1676</v>
       </c>
-    </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T279" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>187</v>
       </c>
@@ -22679,8 +22751,11 @@
       <c r="S280" t="s">
         <v>1680</v>
       </c>
-    </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T280" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>187</v>
       </c>
@@ -22717,8 +22792,11 @@
       <c r="S281" t="s">
         <v>1684</v>
       </c>
-    </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T281" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>187</v>
       </c>
@@ -22761,8 +22839,11 @@
       <c r="S282" t="s">
         <v>1690</v>
       </c>
-    </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T282" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>187</v>
       </c>
@@ -22805,8 +22886,11 @@
       <c r="S283" t="s">
         <v>1695</v>
       </c>
-    </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T283" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>187</v>
       </c>
@@ -22846,8 +22930,11 @@
       <c r="S284" t="s">
         <v>1701</v>
       </c>
-    </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T284" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>187</v>
       </c>
@@ -22890,8 +22977,11 @@
       <c r="S285" t="s">
         <v>1708</v>
       </c>
-    </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T285" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>187</v>
       </c>
@@ -22935,7 +23025,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>187</v>
       </c>
@@ -22979,7 +23069,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>187</v>
       </c>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77EA9DE-35DA-B74C-B2C5-FD0D4ED1D5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FC700A-AC9E-284D-8544-39BE205A103E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32020" yWindow="960" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9870" uniqueCount="2628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9880" uniqueCount="2628">
   <si>
     <t>datasetID</t>
   </si>
@@ -9445,8 +9445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P281" workbookViewId="0">
-      <selection activeCell="V295" sqref="V295"/>
+    <sheetView tabSelected="1" topLeftCell="D295" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T286" sqref="T286:T295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23024,6 +23024,9 @@
       <c r="S286" t="s">
         <v>1714</v>
       </c>
+      <c r="T286" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="287" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
@@ -23068,6 +23071,9 @@
       <c r="S287" t="s">
         <v>1718</v>
       </c>
+      <c r="T287" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="288" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
@@ -23112,8 +23118,11 @@
       <c r="S288" t="s">
         <v>1722</v>
       </c>
-    </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T288" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>187</v>
       </c>
@@ -23156,8 +23165,11 @@
       <c r="S289" t="s">
         <v>1728</v>
       </c>
-    </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T289" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>187</v>
       </c>
@@ -23200,8 +23212,11 @@
       <c r="S290" t="s">
         <v>1732</v>
       </c>
-    </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T290" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>187</v>
       </c>
@@ -23241,8 +23256,11 @@
       <c r="S291" t="s">
         <v>1736</v>
       </c>
-    </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T291" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>187</v>
       </c>
@@ -23282,8 +23300,11 @@
       <c r="S292" t="s">
         <v>1741</v>
       </c>
-    </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T292" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>187</v>
       </c>
@@ -23326,8 +23347,11 @@
       <c r="S293" t="s">
         <v>1746</v>
       </c>
-    </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T293" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>187</v>
       </c>
@@ -23367,8 +23391,11 @@
       <c r="S294" t="s">
         <v>1749</v>
       </c>
-    </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T294" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>187</v>
       </c>
@@ -23411,8 +23438,11 @@
       <c r="S295" t="s">
         <v>1752</v>
       </c>
-    </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T295" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>187</v>
       </c>
@@ -23456,7 +23486,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>187</v>
       </c>
@@ -23500,7 +23530,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>187</v>
       </c>
@@ -23544,7 +23574,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>187</v>
       </c>
@@ -23588,7 +23618,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>373</v>
       </c>
@@ -23629,7 +23659,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>373</v>
       </c>
@@ -23670,7 +23700,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>187</v>
       </c>
@@ -23714,7 +23744,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>187</v>
       </c>
@@ -23758,7 +23788,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>187</v>
       </c>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FC700A-AC9E-284D-8544-39BE205A103E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A991F9A6-DB2F-B44C-90E6-AE7E3353CECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32020" yWindow="960" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9880" uniqueCount="2628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9890" uniqueCount="2628">
   <si>
     <t>datasetID</t>
   </si>
@@ -9445,8 +9445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D295" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T286" sqref="T286:T295"/>
+    <sheetView tabSelected="1" topLeftCell="L273" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V282" sqref="V282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23485,6 +23485,9 @@
       <c r="S296" t="s">
         <v>1758</v>
       </c>
+      <c r="T296" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="297" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
@@ -23529,6 +23532,9 @@
       <c r="S297" t="s">
         <v>1763</v>
       </c>
+      <c r="T297" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="298" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
@@ -23573,6 +23579,9 @@
       <c r="S298" t="s">
         <v>1767</v>
       </c>
+      <c r="T298" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="299" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
@@ -23617,6 +23626,9 @@
       <c r="S299" t="s">
         <v>1772</v>
       </c>
+      <c r="T299" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
@@ -23658,6 +23670,9 @@
       <c r="S300" t="s">
         <v>1778</v>
       </c>
+      <c r="T300" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="301" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
@@ -23699,6 +23714,9 @@
       <c r="S301" t="s">
         <v>1784</v>
       </c>
+      <c r="T301" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="302" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
@@ -23743,6 +23761,9 @@
       <c r="S302" t="s">
         <v>1790</v>
       </c>
+      <c r="T302" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="303" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
@@ -23787,6 +23808,9 @@
       <c r="S303" t="s">
         <v>1793</v>
       </c>
+      <c r="T303" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
@@ -23828,8 +23852,11 @@
       <c r="S304" t="s">
         <v>1797</v>
       </c>
-    </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T304" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>187</v>
       </c>
@@ -23872,8 +23899,11 @@
       <c r="S305" t="s">
         <v>1802</v>
       </c>
-    </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T305" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>187</v>
       </c>
@@ -23917,7 +23947,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>187</v>
       </c>
@@ -23961,7 +23991,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>187</v>
       </c>
@@ -24005,7 +24035,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>187</v>
       </c>
@@ -24049,7 +24079,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>187</v>
       </c>
@@ -24090,7 +24120,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>187</v>
       </c>
@@ -24134,7 +24164,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>187</v>
       </c>
@@ -24178,7 +24208,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>187</v>
       </c>
@@ -24222,7 +24252,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>187</v>
       </c>
@@ -24263,7 +24293,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>187</v>
       </c>
@@ -24307,7 +24337,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>187</v>
       </c>
@@ -24351,7 +24381,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>187</v>
       </c>
@@ -24395,7 +24425,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>187</v>
       </c>
@@ -24436,7 +24466,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>187</v>
       </c>
@@ -24477,7 +24507,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>187</v>
       </c>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A991F9A6-DB2F-B44C-90E6-AE7E3353CECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE78553-768C-BC45-8CCF-CCFB947419B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="420" windowWidth="35680" windowHeight="20360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9890" uniqueCount="2628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9900" uniqueCount="2628">
   <si>
     <t>datasetID</t>
   </si>
@@ -9445,8 +9445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L273" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V282" sqref="V282"/>
+    <sheetView tabSelected="1" topLeftCell="A288" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W320" sqref="W320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17058,53 +17058,53 @@
         <v>793</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row r="158" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="19" t="s">
         <v>1073</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="19" t="s">
         <v>1074</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="19" t="s">
         <v>1075</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="19">
         <v>34</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="19">
         <v>4</v>
       </c>
-      <c r="G158">
+      <c r="G158" s="19">
         <v>557</v>
       </c>
-      <c r="H158">
+      <c r="H158" s="19">
         <v>2016</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I158" s="19" t="s">
         <v>1076</v>
       </c>
-      <c r="J158" t="s">
+      <c r="J158" s="19" t="s">
         <v>1077</v>
       </c>
-      <c r="K158" t="s">
+      <c r="K158" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="P158" t="s">
+      <c r="P158" s="19" t="s">
         <v>795</v>
       </c>
-      <c r="Q158" t="s">
+      <c r="Q158" s="19" t="s">
         <v>1078</v>
       </c>
-      <c r="R158" t="s">
+      <c r="R158" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="S158" t="s">
+      <c r="S158" s="19" t="s">
         <v>1079</v>
       </c>
-      <c r="T158" t="s">
+      <c r="T158" s="19" t="s">
         <v>793</v>
       </c>
     </row>
@@ -20202,7 +20202,7 @@
       <c r="P225" t="s">
         <v>1407</v>
       </c>
-      <c r="Q225" t="s">
+      <c r="R225" t="s">
         <v>38</v>
       </c>
       <c r="S225" t="s">
@@ -23946,6 +23946,9 @@
       <c r="S306" t="s">
         <v>1806</v>
       </c>
+      <c r="T306" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="307" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
@@ -23990,6 +23993,9 @@
       <c r="S307" t="s">
         <v>1811</v>
       </c>
+      <c r="T307" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="308" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
@@ -24034,6 +24040,9 @@
       <c r="S308" t="s">
         <v>1816</v>
       </c>
+      <c r="T308" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="309" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
@@ -24078,6 +24087,9 @@
       <c r="S309" t="s">
         <v>1820</v>
       </c>
+      <c r="T309" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="310" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
@@ -24119,6 +24131,9 @@
       <c r="S310" t="s">
         <v>1825</v>
       </c>
+      <c r="T310" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="311" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
@@ -24163,6 +24178,9 @@
       <c r="S311" t="s">
         <v>1830</v>
       </c>
+      <c r="T311" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="312" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
@@ -24207,6 +24225,9 @@
       <c r="S312" t="s">
         <v>1834</v>
       </c>
+      <c r="T312" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="313" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
@@ -24251,6 +24272,9 @@
       <c r="S313" t="s">
         <v>1838</v>
       </c>
+      <c r="T313" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="314" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
@@ -24292,6 +24316,9 @@
       <c r="S314" t="s">
         <v>1842</v>
       </c>
+      <c r="T314" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="315" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
@@ -24336,6 +24363,9 @@
       <c r="S315" t="s">
         <v>1846</v>
       </c>
+      <c r="T315" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="316" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
@@ -27362,50 +27392,50 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
+    <row r="387" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387" s="19" t="s">
         <v>2180</v>
       </c>
-      <c r="C387" t="s">
+      <c r="C387" s="19" t="s">
         <v>2181</v>
       </c>
-      <c r="D387" t="s">
+      <c r="D387" s="19" t="s">
         <v>1246</v>
       </c>
-      <c r="E387">
+      <c r="E387" s="19">
         <v>25</v>
       </c>
-      <c r="F387">
+      <c r="F387" s="19">
         <v>7</v>
       </c>
-      <c r="G387">
+      <c r="G387" s="19">
         <v>1452</v>
       </c>
-      <c r="H387">
+      <c r="H387" s="19">
         <v>2005</v>
       </c>
-      <c r="I387" t="s">
+      <c r="I387" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="J387" t="s">
+      <c r="J387" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="K387" t="s">
+      <c r="K387" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="P387" t="s">
+      <c r="P387" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q387" t="s">
+      <c r="Q387" s="19" t="s">
         <v>2182</v>
       </c>
-      <c r="R387" t="s">
+      <c r="R387" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="S387" t="s">
+      <c r="S387" s="19" t="s">
         <v>2179</v>
       </c>
     </row>
@@ -28218,50 +28248,50 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A407" t="s">
+    <row r="407" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A407" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="19" t="s">
         <v>2257</v>
       </c>
-      <c r="C407" t="s">
+      <c r="C407" s="19" t="s">
         <v>2255</v>
       </c>
-      <c r="D407" t="s">
+      <c r="D407" s="19" t="s">
         <v>2258</v>
       </c>
-      <c r="E407">
+      <c r="E407" s="19">
         <v>95</v>
       </c>
-      <c r="F407">
+      <c r="F407" s="19">
         <v>3</v>
       </c>
-      <c r="G407">
+      <c r="G407" s="19">
         <v>444</v>
       </c>
-      <c r="H407">
+      <c r="H407" s="19">
         <v>1995</v>
       </c>
-      <c r="I407" t="s">
+      <c r="I407" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="J407" t="s">
+      <c r="J407" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="K407" t="s">
+      <c r="K407" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="P407" t="s">
+      <c r="P407" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q407" t="s">
+      <c r="Q407" s="19" t="s">
         <v>2182</v>
       </c>
-      <c r="R407" t="s">
+      <c r="R407" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="S407" t="s">
+      <c r="S407" s="19" t="s">
         <v>2259</v>
       </c>
     </row>
@@ -28479,91 +28509,91 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A413" t="s">
+    <row r="413" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A413" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B413" s="19" t="s">
         <v>2285</v>
       </c>
-      <c r="C413" t="s">
+      <c r="C413" s="19" t="s">
         <v>2286</v>
       </c>
-      <c r="D413" t="s">
+      <c r="D413" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="E413">
+      <c r="E413" s="19">
         <v>40</v>
       </c>
-      <c r="F413">
+      <c r="F413" s="19">
         <v>7</v>
       </c>
-      <c r="G413">
+      <c r="G413" s="19">
         <v>1979</v>
       </c>
-      <c r="H413">
+      <c r="H413" s="19">
         <v>2021</v>
       </c>
-      <c r="I413" t="s">
+      <c r="I413" s="19" t="s">
         <v>2287</v>
       </c>
-      <c r="J413" t="s">
+      <c r="J413" s="19" t="s">
         <v>2288</v>
       </c>
-      <c r="K413" t="s">
+      <c r="K413" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="Q413" t="s">
+      <c r="Q413" s="19" t="s">
         <v>2289</v>
       </c>
-      <c r="R413" t="s">
+      <c r="R413" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="S413" t="s">
+      <c r="S413" s="19" t="s">
         <v>2290</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A414" t="s">
+    <row r="414" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B414" s="19" t="s">
         <v>2291</v>
       </c>
-      <c r="C414" t="s">
+      <c r="C414" s="19" t="s">
         <v>2292</v>
       </c>
-      <c r="D414" t="s">
+      <c r="D414" s="19" t="s">
         <v>2293</v>
       </c>
-      <c r="E414">
+      <c r="E414" s="19">
         <v>36</v>
       </c>
-      <c r="F414">
+      <c r="F414" s="19">
         <v>1</v>
       </c>
-      <c r="G414">
+      <c r="G414" s="19">
         <v>50</v>
       </c>
-      <c r="H414">
+      <c r="H414" s="19">
         <v>2010</v>
       </c>
-      <c r="I414" t="s">
+      <c r="I414" s="19" t="s">
         <v>2294</v>
       </c>
-      <c r="J414" t="s">
+      <c r="J414" s="19" t="s">
         <v>2295</v>
       </c>
-      <c r="K414" t="s">
+      <c r="K414" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="Q414" t="s">
+      <c r="Q414" s="19" t="s">
         <v>2289</v>
       </c>
-      <c r="R414" t="s">
+      <c r="R414" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="S414" t="s">
+      <c r="S414" s="19" t="s">
         <v>2296</v>
       </c>
     </row>
@@ -28974,47 +29004,47 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A425" t="s">
+    <row r="425" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425" s="19" t="s">
         <v>2342</v>
       </c>
-      <c r="C425" t="s">
+      <c r="C425" s="19" t="s">
         <v>2343</v>
       </c>
-      <c r="D425" t="s">
+      <c r="D425" s="19" t="s">
         <v>1246</v>
       </c>
-      <c r="E425">
+      <c r="E425" s="19">
         <v>37</v>
       </c>
-      <c r="F425">
+      <c r="F425" s="19">
         <v>4</v>
       </c>
-      <c r="G425">
+      <c r="G425" s="19">
         <v>758</v>
       </c>
-      <c r="H425">
+      <c r="H425" s="19">
         <v>2017</v>
       </c>
-      <c r="I425" t="s">
+      <c r="I425" s="19" t="s">
         <v>2344</v>
       </c>
-      <c r="J425" t="s">
+      <c r="J425" s="19" t="s">
         <v>2345</v>
       </c>
-      <c r="K425" t="s">
+      <c r="K425" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="Q425" t="s">
+      <c r="Q425" s="19" t="s">
         <v>2289</v>
       </c>
-      <c r="R425" t="s">
+      <c r="R425" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="S425" t="s">
+      <c r="S425" s="19" t="s">
         <v>2346</v>
       </c>
     </row>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE78553-768C-BC45-8CCF-CCFB947419B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A7B56E-7B5D-774C-8608-001922B35986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="420" windowWidth="35680" windowHeight="20360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9900" uniqueCount="2628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9910" uniqueCount="2628">
   <si>
     <t>datasetID</t>
   </si>
@@ -9445,8 +9445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W320" sqref="W320"/>
+    <sheetView tabSelected="1" topLeftCell="A452" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T325" sqref="T325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24410,6 +24410,9 @@
       <c r="S316" t="s">
         <v>1850</v>
       </c>
+      <c r="T316" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="317" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
@@ -24454,6 +24457,9 @@
       <c r="S317" t="s">
         <v>1855</v>
       </c>
+      <c r="T317" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="318" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
@@ -24495,6 +24501,9 @@
       <c r="S318" t="s">
         <v>1860</v>
       </c>
+      <c r="T318" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="319" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
@@ -24536,6 +24545,9 @@
       <c r="S319" t="s">
         <v>1865</v>
       </c>
+      <c r="T319" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="320" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
@@ -24577,8 +24589,11 @@
       <c r="S320" t="s">
         <v>1869</v>
       </c>
-    </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T320" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>187</v>
       </c>
@@ -24621,8 +24636,11 @@
       <c r="S321" t="s">
         <v>1873</v>
       </c>
-    </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T321" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>187</v>
       </c>
@@ -24665,8 +24683,11 @@
       <c r="S322" t="s">
         <v>1873</v>
       </c>
-    </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T322" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>187</v>
       </c>
@@ -24709,8 +24730,11 @@
       <c r="S323" t="s">
         <v>1882</v>
       </c>
-    </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T323" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>187</v>
       </c>
@@ -24753,8 +24777,11 @@
       <c r="S324" t="s">
         <v>1887</v>
       </c>
-    </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T324" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>187</v>
       </c>
@@ -24797,8 +24824,11 @@
       <c r="S325" t="s">
         <v>1891</v>
       </c>
-    </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T325" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>187</v>
       </c>
@@ -24842,7 +24872,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>187</v>
       </c>
@@ -24886,7 +24916,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>187</v>
       </c>
@@ -24930,7 +24960,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>187</v>
       </c>
@@ -24974,7 +25004,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>187</v>
       </c>
@@ -25018,7 +25048,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>187</v>
       </c>
@@ -25062,7 +25092,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>187</v>
       </c>
@@ -25106,7 +25136,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>187</v>
       </c>
@@ -25147,7 +25177,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>187</v>
       </c>
@@ -25191,7 +25221,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>187</v>
       </c>
@@ -25235,7 +25265,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>187</v>
       </c>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A7B56E-7B5D-774C-8608-001922B35986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE884E5F-C9F1-9645-84AC-C5880321ED85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="420" windowWidth="35680" windowHeight="20360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9910" uniqueCount="2628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9920" uniqueCount="2628">
   <si>
     <t>datasetID</t>
   </si>
@@ -9445,8 +9445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A452" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T325" sqref="T325"/>
+    <sheetView tabSelected="1" topLeftCell="A446" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T355" sqref="T355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24871,6 +24871,9 @@
       <c r="S326" t="s">
         <v>1896</v>
       </c>
+      <c r="T326" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="327" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
@@ -24915,6 +24918,9 @@
       <c r="S327" t="s">
         <v>1900</v>
       </c>
+      <c r="T327" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="328" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
@@ -24959,6 +24965,9 @@
       <c r="S328" t="s">
         <v>1903</v>
       </c>
+      <c r="T328" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="329" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
@@ -25003,6 +25012,9 @@
       <c r="S329" t="s">
         <v>1908</v>
       </c>
+      <c r="T329" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="330" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
@@ -25047,6 +25059,9 @@
       <c r="S330" t="s">
         <v>1912</v>
       </c>
+      <c r="T330" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="331" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
@@ -25091,6 +25106,9 @@
       <c r="S331" t="s">
         <v>1918</v>
       </c>
+      <c r="T331" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="332" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
@@ -25135,6 +25153,9 @@
       <c r="S332" t="s">
         <v>1922</v>
       </c>
+      <c r="T332" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="333" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
@@ -25176,6 +25197,9 @@
       <c r="S333" t="s">
         <v>1928</v>
       </c>
+      <c r="T333" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="334" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
@@ -25220,6 +25244,9 @@
       <c r="S334" t="s">
         <v>1933</v>
       </c>
+      <c r="T334" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="335" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
@@ -25263,6 +25290,9 @@
       </c>
       <c r="S335" t="s">
         <v>1939</v>
+      </c>
+      <c r="T335" t="s">
+        <v>2627</v>
       </c>
     </row>
     <row r="336" spans="1:20" x14ac:dyDescent="0.2">

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE884E5F-C9F1-9645-84AC-C5880321ED85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AC2797-EFD9-8F45-98CE-89D09C11F91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="420" windowWidth="35680" windowHeight="20360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="400" windowWidth="35680" windowHeight="20360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9920" uniqueCount="2628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9940" uniqueCount="2628">
   <si>
     <t>datasetID</t>
   </si>
@@ -9445,7 +9445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A350" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="T355" sqref="T355"/>
     </sheetView>
   </sheetViews>
@@ -25338,8 +25338,11 @@
       <c r="S336" t="s">
         <v>1943</v>
       </c>
-    </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T336" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>187</v>
       </c>
@@ -25382,8 +25385,11 @@
       <c r="S337" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T337" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>187</v>
       </c>
@@ -25426,8 +25432,11 @@
       <c r="S338" t="s">
         <v>1952</v>
       </c>
-    </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T338" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="339" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>187</v>
       </c>
@@ -25470,8 +25479,11 @@
       <c r="S339" t="s">
         <v>1956</v>
       </c>
-    </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T339" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="340" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>187</v>
       </c>
@@ -25514,8 +25526,11 @@
       <c r="S340" t="s">
         <v>1961</v>
       </c>
-    </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T340" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>187</v>
       </c>
@@ -25555,8 +25570,11 @@
       <c r="S341" t="s">
         <v>1966</v>
       </c>
-    </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T341" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="342" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>187</v>
       </c>
@@ -25599,8 +25617,11 @@
       <c r="S342" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T342" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="343" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>187</v>
       </c>
@@ -25643,8 +25664,11 @@
       <c r="S343" t="s">
         <v>1978</v>
       </c>
-    </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T343" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="344" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>187</v>
       </c>
@@ -25687,8 +25711,11 @@
       <c r="S344" t="s">
         <v>1982</v>
       </c>
-    </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T344" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="345" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>187</v>
       </c>
@@ -25731,8 +25758,11 @@
       <c r="S345" t="s">
         <v>1986</v>
       </c>
-    </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T345" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="346" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>373</v>
       </c>
@@ -25772,8 +25802,11 @@
       <c r="S346" t="s">
         <v>1992</v>
       </c>
-    </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T346" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="347" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>323</v>
       </c>
@@ -25813,8 +25846,11 @@
       <c r="S347" t="s">
         <v>1996</v>
       </c>
-    </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T347" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="348" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>187</v>
       </c>
@@ -25857,8 +25893,11 @@
       <c r="S348" t="s">
         <v>2002</v>
       </c>
-    </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T348" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="349" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>187</v>
       </c>
@@ -25901,8 +25940,11 @@
       <c r="S349" t="s">
         <v>2007</v>
       </c>
-    </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T349" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="350" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>187</v>
       </c>
@@ -25945,8 +25987,11 @@
       <c r="S350" t="s">
         <v>2012</v>
       </c>
-    </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T350" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="351" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>187</v>
       </c>
@@ -25989,8 +26034,11 @@
       <c r="S351" t="s">
         <v>2016</v>
       </c>
-    </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T351" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="352" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>187</v>
       </c>
@@ -26032,6 +26080,9 @@
       </c>
       <c r="S352" t="s">
         <v>2020</v>
+      </c>
+      <c r="T352" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="353" spans="1:20" x14ac:dyDescent="0.2">
@@ -26077,6 +26128,9 @@
       <c r="S353" t="s">
         <v>2024</v>
       </c>
+      <c r="T353" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="354" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
@@ -26118,6 +26172,9 @@
       <c r="S354" t="s">
         <v>2028</v>
       </c>
+      <c r="T354" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="355" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
@@ -26158,6 +26215,9 @@
       </c>
       <c r="S355" t="s">
         <v>2034</v>
+      </c>
+      <c r="T355" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="356" spans="1:20" x14ac:dyDescent="0.2">

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AC2797-EFD9-8F45-98CE-89D09C11F91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BC7368-D706-284D-9A84-62855F60C595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="400" windowWidth="35680" windowHeight="20360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9940" uniqueCount="2628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9963" uniqueCount="2630">
   <si>
     <t>datasetID</t>
   </si>
@@ -7918,6 +7918,12 @@
   </si>
   <si>
     <t>MN</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>not english</t>
   </si>
 </sst>
 </file>
@@ -9443,10 +9449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T488"/>
+  <dimension ref="A1:W488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A350" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T355" sqref="T355"/>
+    <sheetView tabSelected="1" topLeftCell="A384" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C399" sqref="C399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26307,6 +26313,9 @@
       <c r="S357" t="s">
         <v>2044</v>
       </c>
+      <c r="T357" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="358" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
@@ -26348,6 +26357,9 @@
       <c r="S358" t="s">
         <v>2047</v>
       </c>
+      <c r="T358" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="359" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
@@ -26386,6 +26398,9 @@
       <c r="S359" t="s">
         <v>2052</v>
       </c>
+      <c r="T359" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="360" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
@@ -26424,6 +26439,9 @@
       <c r="S360" t="s">
         <v>2056</v>
       </c>
+      <c r="T360" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="361" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
@@ -26462,6 +26480,9 @@
       <c r="S361" t="s">
         <v>2059</v>
       </c>
+      <c r="T361" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="362" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
@@ -26500,6 +26521,9 @@
       <c r="S362" t="s">
         <v>2065</v>
       </c>
+      <c r="T362" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="363" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
@@ -26538,6 +26562,9 @@
       <c r="S363" t="s">
         <v>2069</v>
       </c>
+      <c r="T363" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="364" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
@@ -26579,6 +26606,9 @@
       <c r="S364" t="s">
         <v>2072</v>
       </c>
+      <c r="T364" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="365" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
@@ -26620,6 +26650,9 @@
       <c r="S365" t="s">
         <v>2078</v>
       </c>
+      <c r="T365" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="366" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
@@ -26661,6 +26694,9 @@
       <c r="S366" t="s">
         <v>2081</v>
       </c>
+      <c r="T366" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="367" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
@@ -26702,6 +26738,9 @@
       <c r="S367" t="s">
         <v>2086</v>
       </c>
+      <c r="T367" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="368" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
@@ -26743,8 +26782,11 @@
       <c r="S368" t="s">
         <v>2092</v>
       </c>
-    </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T368" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="369" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>187</v>
       </c>
@@ -26781,8 +26823,11 @@
       <c r="S369" t="s">
         <v>2097</v>
       </c>
-    </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T369" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="370" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>187</v>
       </c>
@@ -26819,8 +26864,11 @@
       <c r="S370" t="s">
         <v>2103</v>
       </c>
-    </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T370" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="371" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>187</v>
       </c>
@@ -26860,8 +26908,11 @@
       <c r="S371" t="s">
         <v>2106</v>
       </c>
-    </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T371" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="372" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>187</v>
       </c>
@@ -26901,8 +26952,11 @@
       <c r="S372" t="s">
         <v>2111</v>
       </c>
-    </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T372" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="373" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>187</v>
       </c>
@@ -26942,8 +26996,11 @@
       <c r="S373" t="s">
         <v>2111</v>
       </c>
-    </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T373" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="374" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>187</v>
       </c>
@@ -26983,8 +27040,11 @@
       <c r="S374" t="s">
         <v>2119</v>
       </c>
-    </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T374" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="375" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>187</v>
       </c>
@@ -27027,8 +27087,11 @@
       <c r="S375" t="s">
         <v>2122</v>
       </c>
-    </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T375" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="376" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>187</v>
       </c>
@@ -27062,6 +27125,9 @@
       <c r="K376" t="s">
         <v>188</v>
       </c>
+      <c r="M376" t="s">
+        <v>2628</v>
+      </c>
       <c r="P376" t="s">
         <v>42</v>
       </c>
@@ -27071,8 +27137,15 @@
       <c r="S376" t="s">
         <v>2128</v>
       </c>
-    </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T376" t="s">
+        <v>38</v>
+      </c>
+      <c r="W376">
+        <f>488-376-7</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="377" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>187</v>
       </c>
@@ -27116,7 +27189,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>187</v>
       </c>
@@ -27160,7 +27233,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>187</v>
       </c>
@@ -27204,7 +27277,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>187</v>
       </c>
@@ -27248,7 +27321,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>187</v>
       </c>
@@ -27292,7 +27365,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>187</v>
       </c>
@@ -27336,7 +27409,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>187</v>
       </c>
@@ -27380,7 +27453,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>187</v>
       </c>
@@ -27424,7 +27497,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>187</v>
       </c>
@@ -27468,7 +27541,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>187</v>
       </c>
@@ -27502,6 +27575,9 @@
       <c r="K386" t="s">
         <v>188</v>
       </c>
+      <c r="M386" t="s">
+        <v>2629</v>
+      </c>
       <c r="P386" t="s">
         <v>47</v>
       </c>
@@ -27511,8 +27587,11 @@
       <c r="S386" t="s">
         <v>2179</v>
       </c>
-    </row>
-    <row r="387" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T386" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="387" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="19" t="s">
         <v>187</v>
       </c>
@@ -27559,7 +27638,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>187</v>
       </c>
@@ -27603,7 +27682,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>187</v>
       </c>
@@ -27647,7 +27726,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>187</v>
       </c>
@@ -27691,7 +27770,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>187</v>
       </c>
@@ -27732,7 +27811,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>187</v>
       </c>
@@ -27776,7 +27855,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>323</v>
       </c>
@@ -27817,7 +27896,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>187</v>
       </c>
@@ -27858,7 +27937,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>187</v>
       </c>
@@ -27899,7 +27978,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>187</v>
       </c>
@@ -27940,7 +28019,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>187</v>
       </c>
@@ -27984,7 +28063,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>187</v>
       </c>
@@ -28028,7 +28107,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>187</v>
       </c>
@@ -28069,7 +28148,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>373</v>
       </c>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BC7368-D706-284D-9A84-62855F60C595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD62C40-EF8E-7A41-8EEF-E53F3209E4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9963" uniqueCount="2630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9983" uniqueCount="2630">
   <si>
     <t>datasetID</t>
   </si>
@@ -9451,8 +9451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C399" sqref="C399"/>
+    <sheetView tabSelected="1" topLeftCell="D412" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R416" sqref="R416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27188,6 +27188,9 @@
       <c r="S377" t="s">
         <v>2133</v>
       </c>
+      <c r="T377" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="378" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
@@ -27232,6 +27235,9 @@
       <c r="S378" t="s">
         <v>2138</v>
       </c>
+      <c r="T378" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="379" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
@@ -27276,6 +27282,9 @@
       <c r="S379" t="s">
         <v>2138</v>
       </c>
+      <c r="T379" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="380" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
@@ -27320,6 +27329,9 @@
       <c r="S380" t="s">
         <v>2146</v>
       </c>
+      <c r="T380" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="381" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
@@ -27364,6 +27376,9 @@
       <c r="S381" t="s">
         <v>2152</v>
       </c>
+      <c r="T381" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="382" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
@@ -27408,6 +27423,9 @@
       <c r="S382" t="s">
         <v>2159</v>
       </c>
+      <c r="T382" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="383" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
@@ -27452,6 +27470,9 @@
       <c r="S383" t="s">
         <v>2165</v>
       </c>
+      <c r="T383" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="384" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
@@ -27496,6 +27517,9 @@
       <c r="S384" t="s">
         <v>2172</v>
       </c>
+      <c r="T384" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="385" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
@@ -27540,6 +27564,9 @@
       <c r="S385" t="s">
         <v>2176</v>
       </c>
+      <c r="T385" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="386" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
@@ -27681,6 +27708,9 @@
       <c r="S388" t="s">
         <v>2185</v>
       </c>
+      <c r="T388" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="389" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
@@ -27725,6 +27755,9 @@
       <c r="S389" t="s">
         <v>2189</v>
       </c>
+      <c r="T389" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="390" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
@@ -27769,6 +27802,9 @@
       <c r="S390" t="s">
         <v>2185</v>
       </c>
+      <c r="T390" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="391" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
@@ -27810,6 +27846,9 @@
       <c r="S391" t="s">
         <v>2195</v>
       </c>
+      <c r="T391" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="392" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
@@ -27854,6 +27893,9 @@
       <c r="S392" t="s">
         <v>2200</v>
       </c>
+      <c r="T392" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="393" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
@@ -27895,6 +27937,9 @@
       <c r="S393" t="s">
         <v>2205</v>
       </c>
+      <c r="T393" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="394" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
@@ -27936,6 +27981,9 @@
       <c r="S394" t="s">
         <v>2209</v>
       </c>
+      <c r="T394" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="395" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
@@ -27977,6 +28025,9 @@
       <c r="S395" t="s">
         <v>2211</v>
       </c>
+      <c r="T395" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="396" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
@@ -28018,6 +28069,9 @@
       <c r="S396" t="s">
         <v>2214</v>
       </c>
+      <c r="T396" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="397" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
@@ -28062,6 +28116,9 @@
       <c r="S397" t="s">
         <v>2217</v>
       </c>
+      <c r="T397" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="398" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
@@ -28105,6 +28162,9 @@
       </c>
       <c r="S398" t="s">
         <v>2221</v>
+      </c>
+      <c r="T398" t="s">
+        <v>2627</v>
       </c>
     </row>
     <row r="399" spans="1:20" x14ac:dyDescent="0.2">

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD62C40-EF8E-7A41-8EEF-E53F3209E4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF01D2A8-66AD-4640-977A-1C92994F9867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="560" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9983" uniqueCount="2630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10007" uniqueCount="2631">
   <si>
     <t>datasetID</t>
   </si>
@@ -7924,6 +7924,9 @@
   </si>
   <si>
     <t>not english</t>
+  </si>
+  <si>
+    <t>FB</t>
   </si>
 </sst>
 </file>
@@ -8880,8 +8883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9451,8 +9454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D412" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R416" sqref="R416"/>
+    <sheetView tabSelected="1" topLeftCell="D452" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D427" sqref="A427:XFD427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28207,6 +28210,9 @@
       <c r="S399" t="s">
         <v>2224</v>
       </c>
+      <c r="T399" t="s">
+        <v>2630</v>
+      </c>
     </row>
     <row r="400" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
@@ -28248,8 +28254,11 @@
       <c r="S400" t="s">
         <v>2228</v>
       </c>
-    </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T400" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="401" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>187</v>
       </c>
@@ -28286,8 +28295,11 @@
       <c r="S401" t="s">
         <v>2232</v>
       </c>
-    </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T401" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="402" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>187</v>
       </c>
@@ -28330,8 +28342,11 @@
       <c r="S402" t="s">
         <v>2237</v>
       </c>
-    </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T402" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="403" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>187</v>
       </c>
@@ -28374,8 +28389,11 @@
       <c r="S403" t="s">
         <v>2242</v>
       </c>
-    </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T403" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="404" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>187</v>
       </c>
@@ -28418,8 +28436,11 @@
       <c r="S404" t="s">
         <v>2248</v>
       </c>
-    </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T404" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="405" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>187</v>
       </c>
@@ -28462,8 +28483,11 @@
       <c r="S405" t="s">
         <v>2253</v>
       </c>
-    </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T405" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="406" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>187</v>
       </c>
@@ -28506,8 +28530,11 @@
       <c r="S406" t="s">
         <v>2256</v>
       </c>
-    </row>
-    <row r="407" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T406" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="407" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A407" s="19" t="s">
         <v>187</v>
       </c>
@@ -28554,7 +28581,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>187</v>
       </c>
@@ -28597,8 +28624,11 @@
       <c r="S408" t="s">
         <v>2265</v>
       </c>
-    </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T408" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="409" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>187</v>
       </c>
@@ -28641,8 +28671,11 @@
       <c r="S409" t="s">
         <v>2270</v>
       </c>
-    </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T409" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="410" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>187</v>
       </c>
@@ -28685,8 +28718,11 @@
       <c r="S410" t="s">
         <v>2274</v>
       </c>
-    </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T410" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="411" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>187</v>
       </c>
@@ -28729,8 +28765,11 @@
       <c r="S411" t="s">
         <v>2279</v>
       </c>
-    </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T411" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="412" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>187</v>
       </c>
@@ -28767,8 +28806,11 @@
       <c r="S412" t="s">
         <v>2284</v>
       </c>
-    </row>
-    <row r="413" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T412" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="413" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A413" s="19" t="s">
         <v>187</v>
       </c>
@@ -28812,7 +28854,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="414" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="19" t="s">
         <v>187</v>
       </c>
@@ -28856,7 +28898,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>187</v>
       </c>
@@ -28896,8 +28938,11 @@
       <c r="S415" t="s">
         <v>2279</v>
       </c>
-    </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T415" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="416" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>187</v>
       </c>
@@ -28937,8 +28982,11 @@
       <c r="S416" t="s">
         <v>2290</v>
       </c>
-    </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T416" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="417" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>187</v>
       </c>
@@ -28978,8 +29026,11 @@
       <c r="S417" t="s">
         <v>2309</v>
       </c>
-    </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T417" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="418" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>187</v>
       </c>
@@ -29019,8 +29070,11 @@
       <c r="S418" t="s">
         <v>2309</v>
       </c>
-    </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T418" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="419" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>187</v>
       </c>
@@ -29060,8 +29114,11 @@
       <c r="S419" t="s">
         <v>2317</v>
       </c>
-    </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T419" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="420" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>187</v>
       </c>
@@ -29101,8 +29158,11 @@
       <c r="S420" t="s">
         <v>2321</v>
       </c>
-    </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T420" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="421" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>187</v>
       </c>
@@ -29142,8 +29202,11 @@
       <c r="S421" t="s">
         <v>2326</v>
       </c>
-    </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T421" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="422" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>187</v>
       </c>
@@ -29174,8 +29237,11 @@
       <c r="S422" t="s">
         <v>2331</v>
       </c>
-    </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T422" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="423" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>187</v>
       </c>
@@ -29215,8 +29281,11 @@
       <c r="S423" t="s">
         <v>2334</v>
       </c>
-    </row>
-    <row r="424" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T423" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="424" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="19" t="s">
         <v>187</v>
       </c>
@@ -29263,7 +29332,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="425" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" s="19" t="s">
         <v>187</v>
       </c>
@@ -29307,7 +29376,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>187</v>
       </c>
@@ -29347,8 +29416,11 @@
       <c r="S426" t="s">
         <v>2351</v>
       </c>
-    </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T426" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="427" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>187</v>
       </c>
@@ -29388,8 +29460,11 @@
       <c r="S427" t="s">
         <v>2356</v>
       </c>
-    </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T427" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="428" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>187</v>
       </c>
@@ -29430,7 +29505,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>187</v>
       </c>
@@ -29468,7 +29543,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>187</v>
       </c>
@@ -29509,7 +29584,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>187</v>
       </c>
@@ -29550,7 +29625,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>187</v>
       </c>
@@ -31857,9 +31932,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS267"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M247" sqref="M247"/>
+    <sheetView topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -54407,169 +54482,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A5:O79"/>
+  <dimension ref="A19:O79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J16"/>
+      <selection activeCell="F3" sqref="F3:L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H5">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H6">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H7">
-        <v>76.903000000000006</v>
-      </c>
-      <c r="I7" s="10">
-        <v>82.94</v>
-      </c>
-      <c r="J7">
-        <f>I7-H7</f>
-        <v>6.0369999999999919</v>
-      </c>
-    </row>
-    <row r="8" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H8">
-        <v>87.664000000000001</v>
-      </c>
-      <c r="I8" s="10">
-        <v>90.289000000000001</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ref="J8:J16" si="0">I8-H8</f>
-        <v>2.625</v>
-      </c>
-    </row>
-    <row r="9" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H9">
-        <v>90.551000000000002</v>
-      </c>
-      <c r="I9" s="10">
-        <v>98.162999999999997</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>7.6119999999999948</v>
-      </c>
-    </row>
-    <row r="10" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H10">
-        <v>81.102000000000004</v>
-      </c>
-      <c r="I10" s="10">
-        <v>85.563999999999993</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>4.4619999999999891</v>
-      </c>
-    </row>
-    <row r="11" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H11">
-        <v>89.501000000000005</v>
-      </c>
-      <c r="I11" s="10">
-        <v>95.013000000000005</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>5.5120000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H12">
-        <v>88.713999999999999</v>
-      </c>
-      <c r="I12" s="10">
-        <v>93.438000000000002</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>4.7240000000000038</v>
-      </c>
-    </row>
-    <row r="13" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H13">
-        <v>54.856000000000002</v>
-      </c>
-      <c r="I13" s="10">
-        <v>64.828999999999994</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>9.9729999999999919</v>
-      </c>
-    </row>
-    <row r="14" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H14">
-        <v>43.045000000000002</v>
-      </c>
-      <c r="I14" s="10">
-        <v>45.932000000000002</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>2.8870000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H15">
-        <v>42.781999999999996</v>
-      </c>
-      <c r="I15" s="10">
-        <v>46.194000000000003</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>3.4120000000000061</v>
-      </c>
-    </row>
-    <row r="16" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H16">
-        <v>37.270000000000003</v>
-      </c>
-      <c r="I16" s="10">
-        <v>42.781999999999996</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>5.5119999999999933</v>
-      </c>
-    </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -54580,15 +54506,6 @@
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10">
-        <v>0</v>
-      </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -54599,15 +54516,6 @@
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -54618,15 +54526,6 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10">
-        <v>82.94</v>
-      </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
@@ -54637,15 +54536,6 @@
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10">
-        <v>90.289000000000001</v>
-      </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
@@ -54656,15 +54546,6 @@
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10">
-        <v>98.162999999999997</v>
-      </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -54675,15 +54556,6 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10">
-        <v>85.563999999999993</v>
-      </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
@@ -54694,15 +54566,6 @@
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10">
-        <v>95.013000000000005</v>
-      </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
@@ -54713,15 +54576,6 @@
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10">
-        <v>93.438000000000002</v>
-      </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
@@ -54732,15 +54586,6 @@
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10">
-        <v>64.828999999999994</v>
-      </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
@@ -54751,15 +54596,6 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10">
-        <v>45.932000000000002</v>
-      </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
@@ -54770,15 +54606,6 @@
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10">
-        <v>46.194000000000003</v>
-      </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
@@ -54789,15 +54616,6 @@
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10">
-        <v>42.781999999999996</v>
-      </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
@@ -54808,13 +54626,6 @@
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
@@ -54825,13 +54636,6 @@
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
@@ -54842,13 +54646,6 @@
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
@@ -54859,13 +54656,6 @@
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
@@ -54876,13 +54666,6 @@
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
@@ -54893,13 +54676,6 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -54910,13 +54686,6 @@
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
@@ -54927,13 +54696,6 @@
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF01D2A8-66AD-4640-977A-1C92994F9867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86C2E37-39EB-2843-8A7D-AA500D7E2C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="560" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37560" yWindow="460" windowWidth="36300" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10007" uniqueCount="2631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10017" uniqueCount="2631">
   <si>
     <t>datasetID</t>
   </si>
@@ -9454,8 +9454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D452" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D427" sqref="A427:XFD427"/>
+    <sheetView tabSelected="1" topLeftCell="A434" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V437" sqref="V437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29504,6 +29504,9 @@
       <c r="S428" t="s">
         <v>2361</v>
       </c>
+      <c r="T428" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="429" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
@@ -29542,6 +29545,9 @@
       <c r="S429" t="s">
         <v>2367</v>
       </c>
+      <c r="T429" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="430" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
@@ -29583,6 +29589,9 @@
       <c r="S430" t="s">
         <v>2373</v>
       </c>
+      <c r="T430" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="431" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
@@ -29624,6 +29633,9 @@
       <c r="S431" t="s">
         <v>2379</v>
       </c>
+      <c r="T431" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="432" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
@@ -29665,8 +29677,11 @@
       <c r="S432" t="s">
         <v>2383</v>
       </c>
-    </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T432" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="433" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>2384</v>
       </c>
@@ -29694,8 +29709,11 @@
       <c r="S433" t="s">
         <v>2388</v>
       </c>
-    </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T433" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="434" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>2384</v>
       </c>
@@ -29720,8 +29738,11 @@
       <c r="S434" t="s">
         <v>2391</v>
       </c>
-    </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T434" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="435" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>187</v>
       </c>
@@ -29761,8 +29782,11 @@
       <c r="S435" t="s">
         <v>2396</v>
       </c>
-    </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T435" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="436" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>187</v>
       </c>
@@ -29802,8 +29826,11 @@
       <c r="S436" t="s">
         <v>2400</v>
       </c>
-    </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T436" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="437" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>187</v>
       </c>
@@ -29843,8 +29870,11 @@
       <c r="S437" t="s">
         <v>2406</v>
       </c>
-    </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T437" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="438" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>187</v>
       </c>
@@ -29885,7 +29915,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>187</v>
       </c>
@@ -29929,7 +29959,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>187</v>
       </c>
@@ -29970,7 +30000,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>187</v>
       </c>
@@ -30011,7 +30041,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>187</v>
       </c>
@@ -30052,7 +30082,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>187</v>
       </c>
@@ -30093,7 +30123,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>187</v>
       </c>
@@ -30134,7 +30164,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>187</v>
       </c>
@@ -30175,7 +30205,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>373</v>
       </c>
@@ -30213,7 +30243,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>187</v>
       </c>
@@ -30254,7 +30284,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>187</v>
       </c>

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86C2E37-39EB-2843-8A7D-AA500D7E2C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7102B0A-F815-B045-90D8-281D14FD78A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37560" yWindow="460" windowWidth="36300" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10017" uniqueCount="2631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10030" uniqueCount="2631">
   <si>
     <t>datasetID</t>
   </si>
@@ -9454,8 +9454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V437" sqref="V437"/>
+    <sheetView tabSelected="1" topLeftCell="A424" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T439" sqref="T439:T450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29914,6 +29914,9 @@
       <c r="S438" t="s">
         <v>2406</v>
       </c>
+      <c r="T438" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="439" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
@@ -29958,6 +29961,9 @@
       <c r="S439" t="s">
         <v>2414</v>
       </c>
+      <c r="T439" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="440" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
@@ -29999,6 +30005,9 @@
       <c r="S440" t="s">
         <v>2418</v>
       </c>
+      <c r="T440" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="441" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
@@ -30040,6 +30049,9 @@
       <c r="S441" t="s">
         <v>2418</v>
       </c>
+      <c r="T441" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="442" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
@@ -30081,6 +30093,9 @@
       <c r="S442" t="s">
         <v>2418</v>
       </c>
+      <c r="T442" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="443" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
@@ -30122,6 +30137,9 @@
       <c r="S443" t="s">
         <v>2428</v>
       </c>
+      <c r="T443" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="444" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
@@ -30163,6 +30181,9 @@
       <c r="S444" t="s">
         <v>2431</v>
       </c>
+      <c r="T444" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="445" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
@@ -30204,6 +30225,9 @@
       <c r="S445" t="s">
         <v>2435</v>
       </c>
+      <c r="T445" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="446" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
@@ -30242,6 +30266,9 @@
       <c r="S446" t="s">
         <v>2441</v>
       </c>
+      <c r="T446" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="447" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
@@ -30283,6 +30310,9 @@
       <c r="S447" t="s">
         <v>2445</v>
       </c>
+      <c r="T447" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="448" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
@@ -30324,6 +30354,9 @@
       <c r="S448" t="s">
         <v>2450</v>
       </c>
+      <c r="T448" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="449" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
@@ -30365,6 +30398,9 @@
       <c r="S449" t="s">
         <v>2455</v>
       </c>
+      <c r="T449" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="450" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
@@ -30405,6 +30441,9 @@
       </c>
       <c r="S450" t="s">
         <v>2435</v>
+      </c>
+      <c r="T450" t="s">
+        <v>2627</v>
       </c>
     </row>
     <row r="451" spans="1:20" x14ac:dyDescent="0.2">

--- a/data/oegres.xlsx
+++ b/data/oegres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7102B0A-F815-B045-90D8-281D14FD78A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EA5230-97EF-A24A-B6FD-AD0F6FCF1578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37560" yWindow="460" windowWidth="36300" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37600" yWindow="460" windowWidth="36300" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10030" uniqueCount="2631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10050" uniqueCount="2631">
   <si>
     <t>datasetID</t>
   </si>
@@ -9454,8 +9454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T439" sqref="T439:T450"/>
+    <sheetView tabSelected="1" topLeftCell="A443" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T462" sqref="T462:T471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30530,6 +30530,9 @@
       <c r="S452" t="s">
         <v>2463</v>
       </c>
+      <c r="T452" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="453" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
@@ -30577,6 +30580,9 @@
       <c r="S453" t="s">
         <v>2470</v>
       </c>
+      <c r="T453" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="454" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
@@ -30612,6 +30618,9 @@
       <c r="S454" t="s">
         <v>2474</v>
       </c>
+      <c r="T454" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="455" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
@@ -30653,6 +30662,9 @@
       <c r="S455" t="s">
         <v>2479</v>
       </c>
+      <c r="T455" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="456" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
@@ -30694,6 +30706,9 @@
       <c r="S456" t="s">
         <v>2485</v>
       </c>
+      <c r="T456" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="457" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
@@ -30735,6 +30750,9 @@
       <c r="S457" t="s">
         <v>2488</v>
       </c>
+      <c r="T457" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="458" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
@@ -30776,6 +30794,9 @@
       <c r="S458" t="s">
         <v>2494</v>
       </c>
+      <c r="T458" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="459" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
@@ -30817,6 +30838,9 @@
       <c r="S459" t="s">
         <v>2498</v>
       </c>
+      <c r="T459" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="460" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
@@ -30861,6 +30885,9 @@
       <c r="S460" t="s">
         <v>2503</v>
       </c>
+      <c r="T460" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="461" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
@@ -30902,6 +30929,9 @@
       <c r="S461" t="s">
         <v>2507</v>
       </c>
+      <c r="T461" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="462" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
@@ -30940,6 +30970,9 @@
       <c r="S462" t="s">
         <v>2510</v>
       </c>
+      <c r="T462" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="463" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
@@ -30981,6 +31014,9 @@
       <c r="S463" t="s">
         <v>2514</v>
       </c>
+      <c r="T463" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="464" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
@@ -31022,8 +31058,11 @@
       <c r="S464" t="s">
         <v>2517</v>
       </c>
-    </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T464" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="465" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>187</v>
       </c>
@@ -31063,8 +31102,11 @@
       <c r="S465" t="s">
         <v>2520</v>
       </c>
-    </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T465" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="466" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>187</v>
       </c>
@@ -31104,8 +31146,11 @@
       <c r="S466" t="s">
         <v>2525</v>
       </c>
-    </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T466" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="467" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>187</v>
       </c>
@@ -31145,8 +31190,11 @@
       <c r="S467" t="s">
         <v>2528</v>
       </c>
-    </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T467" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="468" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>187</v>
       </c>
@@ -31186,8 +31234,11 @@
       <c r="S468" t="s">
         <v>2532</v>
       </c>
-    </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T468" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="469" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>187</v>
       </c>
@@ -31224,8 +31275,11 @@
       <c r="S469" t="s">
         <v>2536</v>
       </c>
-    </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T469" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="470" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>187</v>
       </c>
@@ -31265,8 +31319,11 @@
       <c r="S470" t="s">
         <v>2540</v>
       </c>
-    </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T470" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="471" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>187</v>
       </c>
@@ -31306,8 +31363,11 @@
       <c r="S471" t="s">
         <v>2545</v>
       </c>
-    </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T471" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="472" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>187</v>
       </c>
@@ -31348,7 +31408,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>2384</v>
       </c>
@@ -31380,7 +31440,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>187</v>
       </c>
@@ -31421,7 +31481,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>187</v>
       </c>
@@ -31462,7 +31522,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>187</v>
       </c>
@@ -31503,7 +31563,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>187</v>
       </c>
@@ -31547,7 +31607,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>187</v>
       </c>
@@ -31588,7 +31648,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>187</v>
       </c>
@@ -31620,7 +31680,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>187</v>
       </c>
